--- a/doc/chiffrier_sim_vie.xlsx
+++ b/doc/chiffrier_sim_vie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\sim_vie-420-C41-IN-\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC820651-6ADF-4CF2-98E5-A323E1288331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203274B2-E6AE-4AFE-A266-DD096DD4D582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="282">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -1107,6 +1107,121 @@
   <si>
     <t>s'éveiller</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Notes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Pour information supplémentaire</t>
+    </r>
+  </si>
+  <si>
+    <t>Utiliser le IF pour des sections conditionnelles</t>
+  </si>
+  <si>
+    <t>Tâche complète</t>
+  </si>
+  <si>
+    <t>Rôle</t>
+  </si>
+  <si>
+    <t>Changement de température</t>
+  </si>
+  <si>
+    <t>Changement du taux d'humidité</t>
+  </si>
+  <si>
+    <t>usager</t>
+  </si>
+  <si>
+    <t>Ajout de nuages de pression</t>
+  </si>
+  <si>
+    <t>Modification de nuages de pression</t>
+  </si>
+  <si>
+    <t>Changement de rapport nourriture / organisme</t>
+  </si>
+  <si>
+    <t>Changement de rapport terre / eau</t>
+  </si>
+  <si>
+    <t>Changement de la durée des cycles</t>
+  </si>
+  <si>
+    <t>(usager, environnement, organisme)</t>
+  </si>
+  <si>
+    <t>Changement de la taille du monde</t>
+  </si>
+  <si>
+    <t>Faire défiler l'écran (Scroll)</t>
+  </si>
+  <si>
+    <t>Agrandir ou réduire la fenêtre (Zoom in - Zoom out)</t>
+  </si>
+  <si>
+    <t>environnement</t>
+  </si>
+  <si>
+    <t>Déplacement des nuages de pression</t>
+  </si>
+  <si>
+    <t>Génération de nourriture</t>
+  </si>
+  <si>
+    <t>Changement de cycle</t>
+  </si>
+  <si>
+    <t>organisme</t>
+  </si>
+  <si>
+    <t>Manger</t>
+  </si>
+  <si>
+    <t>Boire</t>
+  </si>
+  <si>
+    <t>Déféquer</t>
+  </si>
+  <si>
+    <t>Mourir</t>
+  </si>
+  <si>
+    <t>Donner naissance</t>
+  </si>
+  <si>
+    <t>Se reproduire</t>
+  </si>
+  <si>
+    <t>Se déplacer</t>
+  </si>
+  <si>
+    <t>Se mettre en état de cryptobiose</t>
+  </si>
+  <si>
+    <t>Dormir / Se réveiller</t>
+  </si>
+  <si>
+    <t>Choisir une direction</t>
+  </si>
+  <si>
+    <t>Machine (Organisme)</t>
+  </si>
+  <si>
+    <t>Machine (Environnement)</t>
+  </si>
 </sst>
 </file>
 
@@ -1117,7 +1232,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="166" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1266,6 +1381,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1281,7 +1403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -1940,11 +2062,167 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2247,11 +2525,84 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2290,78 +2641,143 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3059,22 +3475,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="142"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="166"/>
+      <c r="H36" s="166"/>
+      <c r="I36" s="166"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="143"/>
+      <c r="F37" s="166"/>
+      <c r="G37" s="166"/>
+      <c r="H37" s="166"/>
+      <c r="I37" s="166"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
+      <c r="F38" s="166"/>
+      <c r="G38" s="166"/>
+      <c r="H38" s="166"/>
+      <c r="I38" s="166"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="82"/>
@@ -3083,22 +3499,22 @@
       <c r="I39" s="82"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="142"/>
-      <c r="G40" s="143"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="166"/>
+      <c r="H40" s="166"/>
+      <c r="I40" s="166"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="143"/>
-      <c r="G41" s="143"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="143"/>
+      <c r="F41" s="166"/>
+      <c r="G41" s="166"/>
+      <c r="H41" s="166"/>
+      <c r="I41" s="166"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
+      <c r="F42" s="166"/>
+      <c r="G42" s="166"/>
+      <c r="H42" s="166"/>
+      <c r="I42" s="166"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="82"/>
@@ -3113,34 +3529,34 @@
       <c r="I44" s="82"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="142"/>
-      <c r="G45" s="143"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="143"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="166"/>
+      <c r="H45" s="166"/>
+      <c r="I45" s="166"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="143"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="143"/>
+      <c r="F46" s="166"/>
+      <c r="G46" s="166"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="166"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="143"/>
-      <c r="G47" s="143"/>
-      <c r="H47" s="143"/>
-      <c r="I47" s="143"/>
+      <c r="F47" s="166"/>
+      <c r="G47" s="166"/>
+      <c r="H47" s="166"/>
+      <c r="I47" s="166"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="143"/>
-      <c r="G48" s="143"/>
-      <c r="H48" s="143"/>
-      <c r="I48" s="143"/>
+      <c r="F48" s="166"/>
+      <c r="G48" s="166"/>
+      <c r="H48" s="166"/>
+      <c r="I48" s="166"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="143"/>
-      <c r="G49" s="143"/>
-      <c r="H49" s="143"/>
-      <c r="I49" s="143"/>
+      <c r="F49" s="166"/>
+      <c r="G49" s="166"/>
+      <c r="H49" s="166"/>
+      <c r="I49" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3159,7 +3575,7 @@
   </sheetPr>
   <dimension ref="B2:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
@@ -3263,740 +3679,740 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="159"/>
+      <c r="C13" s="142"/>
       <c r="D13" s="15"/>
       <c r="E13" s="25"/>
-      <c r="H13" s="180"/>
+      <c r="H13" s="163"/>
     </row>
     <row r="14" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B14" s="158"/>
-      <c r="C14" s="160" t="s">
+      <c r="B14" s="168"/>
+      <c r="C14" s="143" t="s">
         <v>158</v>
       </c>
-      <c r="D14" s="160" t="s">
+      <c r="D14" s="143" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="160" t="s">
+      <c r="E14" s="143" t="s">
         <v>158</v>
       </c>
-      <c r="H14" s="180"/>
+      <c r="H14" s="163"/>
     </row>
     <row r="15" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B15" s="158"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="162"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="145"/>
     </row>
     <row r="16" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B16" s="158"/>
-      <c r="C16" s="173" t="s">
+      <c r="B16" s="168"/>
+      <c r="C16" s="156" t="s">
         <v>225</v>
       </c>
-      <c r="D16" s="174" t="s">
+      <c r="D16" s="157" t="s">
         <v>163</v>
       </c>
-      <c r="E16" s="162" t="s">
+      <c r="E16" s="145" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="144"/>
-      <c r="C17" s="163" t="s">
+      <c r="B17" s="169"/>
+      <c r="C17" s="146" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="161"/>
-      <c r="E17" s="162"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="144"/>
-      <c r="C18" s="173" t="s">
+      <c r="B18" s="169"/>
+      <c r="C18" s="156" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="161"/>
-      <c r="E18" s="175" t="s">
+      <c r="D18" s="144"/>
+      <c r="E18" s="158" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="144"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="162"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="144"/>
-      <c r="C20" s="160" t="s">
+      <c r="B20" s="169"/>
+      <c r="C20" s="143" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="160" t="s">
+      <c r="D20" s="143" t="s">
         <v>159</v>
       </c>
-      <c r="E20" s="160" t="s">
+      <c r="E20" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="144"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="162"/>
+      <c r="B21" s="169"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="144"/>
-      <c r="C22" s="173" t="s">
+      <c r="B22" s="169"/>
+      <c r="C22" s="156" t="s">
         <v>228</v>
       </c>
-      <c r="D22" s="161" t="s">
+      <c r="D22" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="175" t="s">
+      <c r="E22" s="158" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="144"/>
-      <c r="C23" s="178" t="s">
+      <c r="B23" s="169"/>
+      <c r="C23" s="161" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="179" t="s">
+      <c r="D23" s="162" t="s">
         <v>165</v>
       </c>
-      <c r="E23" s="177" t="s">
+      <c r="E23" s="160" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="144"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="174" t="s">
+      <c r="B24" s="169"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="157" t="s">
         <v>230</v>
       </c>
-      <c r="E24" s="175"/>
+      <c r="E24" s="158"/>
     </row>
     <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="144"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="174" t="s">
+      <c r="B25" s="169"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="E25" s="175"/>
+      <c r="E25" s="158"/>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="144"/>
-      <c r="C26" s="173" t="s">
+      <c r="B26" s="169"/>
+      <c r="C26" s="156" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="161"/>
-      <c r="E26" s="175" t="s">
+      <c r="D26" s="144"/>
+      <c r="E26" s="158" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B27" s="144"/>
-      <c r="C27" s="173" t="s">
+      <c r="B27" s="169"/>
+      <c r="C27" s="156" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="161"/>
-      <c r="E27" s="175" t="s">
+      <c r="D27" s="144"/>
+      <c r="E27" s="158" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="144"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="162"/>
+      <c r="B28" s="169"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="145"/>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="144"/>
-      <c r="C29" s="160" t="s">
+      <c r="B29" s="169"/>
+      <c r="C29" s="143" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="161"/>
-      <c r="E29" s="162"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="145"/>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="144"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="162"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="145"/>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="144"/>
-      <c r="C31" s="173" t="s">
+      <c r="B31" s="169"/>
+      <c r="C31" s="156" t="s">
         <v>173</v>
       </c>
-      <c r="D31" s="174" t="s">
+      <c r="D31" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="E31" s="162"/>
+      <c r="E31" s="145"/>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="144"/>
-      <c r="C32" s="173" t="s">
+      <c r="B32" s="169"/>
+      <c r="C32" s="156" t="s">
         <v>174</v>
       </c>
-      <c r="D32" s="161"/>
-      <c r="E32" s="162"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="145"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="144"/>
-      <c r="C33" s="173" t="s">
+      <c r="B33" s="169"/>
+      <c r="C33" s="156" t="s">
         <v>175</v>
       </c>
-      <c r="D33" s="161"/>
-      <c r="E33" s="162"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="145"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="144"/>
-      <c r="C34" s="173" t="s">
+      <c r="B34" s="169"/>
+      <c r="C34" s="156" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="161"/>
-      <c r="E34" s="162"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="145"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="144"/>
-      <c r="C35" s="173" t="s">
+      <c r="B35" s="169"/>
+      <c r="C35" s="156" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="161"/>
-      <c r="E35" s="162"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="145"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="144"/>
-      <c r="C36" s="173"/>
-      <c r="D36" s="174"/>
-      <c r="E36" s="162"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="145"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="144"/>
-      <c r="C37" s="173" t="s">
+      <c r="B37" s="169"/>
+      <c r="C37" s="156" t="s">
         <v>231</v>
       </c>
-      <c r="D37" s="161"/>
-      <c r="E37" s="162"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="145"/>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="144"/>
-      <c r="C38" s="173" t="s">
+      <c r="B38" s="169"/>
+      <c r="C38" s="156" t="s">
         <v>181</v>
       </c>
-      <c r="D38" s="161"/>
-      <c r="E38" s="162"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="145"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="144"/>
-      <c r="C39" s="173" t="s">
+      <c r="B39" s="169"/>
+      <c r="C39" s="156" t="s">
         <v>179</v>
       </c>
-      <c r="D39" s="161"/>
-      <c r="E39" s="175" t="s">
+      <c r="D39" s="144"/>
+      <c r="E39" s="158" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="144"/>
-      <c r="C40" s="173"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="162"/>
+      <c r="B40" s="169"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="145"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="144"/>
-      <c r="C41" s="160" t="s">
+      <c r="B41" s="169"/>
+      <c r="C41" s="143" t="s">
         <v>182</v>
       </c>
-      <c r="D41" s="161"/>
-      <c r="E41" s="162"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="145"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="144"/>
-      <c r="C42" s="173"/>
-      <c r="D42" s="161"/>
-      <c r="E42" s="162"/>
+      <c r="B42" s="169"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="145"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="144"/>
-      <c r="C43" s="173" t="s">
+      <c r="B43" s="169"/>
+      <c r="C43" s="156" t="s">
         <v>183</v>
       </c>
-      <c r="D43" s="161"/>
-      <c r="E43" s="162"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="145"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="144"/>
-      <c r="C44" s="173" t="s">
+      <c r="B44" s="169"/>
+      <c r="C44" s="156" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="176" t="s">
+      <c r="D44" s="159" t="s">
         <v>184</v>
       </c>
-      <c r="E44" s="162"/>
+      <c r="E44" s="145"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="144"/>
-      <c r="C45" s="173" t="s">
+      <c r="B45" s="169"/>
+      <c r="C45" s="156" t="s">
         <v>185</v>
       </c>
-      <c r="D45" s="176" t="s">
+      <c r="D45" s="159" t="s">
         <v>186</v>
       </c>
-      <c r="E45" s="162"/>
+      <c r="E45" s="145"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="144"/>
-      <c r="C46" s="173" t="s">
+      <c r="B46" s="169"/>
+      <c r="C46" s="156" t="s">
         <v>187</v>
       </c>
-      <c r="D46" s="176" t="s">
+      <c r="D46" s="159" t="s">
         <v>188</v>
       </c>
-      <c r="E46" s="162"/>
+      <c r="E46" s="145"/>
     </row>
     <row r="47" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B47" s="144"/>
-      <c r="C47" s="173" t="s">
+      <c r="B47" s="169"/>
+      <c r="C47" s="156" t="s">
         <v>189</v>
       </c>
-      <c r="D47" s="161"/>
-      <c r="E47" s="177" t="s">
+      <c r="D47" s="144"/>
+      <c r="E47" s="160" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B48" s="144"/>
-      <c r="C48" s="178" t="s">
+      <c r="B48" s="169"/>
+      <c r="C48" s="161" t="s">
         <v>191</v>
       </c>
-      <c r="D48" s="161"/>
-      <c r="E48" s="162"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="145"/>
     </row>
     <row r="49" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B49" s="144"/>
-      <c r="C49" s="178" t="s">
+      <c r="B49" s="169"/>
+      <c r="C49" s="161" t="s">
         <v>192</v>
       </c>
-      <c r="D49" s="161"/>
-      <c r="E49" s="162"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="145"/>
     </row>
     <row r="50" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B50" s="144"/>
-      <c r="C50" s="173"/>
-      <c r="D50" s="161"/>
-      <c r="E50" s="162"/>
+      <c r="B50" s="169"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="145"/>
     </row>
     <row r="51" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B51" s="144"/>
-      <c r="C51" s="160" t="s">
+      <c r="B51" s="169"/>
+      <c r="C51" s="143" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="161"/>
-      <c r="E51" s="162"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="145"/>
     </row>
     <row r="52" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B52" s="144"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="161"/>
-      <c r="E52" s="162"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="145"/>
     </row>
     <row r="53" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B53" s="144"/>
-      <c r="C53" s="173" t="s">
+      <c r="B53" s="169"/>
+      <c r="C53" s="156" t="s">
         <v>194</v>
       </c>
-      <c r="D53" s="161"/>
-      <c r="E53" s="177" t="s">
+      <c r="D53" s="144"/>
+      <c r="E53" s="160" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B54" s="144"/>
-      <c r="C54" s="173" t="s">
+      <c r="B54" s="169"/>
+      <c r="C54" s="156" t="s">
         <v>196</v>
       </c>
-      <c r="D54" s="161"/>
-      <c r="E54" s="162"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="145"/>
     </row>
     <row r="55" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B55" s="144"/>
-      <c r="C55" s="173" t="s">
+      <c r="B55" s="169"/>
+      <c r="C55" s="156" t="s">
         <v>197</v>
       </c>
-      <c r="D55" s="161"/>
-      <c r="E55" s="162"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="145"/>
     </row>
     <row r="56" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B56" s="144"/>
-      <c r="C56" s="173" t="s">
+      <c r="B56" s="169"/>
+      <c r="C56" s="156" t="s">
         <v>198</v>
       </c>
-      <c r="D56" s="161"/>
-      <c r="E56" s="162"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="145"/>
     </row>
     <row r="57" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B57" s="144"/>
-      <c r="C57" s="173" t="s">
+      <c r="B57" s="169"/>
+      <c r="C57" s="156" t="s">
         <v>199</v>
       </c>
-      <c r="D57" s="161"/>
-      <c r="E57" s="162"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="145"/>
     </row>
     <row r="58" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B58" s="144"/>
-      <c r="C58" s="173" t="s">
+      <c r="B58" s="169"/>
+      <c r="C58" s="156" t="s">
         <v>200</v>
       </c>
-      <c r="D58" s="174" t="s">
+      <c r="D58" s="157" t="s">
         <v>201</v>
       </c>
-      <c r="E58" s="162"/>
+      <c r="E58" s="145"/>
     </row>
     <row r="59" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B59" s="144"/>
-      <c r="C59" s="173" t="s">
+      <c r="B59" s="169"/>
+      <c r="C59" s="156" t="s">
         <v>192</v>
       </c>
-      <c r="D59" s="176" t="s">
+      <c r="D59" s="159" t="s">
         <v>202</v>
       </c>
-      <c r="E59" s="162"/>
+      <c r="E59" s="145"/>
     </row>
     <row r="60" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B60" s="144"/>
-      <c r="C60" s="173" t="s">
+      <c r="B60" s="169"/>
+      <c r="C60" s="156" t="s">
         <v>203</v>
       </c>
-      <c r="D60" s="161"/>
-      <c r="E60" s="162"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="145"/>
     </row>
     <row r="61" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B61" s="144"/>
-      <c r="C61" s="173" t="s">
+      <c r="B61" s="169"/>
+      <c r="C61" s="156" t="s">
         <v>204</v>
       </c>
-      <c r="D61" s="161"/>
-      <c r="E61" s="177" t="s">
+      <c r="D61" s="144"/>
+      <c r="E61" s="160" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B62" s="144"/>
-      <c r="C62" s="173" t="s">
+      <c r="B62" s="169"/>
+      <c r="C62" s="156" t="s">
         <v>206</v>
       </c>
-      <c r="D62" s="161"/>
-      <c r="E62" s="162"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="145"/>
     </row>
     <row r="63" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B63" s="144"/>
-      <c r="C63" s="173"/>
-      <c r="D63" s="161"/>
-      <c r="E63" s="162"/>
+      <c r="B63" s="169"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="144"/>
+      <c r="E63" s="145"/>
     </row>
     <row r="64" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B64" s="144"/>
-      <c r="C64" s="160" t="s">
+      <c r="B64" s="169"/>
+      <c r="C64" s="143" t="s">
         <v>207</v>
       </c>
-      <c r="D64" s="161"/>
-      <c r="E64" s="162"/>
+      <c r="D64" s="144"/>
+      <c r="E64" s="145"/>
     </row>
     <row r="65" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B65" s="144"/>
-      <c r="C65" s="173"/>
-      <c r="D65" s="161"/>
-      <c r="E65" s="162"/>
+      <c r="B65" s="169"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="144"/>
+      <c r="E65" s="145"/>
     </row>
     <row r="66" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B66" s="144"/>
-      <c r="C66" s="173" t="s">
+      <c r="B66" s="169"/>
+      <c r="C66" s="156" t="s">
         <v>209</v>
       </c>
-      <c r="D66" s="161"/>
-      <c r="E66" s="162"/>
+      <c r="D66" s="144"/>
+      <c r="E66" s="145"/>
     </row>
     <row r="67" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B67" s="144"/>
-      <c r="C67" s="173" t="s">
+      <c r="B67" s="169"/>
+      <c r="C67" s="156" t="s">
         <v>210</v>
       </c>
-      <c r="D67" s="161"/>
-      <c r="E67" s="162"/>
+      <c r="D67" s="144"/>
+      <c r="E67" s="145"/>
     </row>
     <row r="68" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B68" s="144"/>
-      <c r="C68" s="173" t="s">
+      <c r="B68" s="169"/>
+      <c r="C68" s="156" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="161"/>
-      <c r="E68" s="162"/>
+      <c r="D68" s="144"/>
+      <c r="E68" s="145"/>
     </row>
     <row r="69" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B69" s="144"/>
-      <c r="C69" s="173" t="s">
+      <c r="B69" s="169"/>
+      <c r="C69" s="156" t="s">
         <v>211</v>
       </c>
-      <c r="D69" s="161"/>
-      <c r="E69" s="162"/>
+      <c r="D69" s="144"/>
+      <c r="E69" s="145"/>
     </row>
     <row r="70" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B70" s="144"/>
-      <c r="C70" s="173"/>
-      <c r="D70" s="161"/>
-      <c r="E70" s="162"/>
+      <c r="B70" s="169"/>
+      <c r="C70" s="156"/>
+      <c r="D70" s="144"/>
+      <c r="E70" s="145"/>
     </row>
     <row r="71" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B71" s="144"/>
-      <c r="C71" s="173"/>
-      <c r="D71" s="161"/>
-      <c r="E71" s="162"/>
+      <c r="B71" s="169"/>
+      <c r="C71" s="156"/>
+      <c r="D71" s="144"/>
+      <c r="E71" s="145"/>
     </row>
     <row r="72" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B72" s="145"/>
-      <c r="C72" s="164"/>
-      <c r="D72" s="165"/>
-      <c r="E72" s="166"/>
+      <c r="B72" s="170"/>
+      <c r="C72" s="147"/>
+      <c r="D72" s="148"/>
+      <c r="E72" s="149"/>
     </row>
     <row r="73" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B73" s="157" t="s">
+      <c r="B73" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="173"/>
-      <c r="D73" s="181" t="s">
+      <c r="C73" s="156"/>
+      <c r="D73" s="164" t="s">
         <v>228</v>
       </c>
-      <c r="E73" s="181" t="s">
+      <c r="E73" s="164" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B74" s="144"/>
-      <c r="C74" s="173" t="s">
+      <c r="B74" s="169"/>
+      <c r="C74" s="156" t="s">
         <v>242</v>
       </c>
-      <c r="D74" s="174" t="s">
+      <c r="D74" s="157" t="s">
         <v>215</v>
       </c>
-      <c r="E74" s="175" t="s">
+      <c r="E74" s="158" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B75" s="144"/>
-      <c r="C75" s="163"/>
-      <c r="D75" s="174" t="s">
+      <c r="B75" s="169"/>
+      <c r="C75" s="146"/>
+      <c r="D75" s="157" t="s">
         <v>216</v>
       </c>
-      <c r="E75" s="175" t="s">
+      <c r="E75" s="158" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B76" s="144"/>
-      <c r="C76" s="163"/>
-      <c r="D76" s="161" t="s">
+      <c r="B76" s="169"/>
+      <c r="C76" s="146"/>
+      <c r="D76" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="E76" s="175" t="s">
+      <c r="E76" s="158" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B77" s="144"/>
-      <c r="C77" s="163"/>
-      <c r="D77" s="161" t="s">
+      <c r="B77" s="169"/>
+      <c r="C77" s="146"/>
+      <c r="D77" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="E77" s="175" t="s">
+      <c r="E77" s="158" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B78" s="144"/>
-      <c r="C78" s="163"/>
-      <c r="D78" s="174" t="s">
+      <c r="B78" s="169"/>
+      <c r="C78" s="146"/>
+      <c r="D78" s="157" t="s">
         <v>160</v>
       </c>
-      <c r="E78" s="175" t="s">
+      <c r="E78" s="158" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B79" s="144"/>
-      <c r="C79" s="163"/>
-      <c r="D79" s="174" t="s">
+      <c r="B79" s="169"/>
+      <c r="C79" s="146"/>
+      <c r="D79" s="157" t="s">
         <v>233</v>
       </c>
-      <c r="E79" s="175" t="s">
+      <c r="E79" s="158" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B80" s="144"/>
-      <c r="C80" s="163"/>
-      <c r="D80" s="174" t="s">
+      <c r="B80" s="169"/>
+      <c r="C80" s="146"/>
+      <c r="D80" s="157" t="s">
         <v>212</v>
       </c>
-      <c r="E80" s="175" t="s">
+      <c r="E80" s="158" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B81" s="144"/>
-      <c r="C81" s="163"/>
-      <c r="D81" s="174" t="s">
+      <c r="B81" s="169"/>
+      <c r="C81" s="146"/>
+      <c r="D81" s="157" t="s">
         <v>213</v>
       </c>
-      <c r="E81" s="175" t="s">
+      <c r="E81" s="158" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B82" s="144"/>
-      <c r="C82" s="163"/>
-      <c r="D82" s="174" t="s">
+      <c r="B82" s="169"/>
+      <c r="C82" s="146"/>
+      <c r="D82" s="157" t="s">
         <v>214</v>
       </c>
-      <c r="E82" s="175" t="s">
+      <c r="E82" s="158" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B83" s="144"/>
-      <c r="C83" s="173"/>
-      <c r="D83" s="174" t="s">
+      <c r="B83" s="169"/>
+      <c r="C83" s="156"/>
+      <c r="D83" s="157" t="s">
         <v>234</v>
       </c>
-      <c r="E83" s="175" t="s">
+      <c r="E83" s="158" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B84" s="144"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="174" t="s">
+      <c r="B84" s="169"/>
+      <c r="C84" s="156"/>
+      <c r="D84" s="157" t="s">
         <v>235</v>
       </c>
-      <c r="E84" s="175" t="s">
+      <c r="E84" s="158" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B85" s="144"/>
-      <c r="C85" s="163"/>
-      <c r="D85" s="174" t="s">
+      <c r="B85" s="169"/>
+      <c r="C85" s="146"/>
+      <c r="D85" s="157" t="s">
         <v>236</v>
       </c>
-      <c r="E85" s="175" t="s">
+      <c r="E85" s="158" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B86" s="144"/>
-      <c r="C86" s="163"/>
-      <c r="D86" s="174" t="s">
+      <c r="B86" s="169"/>
+      <c r="C86" s="146"/>
+      <c r="D86" s="157" t="s">
         <v>238</v>
       </c>
-      <c r="E86" s="175" t="s">
+      <c r="E86" s="158" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B87" s="144"/>
-      <c r="C87" s="163"/>
-      <c r="D87" s="174" t="s">
+      <c r="B87" s="169"/>
+      <c r="C87" s="146"/>
+      <c r="D87" s="157" t="s">
         <v>247</v>
       </c>
-      <c r="E87" s="175" t="s">
+      <c r="E87" s="158" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B88" s="144"/>
-      <c r="C88" s="163"/>
-      <c r="D88" s="174" t="s">
+      <c r="B88" s="169"/>
+      <c r="C88" s="146"/>
+      <c r="D88" s="157" t="s">
         <v>248</v>
       </c>
-      <c r="E88" s="175" t="s">
+      <c r="E88" s="158" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B89" s="145"/>
-      <c r="C89" s="164"/>
-      <c r="D89" s="165"/>
-      <c r="E89" s="166"/>
+      <c r="B89" s="170"/>
+      <c r="C89" s="147"/>
+      <c r="D89" s="148"/>
+      <c r="E89" s="149"/>
     </row>
     <row r="90" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B90" s="157" t="s">
+      <c r="B90" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="C90" s="167"/>
-      <c r="D90" s="168"/>
-      <c r="E90" s="169"/>
+      <c r="C90" s="150"/>
+      <c r="D90" s="151"/>
+      <c r="E90" s="152"/>
     </row>
     <row r="91" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B91" s="144"/>
-      <c r="C91" s="173" t="s">
+      <c r="B91" s="169"/>
+      <c r="C91" s="156" t="s">
         <v>243</v>
       </c>
-      <c r="D91" s="174"/>
-      <c r="E91" s="162"/>
+      <c r="D91" s="157"/>
+      <c r="E91" s="145"/>
     </row>
     <row r="92" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B92" s="144"/>
-      <c r="C92" s="173" t="s">
+      <c r="B92" s="169"/>
+      <c r="C92" s="156" t="s">
         <v>244</v>
       </c>
-      <c r="D92" s="161"/>
-      <c r="E92" s="162"/>
+      <c r="D92" s="144"/>
+      <c r="E92" s="145"/>
     </row>
     <row r="93" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B93" s="144"/>
-      <c r="C93" s="163" t="s">
+      <c r="B93" s="169"/>
+      <c r="C93" s="146" t="s">
         <v>245</v>
       </c>
-      <c r="D93" s="161"/>
-      <c r="E93" s="162"/>
+      <c r="D93" s="144"/>
+      <c r="E93" s="145"/>
     </row>
     <row r="94" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B94" s="144"/>
-      <c r="C94" s="163"/>
-      <c r="D94" s="161"/>
-      <c r="E94" s="162"/>
+      <c r="B94" s="169"/>
+      <c r="C94" s="146"/>
+      <c r="D94" s="144"/>
+      <c r="E94" s="145"/>
     </row>
     <row r="95" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B95" s="144"/>
-      <c r="C95" s="163"/>
-      <c r="D95" s="161"/>
-      <c r="E95" s="162"/>
+      <c r="B95" s="169"/>
+      <c r="C95" s="146"/>
+      <c r="D95" s="144"/>
+      <c r="E95" s="145"/>
     </row>
     <row r="96" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B96" s="144"/>
-      <c r="C96" s="163"/>
-      <c r="D96" s="161"/>
-      <c r="E96" s="162"/>
+      <c r="B96" s="169"/>
+      <c r="C96" s="146"/>
+      <c r="D96" s="144"/>
+      <c r="E96" s="145"/>
     </row>
     <row r="97" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B97" s="144"/>
-      <c r="C97" s="163"/>
-      <c r="D97" s="161"/>
-      <c r="E97" s="162"/>
+      <c r="B97" s="169"/>
+      <c r="C97" s="146"/>
+      <c r="D97" s="144"/>
+      <c r="E97" s="145"/>
     </row>
     <row r="98" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B98" s="144"/>
-      <c r="C98" s="163"/>
-      <c r="D98" s="161"/>
-      <c r="E98" s="162"/>
+      <c r="B98" s="169"/>
+      <c r="C98" s="146"/>
+      <c r="D98" s="144"/>
+      <c r="E98" s="145"/>
     </row>
     <row r="99" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B99" s="145"/>
-      <c r="C99" s="170"/>
-      <c r="D99" s="171"/>
-      <c r="E99" s="172"/>
+      <c r="B99" s="170"/>
+      <c r="C99" s="153"/>
+      <c r="D99" s="154"/>
+      <c r="E99" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4016,8 +4432,8 @@
   </sheetPr>
   <dimension ref="B2:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4047,26 +4463,26 @@
     </row>
     <row r="3" spans="2:9" ht="56.25" customHeight="1">
       <c r="B3" s="80"/>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
     </row>
     <row r="4" spans="2:9" ht="30.75" customHeight="1">
       <c r="B4" s="81"/>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
       <c r="I4" s="81"/>
     </row>
     <row r="5" spans="2:9" ht="21" customHeight="1">
@@ -4265,246 +4681,716 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:I28"/>
+  <dimension ref="B1:G88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="44.42578125" customWidth="1"/>
-    <col min="8" max="8" width="49.5703125" customWidth="1"/>
-    <col min="9" max="9" width="46.140625" customWidth="1"/>
-    <col min="10" max="11" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="225" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+    <col min="5" max="6" width="49.5703125" customWidth="1"/>
+    <col min="7" max="7" width="49.28515625" customWidth="1"/>
+    <col min="8" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B2" s="80"/>
-      <c r="C2" s="18" t="s">
+    <row r="1" spans="2:7" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B2" s="226"/>
+      <c r="C2" s="182" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
       <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-    </row>
-    <row r="3" spans="2:9" ht="56.25" customHeight="1">
-      <c r="B3" s="80"/>
-      <c r="C3" s="146" t="s">
+    </row>
+    <row r="3" spans="2:7" s="189" customFormat="1" ht="56.25" customHeight="1">
+      <c r="B3" s="227"/>
+      <c r="C3" s="186" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-    </row>
-    <row r="4" spans="2:9" ht="30.75" customHeight="1">
-      <c r="B4" s="81"/>
-      <c r="C4" s="147" t="s">
+      <c r="D3" s="187"/>
+      <c r="E3" s="188"/>
+      <c r="G3" s="185"/>
+    </row>
+    <row r="4" spans="2:7" s="189" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B4" s="227"/>
+      <c r="C4" s="190" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="81"/>
-    </row>
-    <row r="5" spans="2:9" ht="21" customHeight="1">
-      <c r="B5" s="80"/>
-      <c r="C5" s="16" t="s">
+      <c r="D4" s="187"/>
+      <c r="E4" s="188"/>
+    </row>
+    <row r="5" spans="2:7" ht="21" customHeight="1">
+      <c r="B5" s="226"/>
+      <c r="C5" s="191" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-    </row>
-    <row r="6" spans="2:9" ht="21" customHeight="1">
-      <c r="B6" s="81"/>
-      <c r="C6" s="17" t="s">
+      <c r="D5" s="80"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+    </row>
+    <row r="6" spans="2:7" ht="21" customHeight="1" thickBot="1">
+      <c r="B6" s="228"/>
+      <c r="C6" s="193" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="81"/>
-    </row>
-    <row r="7" spans="2:9" ht="18" customHeight="1">
-      <c r="B7" s="81"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+    </row>
+    <row r="7" spans="2:7" ht="18" customHeight="1">
+      <c r="B7" s="228"/>
       <c r="C7" s="82"/>
       <c r="D7" s="82"/>
       <c r="E7" s="82"/>
       <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="81"/>
-    </row>
-    <row r="8" spans="2:9" ht="18" customHeight="1">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B9" s="19" t="s">
+    </row>
+    <row r="8" spans="2:7" ht="18" customHeight="1">
+      <c r="B8" s="228"/>
+      <c r="C8" s="196" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+    </row>
+    <row r="9" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B9" s="228"/>
+      <c r="C9" s="197" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="198"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+    </row>
+    <row r="10" spans="2:7" ht="18" customHeight="1">
+      <c r="B10" s="18"/>
+      <c r="C10" s="199" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="200"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+    </row>
+    <row r="11" spans="2:7" ht="18" customHeight="1" thickBot="1">
+      <c r="B11" s="18"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+    </row>
+    <row r="12" spans="2:7" ht="18" customHeight="1">
+      <c r="B12" s="201" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19" t="s">
+      <c r="C12" s="202" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" s="203" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="E12" s="204" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="2:9" ht="18" customHeight="1">
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-    </row>
-    <row r="11" spans="2:9" ht="18" customHeight="1">
-      <c r="B11" s="13" t="s">
+      <c r="F12" s="204" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="18" customHeight="1">
+      <c r="B13" s="222" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="219"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="221"/>
+      <c r="F13" s="221"/>
+    </row>
+    <row r="14" spans="2:7" ht="48" thickBot="1">
+      <c r="B14" s="223" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="137" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="138" t="s">
+      <c r="D14" s="81"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="206"/>
+      <c r="G14" s="81"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B15" s="229"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="209" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="139" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="18" customHeight="1">
-      <c r="B12" s="81"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="18" customHeight="1">
-      <c r="B13" s="81"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="15.75" customHeight="1">
-      <c r="G14" s="106"/>
-      <c r="H14" s="107"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" customHeight="1">
-      <c r="G15" s="106"/>
-      <c r="H15" s="107"/>
-    </row>
-    <row r="16" spans="2:9" ht="15.75" customHeight="1">
-      <c r="G16" s="106"/>
-      <c r="H16" s="107"/>
-    </row>
-    <row r="17" spans="7:8" ht="15.75" customHeight="1">
-      <c r="G17" s="106"/>
-      <c r="H17" s="107"/>
-    </row>
-    <row r="18" spans="7:8" ht="15.75" customHeight="1">
-      <c r="G18" s="106"/>
-      <c r="H18" s="107"/>
-    </row>
-    <row r="19" spans="7:8" ht="15.75" customHeight="1">
-      <c r="G19" s="106"/>
-      <c r="H19" s="107"/>
-    </row>
-    <row r="20" spans="7:8" ht="15.75" customHeight="1">
-      <c r="G20" s="106"/>
-      <c r="H20" s="107"/>
-    </row>
-    <row r="21" spans="7:8" ht="15.75" customHeight="1">
-      <c r="G21" s="106"/>
-      <c r="H21" s="107"/>
-    </row>
-    <row r="22" spans="7:8" ht="15.75" customHeight="1">
-      <c r="G22" s="106"/>
-      <c r="H22" s="107"/>
-    </row>
-    <row r="23" spans="7:8" ht="15.75" customHeight="1">
-      <c r="G23" s="106"/>
-      <c r="H23" s="107"/>
-    </row>
-    <row r="24" spans="7:8" ht="15.75" customHeight="1">
-      <c r="G24" s="106"/>
-      <c r="H24" s="107"/>
-    </row>
-    <row r="25" spans="7:8" ht="15.75" customHeight="1">
-      <c r="G25" s="106"/>
-      <c r="H25" s="107"/>
-    </row>
-    <row r="26" spans="7:8" ht="15.75" customHeight="1">
-      <c r="G26" s="106"/>
-      <c r="H26" s="107"/>
-    </row>
-    <row r="27" spans="7:8" ht="15.75" customHeight="1">
-      <c r="G27" s="106"/>
-      <c r="H27" s="107"/>
-    </row>
-    <row r="28" spans="7:8" ht="18" customHeight="1">
-      <c r="G28" s="114" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="110"/>
+      <c r="E15" s="233" t="s">
+        <v>280</v>
+      </c>
+      <c r="F15" s="233" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B16" s="230" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="224" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="211"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B17" s="229"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="212"/>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B18" s="230" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="224" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="214"/>
+      <c r="E18" s="215"/>
+      <c r="F18" s="215"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B19" s="229"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="215"/>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B20" s="230" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="224" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="214"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B21" s="229"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="215"/>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B22" s="230" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="224" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="214"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="215"/>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B23" s="229"/>
+      <c r="C23" s="207"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="215"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B24" s="230" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="224" t="s">
+        <v>258</v>
+      </c>
+      <c r="D24" s="214"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="215"/>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B25" s="229"/>
+      <c r="C25" s="207"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="215"/>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B26" s="230" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="224" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" s="214"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="215"/>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B27" s="229"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="215"/>
+    </row>
+    <row r="28" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B28" s="230" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="224" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" s="214"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="215"/>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B29" s="229"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="214"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="215"/>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B30" s="230" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="224" t="s">
+        <v>262</v>
+      </c>
+      <c r="D30" s="214"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="215"/>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B31" s="229"/>
+      <c r="C31" s="207"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="215"/>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B32" s="230" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="224" t="s">
+        <v>263</v>
+      </c>
+      <c r="D32" s="214"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="215"/>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B33" s="229"/>
+      <c r="C33" s="207"/>
+      <c r="D33" s="214"/>
+      <c r="E33" s="215"/>
+      <c r="F33" s="215"/>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B34" s="230" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="224" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="214"/>
+      <c r="E34" s="215"/>
+      <c r="F34" s="215"/>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B35" s="229"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="214"/>
+      <c r="E35" s="215"/>
+      <c r="F35" s="215"/>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B36" s="230" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="224" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="214"/>
+      <c r="E36" s="215"/>
+      <c r="F36" s="215"/>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B37" s="229"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="214"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="215"/>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B38" s="230" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="224" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" s="214"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="215"/>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B39" s="229"/>
+      <c r="C39" s="207"/>
+      <c r="D39" s="214"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="215"/>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B40" s="230" t="s">
+        <v>265</v>
+      </c>
+      <c r="C40" s="224" t="s">
+        <v>268</v>
+      </c>
+      <c r="D40" s="214"/>
+      <c r="E40" s="215"/>
+      <c r="F40" s="215"/>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B41" s="229"/>
+      <c r="C41" s="207"/>
+      <c r="D41" s="214"/>
+      <c r="E41" s="215"/>
+      <c r="F41" s="215"/>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B42" s="230" t="s">
+        <v>269</v>
+      </c>
+      <c r="C42" s="224" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" s="214"/>
+      <c r="E42" s="215"/>
+      <c r="F42" s="215"/>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B43" s="229"/>
+      <c r="C43" s="207"/>
+      <c r="D43" s="214"/>
+      <c r="E43" s="215"/>
+      <c r="F43" s="215"/>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B44" s="230" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" s="224" t="s">
+        <v>271</v>
+      </c>
+      <c r="D44" s="214"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="215"/>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B45" s="229"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="215"/>
+      <c r="F45" s="215"/>
+    </row>
+    <row r="46" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B46" s="230" t="s">
+        <v>269</v>
+      </c>
+      <c r="C46" s="224" t="s">
+        <v>272</v>
+      </c>
+      <c r="D46" s="214"/>
+      <c r="E46" s="215"/>
+      <c r="F46" s="215"/>
+    </row>
+    <row r="47" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B47" s="229"/>
+      <c r="C47" s="207"/>
+      <c r="D47" s="214"/>
+      <c r="E47" s="215"/>
+      <c r="F47" s="215"/>
+    </row>
+    <row r="48" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B48" s="230" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" s="224" t="s">
+        <v>273</v>
+      </c>
+      <c r="D48" s="214"/>
+      <c r="E48" s="215"/>
+      <c r="F48" s="215"/>
+    </row>
+    <row r="49" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B49" s="229"/>
+      <c r="C49" s="207"/>
+      <c r="D49" s="214"/>
+      <c r="E49" s="215"/>
+      <c r="F49" s="215"/>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B50" s="230" t="s">
+        <v>269</v>
+      </c>
+      <c r="C50" s="224" t="s">
+        <v>274</v>
+      </c>
+      <c r="D50" s="214"/>
+      <c r="E50" s="215"/>
+      <c r="F50" s="215"/>
+    </row>
+    <row r="51" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B51" s="229"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="214"/>
+      <c r="E51" s="215"/>
+      <c r="F51" s="215"/>
+    </row>
+    <row r="52" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B52" s="230" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="224" t="s">
+        <v>275</v>
+      </c>
+      <c r="D52" s="214"/>
+      <c r="E52" s="215"/>
+      <c r="F52" s="215"/>
+    </row>
+    <row r="53" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B53" s="229"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="214"/>
+      <c r="E53" s="215"/>
+      <c r="F53" s="215"/>
+    </row>
+    <row r="54" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B54" s="230" t="s">
+        <v>269</v>
+      </c>
+      <c r="C54" s="224" t="s">
+        <v>278</v>
+      </c>
+      <c r="D54" s="214"/>
+      <c r="E54" s="215"/>
+      <c r="F54" s="215"/>
+    </row>
+    <row r="55" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B55" s="229"/>
+      <c r="C55" s="207"/>
+      <c r="D55" s="214"/>
+      <c r="E55" s="215"/>
+      <c r="F55" s="215"/>
+    </row>
+    <row r="56" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B56" s="230" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="224" t="s">
+        <v>276</v>
+      </c>
+      <c r="D56" s="214"/>
+      <c r="E56" s="215"/>
+      <c r="F56" s="215"/>
+    </row>
+    <row r="57" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B57" s="229"/>
+      <c r="C57" s="207"/>
+      <c r="D57" s="214"/>
+      <c r="E57" s="215"/>
+      <c r="F57" s="215"/>
+    </row>
+    <row r="58" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B58" s="230" t="s">
+        <v>269</v>
+      </c>
+      <c r="C58" s="224" t="s">
+        <v>277</v>
+      </c>
+      <c r="D58" s="214"/>
+      <c r="E58" s="215"/>
+      <c r="F58" s="215"/>
+    </row>
+    <row r="59" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B59" s="229"/>
+      <c r="C59" s="207"/>
+      <c r="D59" s="214"/>
+      <c r="E59" s="215"/>
+      <c r="F59" s="215"/>
+    </row>
+    <row r="60" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B60" s="230" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" s="224" t="s">
+        <v>279</v>
+      </c>
+      <c r="D60" s="214"/>
+      <c r="E60" s="215"/>
+      <c r="F60" s="215"/>
+    </row>
+    <row r="61" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B61" s="229"/>
+      <c r="C61" s="207"/>
+      <c r="D61" s="214"/>
+      <c r="E61" s="215"/>
+      <c r="F61" s="215"/>
+    </row>
+    <row r="62" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B62" s="229"/>
+      <c r="C62" s="207"/>
+      <c r="D62" s="214"/>
+      <c r="E62" s="215"/>
+      <c r="F62" s="215"/>
+    </row>
+    <row r="63" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B63" s="229"/>
+      <c r="C63" s="207"/>
+      <c r="D63" s="214"/>
+      <c r="E63" s="215"/>
+      <c r="F63" s="215"/>
+    </row>
+    <row r="64" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B64" s="229"/>
+      <c r="C64" s="207"/>
+      <c r="D64" s="214"/>
+      <c r="E64" s="215"/>
+      <c r="F64" s="215"/>
+    </row>
+    <row r="65" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B65" s="229"/>
+      <c r="C65" s="207"/>
+      <c r="D65" s="214"/>
+      <c r="E65" s="215"/>
+      <c r="F65" s="215"/>
+    </row>
+    <row r="66" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B66" s="229"/>
+      <c r="C66" s="207"/>
+      <c r="D66" s="214"/>
+      <c r="E66" s="215"/>
+      <c r="F66" s="215"/>
+    </row>
+    <row r="67" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B67" s="229"/>
+      <c r="C67" s="207"/>
+      <c r="D67" s="214"/>
+      <c r="E67" s="215"/>
+      <c r="F67" s="215"/>
+    </row>
+    <row r="68" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B68" s="229"/>
+      <c r="C68" s="207"/>
+      <c r="D68" s="214"/>
+      <c r="E68" s="215"/>
+      <c r="F68" s="215"/>
+    </row>
+    <row r="69" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B69" s="229"/>
+      <c r="C69" s="207"/>
+      <c r="D69" s="214"/>
+      <c r="E69" s="215"/>
+      <c r="F69" s="215"/>
+    </row>
+    <row r="70" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B70" s="229"/>
+      <c r="C70" s="207"/>
+      <c r="D70" s="214"/>
+      <c r="E70" s="215"/>
+      <c r="F70" s="215"/>
+    </row>
+    <row r="71" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B71" s="229"/>
+      <c r="C71" s="207"/>
+      <c r="D71" s="214"/>
+      <c r="E71" s="215"/>
+      <c r="F71" s="215"/>
+    </row>
+    <row r="72" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B72" s="231"/>
+      <c r="C72" s="210"/>
+      <c r="D72" s="211"/>
+      <c r="E72" s="212"/>
+      <c r="F72" s="212"/>
+    </row>
+    <row r="73" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B73" s="231"/>
+      <c r="C73" s="213"/>
+      <c r="D73" s="211"/>
+      <c r="E73" s="212"/>
+      <c r="F73" s="212"/>
+    </row>
+    <row r="74" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B74" s="229"/>
+      <c r="C74" s="207"/>
+      <c r="D74" s="214"/>
+      <c r="E74" s="215"/>
+      <c r="F74" s="215"/>
+    </row>
+    <row r="75" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B75" s="229"/>
+      <c r="C75" s="207"/>
+      <c r="D75" s="214"/>
+      <c r="E75" s="215"/>
+      <c r="F75" s="215"/>
+    </row>
+    <row r="76" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B76" s="229"/>
+      <c r="C76" s="207"/>
+      <c r="D76" s="214"/>
+      <c r="E76" s="215"/>
+      <c r="F76" s="215"/>
+    </row>
+    <row r="77" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B77" s="229"/>
+      <c r="C77" s="207"/>
+      <c r="D77" s="214"/>
+      <c r="E77" s="215"/>
+      <c r="F77" s="215"/>
+    </row>
+    <row r="78" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B78" s="229"/>
+      <c r="C78" s="207"/>
+      <c r="D78" s="214"/>
+      <c r="E78" s="215"/>
+      <c r="F78" s="215"/>
+    </row>
+    <row r="79" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B79" s="229"/>
+      <c r="C79" s="207"/>
+      <c r="D79" s="214"/>
+      <c r="E79" s="215"/>
+      <c r="F79" s="215"/>
+    </row>
+    <row r="80" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B80" s="232"/>
+      <c r="C80" s="216"/>
+      <c r="D80" s="217"/>
+      <c r="E80" s="218"/>
+      <c r="F80" s="218"/>
+    </row>
+    <row r="85" spans="4:4" ht="18" customHeight="1"/>
+    <row r="88" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D88" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4696,13 +5582,13 @@
       <c r="J11" s="82"/>
       <c r="K11" s="82"/>
       <c r="L11" s="82"/>
-      <c r="M11" s="149"/>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143"/>
+      <c r="M11" s="174"/>
+      <c r="N11" s="166"/>
+      <c r="O11" s="166"/>
       <c r="P11" s="82"/>
       <c r="Q11" s="82"/>
-      <c r="R11" s="149"/>
-      <c r="S11" s="150"/>
+      <c r="R11" s="174"/>
+      <c r="S11" s="175"/>
     </row>
     <row r="12" spans="7:19" ht="15">
       <c r="G12" s="26"/>
@@ -4912,9 +5798,9 @@
       <c r="W23" s="82"/>
     </row>
     <row r="24" spans="7:23" ht="15">
-      <c r="G24" s="148"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="166"/>
       <c r="J24" s="82"/>
       <c r="K24" s="82"/>
       <c r="L24" s="82"/>
@@ -4950,9 +5836,9 @@
       <c r="W25" s="82"/>
     </row>
     <row r="26" spans="7:23" ht="15">
-      <c r="G26" s="148"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
       <c r="L26" s="82"/>
@@ -4997,14 +5883,14 @@
       <c r="M28" s="82"/>
       <c r="N28" s="82"/>
       <c r="O28" s="82"/>
-      <c r="P28" s="148"/>
-      <c r="Q28" s="143"/>
-      <c r="R28" s="143"/>
+      <c r="P28" s="173"/>
+      <c r="Q28" s="166"/>
+      <c r="R28" s="166"/>
       <c r="S28" s="82"/>
-      <c r="T28" s="148"/>
-      <c r="U28" s="143"/>
-      <c r="V28" s="143"/>
-      <c r="W28" s="143"/>
+      <c r="T28" s="173"/>
+      <c r="U28" s="166"/>
+      <c r="V28" s="166"/>
+      <c r="W28" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5054,16 +5940,16 @@
     </row>
     <row r="3" spans="2:10" ht="84" customHeight="1">
       <c r="B3" s="81"/>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
     </row>
     <row r="4" spans="2:10" ht="12.75" customHeight="1">
       <c r="B4" s="102"/>
@@ -5247,32 +6133,32 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="17.25" customHeight="1">
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1">
       <c r="C4" s="94"/>
     </row>
     <row r="5" spans="2:11" ht="12.75">
-      <c r="G5" s="152" t="s">
+      <c r="G5" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="153"/>
+      <c r="H5" s="178"/>
     </row>
     <row r="6" spans="2:11" ht="18.75" customHeight="1">
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="176" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="151"/>
+      <c r="D6" s="176"/>
       <c r="G6" s="83" t="s">
         <v>110</v>
       </c>
@@ -5382,7 +6268,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5400,33 +6286,33 @@
     <row r="1" spans="2:8" ht="57" customHeight="1">
       <c r="B1" s="85"/>
       <c r="C1" s="86"/>
-      <c r="D1" s="155" t="s">
+      <c r="D1" s="180" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
       <c r="B2" s="85"/>
       <c r="C2" s="86"/>
-      <c r="D2" s="153" t="s">
+      <c r="D2" s="178" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
     </row>
     <row r="3" spans="2:8" ht="12.75" customHeight="1">
       <c r="B3" s="85"/>
       <c r="C3" s="86"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
     </row>
     <row r="4" spans="2:8" ht="12.75" customHeight="1">
       <c r="B4" s="39" t="s">
@@ -5508,7 +6394,7 @@
   <dimension ref="B2:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5549,12 +6435,12 @@
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1">
       <c r="B4" s="74"/>

--- a/doc/chiffrier_sim_vie.xlsx
+++ b/doc/chiffrier_sim_vie.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\sim_vie-420-C41-IN-\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\sim_vie\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203274B2-E6AE-4AFE-A266-DD096DD4D582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250F98E1-2207-4220-B0A4-402FE99F1480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="377">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -1151,15 +1151,6 @@
     <t>Modification de nuages de pression</t>
   </si>
   <si>
-    <t>Changement de rapport nourriture / organisme</t>
-  </si>
-  <si>
-    <t>Changement de rapport terre / eau</t>
-  </si>
-  <si>
-    <t>Changement de la durée des cycles</t>
-  </si>
-  <si>
     <t>(usager, environnement, organisme)</t>
   </si>
   <si>
@@ -1175,12 +1166,6 @@
     <t>environnement</t>
   </si>
   <si>
-    <t>Déplacement des nuages de pression</t>
-  </si>
-  <si>
-    <t>Génération de nourriture</t>
-  </si>
-  <si>
     <t>Changement de cycle</t>
   </si>
   <si>
@@ -1193,9 +1178,6 @@
     <t>Boire</t>
   </si>
   <si>
-    <t>Déféquer</t>
-  </si>
-  <si>
     <t>Mourir</t>
   </si>
   <si>
@@ -1214,13 +1196,316 @@
     <t>Dormir / Se réveiller</t>
   </si>
   <si>
-    <t>Choisir une direction</t>
-  </si>
-  <si>
     <t>Machine (Organisme)</t>
   </si>
   <si>
     <t>Machine (Environnement)</t>
+  </si>
+  <si>
+    <t>Changer la température</t>
+  </si>
+  <si>
+    <t>Modifier sa température</t>
+  </si>
+  <si>
+    <t>Corps régule sa température ou cesse de réguler</t>
+  </si>
+  <si>
+    <t>Changer le taux d'humidité</t>
+  </si>
+  <si>
+    <t>Modifier le taux d'humidité</t>
+  </si>
+  <si>
+    <t>Corps se met en cryptobiose au besoin</t>
+  </si>
+  <si>
+    <t>Ajustement de l'état de transitions</t>
+  </si>
+  <si>
+    <t>Enregistrement épigénétique au besoin</t>
+  </si>
+  <si>
+    <t>Appliquer les nuages</t>
+  </si>
+  <si>
+    <t>Ajouter un autre type de nuage</t>
+  </si>
+  <si>
+    <t>Machine (Interface)</t>
+  </si>
+  <si>
+    <t>Ajouter une plage de nuage</t>
+  </si>
+  <si>
+    <t>Créer les nuages aléatoirement dans le modèle</t>
+  </si>
+  <si>
+    <t>Faire bouger les nuages</t>
+  </si>
+  <si>
+    <t>Déterminer vitesse et direction du vent (changeant)</t>
+  </si>
+  <si>
+    <t>Choisir les paramètre du nuage (intensité du centre, rayon total, rayon du centre, nombre)</t>
+  </si>
+  <si>
+    <t>Mécanorécepteurs envoient un signal au système nerveux</t>
+  </si>
+  <si>
+    <t>Thermorécepteurs envoient un signal au système nerveux (en continu)</t>
+  </si>
+  <si>
+    <t>Système nerveux vérifie la température du corps et lui envoie un signal au besoin (en continu)</t>
+  </si>
+  <si>
+    <t>Hygrorécepteur envoie un signal au système nerveux (en continu)</t>
+  </si>
+  <si>
+    <t>Système nerveux vérifie capacité de l'organisme à tolérer ce taux d'humidité (en continu)</t>
+  </si>
+  <si>
+    <t>Détecte un changement de température</t>
+  </si>
+  <si>
+    <t>Détecte un changement du taux d'humidité</t>
+  </si>
+  <si>
+    <t>Détecte un nuage au-dessus de lui</t>
+  </si>
+  <si>
+    <t>Système nerveux vérifie quels mécanorécepteurs reçoient le plus de signaux</t>
+  </si>
+  <si>
+    <t>Ajuste l'orientation</t>
+  </si>
+  <si>
+    <t>Boucle de vérification (deux étapes précédentes)</t>
+  </si>
+  <si>
+    <t>Avance pour fuir le nuage</t>
+  </si>
+  <si>
+    <t>Changer ou enlever des nuages</t>
+  </si>
+  <si>
+    <t>Ajuste la quantité de nuage et leurs paramètres dans le modèle</t>
+  </si>
+  <si>
+    <t>Ajuster la plage de nuage</t>
+  </si>
+  <si>
+    <t>Faire apparaître de la nourriture aléatoirement</t>
+  </si>
+  <si>
+    <t>Supprimer de la nourriture aléatoirement</t>
+  </si>
+  <si>
+    <t>Changement de ratio terre / eau</t>
+  </si>
+  <si>
+    <t>Quantité de nourriture / vitesse d'apparition</t>
+  </si>
+  <si>
+    <t>Changer la quantité de nourriture</t>
+  </si>
+  <si>
+    <t>Chronomètre pour la vitesse d'apparition de nourriture</t>
+  </si>
+  <si>
+    <t>Odorat détecte de la nourriture et envoie un signal au système nerveux</t>
+  </si>
+  <si>
+    <t>Système nerveux change l'orientation de l'organisme pour tenter de voir la nourriture</t>
+  </si>
+  <si>
+    <t>Si la nourriture est dans le champ de vision, la organisme se déplace</t>
+  </si>
+  <si>
+    <t>Si la nourriture est dans la portée de la organisme, la organisme mange</t>
+  </si>
+  <si>
+    <t>Changer le ratio</t>
+  </si>
+  <si>
+    <t>Ajustement aléatoire dans le modèle</t>
+  </si>
+  <si>
+    <t>Détection de la faim de l'organisme (jauge de faim)</t>
+  </si>
+  <si>
+    <t>Détection de la soif de l'organisme (jauge de soif)</t>
+  </si>
+  <si>
+    <t>** La suite : même chose que pour manger</t>
+  </si>
+  <si>
+    <t>Ajustement du système digestif</t>
+  </si>
+  <si>
+    <t>Déféquer / uriner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Système digestif détecte si liquide ou solide </t>
+  </si>
+  <si>
+    <t>Ajustement des jauges faim / soif</t>
+  </si>
+  <si>
+    <t>Stockage dans le bon organe</t>
+  </si>
+  <si>
+    <t>Évacuation au bout d'un certain temps ou lorsque le stockage est plein</t>
+  </si>
+  <si>
+    <t>Absorption des aliments</t>
+  </si>
+  <si>
+    <t>Choisir tous les paramètres ci-haut</t>
+  </si>
+  <si>
+    <t>Choisir la durée</t>
+  </si>
+  <si>
+    <t>Ajustement de l'interface</t>
+  </si>
+  <si>
+    <t>Appliquer les changements</t>
+  </si>
+  <si>
+    <t>Automatiser les changements de paramètres (chrono + boucle)</t>
+  </si>
+  <si>
+    <t>Création d'un cycle (saisons)</t>
+  </si>
+  <si>
+    <t>Appliquer le cycle</t>
+  </si>
+  <si>
+    <t>Déplacement des nuages</t>
+  </si>
+  <si>
+    <t>Génération de la nourriture</t>
+  </si>
+  <si>
+    <t>Détecter fin de cycle</t>
+  </si>
+  <si>
+    <t>Changer les paramètres de l'environnement (graduellement)</t>
+  </si>
+  <si>
+    <t>Détectection des besoins</t>
+  </si>
+  <si>
+    <t>Vérification de la priorité des besoins</t>
+  </si>
+  <si>
+    <t>Système nerveux active d'une action pour répondre au besoin prioritaire</t>
+  </si>
+  <si>
+    <t>Fluctuation des jauges de besoin selon le temps, l'environnement, les événements, l'organisme</t>
+  </si>
+  <si>
+    <t>Vieillir</t>
+  </si>
+  <si>
+    <t>Naître</t>
+  </si>
+  <si>
+    <t>Apparaître (et déterminer la génétique)</t>
+  </si>
+  <si>
+    <t>Activation de la jauge santé</t>
+  </si>
+  <si>
+    <t>Déterminer le seuil de vieillissement</t>
+  </si>
+  <si>
+    <t>Réduction de la jauge santé dépassé un certain seuil (méthode = parabole)</t>
+  </si>
+  <si>
+    <t>Vérication de la jauge de santé</t>
+  </si>
+  <si>
+    <t>Meurt si jauge santé = 0</t>
+  </si>
+  <si>
+    <t>Supprimer l'organisme du modèle</t>
+  </si>
+  <si>
+    <t>Chercher à se reproduire</t>
+  </si>
+  <si>
+    <t>Si la recherche est active : émission de phéromones</t>
+  </si>
+  <si>
+    <t>Si odorat détecte phéromones, même chose que pour la faim</t>
+  </si>
+  <si>
+    <t>Début de gestation : assemblage des gènes</t>
+  </si>
+  <si>
+    <t>Deux organismes se reproduisent</t>
+  </si>
+  <si>
+    <t>Vérification de l'épigénétique et de l'intensité du trauma intergénérationnel</t>
+  </si>
+  <si>
+    <t>Vérification de la transformation de l'épigénétique en génétique innée</t>
+  </si>
+  <si>
+    <t>Faire apparaître un organisme</t>
+  </si>
+  <si>
+    <t>Détermination finale de la génétique et des attributs de l'organisme</t>
+  </si>
+  <si>
+    <t>Se mettre en état de sommeil en cas de besoin</t>
+  </si>
+  <si>
+    <t>Ajustement de la jauge de faim et d'énergie de l'organisme</t>
+  </si>
+  <si>
+    <t>Détection de la jauge d'énergie</t>
+  </si>
+  <si>
+    <t>Augmentation de la jauge d'énergie</t>
+  </si>
+  <si>
+    <t>Ajustement de la jauge énergie en conséquence</t>
+  </si>
+  <si>
+    <t>Choisir une orientation</t>
+  </si>
+  <si>
+    <t>Changer la taille du monde</t>
+  </si>
+  <si>
+    <t>Faire défiler l'écran</t>
+  </si>
+  <si>
+    <t>Bouger ce qui est vu dans le modèle</t>
+  </si>
+  <si>
+    <t>Agrandir ou réduire la taille de la fenêtre</t>
+  </si>
+  <si>
+    <t>Ajuster la vue</t>
+  </si>
+  <si>
+    <t>Ajuster les proportions de la vue</t>
+  </si>
+  <si>
+    <t>Afficher informations d'un organisme</t>
+  </si>
+  <si>
+    <t>Cliquer sur un organisme</t>
+  </si>
+  <si>
+    <t>Aller chercher les infos de l'organisme</t>
+  </si>
+  <si>
+    <t>Afficher les infos de l'organisme</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -2188,41 +2473,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2592,55 +2847,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2653,19 +2859,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2713,33 +2907,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2770,15 +2945,75 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3475,22 +3710,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="165"/>
-      <c r="G36" s="166"/>
-      <c r="H36" s="166"/>
-      <c r="I36" s="166"/>
+      <c r="F36" s="205"/>
+      <c r="G36" s="206"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="206"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="166"/>
-      <c r="G37" s="166"/>
-      <c r="H37" s="166"/>
-      <c r="I37" s="166"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="206"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="206"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="166"/>
-      <c r="G38" s="166"/>
-      <c r="H38" s="166"/>
-      <c r="I38" s="166"/>
+      <c r="F38" s="206"/>
+      <c r="G38" s="206"/>
+      <c r="H38" s="206"/>
+      <c r="I38" s="206"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="82"/>
@@ -3499,22 +3734,22 @@
       <c r="I39" s="82"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="165"/>
-      <c r="G40" s="166"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="166"/>
+      <c r="F40" s="205"/>
+      <c r="G40" s="206"/>
+      <c r="H40" s="206"/>
+      <c r="I40" s="206"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="166"/>
-      <c r="G41" s="166"/>
-      <c r="H41" s="166"/>
-      <c r="I41" s="166"/>
+      <c r="F41" s="206"/>
+      <c r="G41" s="206"/>
+      <c r="H41" s="206"/>
+      <c r="I41" s="206"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="166"/>
-      <c r="G42" s="166"/>
-      <c r="H42" s="166"/>
-      <c r="I42" s="166"/>
+      <c r="F42" s="206"/>
+      <c r="G42" s="206"/>
+      <c r="H42" s="206"/>
+      <c r="I42" s="206"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="82"/>
@@ -3529,34 +3764,34 @@
       <c r="I44" s="82"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="165"/>
-      <c r="G45" s="166"/>
-      <c r="H45" s="166"/>
-      <c r="I45" s="166"/>
+      <c r="F45" s="205"/>
+      <c r="G45" s="206"/>
+      <c r="H45" s="206"/>
+      <c r="I45" s="206"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="166"/>
-      <c r="G46" s="166"/>
-      <c r="H46" s="166"/>
-      <c r="I46" s="166"/>
+      <c r="F46" s="206"/>
+      <c r="G46" s="206"/>
+      <c r="H46" s="206"/>
+      <c r="I46" s="206"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="166"/>
-      <c r="G47" s="166"/>
-      <c r="H47" s="166"/>
-      <c r="I47" s="166"/>
+      <c r="F47" s="206"/>
+      <c r="G47" s="206"/>
+      <c r="H47" s="206"/>
+      <c r="I47" s="206"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="166"/>
-      <c r="G48" s="166"/>
-      <c r="H48" s="166"/>
-      <c r="I48" s="166"/>
+      <c r="F48" s="206"/>
+      <c r="G48" s="206"/>
+      <c r="H48" s="206"/>
+      <c r="I48" s="206"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="166"/>
-      <c r="G49" s="166"/>
-      <c r="H49" s="166"/>
-      <c r="I49" s="166"/>
+      <c r="F49" s="206"/>
+      <c r="G49" s="206"/>
+      <c r="H49" s="206"/>
+      <c r="I49" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3679,7 +3914,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B13" s="167" t="s">
+      <c r="B13" s="207" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="142"/>
@@ -3688,7 +3923,7 @@
       <c r="H13" s="163"/>
     </row>
     <row r="14" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B14" s="168"/>
+      <c r="B14" s="208"/>
       <c r="C14" s="143" t="s">
         <v>158</v>
       </c>
@@ -3701,13 +3936,13 @@
       <c r="H14" s="163"/>
     </row>
     <row r="15" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B15" s="168"/>
+      <c r="B15" s="208"/>
       <c r="C15" s="146"/>
       <c r="D15" s="144"/>
       <c r="E15" s="145"/>
     </row>
     <row r="16" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B16" s="168"/>
+      <c r="B16" s="208"/>
       <c r="C16" s="156" t="s">
         <v>225</v>
       </c>
@@ -3719,7 +3954,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="169"/>
+      <c r="B17" s="209"/>
       <c r="C17" s="146" t="s">
         <v>155</v>
       </c>
@@ -3727,7 +3962,7 @@
       <c r="E17" s="145"/>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="169"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="156" t="s">
         <v>226</v>
       </c>
@@ -3737,13 +3972,13 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="169"/>
+      <c r="B19" s="209"/>
       <c r="C19" s="146"/>
       <c r="D19" s="144"/>
       <c r="E19" s="145"/>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="169"/>
+      <c r="B20" s="209"/>
       <c r="C20" s="143" t="s">
         <v>159</v>
       </c>
@@ -3755,13 +3990,13 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="169"/>
+      <c r="B21" s="209"/>
       <c r="C21" s="146"/>
       <c r="D21" s="144"/>
       <c r="E21" s="145"/>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="169"/>
+      <c r="B22" s="209"/>
       <c r="C22" s="156" t="s">
         <v>228</v>
       </c>
@@ -3773,7 +4008,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="169"/>
+      <c r="B23" s="209"/>
       <c r="C23" s="161" t="s">
         <v>164</v>
       </c>
@@ -3785,7 +4020,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="169"/>
+      <c r="B24" s="209"/>
       <c r="C24" s="146"/>
       <c r="D24" s="157" t="s">
         <v>230</v>
@@ -3793,7 +4028,7 @@
       <c r="E24" s="158"/>
     </row>
     <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="169"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="156"/>
       <c r="D25" s="157" t="s">
         <v>167</v>
@@ -3801,7 +4036,7 @@
       <c r="E25" s="158"/>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="169"/>
+      <c r="B26" s="209"/>
       <c r="C26" s="156" t="s">
         <v>168</v>
       </c>
@@ -3811,7 +4046,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B27" s="169"/>
+      <c r="B27" s="209"/>
       <c r="C27" s="156" t="s">
         <v>170</v>
       </c>
@@ -3821,13 +4056,13 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="169"/>
+      <c r="B28" s="209"/>
       <c r="C28" s="146"/>
       <c r="D28" s="144"/>
       <c r="E28" s="145"/>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="169"/>
+      <c r="B29" s="209"/>
       <c r="C29" s="143" t="s">
         <v>172</v>
       </c>
@@ -3835,13 +4070,13 @@
       <c r="E29" s="145"/>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="169"/>
+      <c r="B30" s="209"/>
       <c r="C30" s="146"/>
       <c r="D30" s="144"/>
       <c r="E30" s="145"/>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="169"/>
+      <c r="B31" s="209"/>
       <c r="C31" s="156" t="s">
         <v>173</v>
       </c>
@@ -3851,7 +4086,7 @@
       <c r="E31" s="145"/>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="169"/>
+      <c r="B32" s="209"/>
       <c r="C32" s="156" t="s">
         <v>174</v>
       </c>
@@ -3859,7 +4094,7 @@
       <c r="E32" s="145"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="169"/>
+      <c r="B33" s="209"/>
       <c r="C33" s="156" t="s">
         <v>175</v>
       </c>
@@ -3867,7 +4102,7 @@
       <c r="E33" s="145"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="169"/>
+      <c r="B34" s="209"/>
       <c r="C34" s="156" t="s">
         <v>176</v>
       </c>
@@ -3875,7 +4110,7 @@
       <c r="E34" s="145"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="169"/>
+      <c r="B35" s="209"/>
       <c r="C35" s="156" t="s">
         <v>177</v>
       </c>
@@ -3883,13 +4118,13 @@
       <c r="E35" s="145"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="169"/>
+      <c r="B36" s="209"/>
       <c r="C36" s="156"/>
       <c r="D36" s="157"/>
       <c r="E36" s="145"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="169"/>
+      <c r="B37" s="209"/>
       <c r="C37" s="156" t="s">
         <v>231</v>
       </c>
@@ -3897,7 +4132,7 @@
       <c r="E37" s="145"/>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="169"/>
+      <c r="B38" s="209"/>
       <c r="C38" s="156" t="s">
         <v>181</v>
       </c>
@@ -3905,7 +4140,7 @@
       <c r="E38" s="145"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="169"/>
+      <c r="B39" s="209"/>
       <c r="C39" s="156" t="s">
         <v>179</v>
       </c>
@@ -3915,13 +4150,13 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="169"/>
+      <c r="B40" s="209"/>
       <c r="C40" s="156"/>
       <c r="D40" s="144"/>
       <c r="E40" s="145"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="169"/>
+      <c r="B41" s="209"/>
       <c r="C41" s="143" t="s">
         <v>182</v>
       </c>
@@ -3929,13 +4164,13 @@
       <c r="E41" s="145"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="169"/>
+      <c r="B42" s="209"/>
       <c r="C42" s="156"/>
       <c r="D42" s="144"/>
       <c r="E42" s="145"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="169"/>
+      <c r="B43" s="209"/>
       <c r="C43" s="156" t="s">
         <v>183</v>
       </c>
@@ -3943,7 +4178,7 @@
       <c r="E43" s="145"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="169"/>
+      <c r="B44" s="209"/>
       <c r="C44" s="156" t="s">
         <v>155</v>
       </c>
@@ -3953,7 +4188,7 @@
       <c r="E44" s="145"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="169"/>
+      <c r="B45" s="209"/>
       <c r="C45" s="156" t="s">
         <v>185</v>
       </c>
@@ -3963,7 +4198,7 @@
       <c r="E45" s="145"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="169"/>
+      <c r="B46" s="209"/>
       <c r="C46" s="156" t="s">
         <v>187</v>
       </c>
@@ -3973,7 +4208,7 @@
       <c r="E46" s="145"/>
     </row>
     <row r="47" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B47" s="169"/>
+      <c r="B47" s="209"/>
       <c r="C47" s="156" t="s">
         <v>189</v>
       </c>
@@ -3983,7 +4218,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B48" s="169"/>
+      <c r="B48" s="209"/>
       <c r="C48" s="161" t="s">
         <v>191</v>
       </c>
@@ -3991,7 +4226,7 @@
       <c r="E48" s="145"/>
     </row>
     <row r="49" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B49" s="169"/>
+      <c r="B49" s="209"/>
       <c r="C49" s="161" t="s">
         <v>192</v>
       </c>
@@ -3999,13 +4234,13 @@
       <c r="E49" s="145"/>
     </row>
     <row r="50" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B50" s="169"/>
+      <c r="B50" s="209"/>
       <c r="C50" s="156"/>
       <c r="D50" s="144"/>
       <c r="E50" s="145"/>
     </row>
     <row r="51" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B51" s="169"/>
+      <c r="B51" s="209"/>
       <c r="C51" s="143" t="s">
         <v>193</v>
       </c>
@@ -4013,13 +4248,13 @@
       <c r="E51" s="145"/>
     </row>
     <row r="52" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B52" s="169"/>
+      <c r="B52" s="209"/>
       <c r="C52" s="156"/>
       <c r="D52" s="144"/>
       <c r="E52" s="145"/>
     </row>
     <row r="53" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B53" s="169"/>
+      <c r="B53" s="209"/>
       <c r="C53" s="156" t="s">
         <v>194</v>
       </c>
@@ -4029,7 +4264,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B54" s="169"/>
+      <c r="B54" s="209"/>
       <c r="C54" s="156" t="s">
         <v>196</v>
       </c>
@@ -4037,7 +4272,7 @@
       <c r="E54" s="145"/>
     </row>
     <row r="55" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B55" s="169"/>
+      <c r="B55" s="209"/>
       <c r="C55" s="156" t="s">
         <v>197</v>
       </c>
@@ -4045,7 +4280,7 @@
       <c r="E55" s="145"/>
     </row>
     <row r="56" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B56" s="169"/>
+      <c r="B56" s="209"/>
       <c r="C56" s="156" t="s">
         <v>198</v>
       </c>
@@ -4053,7 +4288,7 @@
       <c r="E56" s="145"/>
     </row>
     <row r="57" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B57" s="169"/>
+      <c r="B57" s="209"/>
       <c r="C57" s="156" t="s">
         <v>199</v>
       </c>
@@ -4061,7 +4296,7 @@
       <c r="E57" s="145"/>
     </row>
     <row r="58" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B58" s="169"/>
+      <c r="B58" s="209"/>
       <c r="C58" s="156" t="s">
         <v>200</v>
       </c>
@@ -4071,7 +4306,7 @@
       <c r="E58" s="145"/>
     </row>
     <row r="59" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B59" s="169"/>
+      <c r="B59" s="209"/>
       <c r="C59" s="156" t="s">
         <v>192</v>
       </c>
@@ -4081,7 +4316,7 @@
       <c r="E59" s="145"/>
     </row>
     <row r="60" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B60" s="169"/>
+      <c r="B60" s="209"/>
       <c r="C60" s="156" t="s">
         <v>203</v>
       </c>
@@ -4089,7 +4324,7 @@
       <c r="E60" s="145"/>
     </row>
     <row r="61" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B61" s="169"/>
+      <c r="B61" s="209"/>
       <c r="C61" s="156" t="s">
         <v>204</v>
       </c>
@@ -4099,7 +4334,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B62" s="169"/>
+      <c r="B62" s="209"/>
       <c r="C62" s="156" t="s">
         <v>206</v>
       </c>
@@ -4107,13 +4342,13 @@
       <c r="E62" s="145"/>
     </row>
     <row r="63" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B63" s="169"/>
+      <c r="B63" s="209"/>
       <c r="C63" s="156"/>
       <c r="D63" s="144"/>
       <c r="E63" s="145"/>
     </row>
     <row r="64" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B64" s="169"/>
+      <c r="B64" s="209"/>
       <c r="C64" s="143" t="s">
         <v>207</v>
       </c>
@@ -4121,13 +4356,13 @@
       <c r="E64" s="145"/>
     </row>
     <row r="65" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B65" s="169"/>
+      <c r="B65" s="209"/>
       <c r="C65" s="156"/>
       <c r="D65" s="144"/>
       <c r="E65" s="145"/>
     </row>
     <row r="66" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B66" s="169"/>
+      <c r="B66" s="209"/>
       <c r="C66" s="156" t="s">
         <v>209</v>
       </c>
@@ -4135,7 +4370,7 @@
       <c r="E66" s="145"/>
     </row>
     <row r="67" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B67" s="169"/>
+      <c r="B67" s="209"/>
       <c r="C67" s="156" t="s">
         <v>210</v>
       </c>
@@ -4143,7 +4378,7 @@
       <c r="E67" s="145"/>
     </row>
     <row r="68" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B68" s="169"/>
+      <c r="B68" s="209"/>
       <c r="C68" s="156" t="s">
         <v>208</v>
       </c>
@@ -4151,7 +4386,7 @@
       <c r="E68" s="145"/>
     </row>
     <row r="69" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B69" s="169"/>
+      <c r="B69" s="209"/>
       <c r="C69" s="156" t="s">
         <v>211</v>
       </c>
@@ -4159,25 +4394,25 @@
       <c r="E69" s="145"/>
     </row>
     <row r="70" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B70" s="169"/>
+      <c r="B70" s="209"/>
       <c r="C70" s="156"/>
       <c r="D70" s="144"/>
       <c r="E70" s="145"/>
     </row>
     <row r="71" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B71" s="169"/>
+      <c r="B71" s="209"/>
       <c r="C71" s="156"/>
       <c r="D71" s="144"/>
       <c r="E71" s="145"/>
     </row>
     <row r="72" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B72" s="170"/>
+      <c r="B72" s="210"/>
       <c r="C72" s="147"/>
       <c r="D72" s="148"/>
       <c r="E72" s="149"/>
     </row>
     <row r="73" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B73" s="167" t="s">
+      <c r="B73" s="207" t="s">
         <v>61</v>
       </c>
       <c r="C73" s="156"/>
@@ -4189,7 +4424,7 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B74" s="169"/>
+      <c r="B74" s="209"/>
       <c r="C74" s="156" t="s">
         <v>242</v>
       </c>
@@ -4201,7 +4436,7 @@
       </c>
     </row>
     <row r="75" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B75" s="169"/>
+      <c r="B75" s="209"/>
       <c r="C75" s="146"/>
       <c r="D75" s="157" t="s">
         <v>216</v>
@@ -4211,7 +4446,7 @@
       </c>
     </row>
     <row r="76" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B76" s="169"/>
+      <c r="B76" s="209"/>
       <c r="C76" s="146"/>
       <c r="D76" s="144" t="s">
         <v>156</v>
@@ -4221,7 +4456,7 @@
       </c>
     </row>
     <row r="77" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B77" s="169"/>
+      <c r="B77" s="209"/>
       <c r="C77" s="146"/>
       <c r="D77" s="144" t="s">
         <v>157</v>
@@ -4231,7 +4466,7 @@
       </c>
     </row>
     <row r="78" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B78" s="169"/>
+      <c r="B78" s="209"/>
       <c r="C78" s="146"/>
       <c r="D78" s="157" t="s">
         <v>160</v>
@@ -4241,7 +4476,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B79" s="169"/>
+      <c r="B79" s="209"/>
       <c r="C79" s="146"/>
       <c r="D79" s="157" t="s">
         <v>233</v>
@@ -4251,7 +4486,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B80" s="169"/>
+      <c r="B80" s="209"/>
       <c r="C80" s="146"/>
       <c r="D80" s="157" t="s">
         <v>212</v>
@@ -4261,7 +4496,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B81" s="169"/>
+      <c r="B81" s="209"/>
       <c r="C81" s="146"/>
       <c r="D81" s="157" t="s">
         <v>213</v>
@@ -4271,7 +4506,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B82" s="169"/>
+      <c r="B82" s="209"/>
       <c r="C82" s="146"/>
       <c r="D82" s="157" t="s">
         <v>214</v>
@@ -4281,7 +4516,7 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B83" s="169"/>
+      <c r="B83" s="209"/>
       <c r="C83" s="156"/>
       <c r="D83" s="157" t="s">
         <v>234</v>
@@ -4291,7 +4526,7 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B84" s="169"/>
+      <c r="B84" s="209"/>
       <c r="C84" s="156"/>
       <c r="D84" s="157" t="s">
         <v>235</v>
@@ -4301,7 +4536,7 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B85" s="169"/>
+      <c r="B85" s="209"/>
       <c r="C85" s="146"/>
       <c r="D85" s="157" t="s">
         <v>236</v>
@@ -4311,7 +4546,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B86" s="169"/>
+      <c r="B86" s="209"/>
       <c r="C86" s="146"/>
       <c r="D86" s="157" t="s">
         <v>238</v>
@@ -4321,7 +4556,7 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B87" s="169"/>
+      <c r="B87" s="209"/>
       <c r="C87" s="146"/>
       <c r="D87" s="157" t="s">
         <v>247</v>
@@ -4331,7 +4566,7 @@
       </c>
     </row>
     <row r="88" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B88" s="169"/>
+      <c r="B88" s="209"/>
       <c r="C88" s="146"/>
       <c r="D88" s="157" t="s">
         <v>248</v>
@@ -4341,13 +4576,13 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B89" s="170"/>
+      <c r="B89" s="210"/>
       <c r="C89" s="147"/>
       <c r="D89" s="148"/>
       <c r="E89" s="149"/>
     </row>
     <row r="90" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B90" s="167" t="s">
+      <c r="B90" s="207" t="s">
         <v>62</v>
       </c>
       <c r="C90" s="150"/>
@@ -4355,7 +4590,7 @@
       <c r="E90" s="152"/>
     </row>
     <row r="91" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B91" s="169"/>
+      <c r="B91" s="209"/>
       <c r="C91" s="156" t="s">
         <v>243</v>
       </c>
@@ -4363,7 +4598,7 @@
       <c r="E91" s="145"/>
     </row>
     <row r="92" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B92" s="169"/>
+      <c r="B92" s="209"/>
       <c r="C92" s="156" t="s">
         <v>244</v>
       </c>
@@ -4371,7 +4606,7 @@
       <c r="E92" s="145"/>
     </row>
     <row r="93" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B93" s="169"/>
+      <c r="B93" s="209"/>
       <c r="C93" s="146" t="s">
         <v>245</v>
       </c>
@@ -4379,37 +4614,37 @@
       <c r="E93" s="145"/>
     </row>
     <row r="94" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B94" s="169"/>
+      <c r="B94" s="209"/>
       <c r="C94" s="146"/>
       <c r="D94" s="144"/>
       <c r="E94" s="145"/>
     </row>
     <row r="95" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B95" s="169"/>
+      <c r="B95" s="209"/>
       <c r="C95" s="146"/>
       <c r="D95" s="144"/>
       <c r="E95" s="145"/>
     </row>
     <row r="96" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B96" s="169"/>
+      <c r="B96" s="209"/>
       <c r="C96" s="146"/>
       <c r="D96" s="144"/>
       <c r="E96" s="145"/>
     </row>
     <row r="97" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B97" s="169"/>
+      <c r="B97" s="209"/>
       <c r="C97" s="146"/>
       <c r="D97" s="144"/>
       <c r="E97" s="145"/>
     </row>
     <row r="98" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B98" s="169"/>
+      <c r="B98" s="209"/>
       <c r="C98" s="146"/>
       <c r="D98" s="144"/>
       <c r="E98" s="145"/>
     </row>
     <row r="99" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B99" s="170"/>
+      <c r="B99" s="210"/>
       <c r="C99" s="153"/>
       <c r="D99" s="154"/>
       <c r="E99" s="155"/>
@@ -4463,26 +4698,26 @@
     </row>
     <row r="3" spans="2:9" ht="56.25" customHeight="1">
       <c r="B3" s="80"/>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
     </row>
     <row r="4" spans="2:9" ht="30.75" customHeight="1">
       <c r="B4" s="81"/>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
       <c r="I4" s="81"/>
     </row>
     <row r="5" spans="2:9" ht="21" customHeight="1">
@@ -4681,79 +4916,80 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:G88"/>
+  <dimension ref="B1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="225" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" customWidth="1"/>
-    <col min="5" max="6" width="49.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="197" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="108.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.7109375" customWidth="1"/>
+    <col min="6" max="6" width="72" customWidth="1"/>
     <col min="7" max="7" width="49.28515625" customWidth="1"/>
     <col min="8" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:7" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226"/>
-      <c r="C2" s="182" t="s">
+      <c r="B2" s="198"/>
+      <c r="C2" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
       <c r="G2" s="80"/>
     </row>
-    <row r="3" spans="2:7" s="189" customFormat="1" ht="56.25" customHeight="1">
-      <c r="B3" s="227"/>
-      <c r="C3" s="186" t="s">
+    <row r="3" spans="2:7" s="169" customFormat="1" ht="56.25" customHeight="1">
+      <c r="B3" s="199"/>
+      <c r="C3" s="213" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="188"/>
-      <c r="G3" s="185"/>
-    </row>
-    <row r="4" spans="2:7" s="189" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B4" s="227"/>
-      <c r="C4" s="190" t="s">
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
+      <c r="G3" s="168"/>
+    </row>
+    <row r="4" spans="2:7" s="169" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B4" s="199"/>
+      <c r="C4" s="216" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="188"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1">
-      <c r="B5" s="226"/>
-      <c r="C5" s="191" t="s">
+      <c r="B5" s="198"/>
+      <c r="C5" s="170" t="s">
         <v>66</v>
       </c>
       <c r="D5" s="80"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
     </row>
     <row r="6" spans="2:7" ht="21" customHeight="1" thickBot="1">
-      <c r="B6" s="228"/>
-      <c r="C6" s="193" t="s">
+      <c r="B6" s="200"/>
+      <c r="C6" s="172" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
     </row>
     <row r="7" spans="2:7" ht="18" customHeight="1">
-      <c r="B7" s="228"/>
+      <c r="B7" s="200"/>
       <c r="C7" s="82"/>
       <c r="D7" s="82"/>
       <c r="E7" s="82"/>
       <c r="F7" s="82"/>
     </row>
     <row r="8" spans="2:7" ht="18" customHeight="1">
-      <c r="B8" s="228"/>
-      <c r="C8" s="196" t="s">
+      <c r="B8" s="200"/>
+      <c r="C8" s="175" t="s">
         <v>249</v>
       </c>
       <c r="D8" s="27"/>
@@ -4761,20 +4997,20 @@
       <c r="F8" s="82"/>
     </row>
     <row r="9" spans="2:7" ht="19.5" customHeight="1">
-      <c r="B9" s="228"/>
-      <c r="C9" s="197" t="s">
+      <c r="B9" s="200"/>
+      <c r="C9" s="176" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="198"/>
+      <c r="D9" s="177"/>
       <c r="E9" s="82"/>
       <c r="F9" s="82"/>
     </row>
     <row r="10" spans="2:7" ht="18" customHeight="1">
       <c r="B10" s="18"/>
-      <c r="C10" s="199" t="s">
+      <c r="C10" s="178" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="200"/>
+      <c r="D10" s="179"/>
       <c r="E10" s="81"/>
       <c r="F10" s="81"/>
     </row>
@@ -4786,606 +5022,1192 @@
       <c r="F11" s="81"/>
     </row>
     <row r="12" spans="2:7" ht="18" customHeight="1">
-      <c r="B12" s="201" t="s">
+      <c r="B12" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="202" t="s">
+      <c r="C12" s="181" t="s">
         <v>251</v>
       </c>
-      <c r="D12" s="203" t="s">
+      <c r="D12" s="182" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="204" t="s">
+      <c r="E12" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="204" t="s">
+      <c r="F12" s="183" t="s">
         <v>71</v>
       </c>
+      <c r="G12" s="183" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="18" customHeight="1">
-      <c r="B13" s="222" t="s">
+      <c r="B13" s="194" t="s">
         <v>252</v>
       </c>
-      <c r="C13" s="219"/>
-      <c r="D13" s="220"/>
-      <c r="E13" s="221"/>
-      <c r="F13" s="221"/>
+      <c r="C13" s="192"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
     </row>
     <row r="14" spans="2:7" ht="48" thickBot="1">
-      <c r="B14" s="223" t="s">
+      <c r="B14" s="195" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="184" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="81"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B15" s="201"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="188" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="204" t="s">
+        <v>273</v>
+      </c>
+      <c r="F15" s="204" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" s="204" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B16" s="202" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="196" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="189" t="s">
+        <v>275</v>
+      </c>
+      <c r="E16" s="190"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="190"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B17" s="202"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190" t="s">
+        <v>276</v>
+      </c>
+      <c r="G17" s="190"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B18" s="202"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B19" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="196" t="s">
+        <v>296</v>
+      </c>
+      <c r="D19" s="189"/>
+      <c r="E19" s="190" t="s">
+        <v>292</v>
+      </c>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B20" s="202"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="189"/>
+      <c r="E20" s="190" t="s">
+        <v>293</v>
+      </c>
+      <c r="F20" s="190"/>
+      <c r="G20" s="190"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B21" s="201"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="189"/>
+      <c r="E21" s="190" t="s">
+        <v>277</v>
+      </c>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B22" s="201"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="190" t="s">
+        <v>365</v>
+      </c>
+      <c r="F22" s="190"/>
+      <c r="G22" s="190"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B23" s="201"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="189"/>
+      <c r="E23" s="190" t="s">
+        <v>282</v>
+      </c>
+      <c r="F23" s="190"/>
+      <c r="G23" s="190"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B24" s="202" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="196" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" s="189" t="s">
+        <v>278</v>
+      </c>
+      <c r="E24" s="190"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="190"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B25" s="202"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="189"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="190" t="s">
+        <v>279</v>
+      </c>
+      <c r="G25" s="190"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B26" s="202"/>
+      <c r="C26" s="196"/>
+      <c r="D26" s="189"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="190"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B27" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="196" t="s">
+        <v>297</v>
+      </c>
+      <c r="D27" s="189"/>
+      <c r="E27" s="190" t="s">
+        <v>294</v>
+      </c>
+      <c r="F27" s="190"/>
+      <c r="G27" s="190"/>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B28" s="202"/>
+      <c r="C28" s="196"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="190" t="s">
+        <v>295</v>
+      </c>
+      <c r="F28" s="190"/>
+      <c r="G28" s="190"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B29" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" s="196" t="s">
+        <v>271</v>
+      </c>
+      <c r="D29" s="189"/>
+      <c r="E29" s="190" t="s">
+        <v>280</v>
+      </c>
+      <c r="F29" s="190"/>
+      <c r="G29" s="190"/>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B30" s="202"/>
+      <c r="C30" s="196"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="190" t="s">
+        <v>365</v>
+      </c>
+      <c r="F30" s="190"/>
+      <c r="G30" s="190"/>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B31" s="202"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="190" t="s">
+        <v>281</v>
+      </c>
+      <c r="F31" s="190"/>
+      <c r="G31" s="190"/>
+    </row>
+    <row r="32" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B32" s="201"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="190" t="s">
+        <v>282</v>
+      </c>
+      <c r="F32" s="190"/>
+      <c r="G32" s="190"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B33" s="202" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" s="196" t="s">
+        <v>256</v>
+      </c>
+      <c r="D33" s="189" t="s">
+        <v>290</v>
+      </c>
+      <c r="E33" s="190"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="190"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B34" s="202"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="189" t="s">
+        <v>284</v>
+      </c>
+      <c r="E34" s="190"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="190"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B35" s="202"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="190" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B36" s="202"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="189" t="s">
+        <v>283</v>
+      </c>
+      <c r="E36" s="190"/>
+      <c r="F36" s="190"/>
+      <c r="G36" s="190"/>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B37" s="202"/>
+      <c r="C37" s="196"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="190" t="s">
+        <v>287</v>
+      </c>
+      <c r="G37" s="190"/>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B38" s="202" t="s">
+        <v>262</v>
+      </c>
+      <c r="C38" s="196" t="s">
+        <v>335</v>
+      </c>
+      <c r="D38" s="189"/>
+      <c r="E38" s="190"/>
+      <c r="F38" s="190" t="s">
+        <v>289</v>
+      </c>
+      <c r="G38" s="190"/>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B39" s="202"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="189"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="190" t="s">
+        <v>288</v>
+      </c>
+      <c r="G39" s="190"/>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B40" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="C40" s="196" t="s">
+        <v>298</v>
+      </c>
+      <c r="D40" s="189"/>
+      <c r="E40" s="190" t="s">
+        <v>291</v>
+      </c>
+      <c r="F40" s="190"/>
+      <c r="G40" s="190"/>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B41" s="202"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="189"/>
+      <c r="E41" s="190" t="s">
+        <v>299</v>
+      </c>
+      <c r="F41" s="190"/>
+      <c r="G41" s="190"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B42" s="202"/>
+      <c r="C42" s="196"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="190" t="s">
+        <v>300</v>
+      </c>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B43" s="202"/>
+      <c r="C43" s="196"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="190" t="s">
+        <v>301</v>
+      </c>
+      <c r="F43" s="190"/>
+      <c r="G43" s="190"/>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B44" s="202"/>
+      <c r="C44" s="196"/>
+      <c r="D44" s="189"/>
+      <c r="E44" s="190" t="s">
+        <v>302</v>
+      </c>
+      <c r="F44" s="190"/>
+      <c r="G44" s="190"/>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B45" s="202" t="s">
+        <v>255</v>
+      </c>
+      <c r="C45" s="196" t="s">
+        <v>257</v>
+      </c>
+      <c r="D45" s="189" t="s">
+        <v>303</v>
+      </c>
+      <c r="E45" s="190"/>
+      <c r="F45" s="190"/>
+      <c r="G45" s="190"/>
+    </row>
+    <row r="46" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B46" s="202"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="189"/>
+      <c r="E46" s="190"/>
+      <c r="F46" s="190"/>
+      <c r="G46" s="190" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B47" s="201"/>
+      <c r="C47" s="186"/>
+      <c r="D47" s="189"/>
+      <c r="E47" s="190"/>
+      <c r="F47" s="190" t="s">
+        <v>304</v>
+      </c>
+      <c r="G47" s="190"/>
+    </row>
+    <row r="48" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B48" s="202" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="196" t="s">
+        <v>309</v>
+      </c>
+      <c r="D48" s="226" t="s">
+        <v>310</v>
+      </c>
+      <c r="E48" s="190"/>
+      <c r="F48" s="190"/>
+      <c r="G48" s="190"/>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B49" s="202"/>
+      <c r="C49" s="196"/>
+      <c r="D49" s="226"/>
+      <c r="E49" s="190"/>
+      <c r="F49" s="227" t="s">
+        <v>311</v>
+      </c>
+      <c r="G49" s="190"/>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B50" s="201" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="196" t="s">
+        <v>336</v>
+      </c>
+      <c r="D50" s="189"/>
+      <c r="E50" s="190"/>
+      <c r="F50" s="190" t="s">
+        <v>306</v>
+      </c>
+      <c r="G50" s="190"/>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B51" s="201"/>
+      <c r="C51" s="186"/>
+      <c r="D51" s="189"/>
+      <c r="E51" s="190"/>
+      <c r="F51" s="190" t="s">
+        <v>307</v>
+      </c>
+      <c r="G51" s="190"/>
+    </row>
+    <row r="52" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B52" s="201" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="196" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" s="189"/>
+      <c r="E52" s="227" t="s">
+        <v>318</v>
+      </c>
+      <c r="F52" s="190"/>
+      <c r="G52" s="190"/>
+    </row>
+    <row r="53" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B53" s="201"/>
+      <c r="C53" s="186"/>
+      <c r="D53" s="189"/>
+      <c r="E53" s="227" t="s">
+        <v>312</v>
+      </c>
+      <c r="F53" s="190"/>
+      <c r="G53" s="190"/>
+    </row>
+    <row r="54" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B54" s="201"/>
+      <c r="C54" s="186"/>
+      <c r="D54" s="189"/>
+      <c r="E54" s="227" t="s">
+        <v>313</v>
+      </c>
+      <c r="F54" s="190"/>
+      <c r="G54" s="190"/>
+    </row>
+    <row r="55" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B55" s="201"/>
+      <c r="C55" s="186"/>
+      <c r="D55" s="189"/>
+      <c r="E55" s="227" t="s">
+        <v>314</v>
+      </c>
+      <c r="F55" s="190"/>
+      <c r="G55" s="190"/>
+    </row>
+    <row r="56" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B56" s="201"/>
+      <c r="C56" s="186"/>
+      <c r="D56" s="189"/>
+      <c r="E56" s="227" t="s">
+        <v>315</v>
+      </c>
+      <c r="F56" s="190"/>
+      <c r="G56" s="190"/>
+    </row>
+    <row r="57" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B57" s="201"/>
+      <c r="C57" s="186"/>
+      <c r="D57" s="189"/>
+      <c r="E57" s="227" t="s">
+        <v>362</v>
+      </c>
+      <c r="F57" s="190"/>
+      <c r="G57" s="190"/>
+    </row>
+    <row r="58" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B58" s="201"/>
+      <c r="C58" s="186"/>
+      <c r="D58" s="189"/>
+      <c r="E58" s="227" t="s">
+        <v>321</v>
+      </c>
+      <c r="F58" s="190"/>
+      <c r="G58" s="190"/>
+    </row>
+    <row r="59" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B59" s="201"/>
+      <c r="C59" s="186"/>
+      <c r="D59" s="189"/>
+      <c r="E59" s="227" t="s">
+        <v>282</v>
+      </c>
+      <c r="F59" s="190"/>
+      <c r="G59" s="190"/>
+    </row>
+    <row r="60" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B60" s="202" t="s">
+        <v>255</v>
+      </c>
+      <c r="C60" s="196" t="s">
+        <v>308</v>
+      </c>
+      <c r="D60" s="226" t="s">
+        <v>316</v>
+      </c>
+      <c r="E60" s="190"/>
+      <c r="F60" s="190"/>
+      <c r="G60" s="190"/>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B61" s="202"/>
+      <c r="C61" s="196"/>
+      <c r="D61" s="189"/>
+      <c r="E61" s="190"/>
+      <c r="F61" s="227" t="s">
+        <v>317</v>
+      </c>
+      <c r="G61" s="190"/>
+    </row>
+    <row r="62" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B62" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="C62" s="196" t="s">
+        <v>266</v>
+      </c>
+      <c r="D62" s="189"/>
+      <c r="E62" s="227" t="s">
+        <v>319</v>
+      </c>
+      <c r="F62" s="190"/>
+      <c r="G62" s="190"/>
+    </row>
+    <row r="63" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B63" s="202"/>
+      <c r="C63" s="196"/>
+      <c r="D63" s="189"/>
+      <c r="E63" s="227" t="s">
+        <v>320</v>
+      </c>
+      <c r="F63" s="190"/>
+      <c r="G63" s="190"/>
+    </row>
+    <row r="64" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B64" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" s="196" t="s">
+        <v>322</v>
+      </c>
+      <c r="D64" s="189"/>
+      <c r="E64" s="227" t="s">
+        <v>323</v>
+      </c>
+      <c r="F64" s="190"/>
+      <c r="G64" s="190"/>
+    </row>
+    <row r="65" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B65" s="202"/>
+      <c r="C65" s="196"/>
+      <c r="D65" s="189"/>
+      <c r="E65" s="227" t="s">
+        <v>325</v>
+      </c>
+      <c r="F65" s="190"/>
+      <c r="G65" s="190"/>
+    </row>
+    <row r="66" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B66" s="202"/>
+      <c r="C66" s="196"/>
+      <c r="D66" s="189"/>
+      <c r="E66" s="227" t="s">
+        <v>324</v>
+      </c>
+      <c r="F66" s="190"/>
+      <c r="G66" s="190"/>
+    </row>
+    <row r="67" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B67" s="202"/>
+      <c r="C67" s="196"/>
+      <c r="D67" s="189"/>
+      <c r="E67" s="227" t="s">
+        <v>327</v>
+      </c>
+      <c r="F67" s="190"/>
+      <c r="G67" s="190"/>
+    </row>
+    <row r="68" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B68" s="202"/>
+      <c r="C68" s="196"/>
+      <c r="D68" s="189"/>
+      <c r="E68" s="227" t="s">
+        <v>326</v>
+      </c>
+      <c r="F68" s="190"/>
+      <c r="G68" s="190"/>
+    </row>
+    <row r="69" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B69" s="202" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" s="196" t="s">
+        <v>333</v>
+      </c>
+      <c r="D69" s="189" t="s">
+        <v>328</v>
+      </c>
+      <c r="E69" s="227"/>
+      <c r="F69" s="190"/>
+      <c r="G69" s="190"/>
+    </row>
+    <row r="70" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B70" s="202"/>
+      <c r="C70" s="196"/>
+      <c r="D70" s="189" t="s">
+        <v>329</v>
+      </c>
+      <c r="E70" s="227"/>
+      <c r="F70" s="190"/>
+      <c r="G70" s="190"/>
+    </row>
+    <row r="71" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B71" s="202"/>
+      <c r="C71" s="196"/>
+      <c r="D71" s="189" t="s">
+        <v>334</v>
+      </c>
+      <c r="E71" s="227"/>
+      <c r="F71" s="190"/>
+      <c r="G71" s="190"/>
+    </row>
+    <row r="72" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B72" s="202"/>
+      <c r="C72" s="196"/>
+      <c r="D72" s="189"/>
+      <c r="E72" s="227"/>
+      <c r="F72" s="190"/>
+      <c r="G72" s="190" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B73" s="202"/>
+      <c r="C73" s="196"/>
+      <c r="D73" s="189" t="s">
+        <v>331</v>
+      </c>
+      <c r="E73" s="227"/>
+      <c r="F73" s="190"/>
+      <c r="G73" s="190"/>
+    </row>
+    <row r="74" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B74" s="202"/>
+      <c r="C74" s="196"/>
+      <c r="D74" s="189"/>
+      <c r="E74" s="227"/>
+      <c r="F74" s="190" t="s">
+        <v>332</v>
+      </c>
+      <c r="G74" s="190"/>
+    </row>
+    <row r="75" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B75" s="202" t="s">
+        <v>262</v>
+      </c>
+      <c r="C75" s="196" t="s">
+        <v>263</v>
+      </c>
+      <c r="D75" s="189"/>
+      <c r="E75" s="190"/>
+      <c r="F75" s="227" t="s">
+        <v>337</v>
+      </c>
+      <c r="G75" s="190"/>
+    </row>
+    <row r="76" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B76" s="201"/>
+      <c r="C76" s="186"/>
+      <c r="D76" s="189"/>
+      <c r="E76" s="190"/>
+      <c r="F76" s="227" t="s">
+        <v>338</v>
+      </c>
+      <c r="G76" s="190"/>
+    </row>
+    <row r="77" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B77" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="C77" s="196" t="s">
+        <v>339</v>
+      </c>
+      <c r="D77" s="189"/>
+      <c r="E77" s="227" t="s">
+        <v>342</v>
+      </c>
+      <c r="F77" s="190"/>
+      <c r="G77" s="190"/>
+    </row>
+    <row r="78" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B78" s="201"/>
+      <c r="C78" s="186"/>
+      <c r="D78" s="189"/>
+      <c r="E78" s="227" t="s">
+        <v>340</v>
+      </c>
+      <c r="F78" s="190"/>
+      <c r="G78" s="190"/>
+    </row>
+    <row r="79" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B79" s="202"/>
+      <c r="C79" s="196"/>
+      <c r="D79" s="189"/>
+      <c r="E79" s="227" t="s">
+        <v>341</v>
+      </c>
+      <c r="F79" s="190"/>
+      <c r="G79" s="190"/>
+    </row>
+    <row r="80" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B80" s="202"/>
+      <c r="C80" s="196"/>
+      <c r="D80" s="189"/>
+      <c r="E80" s="227"/>
+      <c r="F80" s="190"/>
+      <c r="G80" s="190"/>
+    </row>
+    <row r="81" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B81" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="C81" s="196" t="s">
+        <v>344</v>
+      </c>
+      <c r="D81" s="189"/>
+      <c r="E81" s="227" t="s">
+        <v>345</v>
+      </c>
+      <c r="F81" s="190"/>
+      <c r="G81" s="190"/>
+    </row>
+    <row r="82" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B82" s="202"/>
+      <c r="C82" s="196"/>
+      <c r="D82" s="189"/>
+      <c r="E82" s="227" t="s">
+        <v>346</v>
+      </c>
+      <c r="F82" s="190"/>
+      <c r="G82" s="190"/>
+    </row>
+    <row r="83" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B83" s="202"/>
+      <c r="C83" s="196"/>
+      <c r="D83" s="189"/>
+      <c r="E83" s="227"/>
+      <c r="F83" s="190"/>
+      <c r="G83" s="190"/>
+    </row>
+    <row r="84" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B84" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="C84" s="196" t="s">
+        <v>343</v>
+      </c>
+      <c r="D84" s="189"/>
+      <c r="E84" s="227" t="s">
+        <v>347</v>
+      </c>
+      <c r="F84" s="190"/>
+      <c r="G84" s="190"/>
+    </row>
+    <row r="85" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B85" s="202"/>
+      <c r="C85" s="196"/>
+      <c r="D85" s="189"/>
+      <c r="E85" s="227" t="s">
+        <v>348</v>
+      </c>
+      <c r="F85" s="190"/>
+      <c r="G85" s="190"/>
+    </row>
+    <row r="86" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B86" s="202"/>
+      <c r="C86" s="196"/>
+      <c r="D86" s="189"/>
+      <c r="E86" s="227"/>
+      <c r="F86" s="190"/>
+      <c r="G86" s="190"/>
+    </row>
+    <row r="87" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B87" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="C87" s="196" t="s">
+        <v>267</v>
+      </c>
+      <c r="D87" s="189"/>
+      <c r="E87" s="227" t="s">
+        <v>349</v>
+      </c>
+      <c r="F87" s="190"/>
+      <c r="G87" s="190"/>
+    </row>
+    <row r="88" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B88" s="201"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="189"/>
+      <c r="E88" s="227" t="s">
+        <v>350</v>
+      </c>
+      <c r="F88" s="190"/>
+      <c r="G88" s="190"/>
+    </row>
+    <row r="89" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B89" s="201"/>
+      <c r="C89" s="186"/>
+      <c r="D89" s="189"/>
+      <c r="E89" s="227" t="s">
+        <v>351</v>
+      </c>
+      <c r="F89" s="190"/>
+      <c r="G89" s="190"/>
+    </row>
+    <row r="90" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B90" s="201"/>
+      <c r="C90" s="186"/>
+      <c r="D90" s="189"/>
+      <c r="E90" s="227"/>
+      <c r="F90" s="190"/>
+      <c r="G90" s="190"/>
+    </row>
+    <row r="91" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B91" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="C91" s="196" t="s">
+        <v>352</v>
+      </c>
+      <c r="D91" s="189"/>
+      <c r="E91" s="227" t="s">
+        <v>353</v>
+      </c>
+      <c r="F91" s="190"/>
+      <c r="G91" s="190"/>
+    </row>
+    <row r="92" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B92" s="201"/>
+      <c r="C92" s="186"/>
+      <c r="D92" s="189"/>
+      <c r="E92" s="227" t="s">
+        <v>354</v>
+      </c>
+      <c r="F92" s="190"/>
+      <c r="G92" s="190"/>
+    </row>
+    <row r="93" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B93" s="201"/>
+      <c r="C93" s="186"/>
+      <c r="D93" s="189"/>
+      <c r="E93" s="227"/>
+      <c r="F93" s="190"/>
+      <c r="G93" s="190"/>
+    </row>
+    <row r="94" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B94" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="C94" s="196" t="s">
+        <v>269</v>
+      </c>
+      <c r="D94" s="189"/>
+      <c r="E94" s="227" t="s">
+        <v>356</v>
+      </c>
+      <c r="F94" s="190"/>
+      <c r="G94" s="190"/>
+    </row>
+    <row r="95" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B95" s="202"/>
+      <c r="C95" s="196"/>
+      <c r="D95" s="189"/>
+      <c r="E95" s="227" t="s">
+        <v>355</v>
+      </c>
+      <c r="F95" s="190"/>
+      <c r="G95" s="190"/>
+    </row>
+    <row r="96" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B96" s="202"/>
+      <c r="C96" s="196"/>
+      <c r="D96" s="189"/>
+      <c r="E96" s="227" t="s">
+        <v>357</v>
+      </c>
+      <c r="F96" s="190"/>
+      <c r="G96" s="190"/>
+    </row>
+    <row r="97" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B97" s="201"/>
+      <c r="C97" s="186"/>
+      <c r="D97" s="189"/>
+      <c r="E97" s="227" t="s">
+        <v>358</v>
+      </c>
+      <c r="F97" s="190"/>
+      <c r="G97" s="190"/>
+    </row>
+    <row r="98" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B98" s="201"/>
+      <c r="C98" s="186"/>
+      <c r="D98" s="189"/>
+      <c r="E98" s="227"/>
+      <c r="F98" s="190"/>
+      <c r="G98" s="190"/>
+    </row>
+    <row r="99" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B99" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="C99" s="196" t="s">
+        <v>268</v>
+      </c>
+      <c r="D99" s="189"/>
+      <c r="E99" s="190" t="s">
+        <v>359</v>
+      </c>
+      <c r="F99" s="190"/>
+      <c r="G99" s="190"/>
+    </row>
+    <row r="100" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B100" s="201"/>
+      <c r="C100" s="186"/>
+      <c r="D100" s="189"/>
+      <c r="E100" s="190" t="s">
+        <v>360</v>
+      </c>
+      <c r="F100" s="190"/>
+      <c r="G100" s="190"/>
+    </row>
+    <row r="101" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B101" s="201"/>
+      <c r="C101" s="186"/>
+      <c r="D101" s="189"/>
+      <c r="E101" s="190"/>
+      <c r="F101" s="190"/>
+      <c r="G101" s="190"/>
+    </row>
+    <row r="102" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B102" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="C102" s="196" t="s">
+        <v>272</v>
+      </c>
+      <c r="D102" s="189"/>
+      <c r="E102" s="190" t="s">
+        <v>363</v>
+      </c>
+      <c r="F102" s="190"/>
+      <c r="G102" s="190"/>
+    </row>
+    <row r="103" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B103" s="201"/>
+      <c r="C103" s="186"/>
+      <c r="D103" s="189"/>
+      <c r="E103" s="190" t="s">
+        <v>361</v>
+      </c>
+      <c r="F103" s="190"/>
+      <c r="G103" s="190"/>
+    </row>
+    <row r="104" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B104" s="201"/>
+      <c r="C104" s="186"/>
+      <c r="D104" s="189"/>
+      <c r="E104" s="190" t="s">
+        <v>364</v>
+      </c>
+      <c r="F104" s="190"/>
+      <c r="G104" s="190"/>
+    </row>
+    <row r="105" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B105" s="201"/>
+      <c r="C105" s="186"/>
+      <c r="D105" s="189"/>
+      <c r="E105" s="190"/>
+      <c r="F105" s="190"/>
+      <c r="G105" s="190"/>
+    </row>
+    <row r="106" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B106" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="C106" s="196" t="s">
+        <v>270</v>
+      </c>
+      <c r="D106" s="189"/>
+      <c r="E106" s="190" t="s">
+        <v>366</v>
+      </c>
+      <c r="F106" s="190"/>
+      <c r="G106" s="190"/>
+    </row>
+    <row r="107" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B107" s="201"/>
+      <c r="C107" s="186"/>
+      <c r="D107" s="189"/>
+      <c r="E107" s="190" t="s">
+        <v>270</v>
+      </c>
+      <c r="F107" s="190"/>
+      <c r="G107" s="190"/>
+    </row>
+    <row r="108" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B108" s="201"/>
+      <c r="C108" s="186"/>
+      <c r="D108" s="189"/>
+      <c r="E108" s="190"/>
+      <c r="F108" s="190"/>
+      <c r="G108" s="190"/>
+    </row>
+    <row r="109" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B109" s="202" t="s">
+        <v>255</v>
+      </c>
+      <c r="C109" s="196" t="s">
+        <v>259</v>
+      </c>
+      <c r="D109" s="189" t="s">
+        <v>367</v>
+      </c>
+      <c r="E109" s="190"/>
+      <c r="F109" s="190"/>
+      <c r="G109" s="190"/>
+    </row>
+    <row r="110" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B110" s="201"/>
+      <c r="C110" s="186"/>
+      <c r="D110" s="189"/>
+      <c r="E110" s="190"/>
+      <c r="F110" s="190"/>
+      <c r="G110" s="190" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B111" s="202" t="s">
+        <v>255</v>
+      </c>
+      <c r="C111" s="196" t="s">
+        <v>260</v>
+      </c>
+      <c r="D111" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="E111" s="190"/>
+      <c r="F111" s="190"/>
+      <c r="G111" s="190"/>
+    </row>
+    <row r="112" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B112" s="201"/>
+      <c r="C112" s="186"/>
+      <c r="D112" s="189"/>
+      <c r="E112" s="190"/>
+      <c r="F112" s="190"/>
+      <c r="G112" s="190" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B113" s="202" t="s">
+        <v>255</v>
+      </c>
+      <c r="C113" s="196" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="205" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="206"/>
-      <c r="G14" s="81"/>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B15" s="229"/>
-      <c r="C15" s="208"/>
-      <c r="D15" s="209" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="233" t="s">
-        <v>280</v>
-      </c>
-      <c r="F15" s="233" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B16" s="230" t="s">
+      <c r="D113" s="189" t="s">
+        <v>370</v>
+      </c>
+      <c r="E113" s="190"/>
+      <c r="F113" s="190"/>
+      <c r="G113" s="190"/>
+    </row>
+    <row r="114" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B114" s="201"/>
+      <c r="C114" s="186"/>
+      <c r="D114" s="189"/>
+      <c r="E114" s="190"/>
+      <c r="F114" s="190"/>
+      <c r="G114" s="190" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B115" s="201" t="s">
         <v>255</v>
       </c>
-      <c r="C16" s="224" t="s">
-        <v>253</v>
-      </c>
-      <c r="D16" s="211"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="212"/>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B17" s="229"/>
-      <c r="C17" s="207"/>
-      <c r="D17" s="211"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B18" s="230" t="s">
-        <v>255</v>
-      </c>
-      <c r="C18" s="224" t="s">
-        <v>254</v>
-      </c>
-      <c r="D18" s="214"/>
-      <c r="E18" s="215"/>
-      <c r="F18" s="215"/>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B19" s="229"/>
-      <c r="C19" s="207"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="215"/>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B20" s="230" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20" s="224" t="s">
-        <v>256</v>
-      </c>
-      <c r="D20" s="214"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B21" s="229"/>
-      <c r="C21" s="207"/>
-      <c r="D21" s="214"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="215"/>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B22" s="230" t="s">
-        <v>255</v>
-      </c>
-      <c r="C22" s="224" t="s">
-        <v>257</v>
-      </c>
-      <c r="D22" s="214"/>
-      <c r="E22" s="215"/>
-      <c r="F22" s="215"/>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B23" s="229"/>
-      <c r="C23" s="207"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="215"/>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B24" s="230" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="224" t="s">
-        <v>258</v>
-      </c>
-      <c r="D24" s="214"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="215"/>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B25" s="229"/>
-      <c r="C25" s="207"/>
-      <c r="D25" s="214"/>
-      <c r="E25" s="215"/>
-      <c r="F25" s="215"/>
-    </row>
-    <row r="26" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B26" s="230" t="s">
-        <v>255</v>
-      </c>
-      <c r="C26" s="224" t="s">
-        <v>259</v>
-      </c>
-      <c r="D26" s="214"/>
-      <c r="E26" s="215"/>
-      <c r="F26" s="215"/>
-    </row>
-    <row r="27" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B27" s="229"/>
-      <c r="C27" s="207"/>
-      <c r="D27" s="214"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="215"/>
-    </row>
-    <row r="28" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B28" s="230" t="s">
-        <v>255</v>
-      </c>
-      <c r="C28" s="224" t="s">
-        <v>260</v>
-      </c>
-      <c r="D28" s="214"/>
-      <c r="E28" s="215"/>
-      <c r="F28" s="215"/>
-    </row>
-    <row r="29" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B29" s="229"/>
-      <c r="C29" s="207"/>
-      <c r="D29" s="214"/>
-      <c r="E29" s="215"/>
-      <c r="F29" s="215"/>
-    </row>
-    <row r="30" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B30" s="230" t="s">
-        <v>255</v>
-      </c>
-      <c r="C30" s="224" t="s">
-        <v>262</v>
-      </c>
-      <c r="D30" s="214"/>
-      <c r="E30" s="215"/>
-      <c r="F30" s="215"/>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B31" s="229"/>
-      <c r="C31" s="207"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="215"/>
-    </row>
-    <row r="32" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B32" s="230" t="s">
-        <v>255</v>
-      </c>
-      <c r="C32" s="224" t="s">
-        <v>263</v>
-      </c>
-      <c r="D32" s="214"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="215"/>
-    </row>
-    <row r="33" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B33" s="229"/>
-      <c r="C33" s="207"/>
-      <c r="D33" s="214"/>
-      <c r="E33" s="215"/>
-      <c r="F33" s="215"/>
-    </row>
-    <row r="34" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B34" s="230" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" s="224" t="s">
-        <v>264</v>
-      </c>
-      <c r="D34" s="214"/>
-      <c r="E34" s="215"/>
-      <c r="F34" s="215"/>
-    </row>
-    <row r="35" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B35" s="229"/>
-      <c r="C35" s="207"/>
-      <c r="D35" s="214"/>
-      <c r="E35" s="215"/>
-      <c r="F35" s="215"/>
-    </row>
-    <row r="36" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B36" s="230" t="s">
-        <v>265</v>
-      </c>
-      <c r="C36" s="224" t="s">
-        <v>266</v>
-      </c>
-      <c r="D36" s="214"/>
-      <c r="E36" s="215"/>
-      <c r="F36" s="215"/>
-    </row>
-    <row r="37" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B37" s="229"/>
-      <c r="C37" s="207"/>
-      <c r="D37" s="214"/>
-      <c r="E37" s="215"/>
-      <c r="F37" s="215"/>
-    </row>
-    <row r="38" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B38" s="230" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="224" t="s">
-        <v>267</v>
-      </c>
-      <c r="D38" s="214"/>
-      <c r="E38" s="215"/>
-      <c r="F38" s="215"/>
-    </row>
-    <row r="39" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B39" s="229"/>
-      <c r="C39" s="207"/>
-      <c r="D39" s="214"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="215"/>
-    </row>
-    <row r="40" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B40" s="230" t="s">
-        <v>265</v>
-      </c>
-      <c r="C40" s="224" t="s">
-        <v>268</v>
-      </c>
-      <c r="D40" s="214"/>
-      <c r="E40" s="215"/>
-      <c r="F40" s="215"/>
-    </row>
-    <row r="41" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B41" s="229"/>
-      <c r="C41" s="207"/>
-      <c r="D41" s="214"/>
-      <c r="E41" s="215"/>
-      <c r="F41" s="215"/>
-    </row>
-    <row r="42" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B42" s="230" t="s">
-        <v>269</v>
-      </c>
-      <c r="C42" s="224" t="s">
-        <v>270</v>
-      </c>
-      <c r="D42" s="214"/>
-      <c r="E42" s="215"/>
-      <c r="F42" s="215"/>
-    </row>
-    <row r="43" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B43" s="229"/>
-      <c r="C43" s="207"/>
-      <c r="D43" s="214"/>
-      <c r="E43" s="215"/>
-      <c r="F43" s="215"/>
-    </row>
-    <row r="44" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B44" s="230" t="s">
-        <v>269</v>
-      </c>
-      <c r="C44" s="224" t="s">
-        <v>271</v>
-      </c>
-      <c r="D44" s="214"/>
-      <c r="E44" s="215"/>
-      <c r="F44" s="215"/>
-    </row>
-    <row r="45" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B45" s="229"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="214"/>
-      <c r="E45" s="215"/>
-      <c r="F45" s="215"/>
-    </row>
-    <row r="46" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B46" s="230" t="s">
-        <v>269</v>
-      </c>
-      <c r="C46" s="224" t="s">
-        <v>272</v>
-      </c>
-      <c r="D46" s="214"/>
-      <c r="E46" s="215"/>
-      <c r="F46" s="215"/>
-    </row>
-    <row r="47" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B47" s="229"/>
-      <c r="C47" s="207"/>
-      <c r="D47" s="214"/>
-      <c r="E47" s="215"/>
-      <c r="F47" s="215"/>
-    </row>
-    <row r="48" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B48" s="230" t="s">
-        <v>269</v>
-      </c>
-      <c r="C48" s="224" t="s">
-        <v>273</v>
-      </c>
-      <c r="D48" s="214"/>
-      <c r="E48" s="215"/>
-      <c r="F48" s="215"/>
-    </row>
-    <row r="49" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B49" s="229"/>
-      <c r="C49" s="207"/>
-      <c r="D49" s="214"/>
-      <c r="E49" s="215"/>
-      <c r="F49" s="215"/>
-    </row>
-    <row r="50" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B50" s="230" t="s">
-        <v>269</v>
-      </c>
-      <c r="C50" s="224" t="s">
-        <v>274</v>
-      </c>
-      <c r="D50" s="214"/>
-      <c r="E50" s="215"/>
-      <c r="F50" s="215"/>
-    </row>
-    <row r="51" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B51" s="229"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="214"/>
-      <c r="E51" s="215"/>
-      <c r="F51" s="215"/>
-    </row>
-    <row r="52" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B52" s="230" t="s">
-        <v>269</v>
-      </c>
-      <c r="C52" s="224" t="s">
-        <v>275</v>
-      </c>
-      <c r="D52" s="214"/>
-      <c r="E52" s="215"/>
-      <c r="F52" s="215"/>
-    </row>
-    <row r="53" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B53" s="229"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="214"/>
-      <c r="E53" s="215"/>
-      <c r="F53" s="215"/>
-    </row>
-    <row r="54" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B54" s="230" t="s">
-        <v>269</v>
-      </c>
-      <c r="C54" s="224" t="s">
-        <v>278</v>
-      </c>
-      <c r="D54" s="214"/>
-      <c r="E54" s="215"/>
-      <c r="F54" s="215"/>
-    </row>
-    <row r="55" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B55" s="229"/>
-      <c r="C55" s="207"/>
-      <c r="D55" s="214"/>
-      <c r="E55" s="215"/>
-      <c r="F55" s="215"/>
-    </row>
-    <row r="56" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B56" s="230" t="s">
-        <v>269</v>
-      </c>
-      <c r="C56" s="224" t="s">
-        <v>276</v>
-      </c>
-      <c r="D56" s="214"/>
-      <c r="E56" s="215"/>
-      <c r="F56" s="215"/>
-    </row>
-    <row r="57" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B57" s="229"/>
-      <c r="C57" s="207"/>
-      <c r="D57" s="214"/>
-      <c r="E57" s="215"/>
-      <c r="F57" s="215"/>
-    </row>
-    <row r="58" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B58" s="230" t="s">
-        <v>269</v>
-      </c>
-      <c r="C58" s="224" t="s">
-        <v>277</v>
-      </c>
-      <c r="D58" s="214"/>
-      <c r="E58" s="215"/>
-      <c r="F58" s="215"/>
-    </row>
-    <row r="59" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B59" s="229"/>
-      <c r="C59" s="207"/>
-      <c r="D59" s="214"/>
-      <c r="E59" s="215"/>
-      <c r="F59" s="215"/>
-    </row>
-    <row r="60" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B60" s="230" t="s">
-        <v>269</v>
-      </c>
-      <c r="C60" s="224" t="s">
-        <v>279</v>
-      </c>
-      <c r="D60" s="214"/>
-      <c r="E60" s="215"/>
-      <c r="F60" s="215"/>
-    </row>
-    <row r="61" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B61" s="229"/>
-      <c r="C61" s="207"/>
-      <c r="D61" s="214"/>
-      <c r="E61" s="215"/>
-      <c r="F61" s="215"/>
-    </row>
-    <row r="62" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B62" s="229"/>
-      <c r="C62" s="207"/>
-      <c r="D62" s="214"/>
-      <c r="E62" s="215"/>
-      <c r="F62" s="215"/>
-    </row>
-    <row r="63" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B63" s="229"/>
-      <c r="C63" s="207"/>
-      <c r="D63" s="214"/>
-      <c r="E63" s="215"/>
-      <c r="F63" s="215"/>
-    </row>
-    <row r="64" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B64" s="229"/>
-      <c r="C64" s="207"/>
-      <c r="D64" s="214"/>
-      <c r="E64" s="215"/>
-      <c r="F64" s="215"/>
-    </row>
-    <row r="65" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B65" s="229"/>
-      <c r="C65" s="207"/>
-      <c r="D65" s="214"/>
-      <c r="E65" s="215"/>
-      <c r="F65" s="215"/>
-    </row>
-    <row r="66" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B66" s="229"/>
-      <c r="C66" s="207"/>
-      <c r="D66" s="214"/>
-      <c r="E66" s="215"/>
-      <c r="F66" s="215"/>
-    </row>
-    <row r="67" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B67" s="229"/>
-      <c r="C67" s="207"/>
-      <c r="D67" s="214"/>
-      <c r="E67" s="215"/>
-      <c r="F67" s="215"/>
-    </row>
-    <row r="68" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B68" s="229"/>
-      <c r="C68" s="207"/>
-      <c r="D68" s="214"/>
-      <c r="E68" s="215"/>
-      <c r="F68" s="215"/>
-    </row>
-    <row r="69" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B69" s="229"/>
-      <c r="C69" s="207"/>
-      <c r="D69" s="214"/>
-      <c r="E69" s="215"/>
-      <c r="F69" s="215"/>
-    </row>
-    <row r="70" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B70" s="229"/>
-      <c r="C70" s="207"/>
-      <c r="D70" s="214"/>
-      <c r="E70" s="215"/>
-      <c r="F70" s="215"/>
-    </row>
-    <row r="71" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B71" s="229"/>
-      <c r="C71" s="207"/>
-      <c r="D71" s="214"/>
-      <c r="E71" s="215"/>
-      <c r="F71" s="215"/>
-    </row>
-    <row r="72" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B72" s="231"/>
-      <c r="C72" s="210"/>
-      <c r="D72" s="211"/>
-      <c r="E72" s="212"/>
-      <c r="F72" s="212"/>
-    </row>
-    <row r="73" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B73" s="231"/>
-      <c r="C73" s="213"/>
-      <c r="D73" s="211"/>
-      <c r="E73" s="212"/>
-      <c r="F73" s="212"/>
-    </row>
-    <row r="74" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B74" s="229"/>
-      <c r="C74" s="207"/>
-      <c r="D74" s="214"/>
-      <c r="E74" s="215"/>
-      <c r="F74" s="215"/>
-    </row>
-    <row r="75" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B75" s="229"/>
-      <c r="C75" s="207"/>
-      <c r="D75" s="214"/>
-      <c r="E75" s="215"/>
-      <c r="F75" s="215"/>
-    </row>
-    <row r="76" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B76" s="229"/>
-      <c r="C76" s="207"/>
-      <c r="D76" s="214"/>
-      <c r="E76" s="215"/>
-      <c r="F76" s="215"/>
-    </row>
-    <row r="77" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B77" s="229"/>
-      <c r="C77" s="207"/>
-      <c r="D77" s="214"/>
-      <c r="E77" s="215"/>
-      <c r="F77" s="215"/>
-    </row>
-    <row r="78" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B78" s="229"/>
-      <c r="C78" s="207"/>
-      <c r="D78" s="214"/>
-      <c r="E78" s="215"/>
-      <c r="F78" s="215"/>
-    </row>
-    <row r="79" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B79" s="229"/>
-      <c r="C79" s="207"/>
-      <c r="D79" s="214"/>
-      <c r="E79" s="215"/>
-      <c r="F79" s="215"/>
-    </row>
-    <row r="80" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B80" s="232"/>
-      <c r="C80" s="216"/>
-      <c r="D80" s="217"/>
-      <c r="E80" s="218"/>
-      <c r="F80" s="218"/>
-    </row>
-    <row r="85" spans="4:4" ht="18" customHeight="1"/>
-    <row r="88" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D88" s="82"/>
+      <c r="C115" s="196" t="s">
+        <v>373</v>
+      </c>
+      <c r="D115" s="226" t="s">
+        <v>374</v>
+      </c>
+      <c r="E115" s="190"/>
+      <c r="F115" s="190"/>
+      <c r="G115" s="190"/>
+    </row>
+    <row r="116" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B116" s="201"/>
+      <c r="C116" s="186"/>
+      <c r="D116" s="189"/>
+      <c r="E116" s="190"/>
+      <c r="F116" s="190"/>
+      <c r="G116" s="227" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B117" s="201"/>
+      <c r="C117" s="186"/>
+      <c r="D117" s="189"/>
+      <c r="E117" s="190"/>
+      <c r="F117" s="190"/>
+      <c r="G117" s="227" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B118" s="203"/>
+      <c r="C118" s="191"/>
+      <c r="D118" s="189"/>
+      <c r="E118" s="190"/>
+      <c r="F118" s="190"/>
+      <c r="G118" s="190"/>
+    </row>
+    <row r="123" spans="2:7" ht="18" customHeight="1"/>
+    <row r="126" spans="2:7" ht="15.75" customHeight="1">
+      <c r="D126" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5405,7 +6227,7 @@
   <dimension ref="G1:W28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5582,13 +6404,13 @@
       <c r="J11" s="82"/>
       <c r="K11" s="82"/>
       <c r="L11" s="82"/>
-      <c r="M11" s="174"/>
-      <c r="N11" s="166"/>
-      <c r="O11" s="166"/>
+      <c r="M11" s="218"/>
+      <c r="N11" s="206"/>
+      <c r="O11" s="206"/>
       <c r="P11" s="82"/>
       <c r="Q11" s="82"/>
-      <c r="R11" s="174"/>
-      <c r="S11" s="175"/>
+      <c r="R11" s="218"/>
+      <c r="S11" s="219"/>
     </row>
     <row r="12" spans="7:19" ht="15">
       <c r="G12" s="26"/>
@@ -5798,9 +6620,9 @@
       <c r="W23" s="82"/>
     </row>
     <row r="24" spans="7:23" ht="15">
-      <c r="G24" s="173"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="166"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="206"/>
       <c r="J24" s="82"/>
       <c r="K24" s="82"/>
       <c r="L24" s="82"/>
@@ -5836,9 +6658,9 @@
       <c r="W25" s="82"/>
     </row>
     <row r="26" spans="7:23" ht="15">
-      <c r="G26" s="173"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="166"/>
+      <c r="G26" s="217"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="206"/>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
       <c r="L26" s="82"/>
@@ -5883,14 +6705,14 @@
       <c r="M28" s="82"/>
       <c r="N28" s="82"/>
       <c r="O28" s="82"/>
-      <c r="P28" s="173"/>
-      <c r="Q28" s="166"/>
-      <c r="R28" s="166"/>
+      <c r="P28" s="217"/>
+      <c r="Q28" s="206"/>
+      <c r="R28" s="206"/>
       <c r="S28" s="82"/>
-      <c r="T28" s="173"/>
-      <c r="U28" s="166"/>
-      <c r="V28" s="166"/>
-      <c r="W28" s="166"/>
+      <c r="T28" s="217"/>
+      <c r="U28" s="206"/>
+      <c r="V28" s="206"/>
+      <c r="W28" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5940,16 +6762,16 @@
     </row>
     <row r="3" spans="2:10" ht="84" customHeight="1">
       <c r="B3" s="81"/>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="211" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
     </row>
     <row r="4" spans="2:10" ht="12.75" customHeight="1">
       <c r="B4" s="102"/>
@@ -6116,7 +6938,7 @@
   <dimension ref="B2:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6133,32 +6955,32 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="17.25" customHeight="1">
-      <c r="C3" s="179" t="s">
+      <c r="C3" s="223" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1">
       <c r="C4" s="94"/>
     </row>
     <row r="5" spans="2:11" ht="12.75">
-      <c r="G5" s="177" t="s">
+      <c r="G5" s="221" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="178"/>
+      <c r="H5" s="222"/>
     </row>
     <row r="6" spans="2:11" ht="18.75" customHeight="1">
-      <c r="C6" s="176" t="s">
+      <c r="C6" s="220" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="176"/>
+      <c r="D6" s="220"/>
       <c r="G6" s="83" t="s">
         <v>110</v>
       </c>
@@ -6268,7 +7090,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6286,33 +7108,33 @@
     <row r="1" spans="2:8" ht="57" customHeight="1">
       <c r="B1" s="85"/>
       <c r="C1" s="86"/>
-      <c r="D1" s="180" t="s">
+      <c r="D1" s="224" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
       <c r="B2" s="85"/>
       <c r="C2" s="86"/>
-      <c r="D2" s="178" t="s">
+      <c r="D2" s="222" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
     </row>
     <row r="3" spans="2:8" ht="12.75" customHeight="1">
       <c r="B3" s="85"/>
       <c r="C3" s="86"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="222"/>
+      <c r="H3" s="222"/>
     </row>
     <row r="4" spans="2:8" ht="12.75" customHeight="1">
       <c r="B4" s="39" t="s">
@@ -6435,12 +7257,12 @@
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1">
       <c r="B4" s="74"/>

--- a/doc/chiffrier_sim_vie.xlsx
+++ b/doc/chiffrier_sim_vie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\sim_vie\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47095104-6283-4E40-A0FB-7E93641577D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09C323F-E83A-4063-8586-834835388811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="601">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -3131,7 +3131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3498,7 +3498,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3562,180 +3561,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3777,21 +3604,190 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4125,15 +4121,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:I49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.28515625" customWidth="1"/>
     <col min="4" max="4" width="69.42578125" customWidth="1"/>
@@ -4144,69 +4140,86 @@
     <col min="9" max="28" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1" s="187" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A2" s="189"/>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B3" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A3" s="192" t="s">
+        <v>488</v>
+      </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="64"/>
-    </row>
-    <row r="4" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="64"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A4" s="192" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="63"/>
       <c r="D4" s="63"/>
       <c r="E4" s="63"/>
       <c r="F4" s="63"/>
       <c r="G4" s="63"/>
       <c r="H4" s="63"/>
-    </row>
-    <row r="5" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B5" s="63"/>
+      <c r="I4" s="63"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A5" s="192" t="s">
+        <v>490</v>
+      </c>
       <c r="C5" s="63"/>
       <c r="D5" s="63"/>
       <c r="E5" s="63"/>
       <c r="F5" s="63"/>
       <c r="G5" s="63"/>
       <c r="H5" s="63"/>
-    </row>
-    <row r="6" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B6" s="63"/>
+      <c r="I5" s="63"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A6" s="192"/>
       <c r="C6" s="63"/>
       <c r="D6" s="63"/>
       <c r="E6" s="63"/>
       <c r="F6" s="63"/>
       <c r="G6" s="63"/>
       <c r="H6" s="63"/>
-    </row>
-    <row r="7" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B7" s="2" t="s">
+      <c r="I6" s="63"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A7" s="196"/>
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" ht="17.25" customHeight="1">
+      <c r="H7" s="19"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1">
       <c r="B8" s="6"/>
       <c r="C8" s="12"/>
       <c r="D8" s="5"/>
@@ -4217,7 +4230,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="17.25" customHeight="1">
+    <row r="9" spans="1:9" ht="17.25" customHeight="1">
       <c r="B9" s="6"/>
       <c r="C9" s="12" t="s">
         <v>5</v>
@@ -4231,7 +4244,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:8" ht="17.25" customHeight="1">
+    <row r="10" spans="1:9" ht="17.25" customHeight="1">
       <c r="B10" s="6"/>
       <c r="C10" s="12"/>
       <c r="D10" s="5"/>
@@ -4239,7 +4252,7 @@
       <c r="F10" s="6"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="17.25" customHeight="1">
+    <row r="11" spans="1:9" ht="17.25" customHeight="1">
       <c r="B11" s="6"/>
       <c r="C11" s="12" t="s">
         <v>8</v>
@@ -4256,7 +4269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="17.25" customHeight="1">
+    <row r="12" spans="1:9" ht="17.25" customHeight="1">
       <c r="B12" s="6"/>
       <c r="C12" s="12"/>
       <c r="D12" s="5"/>
@@ -4267,7 +4280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="17.25" customHeight="1">
+    <row r="13" spans="1:9" ht="17.25" customHeight="1">
       <c r="B13" s="6"/>
       <c r="C13" s="12" t="s">
         <v>13</v>
@@ -4281,7 +4294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="17.25" customHeight="1">
+    <row r="14" spans="1:9" ht="17.25" customHeight="1">
       <c r="B14" s="6"/>
       <c r="C14" s="12"/>
       <c r="D14" s="5"/>
@@ -4291,7 +4304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="17.25" customHeight="1">
+    <row r="15" spans="1:9" ht="17.25" customHeight="1">
       <c r="B15" s="6"/>
       <c r="C15" s="12" t="s">
         <v>17</v>
@@ -4305,7 +4318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="17.25" customHeight="1">
+    <row r="16" spans="1:9" ht="17.25" customHeight="1">
       <c r="B16" s="21"/>
       <c r="C16" s="64"/>
       <c r="D16" s="8" t="s">
@@ -4489,22 +4502,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="186"/>
-      <c r="G36" s="187"/>
-      <c r="H36" s="187"/>
-      <c r="I36" s="187"/>
+      <c r="F36" s="211"/>
+      <c r="G36" s="212"/>
+      <c r="H36" s="212"/>
+      <c r="I36" s="212"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="187"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="187"/>
+      <c r="F37" s="212"/>
+      <c r="G37" s="212"/>
+      <c r="H37" s="212"/>
+      <c r="I37" s="212"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="187"/>
-      <c r="G38" s="187"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="187"/>
+      <c r="F38" s="212"/>
+      <c r="G38" s="212"/>
+      <c r="H38" s="212"/>
+      <c r="I38" s="212"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="64"/>
@@ -4513,22 +4526,22 @@
       <c r="I39" s="64"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="186"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
+      <c r="F40" s="211"/>
+      <c r="G40" s="212"/>
+      <c r="H40" s="212"/>
+      <c r="I40" s="212"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="187"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="187"/>
-      <c r="I41" s="187"/>
+      <c r="F41" s="212"/>
+      <c r="G41" s="212"/>
+      <c r="H41" s="212"/>
+      <c r="I41" s="212"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="187"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="187"/>
-      <c r="I42" s="187"/>
+      <c r="F42" s="212"/>
+      <c r="G42" s="212"/>
+      <c r="H42" s="212"/>
+      <c r="I42" s="212"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="64"/>
@@ -4543,34 +4556,34 @@
       <c r="I44" s="64"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="186"/>
-      <c r="G45" s="187"/>
-      <c r="H45" s="187"/>
-      <c r="I45" s="187"/>
+      <c r="F45" s="211"/>
+      <c r="G45" s="212"/>
+      <c r="H45" s="212"/>
+      <c r="I45" s="212"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="187"/>
-      <c r="G46" s="187"/>
-      <c r="H46" s="187"/>
-      <c r="I46" s="187"/>
+      <c r="F46" s="212"/>
+      <c r="G46" s="212"/>
+      <c r="H46" s="212"/>
+      <c r="I46" s="212"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="187"/>
-      <c r="G47" s="187"/>
-      <c r="H47" s="187"/>
-      <c r="I47" s="187"/>
+      <c r="F47" s="212"/>
+      <c r="G47" s="212"/>
+      <c r="H47" s="212"/>
+      <c r="I47" s="212"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="187"/>
-      <c r="G48" s="187"/>
-      <c r="H48" s="187"/>
-      <c r="I48" s="187"/>
+      <c r="F48" s="212"/>
+      <c r="G48" s="212"/>
+      <c r="H48" s="212"/>
+      <c r="I48" s="212"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="187"/>
-      <c r="G49" s="187"/>
-      <c r="H49" s="187"/>
-      <c r="I49" s="187"/>
+      <c r="F49" s="212"/>
+      <c r="G49" s="212"/>
+      <c r="H49" s="212"/>
+      <c r="I49" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4587,15 +4600,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:H99"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" customWidth="1"/>
@@ -4604,53 +4617,70 @@
     <col min="8" max="8" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B2" s="64"/>
-      <c r="C2" s="13" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1" s="187" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="189"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="64"/>
       <c r="E2" s="64"/>
-    </row>
-    <row r="3" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B3" s="64"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
+      <c r="F2" s="64"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75">
+      <c r="A3" s="192" t="s">
+        <v>488</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="64"/>
-    </row>
-    <row r="4" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64" t="s">
+      <c r="F3" s="64"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75">
+      <c r="A4" s="192" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="64"/>
       <c r="E4" s="64"/>
-    </row>
-    <row r="5" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B5" s="64"/>
-      <c r="C5" s="64" t="s">
+      <c r="F4" s="64"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75">
+      <c r="A5" s="192" t="s">
+        <v>490</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="64"/>
       <c r="E5" s="64"/>
-    </row>
-    <row r="6" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B6" s="64"/>
-      <c r="C6" s="64" t="s">
+      <c r="F5" s="64"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A6" s="192"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="64"/>
       <c r="E6" s="64"/>
-    </row>
-    <row r="7" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B7" s="64"/>
-      <c r="C7" s="64" t="s">
+      <c r="F6" s="64"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A7" s="196"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="64"/>
       <c r="E7" s="64"/>
-    </row>
-    <row r="8" spans="2:8" ht="12.75" customHeight="1">
+      <c r="F7" s="64"/>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="B8" s="64"/>
       <c r="C8" s="64" t="s">
         <v>54</v>
@@ -4658,7 +4688,7 @@
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
     </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="B9" s="64"/>
       <c r="C9" s="64" t="s">
         <v>55</v>
@@ -4666,7 +4696,7 @@
       <c r="D9" s="64"/>
       <c r="E9" s="64"/>
     </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="B10" s="64"/>
       <c r="C10" s="64" t="s">
         <v>56</v>
@@ -4674,13 +4704,13 @@
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
     </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="B11" s="64"/>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
     </row>
-    <row r="12" spans="2:8" ht="12.75" customHeight="1">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
         <v>57</v>
@@ -4692,8 +4722,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B13" s="188" t="s">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1">
+      <c r="B13" s="213" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="85"/>
@@ -4701,8 +4731,8 @@
       <c r="E13" s="20"/>
       <c r="H13" s="106"/>
     </row>
-    <row r="14" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B14" s="189"/>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1">
+      <c r="B14" s="214"/>
       <c r="C14" s="86" t="s">
         <v>116</v>
       </c>
@@ -4714,14 +4744,14 @@
       </c>
       <c r="H14" s="106"/>
     </row>
-    <row r="15" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B15" s="189"/>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1">
+      <c r="B15" s="214"/>
       <c r="C15" s="89"/>
       <c r="D15" s="87"/>
       <c r="E15" s="88"/>
     </row>
-    <row r="16" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B16" s="189"/>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1">
+      <c r="B16" s="214"/>
       <c r="C16" s="99" t="s">
         <v>183</v>
       </c>
@@ -4733,7 +4763,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="190"/>
+      <c r="B17" s="215"/>
       <c r="C17" s="89" t="s">
         <v>113</v>
       </c>
@@ -4741,7 +4771,7 @@
       <c r="E17" s="88"/>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="190"/>
+      <c r="B18" s="215"/>
       <c r="C18" s="99" t="s">
         <v>184</v>
       </c>
@@ -4751,13 +4781,13 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="190"/>
+      <c r="B19" s="215"/>
       <c r="C19" s="89"/>
       <c r="D19" s="87"/>
       <c r="E19" s="88"/>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="190"/>
+      <c r="B20" s="215"/>
       <c r="C20" s="86" t="s">
         <v>117</v>
       </c>
@@ -4769,13 +4799,13 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="190"/>
+      <c r="B21" s="215"/>
       <c r="C21" s="89"/>
       <c r="D21" s="87"/>
       <c r="E21" s="88"/>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="190"/>
+      <c r="B22" s="215"/>
       <c r="C22" s="99" t="s">
         <v>186</v>
       </c>
@@ -4787,7 +4817,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="190"/>
+      <c r="B23" s="215"/>
       <c r="C23" s="104" t="s">
         <v>122</v>
       </c>
@@ -4799,7 +4829,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="190"/>
+      <c r="B24" s="215"/>
       <c r="C24" s="89"/>
       <c r="D24" s="100" t="s">
         <v>188</v>
@@ -4807,7 +4837,7 @@
       <c r="E24" s="101"/>
     </row>
     <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="190"/>
+      <c r="B25" s="215"/>
       <c r="C25" s="99"/>
       <c r="D25" s="100" t="s">
         <v>125</v>
@@ -4815,7 +4845,7 @@
       <c r="E25" s="101"/>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="190"/>
+      <c r="B26" s="215"/>
       <c r="C26" s="99" t="s">
         <v>126</v>
       </c>
@@ -4825,7 +4855,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B27" s="190"/>
+      <c r="B27" s="215"/>
       <c r="C27" s="99" t="s">
         <v>128</v>
       </c>
@@ -4835,13 +4865,13 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="190"/>
+      <c r="B28" s="215"/>
       <c r="C28" s="89"/>
       <c r="D28" s="87"/>
       <c r="E28" s="88"/>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="190"/>
+      <c r="B29" s="215"/>
       <c r="C29" s="86" t="s">
         <v>130</v>
       </c>
@@ -4849,13 +4879,13 @@
       <c r="E29" s="88"/>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="190"/>
+      <c r="B30" s="215"/>
       <c r="C30" s="89"/>
       <c r="D30" s="87"/>
       <c r="E30" s="88"/>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="190"/>
+      <c r="B31" s="215"/>
       <c r="C31" s="99" t="s">
         <v>131</v>
       </c>
@@ -4865,7 +4895,7 @@
       <c r="E31" s="88"/>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="190"/>
+      <c r="B32" s="215"/>
       <c r="C32" s="99" t="s">
         <v>132</v>
       </c>
@@ -4873,7 +4903,7 @@
       <c r="E32" s="88"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="190"/>
+      <c r="B33" s="215"/>
       <c r="C33" s="99" t="s">
         <v>133</v>
       </c>
@@ -4881,7 +4911,7 @@
       <c r="E33" s="88"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="190"/>
+      <c r="B34" s="215"/>
       <c r="C34" s="99" t="s">
         <v>134</v>
       </c>
@@ -4889,7 +4919,7 @@
       <c r="E34" s="88"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="190"/>
+      <c r="B35" s="215"/>
       <c r="C35" s="99" t="s">
         <v>135</v>
       </c>
@@ -4897,13 +4927,13 @@
       <c r="E35" s="88"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="190"/>
+      <c r="B36" s="215"/>
       <c r="C36" s="99"/>
       <c r="D36" s="100"/>
       <c r="E36" s="88"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="190"/>
+      <c r="B37" s="215"/>
       <c r="C37" s="99" t="s">
         <v>189</v>
       </c>
@@ -4911,7 +4941,7 @@
       <c r="E37" s="88"/>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="190"/>
+      <c r="B38" s="215"/>
       <c r="C38" s="99" t="s">
         <v>139</v>
       </c>
@@ -4919,7 +4949,7 @@
       <c r="E38" s="88"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="190"/>
+      <c r="B39" s="215"/>
       <c r="C39" s="99" t="s">
         <v>137</v>
       </c>
@@ -4929,13 +4959,13 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="190"/>
+      <c r="B40" s="215"/>
       <c r="C40" s="99"/>
       <c r="D40" s="87"/>
       <c r="E40" s="88"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="190"/>
+      <c r="B41" s="215"/>
       <c r="C41" s="86" t="s">
         <v>140</v>
       </c>
@@ -4943,13 +4973,13 @@
       <c r="E41" s="88"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="190"/>
+      <c r="B42" s="215"/>
       <c r="C42" s="99"/>
       <c r="D42" s="87"/>
       <c r="E42" s="88"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="190"/>
+      <c r="B43" s="215"/>
       <c r="C43" s="99" t="s">
         <v>141</v>
       </c>
@@ -4957,7 +4987,7 @@
       <c r="E43" s="88"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="190"/>
+      <c r="B44" s="215"/>
       <c r="C44" s="99" t="s">
         <v>113</v>
       </c>
@@ -4967,7 +4997,7 @@
       <c r="E44" s="88"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="190"/>
+      <c r="B45" s="215"/>
       <c r="C45" s="99" t="s">
         <v>143</v>
       </c>
@@ -4977,7 +5007,7 @@
       <c r="E45" s="88"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="190"/>
+      <c r="B46" s="215"/>
       <c r="C46" s="99" t="s">
         <v>145</v>
       </c>
@@ -4987,7 +5017,7 @@
       <c r="E46" s="88"/>
     </row>
     <row r="47" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B47" s="190"/>
+      <c r="B47" s="215"/>
       <c r="C47" s="99" t="s">
         <v>147</v>
       </c>
@@ -4997,7 +5027,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B48" s="190"/>
+      <c r="B48" s="215"/>
       <c r="C48" s="104" t="s">
         <v>149</v>
       </c>
@@ -5005,7 +5035,7 @@
       <c r="E48" s="88"/>
     </row>
     <row r="49" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B49" s="190"/>
+      <c r="B49" s="215"/>
       <c r="C49" s="104" t="s">
         <v>150</v>
       </c>
@@ -5013,13 +5043,13 @@
       <c r="E49" s="88"/>
     </row>
     <row r="50" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B50" s="190"/>
+      <c r="B50" s="215"/>
       <c r="C50" s="99"/>
       <c r="D50" s="87"/>
       <c r="E50" s="88"/>
     </row>
     <row r="51" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B51" s="190"/>
+      <c r="B51" s="215"/>
       <c r="C51" s="86" t="s">
         <v>151</v>
       </c>
@@ -5027,13 +5057,13 @@
       <c r="E51" s="88"/>
     </row>
     <row r="52" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B52" s="190"/>
+      <c r="B52" s="215"/>
       <c r="C52" s="99"/>
       <c r="D52" s="87"/>
       <c r="E52" s="88"/>
     </row>
     <row r="53" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B53" s="190"/>
+      <c r="B53" s="215"/>
       <c r="C53" s="99" t="s">
         <v>152</v>
       </c>
@@ -5043,7 +5073,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B54" s="190"/>
+      <c r="B54" s="215"/>
       <c r="C54" s="99" t="s">
         <v>154</v>
       </c>
@@ -5051,7 +5081,7 @@
       <c r="E54" s="88"/>
     </row>
     <row r="55" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B55" s="190"/>
+      <c r="B55" s="215"/>
       <c r="C55" s="99" t="s">
         <v>155</v>
       </c>
@@ -5059,7 +5089,7 @@
       <c r="E55" s="88"/>
     </row>
     <row r="56" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B56" s="190"/>
+      <c r="B56" s="215"/>
       <c r="C56" s="99" t="s">
         <v>156</v>
       </c>
@@ -5067,7 +5097,7 @@
       <c r="E56" s="88"/>
     </row>
     <row r="57" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B57" s="190"/>
+      <c r="B57" s="215"/>
       <c r="C57" s="99" t="s">
         <v>157</v>
       </c>
@@ -5075,7 +5105,7 @@
       <c r="E57" s="88"/>
     </row>
     <row r="58" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B58" s="190"/>
+      <c r="B58" s="215"/>
       <c r="C58" s="99" t="s">
         <v>158</v>
       </c>
@@ -5085,7 +5115,7 @@
       <c r="E58" s="88"/>
     </row>
     <row r="59" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B59" s="190"/>
+      <c r="B59" s="215"/>
       <c r="C59" s="99" t="s">
         <v>150</v>
       </c>
@@ -5095,7 +5125,7 @@
       <c r="E59" s="88"/>
     </row>
     <row r="60" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B60" s="190"/>
+      <c r="B60" s="215"/>
       <c r="C60" s="99" t="s">
         <v>161</v>
       </c>
@@ -5103,7 +5133,7 @@
       <c r="E60" s="88"/>
     </row>
     <row r="61" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B61" s="190"/>
+      <c r="B61" s="215"/>
       <c r="C61" s="99" t="s">
         <v>162</v>
       </c>
@@ -5113,7 +5143,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B62" s="190"/>
+      <c r="B62" s="215"/>
       <c r="C62" s="99" t="s">
         <v>164</v>
       </c>
@@ -5121,13 +5151,13 @@
       <c r="E62" s="88"/>
     </row>
     <row r="63" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B63" s="190"/>
+      <c r="B63" s="215"/>
       <c r="C63" s="99"/>
       <c r="D63" s="87"/>
       <c r="E63" s="88"/>
     </row>
     <row r="64" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B64" s="190"/>
+      <c r="B64" s="215"/>
       <c r="C64" s="86" t="s">
         <v>165</v>
       </c>
@@ -5135,13 +5165,13 @@
       <c r="E64" s="88"/>
     </row>
     <row r="65" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B65" s="190"/>
+      <c r="B65" s="215"/>
       <c r="C65" s="99"/>
       <c r="D65" s="87"/>
       <c r="E65" s="88"/>
     </row>
     <row r="66" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B66" s="190"/>
+      <c r="B66" s="215"/>
       <c r="C66" s="99" t="s">
         <v>167</v>
       </c>
@@ -5149,7 +5179,7 @@
       <c r="E66" s="88"/>
     </row>
     <row r="67" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B67" s="190"/>
+      <c r="B67" s="215"/>
       <c r="C67" s="99" t="s">
         <v>168</v>
       </c>
@@ -5157,7 +5187,7 @@
       <c r="E67" s="88"/>
     </row>
     <row r="68" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B68" s="190"/>
+      <c r="B68" s="215"/>
       <c r="C68" s="99" t="s">
         <v>166</v>
       </c>
@@ -5165,7 +5195,7 @@
       <c r="E68" s="88"/>
     </row>
     <row r="69" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B69" s="190"/>
+      <c r="B69" s="215"/>
       <c r="C69" s="99" t="s">
         <v>169</v>
       </c>
@@ -5173,25 +5203,25 @@
       <c r="E69" s="88"/>
     </row>
     <row r="70" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B70" s="190"/>
+      <c r="B70" s="215"/>
       <c r="C70" s="99"/>
       <c r="D70" s="87"/>
       <c r="E70" s="88"/>
     </row>
     <row r="71" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B71" s="190"/>
+      <c r="B71" s="215"/>
       <c r="C71" s="99"/>
       <c r="D71" s="87"/>
       <c r="E71" s="88"/>
     </row>
     <row r="72" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B72" s="191"/>
+      <c r="B72" s="216"/>
       <c r="C72" s="90"/>
       <c r="D72" s="91"/>
       <c r="E72" s="92"/>
     </row>
     <row r="73" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B73" s="188" t="s">
+      <c r="B73" s="213" t="s">
         <v>61</v>
       </c>
       <c r="C73" s="99"/>
@@ -5203,7 +5233,7 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B74" s="190"/>
+      <c r="B74" s="215"/>
       <c r="C74" s="99" t="s">
         <v>200</v>
       </c>
@@ -5215,7 +5245,7 @@
       </c>
     </row>
     <row r="75" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B75" s="190"/>
+      <c r="B75" s="215"/>
       <c r="C75" s="89"/>
       <c r="D75" s="100" t="s">
         <v>174</v>
@@ -5225,7 +5255,7 @@
       </c>
     </row>
     <row r="76" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B76" s="190"/>
+      <c r="B76" s="215"/>
       <c r="C76" s="89"/>
       <c r="D76" s="87" t="s">
         <v>114</v>
@@ -5235,7 +5265,7 @@
       </c>
     </row>
     <row r="77" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B77" s="190"/>
+      <c r="B77" s="215"/>
       <c r="C77" s="89"/>
       <c r="D77" s="87" t="s">
         <v>115</v>
@@ -5245,7 +5275,7 @@
       </c>
     </row>
     <row r="78" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B78" s="190"/>
+      <c r="B78" s="215"/>
       <c r="C78" s="89"/>
       <c r="D78" s="100" t="s">
         <v>118</v>
@@ -5255,7 +5285,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B79" s="190"/>
+      <c r="B79" s="215"/>
       <c r="C79" s="89"/>
       <c r="D79" s="100" t="s">
         <v>191</v>
@@ -5265,7 +5295,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B80" s="190"/>
+      <c r="B80" s="215"/>
       <c r="C80" s="89"/>
       <c r="D80" s="100" t="s">
         <v>170</v>
@@ -5275,7 +5305,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B81" s="190"/>
+      <c r="B81" s="215"/>
       <c r="C81" s="89"/>
       <c r="D81" s="100" t="s">
         <v>171</v>
@@ -5285,7 +5315,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B82" s="190"/>
+      <c r="B82" s="215"/>
       <c r="C82" s="89"/>
       <c r="D82" s="100" t="s">
         <v>172</v>
@@ -5295,7 +5325,7 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B83" s="190"/>
+      <c r="B83" s="215"/>
       <c r="C83" s="99"/>
       <c r="D83" s="100" t="s">
         <v>192</v>
@@ -5305,7 +5335,7 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B84" s="190"/>
+      <c r="B84" s="215"/>
       <c r="C84" s="99"/>
       <c r="D84" s="100" t="s">
         <v>193</v>
@@ -5315,7 +5345,7 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B85" s="190"/>
+      <c r="B85" s="215"/>
       <c r="C85" s="89"/>
       <c r="D85" s="100" t="s">
         <v>194</v>
@@ -5325,7 +5355,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B86" s="190"/>
+      <c r="B86" s="215"/>
       <c r="C86" s="89"/>
       <c r="D86" s="100" t="s">
         <v>196</v>
@@ -5335,7 +5365,7 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B87" s="190"/>
+      <c r="B87" s="215"/>
       <c r="C87" s="89"/>
       <c r="D87" s="100" t="s">
         <v>205</v>
@@ -5345,7 +5375,7 @@
       </c>
     </row>
     <row r="88" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B88" s="190"/>
+      <c r="B88" s="215"/>
       <c r="C88" s="89"/>
       <c r="D88" s="100" t="s">
         <v>206</v>
@@ -5355,13 +5385,13 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B89" s="191"/>
+      <c r="B89" s="216"/>
       <c r="C89" s="90"/>
       <c r="D89" s="91"/>
       <c r="E89" s="92"/>
     </row>
     <row r="90" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B90" s="188" t="s">
+      <c r="B90" s="213" t="s">
         <v>62</v>
       </c>
       <c r="C90" s="93"/>
@@ -5369,7 +5399,7 @@
       <c r="E90" s="95"/>
     </row>
     <row r="91" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B91" s="190"/>
+      <c r="B91" s="215"/>
       <c r="C91" s="99" t="s">
         <v>201</v>
       </c>
@@ -5377,7 +5407,7 @@
       <c r="E91" s="88"/>
     </row>
     <row r="92" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B92" s="190"/>
+      <c r="B92" s="215"/>
       <c r="C92" s="99" t="s">
         <v>202</v>
       </c>
@@ -5385,7 +5415,7 @@
       <c r="E92" s="88"/>
     </row>
     <row r="93" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B93" s="190"/>
+      <c r="B93" s="215"/>
       <c r="C93" s="89" t="s">
         <v>203</v>
       </c>
@@ -5393,37 +5423,37 @@
       <c r="E93" s="88"/>
     </row>
     <row r="94" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B94" s="190"/>
+      <c r="B94" s="215"/>
       <c r="C94" s="89"/>
       <c r="D94" s="87"/>
       <c r="E94" s="88"/>
     </row>
     <row r="95" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B95" s="190"/>
+      <c r="B95" s="215"/>
       <c r="C95" s="89"/>
       <c r="D95" s="87"/>
       <c r="E95" s="88"/>
     </row>
     <row r="96" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B96" s="190"/>
+      <c r="B96" s="215"/>
       <c r="C96" s="89"/>
       <c r="D96" s="87"/>
       <c r="E96" s="88"/>
     </row>
     <row r="97" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B97" s="190"/>
+      <c r="B97" s="215"/>
       <c r="C97" s="89"/>
       <c r="D97" s="87"/>
       <c r="E97" s="88"/>
     </row>
     <row r="98" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B98" s="190"/>
+      <c r="B98" s="215"/>
       <c r="C98" s="89"/>
       <c r="D98" s="87"/>
       <c r="E98" s="88"/>
     </row>
     <row r="99" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B99" s="191"/>
+      <c r="B99" s="216"/>
       <c r="C99" s="96"/>
       <c r="D99" s="97"/>
       <c r="E99" s="98"/>
@@ -5444,15 +5474,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:G126"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" style="140" customWidth="1"/>
     <col min="3" max="3" width="50.5703125" customWidth="1"/>
     <col min="4" max="4" width="108.5703125" bestFit="1" customWidth="1"/>
@@ -5462,60 +5492,82 @@
     <col min="8" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:7" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B2" s="141"/>
-      <c r="C2" s="108" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1" s="187" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1" s="140"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A2" s="189"/>
+      <c r="B2"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="110"/>
-      <c r="G2" s="62"/>
-    </row>
-    <row r="3" spans="2:7" s="112" customFormat="1" ht="56.25" customHeight="1">
-      <c r="B3" s="142"/>
-      <c r="C3" s="192" t="s">
+      <c r="G2" s="110"/>
+      <c r="H2" s="62"/>
+    </row>
+    <row r="3" spans="1:8" s="112" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A3" s="192" t="s">
+        <v>488</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="217" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="194"/>
-      <c r="G3" s="111"/>
-    </row>
-    <row r="4" spans="2:7" s="112" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B4" s="142"/>
-      <c r="C4" s="195" t="s">
+      <c r="E3" s="218"/>
+      <c r="F3" s="219"/>
+      <c r="H3" s="111"/>
+    </row>
+    <row r="4" spans="1:8" s="112" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A4" s="192" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" s="142"/>
+      <c r="D4" s="220" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="194"/>
-    </row>
-    <row r="5" spans="2:7" ht="21" customHeight="1">
-      <c r="B5" s="141"/>
-      <c r="C5" s="113" t="s">
+      <c r="E4" s="218"/>
+      <c r="F4" s="219"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" customHeight="1">
+      <c r="A5" s="192" t="s">
+        <v>490</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="114"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="114"/>
-    </row>
-    <row r="6" spans="2:7" ht="21" customHeight="1" thickBot="1">
-      <c r="B6" s="143"/>
-      <c r="C6" s="115" t="s">
+      <c r="G5" s="114"/>
+    </row>
+    <row r="6" spans="1:8" ht="21" customHeight="1" thickBot="1">
+      <c r="A6" s="192"/>
+      <c r="B6"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="117"/>
+      <c r="E6" s="116"/>
       <c r="F6" s="117"/>
-    </row>
-    <row r="7" spans="2:7" ht="18" customHeight="1">
-      <c r="B7" s="143"/>
-      <c r="C7" s="64"/>
+      <c r="G6" s="117"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A7" s="196"/>
+      <c r="B7"/>
+      <c r="C7" s="143"/>
       <c r="D7" s="64"/>
       <c r="E7" s="64"/>
       <c r="F7" s="64"/>
-    </row>
-    <row r="8" spans="2:7" ht="18" customHeight="1">
+      <c r="G7" s="64"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1">
       <c r="B8" s="143"/>
       <c r="C8" s="118" t="s">
         <v>207</v>
@@ -5524,7 +5576,7 @@
       <c r="E8" s="64"/>
       <c r="F8" s="64"/>
     </row>
-    <row r="9" spans="2:7" ht="19.5" customHeight="1">
+    <row r="9" spans="1:8" ht="19.5" customHeight="1">
       <c r="B9" s="143"/>
       <c r="C9" s="119" t="s">
         <v>208</v>
@@ -5533,7 +5585,7 @@
       <c r="E9" s="64"/>
       <c r="F9" s="64"/>
     </row>
-    <row r="10" spans="2:7" ht="18" customHeight="1">
+    <row r="10" spans="1:8" ht="18" customHeight="1">
       <c r="B10" s="16"/>
       <c r="C10" s="121" t="s">
         <v>73</v>
@@ -5542,14 +5594,14 @@
       <c r="E10" s="63"/>
       <c r="F10" s="63"/>
     </row>
-    <row r="11" spans="2:7" ht="18" customHeight="1" thickBot="1">
+    <row r="11" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="B11" s="16"/>
       <c r="C11" s="64"/>
       <c r="D11" s="16"/>
       <c r="E11" s="63"/>
       <c r="F11" s="63"/>
     </row>
-    <row r="12" spans="2:7" ht="18" customHeight="1">
+    <row r="12" spans="1:8" ht="18" customHeight="1">
       <c r="B12" s="123" t="s">
         <v>68</v>
       </c>
@@ -5569,7 +5621,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="18" customHeight="1">
+    <row r="13" spans="1:8" ht="18" customHeight="1">
       <c r="B13" s="137" t="s">
         <v>210</v>
       </c>
@@ -5579,7 +5631,7 @@
       <c r="F13" s="136"/>
       <c r="G13" s="136"/>
     </row>
-    <row r="14" spans="2:7" ht="48" thickBot="1">
+    <row r="14" spans="1:8" ht="48" thickBot="1">
       <c r="B14" s="138" t="s">
         <v>216</v>
       </c>
@@ -5591,7 +5643,7 @@
       <c r="F14" s="128"/>
       <c r="G14" s="128"/>
     </row>
-    <row r="15" spans="2:7" ht="15.75" customHeight="1" thickTop="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
       <c r="B15" s="144"/>
       <c r="C15" s="130"/>
       <c r="D15" s="131" t="s">
@@ -5607,11 +5659,11 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B16" s="267" t="s">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B16" s="185" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="268" t="s">
+      <c r="C16" s="139" t="s">
         <v>211</v>
       </c>
       <c r="D16" s="132" t="s">
@@ -5622,8 +5674,8 @@
       <c r="G16" s="133"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B17" s="267"/>
-      <c r="C17" s="268"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="139"/>
       <c r="D17" s="132"/>
       <c r="E17" s="133"/>
       <c r="F17" s="133" t="s">
@@ -5632,18 +5684,18 @@
       <c r="G17" s="133"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B18" s="267"/>
-      <c r="C18" s="268"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="132"/>
       <c r="E18" s="133"/>
       <c r="F18" s="133"/>
       <c r="G18" s="133"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B19" s="267" t="s">
+      <c r="B19" s="185" t="s">
         <v>222</v>
       </c>
-      <c r="C19" s="268" t="s">
+      <c r="C19" s="139" t="s">
         <v>254</v>
       </c>
       <c r="D19" s="132"/>
@@ -5654,8 +5706,8 @@
       <c r="G19" s="133"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B20" s="267"/>
-      <c r="C20" s="268"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="139"/>
       <c r="D20" s="132"/>
       <c r="E20" s="133" t="s">
         <v>251</v>
@@ -5664,8 +5716,8 @@
       <c r="G20" s="133"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B21" s="269"/>
-      <c r="C21" s="270"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="129"/>
       <c r="D21" s="132"/>
       <c r="E21" s="133" t="s">
         <v>235</v>
@@ -5674,8 +5726,8 @@
       <c r="G21" s="133"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B22" s="269"/>
-      <c r="C22" s="270"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="132"/>
       <c r="E22" s="133" t="s">
         <v>323</v>
@@ -5684,8 +5736,8 @@
       <c r="G22" s="133"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B23" s="269"/>
-      <c r="C23" s="270"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="132"/>
       <c r="E23" s="133" t="s">
         <v>240</v>
@@ -5694,10 +5746,10 @@
       <c r="G23" s="133"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B24" s="267" t="s">
+      <c r="B24" s="185" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="268" t="s">
+      <c r="C24" s="139" t="s">
         <v>212</v>
       </c>
       <c r="D24" s="132" t="s">
@@ -5708,8 +5760,8 @@
       <c r="G24" s="133"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B25" s="267"/>
-      <c r="C25" s="268"/>
+      <c r="B25" s="185"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="132"/>
       <c r="E25" s="133"/>
       <c r="F25" s="133" t="s">
@@ -5718,18 +5770,18 @@
       <c r="G25" s="133"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B26" s="267"/>
-      <c r="C26" s="268"/>
+      <c r="B26" s="185"/>
+      <c r="C26" s="139"/>
       <c r="D26" s="132"/>
       <c r="E26" s="133"/>
       <c r="F26" s="133"/>
       <c r="G26" s="133"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B27" s="267" t="s">
+      <c r="B27" s="185" t="s">
         <v>222</v>
       </c>
-      <c r="C27" s="268" t="s">
+      <c r="C27" s="139" t="s">
         <v>255</v>
       </c>
       <c r="D27" s="132"/>
@@ -5740,8 +5792,8 @@
       <c r="G27" s="133"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B28" s="267"/>
-      <c r="C28" s="268"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="139"/>
       <c r="D28" s="132"/>
       <c r="E28" s="133" t="s">
         <v>253</v>
@@ -5750,10 +5802,10 @@
       <c r="G28" s="133"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B29" s="267" t="s">
+      <c r="B29" s="185" t="s">
         <v>222</v>
       </c>
-      <c r="C29" s="268" t="s">
+      <c r="C29" s="139" t="s">
         <v>229</v>
       </c>
       <c r="D29" s="132"/>
@@ -5764,8 +5816,8 @@
       <c r="G29" s="133"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B30" s="267"/>
-      <c r="C30" s="268"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="139"/>
       <c r="D30" s="132"/>
       <c r="E30" s="133" t="s">
         <v>323</v>
@@ -5774,8 +5826,8 @@
       <c r="G30" s="133"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B31" s="267"/>
-      <c r="C31" s="268"/>
+      <c r="B31" s="185"/>
+      <c r="C31" s="139"/>
       <c r="D31" s="132"/>
       <c r="E31" s="133" t="s">
         <v>239</v>
@@ -5784,8 +5836,8 @@
       <c r="G31" s="133"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B32" s="269"/>
-      <c r="C32" s="270"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="129"/>
       <c r="D32" s="132"/>
       <c r="E32" s="148" t="s">
         <v>240</v>
@@ -5794,10 +5846,10 @@
       <c r="G32" s="133"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="267" t="s">
+      <c r="B33" s="185" t="s">
         <v>213</v>
       </c>
-      <c r="C33" s="268" t="s">
+      <c r="C33" s="139" t="s">
         <v>214</v>
       </c>
       <c r="D33" s="147" t="s">
@@ -5808,8 +5860,8 @@
       <c r="G33" s="133"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="267"/>
-      <c r="C34" s="268"/>
+      <c r="B34" s="185"/>
+      <c r="C34" s="139"/>
       <c r="D34" s="132" t="s">
         <v>242</v>
       </c>
@@ -5818,8 +5870,8 @@
       <c r="G34" s="133"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="267"/>
-      <c r="C35" s="268"/>
+      <c r="B35" s="185"/>
+      <c r="C35" s="139"/>
       <c r="D35" s="132"/>
       <c r="E35" s="133"/>
       <c r="F35" s="133"/>
@@ -5828,8 +5880,8 @@
       </c>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="267"/>
-      <c r="C36" s="268"/>
+      <c r="B36" s="185"/>
+      <c r="C36" s="139"/>
       <c r="D36" s="132" t="s">
         <v>241</v>
       </c>
@@ -5838,8 +5890,8 @@
       <c r="G36" s="133"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="267"/>
-      <c r="C37" s="268"/>
+      <c r="B37" s="185"/>
+      <c r="C37" s="139"/>
       <c r="D37" s="132"/>
       <c r="E37" s="133"/>
       <c r="F37" s="133" t="s">
@@ -5848,10 +5900,10 @@
       <c r="G37" s="133"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="267" t="s">
+      <c r="B38" s="185" t="s">
         <v>220</v>
       </c>
-      <c r="C38" s="268" t="s">
+      <c r="C38" s="139" t="s">
         <v>293</v>
       </c>
       <c r="D38" s="132"/>
@@ -5862,8 +5914,8 @@
       <c r="G38" s="133"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="267"/>
-      <c r="C39" s="268"/>
+      <c r="B39" s="185"/>
+      <c r="C39" s="139"/>
       <c r="D39" s="132"/>
       <c r="E39" s="133"/>
       <c r="F39" s="133" t="s">
@@ -5872,10 +5924,10 @@
       <c r="G39" s="133"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="267" t="s">
+      <c r="B40" s="185" t="s">
         <v>222</v>
       </c>
-      <c r="C40" s="268" t="s">
+      <c r="C40" s="139" t="s">
         <v>256</v>
       </c>
       <c r="D40" s="132"/>
@@ -5886,8 +5938,8 @@
       <c r="G40" s="133"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="267"/>
-      <c r="C41" s="268"/>
+      <c r="B41" s="185"/>
+      <c r="C41" s="139"/>
       <c r="D41" s="132"/>
       <c r="E41" s="133" t="s">
         <v>257</v>
@@ -5896,8 +5948,8 @@
       <c r="G41" s="133"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="267"/>
-      <c r="C42" s="268"/>
+      <c r="B42" s="185"/>
+      <c r="C42" s="139"/>
       <c r="D42" s="132"/>
       <c r="E42" s="133" t="s">
         <v>258</v>
@@ -5906,8 +5958,8 @@
       <c r="G42" s="133"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="267"/>
-      <c r="C43" s="268"/>
+      <c r="B43" s="185"/>
+      <c r="C43" s="139"/>
       <c r="D43" s="132"/>
       <c r="E43" s="133" t="s">
         <v>259</v>
@@ -5916,8 +5968,8 @@
       <c r="G43" s="133"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="267"/>
-      <c r="C44" s="268"/>
+      <c r="B44" s="185"/>
+      <c r="C44" s="139"/>
       <c r="D44" s="132"/>
       <c r="E44" s="133" t="s">
         <v>260</v>
@@ -5926,10 +5978,10 @@
       <c r="G44" s="133"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="267" t="s">
+      <c r="B45" s="185" t="s">
         <v>213</v>
       </c>
-      <c r="C45" s="268" t="s">
+      <c r="C45" s="139" t="s">
         <v>215</v>
       </c>
       <c r="D45" s="132" t="s">
@@ -5940,8 +5992,8 @@
       <c r="G45" s="133"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="267"/>
-      <c r="C46" s="268"/>
+      <c r="B46" s="185"/>
+      <c r="C46" s="139"/>
       <c r="D46" s="132"/>
       <c r="E46" s="133"/>
       <c r="F46" s="133"/>
@@ -5950,8 +6002,8 @@
       </c>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="269"/>
-      <c r="C47" s="270"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="129"/>
       <c r="D47" s="132"/>
       <c r="E47" s="133"/>
       <c r="F47" s="133" t="s">
@@ -5960,10 +6012,10 @@
       <c r="G47" s="133"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="267" t="s">
+      <c r="B48" s="185" t="s">
         <v>213</v>
       </c>
-      <c r="C48" s="268" t="s">
+      <c r="C48" s="139" t="s">
         <v>267</v>
       </c>
       <c r="D48" s="147" t="s">
@@ -5974,8 +6026,8 @@
       <c r="G48" s="133"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="267"/>
-      <c r="C49" s="268"/>
+      <c r="B49" s="185"/>
+      <c r="C49" s="139"/>
       <c r="D49" s="147"/>
       <c r="E49" s="133"/>
       <c r="F49" s="148" t="s">
@@ -5984,10 +6036,10 @@
       <c r="G49" s="133"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B50" s="269" t="s">
+      <c r="B50" s="144" t="s">
         <v>220</v>
       </c>
-      <c r="C50" s="268" t="s">
+      <c r="C50" s="139" t="s">
         <v>294</v>
       </c>
       <c r="D50" s="132"/>
@@ -5998,8 +6050,8 @@
       <c r="G50" s="133"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="269"/>
-      <c r="C51" s="270"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="129"/>
       <c r="D51" s="132"/>
       <c r="E51" s="133"/>
       <c r="F51" s="133" t="s">
@@ -6008,10 +6060,10 @@
       <c r="G51" s="133"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="269" t="s">
+      <c r="B52" s="144" t="s">
         <v>222</v>
       </c>
-      <c r="C52" s="268" t="s">
+      <c r="C52" s="139" t="s">
         <v>223</v>
       </c>
       <c r="D52" s="132"/>
@@ -6022,8 +6074,8 @@
       <c r="G52" s="133"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="269"/>
-      <c r="C53" s="270"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="129"/>
       <c r="D53" s="132"/>
       <c r="E53" s="148" t="s">
         <v>270</v>
@@ -6032,8 +6084,8 @@
       <c r="G53" s="133"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B54" s="269"/>
-      <c r="C54" s="270"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="129"/>
       <c r="D54" s="132"/>
       <c r="E54" s="148" t="s">
         <v>271</v>
@@ -6042,8 +6094,8 @@
       <c r="G54" s="133"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B55" s="269"/>
-      <c r="C55" s="270"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="129"/>
       <c r="D55" s="132"/>
       <c r="E55" s="148" t="s">
         <v>272</v>
@@ -6052,8 +6104,8 @@
       <c r="G55" s="133"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B56" s="269"/>
-      <c r="C56" s="270"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="129"/>
       <c r="D56" s="132"/>
       <c r="E56" s="148" t="s">
         <v>273</v>
@@ -6062,8 +6114,8 @@
       <c r="G56" s="133"/>
     </row>
     <row r="57" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B57" s="269"/>
-      <c r="C57" s="270"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="129"/>
       <c r="D57" s="132"/>
       <c r="E57" s="148" t="s">
         <v>320</v>
@@ -6072,8 +6124,8 @@
       <c r="G57" s="133"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B58" s="269"/>
-      <c r="C58" s="270"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="129"/>
       <c r="D58" s="132"/>
       <c r="E58" s="148" t="s">
         <v>279</v>
@@ -6082,8 +6134,8 @@
       <c r="G58" s="133"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B59" s="269"/>
-      <c r="C59" s="270"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="129"/>
       <c r="D59" s="132"/>
       <c r="E59" s="148" t="s">
         <v>240</v>
@@ -6092,10 +6144,10 @@
       <c r="G59" s="133"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B60" s="267" t="s">
+      <c r="B60" s="185" t="s">
         <v>213</v>
       </c>
-      <c r="C60" s="268" t="s">
+      <c r="C60" s="139" t="s">
         <v>266</v>
       </c>
       <c r="D60" s="147" t="s">
@@ -6106,8 +6158,8 @@
       <c r="G60" s="133"/>
     </row>
     <row r="61" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B61" s="267"/>
-      <c r="C61" s="268"/>
+      <c r="B61" s="185"/>
+      <c r="C61" s="139"/>
       <c r="D61" s="132"/>
       <c r="E61" s="133"/>
       <c r="F61" s="148" t="s">
@@ -6116,10 +6168,10 @@
       <c r="G61" s="133"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B62" s="267" t="s">
+      <c r="B62" s="185" t="s">
         <v>222</v>
       </c>
-      <c r="C62" s="268" t="s">
+      <c r="C62" s="139" t="s">
         <v>224</v>
       </c>
       <c r="D62" s="132"/>
@@ -6130,8 +6182,8 @@
       <c r="G62" s="133"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B63" s="267"/>
-      <c r="C63" s="268"/>
+      <c r="B63" s="185"/>
+      <c r="C63" s="139"/>
       <c r="D63" s="132"/>
       <c r="E63" s="148" t="s">
         <v>278</v>
@@ -6140,10 +6192,10 @@
       <c r="G63" s="133"/>
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B64" s="267" t="s">
+      <c r="B64" s="185" t="s">
         <v>222</v>
       </c>
-      <c r="C64" s="268" t="s">
+      <c r="C64" s="139" t="s">
         <v>280</v>
       </c>
       <c r="D64" s="132"/>
@@ -6154,8 +6206,8 @@
       <c r="G64" s="133"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B65" s="267"/>
-      <c r="C65" s="268"/>
+      <c r="B65" s="185"/>
+      <c r="C65" s="139"/>
       <c r="D65" s="132"/>
       <c r="E65" s="148" t="s">
         <v>283</v>
@@ -6164,8 +6216,8 @@
       <c r="G65" s="133"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B66" s="267"/>
-      <c r="C66" s="268"/>
+      <c r="B66" s="185"/>
+      <c r="C66" s="139"/>
       <c r="D66" s="132"/>
       <c r="E66" s="148" t="s">
         <v>282</v>
@@ -6174,8 +6226,8 @@
       <c r="G66" s="133"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B67" s="267"/>
-      <c r="C67" s="268"/>
+      <c r="B67" s="185"/>
+      <c r="C67" s="139"/>
       <c r="D67" s="132"/>
       <c r="E67" s="148" t="s">
         <v>285</v>
@@ -6184,8 +6236,8 @@
       <c r="G67" s="133"/>
     </row>
     <row r="68" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B68" s="267"/>
-      <c r="C68" s="268"/>
+      <c r="B68" s="185"/>
+      <c r="C68" s="139"/>
       <c r="D68" s="132"/>
       <c r="E68" s="148" t="s">
         <v>284</v>
@@ -6194,10 +6246,10 @@
       <c r="G68" s="133"/>
     </row>
     <row r="69" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B69" s="267" t="s">
+      <c r="B69" s="185" t="s">
         <v>213</v>
       </c>
-      <c r="C69" s="268" t="s">
+      <c r="C69" s="139" t="s">
         <v>291</v>
       </c>
       <c r="D69" s="132" t="s">
@@ -6208,8 +6260,8 @@
       <c r="G69" s="133"/>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B70" s="267"/>
-      <c r="C70" s="268"/>
+      <c r="B70" s="185"/>
+      <c r="C70" s="139"/>
       <c r="D70" s="132" t="s">
         <v>287</v>
       </c>
@@ -6218,8 +6270,8 @@
       <c r="G70" s="133"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B71" s="267"/>
-      <c r="C71" s="268"/>
+      <c r="B71" s="185"/>
+      <c r="C71" s="139"/>
       <c r="D71" s="132" t="s">
         <v>292</v>
       </c>
@@ -6228,8 +6280,8 @@
       <c r="G71" s="133"/>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B72" s="267"/>
-      <c r="C72" s="268"/>
+      <c r="B72" s="185"/>
+      <c r="C72" s="139"/>
       <c r="D72" s="132"/>
       <c r="E72" s="148"/>
       <c r="F72" s="133"/>
@@ -6238,8 +6290,8 @@
       </c>
     </row>
     <row r="73" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B73" s="267"/>
-      <c r="C73" s="268"/>
+      <c r="B73" s="185"/>
+      <c r="C73" s="139"/>
       <c r="D73" s="132" t="s">
         <v>289</v>
       </c>
@@ -6248,8 +6300,8 @@
       <c r="G73" s="133"/>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B74" s="267"/>
-      <c r="C74" s="268"/>
+      <c r="B74" s="185"/>
+      <c r="C74" s="139"/>
       <c r="D74" s="132"/>
       <c r="E74" s="148"/>
       <c r="F74" s="133" t="s">
@@ -6258,10 +6310,10 @@
       <c r="G74" s="133"/>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B75" s="267" t="s">
+      <c r="B75" s="185" t="s">
         <v>220</v>
       </c>
-      <c r="C75" s="268" t="s">
+      <c r="C75" s="139" t="s">
         <v>221</v>
       </c>
       <c r="D75" s="132"/>
@@ -6272,8 +6324,8 @@
       <c r="G75" s="133"/>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B76" s="269"/>
-      <c r="C76" s="270"/>
+      <c r="B76" s="144"/>
+      <c r="C76" s="129"/>
       <c r="D76" s="132"/>
       <c r="E76" s="133"/>
       <c r="F76" s="148" t="s">
@@ -6282,10 +6334,10 @@
       <c r="G76" s="133"/>
     </row>
     <row r="77" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B77" s="267" t="s">
+      <c r="B77" s="185" t="s">
         <v>222</v>
       </c>
-      <c r="C77" s="268" t="s">
+      <c r="C77" s="139" t="s">
         <v>297</v>
       </c>
       <c r="D77" s="132"/>
@@ -6296,8 +6348,8 @@
       <c r="G77" s="133"/>
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B78" s="269"/>
-      <c r="C78" s="270"/>
+      <c r="B78" s="144"/>
+      <c r="C78" s="129"/>
       <c r="D78" s="132"/>
       <c r="E78" s="148" t="s">
         <v>298</v>
@@ -6306,8 +6358,8 @@
       <c r="G78" s="133"/>
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B79" s="267"/>
-      <c r="C79" s="268"/>
+      <c r="B79" s="185"/>
+      <c r="C79" s="139"/>
       <c r="D79" s="132"/>
       <c r="E79" s="148" t="s">
         <v>299</v>
@@ -6316,18 +6368,18 @@
       <c r="G79" s="133"/>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B80" s="267"/>
-      <c r="C80" s="268"/>
+      <c r="B80" s="185"/>
+      <c r="C80" s="139"/>
       <c r="D80" s="132"/>
       <c r="E80" s="148"/>
       <c r="F80" s="133"/>
       <c r="G80" s="133"/>
     </row>
     <row r="81" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B81" s="267" t="s">
+      <c r="B81" s="185" t="s">
         <v>222</v>
       </c>
-      <c r="C81" s="268" t="s">
+      <c r="C81" s="139" t="s">
         <v>302</v>
       </c>
       <c r="D81" s="132"/>
@@ -6338,8 +6390,8 @@
       <c r="G81" s="133"/>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B82" s="267"/>
-      <c r="C82" s="268"/>
+      <c r="B82" s="185"/>
+      <c r="C82" s="139"/>
       <c r="D82" s="132"/>
       <c r="E82" s="148" t="s">
         <v>304</v>
@@ -6348,18 +6400,18 @@
       <c r="G82" s="133"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B83" s="267"/>
-      <c r="C83" s="268"/>
+      <c r="B83" s="185"/>
+      <c r="C83" s="139"/>
       <c r="D83" s="132"/>
       <c r="E83" s="148"/>
       <c r="F83" s="133"/>
       <c r="G83" s="133"/>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B84" s="267" t="s">
+      <c r="B84" s="185" t="s">
         <v>222</v>
       </c>
-      <c r="C84" s="268" t="s">
+      <c r="C84" s="139" t="s">
         <v>301</v>
       </c>
       <c r="D84" s="132"/>
@@ -6370,8 +6422,8 @@
       <c r="G84" s="133"/>
     </row>
     <row r="85" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B85" s="267"/>
-      <c r="C85" s="268"/>
+      <c r="B85" s="185"/>
+      <c r="C85" s="139"/>
       <c r="D85" s="132"/>
       <c r="E85" s="148" t="s">
         <v>306</v>
@@ -6380,18 +6432,18 @@
       <c r="G85" s="133"/>
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B86" s="267"/>
-      <c r="C86" s="268"/>
+      <c r="B86" s="185"/>
+      <c r="C86" s="139"/>
       <c r="D86" s="132"/>
       <c r="E86" s="148"/>
       <c r="F86" s="133"/>
       <c r="G86" s="133"/>
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B87" s="267" t="s">
+      <c r="B87" s="185" t="s">
         <v>222</v>
       </c>
-      <c r="C87" s="268" t="s">
+      <c r="C87" s="139" t="s">
         <v>225</v>
       </c>
       <c r="D87" s="132"/>
@@ -6402,8 +6454,8 @@
       <c r="G87" s="133"/>
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B88" s="269"/>
-      <c r="C88" s="270"/>
+      <c r="B88" s="144"/>
+      <c r="C88" s="129"/>
       <c r="D88" s="132"/>
       <c r="E88" s="148" t="s">
         <v>308</v>
@@ -6412,8 +6464,8 @@
       <c r="G88" s="133"/>
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B89" s="269"/>
-      <c r="C89" s="270"/>
+      <c r="B89" s="144"/>
+      <c r="C89" s="129"/>
       <c r="D89" s="132"/>
       <c r="E89" s="148" t="s">
         <v>309</v>
@@ -6422,18 +6474,18 @@
       <c r="G89" s="133"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B90" s="269"/>
-      <c r="C90" s="270"/>
+      <c r="B90" s="144"/>
+      <c r="C90" s="129"/>
       <c r="D90" s="132"/>
       <c r="E90" s="148"/>
       <c r="F90" s="133"/>
       <c r="G90" s="133"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B91" s="267" t="s">
+      <c r="B91" s="185" t="s">
         <v>222</v>
       </c>
-      <c r="C91" s="268" t="s">
+      <c r="C91" s="139" t="s">
         <v>310</v>
       </c>
       <c r="D91" s="132"/>
@@ -6444,8 +6496,8 @@
       <c r="G91" s="133"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B92" s="269"/>
-      <c r="C92" s="270"/>
+      <c r="B92" s="144"/>
+      <c r="C92" s="129"/>
       <c r="D92" s="132"/>
       <c r="E92" s="148" t="s">
         <v>312</v>
@@ -6454,18 +6506,18 @@
       <c r="G92" s="133"/>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B93" s="269"/>
-      <c r="C93" s="270"/>
+      <c r="B93" s="144"/>
+      <c r="C93" s="129"/>
       <c r="D93" s="132"/>
       <c r="E93" s="148"/>
       <c r="F93" s="133"/>
       <c r="G93" s="133"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B94" s="267" t="s">
+      <c r="B94" s="185" t="s">
         <v>222</v>
       </c>
-      <c r="C94" s="268" t="s">
+      <c r="C94" s="139" t="s">
         <v>227</v>
       </c>
       <c r="D94" s="132"/>
@@ -6476,8 +6528,8 @@
       <c r="G94" s="133"/>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B95" s="267"/>
-      <c r="C95" s="268"/>
+      <c r="B95" s="185"/>
+      <c r="C95" s="139"/>
       <c r="D95" s="132"/>
       <c r="E95" s="148" t="s">
         <v>313</v>
@@ -6486,8 +6538,8 @@
       <c r="G95" s="133"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B96" s="267"/>
-      <c r="C96" s="268"/>
+      <c r="B96" s="185"/>
+      <c r="C96" s="139"/>
       <c r="D96" s="132"/>
       <c r="E96" s="148" t="s">
         <v>315</v>
@@ -6496,8 +6548,8 @@
       <c r="G96" s="133"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B97" s="269"/>
-      <c r="C97" s="270"/>
+      <c r="B97" s="144"/>
+      <c r="C97" s="129"/>
       <c r="D97" s="132"/>
       <c r="E97" s="148" t="s">
         <v>316</v>
@@ -6506,18 +6558,18 @@
       <c r="G97" s="133"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B98" s="269"/>
-      <c r="C98" s="270"/>
+      <c r="B98" s="144"/>
+      <c r="C98" s="129"/>
       <c r="D98" s="132"/>
       <c r="E98" s="148"/>
       <c r="F98" s="133"/>
       <c r="G98" s="133"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B99" s="267" t="s">
+      <c r="B99" s="185" t="s">
         <v>222</v>
       </c>
-      <c r="C99" s="268" t="s">
+      <c r="C99" s="139" t="s">
         <v>226</v>
       </c>
       <c r="D99" s="132"/>
@@ -6528,8 +6580,8 @@
       <c r="G99" s="133"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B100" s="269"/>
-      <c r="C100" s="270"/>
+      <c r="B100" s="144"/>
+      <c r="C100" s="129"/>
       <c r="D100" s="132"/>
       <c r="E100" s="133" t="s">
         <v>318</v>
@@ -6538,18 +6590,18 @@
       <c r="G100" s="133"/>
     </row>
     <row r="101" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B101" s="269"/>
-      <c r="C101" s="270"/>
+      <c r="B101" s="144"/>
+      <c r="C101" s="129"/>
       <c r="D101" s="132"/>
       <c r="E101" s="133"/>
       <c r="F101" s="133"/>
       <c r="G101" s="133"/>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B102" s="267" t="s">
+      <c r="B102" s="185" t="s">
         <v>222</v>
       </c>
-      <c r="C102" s="268" t="s">
+      <c r="C102" s="139" t="s">
         <v>230</v>
       </c>
       <c r="D102" s="132"/>
@@ -6560,8 +6612,8 @@
       <c r="G102" s="133"/>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B103" s="269"/>
-      <c r="C103" s="270"/>
+      <c r="B103" s="144"/>
+      <c r="C103" s="129"/>
       <c r="D103" s="132"/>
       <c r="E103" s="133" t="s">
         <v>319</v>
@@ -6570,8 +6622,8 @@
       <c r="G103" s="133"/>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B104" s="269"/>
-      <c r="C104" s="270"/>
+      <c r="B104" s="144"/>
+      <c r="C104" s="129"/>
       <c r="D104" s="132"/>
       <c r="E104" s="133" t="s">
         <v>322</v>
@@ -6580,18 +6632,18 @@
       <c r="G104" s="133"/>
     </row>
     <row r="105" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B105" s="269"/>
-      <c r="C105" s="270"/>
+      <c r="B105" s="144"/>
+      <c r="C105" s="129"/>
       <c r="D105" s="132"/>
       <c r="E105" s="133"/>
       <c r="F105" s="133"/>
       <c r="G105" s="133"/>
     </row>
     <row r="106" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B106" s="267" t="s">
+      <c r="B106" s="185" t="s">
         <v>222</v>
       </c>
-      <c r="C106" s="268" t="s">
+      <c r="C106" s="139" t="s">
         <v>228</v>
       </c>
       <c r="D106" s="132"/>
@@ -6602,8 +6654,8 @@
       <c r="G106" s="133"/>
     </row>
     <row r="107" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B107" s="269"/>
-      <c r="C107" s="270"/>
+      <c r="B107" s="144"/>
+      <c r="C107" s="129"/>
       <c r="D107" s="132"/>
       <c r="E107" s="133" t="s">
         <v>228</v>
@@ -6612,18 +6664,18 @@
       <c r="G107" s="133"/>
     </row>
     <row r="108" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B108" s="269"/>
-      <c r="C108" s="270"/>
+      <c r="B108" s="144"/>
+      <c r="C108" s="129"/>
       <c r="D108" s="132"/>
       <c r="E108" s="133"/>
       <c r="F108" s="133"/>
       <c r="G108" s="133"/>
     </row>
     <row r="109" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B109" s="267" t="s">
+      <c r="B109" s="185" t="s">
         <v>213</v>
       </c>
-      <c r="C109" s="268" t="s">
+      <c r="C109" s="139" t="s">
         <v>217</v>
       </c>
       <c r="D109" s="132" t="s">
@@ -6634,8 +6686,8 @@
       <c r="G109" s="133"/>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B110" s="269"/>
-      <c r="C110" s="270"/>
+      <c r="B110" s="144"/>
+      <c r="C110" s="129"/>
       <c r="D110" s="132"/>
       <c r="E110" s="133"/>
       <c r="F110" s="133"/>
@@ -6644,10 +6696,10 @@
       </c>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B111" s="267" t="s">
+      <c r="B111" s="185" t="s">
         <v>213</v>
       </c>
-      <c r="C111" s="268" t="s">
+      <c r="C111" s="139" t="s">
         <v>218</v>
       </c>
       <c r="D111" s="132" t="s">
@@ -6658,8 +6710,8 @@
       <c r="G111" s="133"/>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B112" s="269"/>
-      <c r="C112" s="270"/>
+      <c r="B112" s="144"/>
+      <c r="C112" s="129"/>
       <c r="D112" s="132"/>
       <c r="E112" s="133"/>
       <c r="F112" s="133"/>
@@ -6668,10 +6720,10 @@
       </c>
     </row>
     <row r="113" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B113" s="267" t="s">
+      <c r="B113" s="185" t="s">
         <v>213</v>
       </c>
-      <c r="C113" s="268" t="s">
+      <c r="C113" s="139" t="s">
         <v>219</v>
       </c>
       <c r="D113" s="132" t="s">
@@ -6682,8 +6734,8 @@
       <c r="G113" s="133"/>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B114" s="269"/>
-      <c r="C114" s="270"/>
+      <c r="B114" s="144"/>
+      <c r="C114" s="129"/>
       <c r="D114" s="132"/>
       <c r="E114" s="133"/>
       <c r="F114" s="133"/>
@@ -6692,10 +6744,10 @@
       </c>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B115" s="269" t="s">
+      <c r="B115" s="144" t="s">
         <v>213</v>
       </c>
-      <c r="C115" s="268" t="s">
+      <c r="C115" s="139" t="s">
         <v>331</v>
       </c>
       <c r="D115" s="147" t="s">
@@ -6739,8 +6791,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6752,22 +6804,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="G1:DC42"/>
+  <dimension ref="A1:DC42"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BQ36" sqref="BQ36:BV36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="99" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="99" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:107" ht="21.75" customHeight="1">
-      <c r="G1" s="13" t="s">
+    <row r="1" spans="1:107" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A1" s="187" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
@@ -6779,12 +6834,13 @@
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
-    </row>
-    <row r="2" spans="7:107" ht="21.75" customHeight="1">
-      <c r="G2" s="74" t="s">
+      <c r="T1" s="12"/>
+    </row>
+    <row r="2" spans="1:107" ht="21.75" customHeight="1">
+      <c r="A2" s="189"/>
+      <c r="H2" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -6796,12 +6852,15 @@
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
-    </row>
-    <row r="3" spans="7:107" ht="15">
-      <c r="G3" s="18" t="s">
+      <c r="T2" s="12"/>
+    </row>
+    <row r="3" spans="1:107" ht="18.75">
+      <c r="A3" s="192" t="s">
+        <v>488</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="64"/>
       <c r="I3" s="64"/>
       <c r="J3" s="64"/>
       <c r="K3" s="64"/>
@@ -6813,9 +6872,12 @@
       <c r="Q3" s="64"/>
       <c r="R3" s="64"/>
       <c r="S3" s="64"/>
-    </row>
-    <row r="4" spans="7:107" ht="15">
-      <c r="G4" s="64"/>
+      <c r="T3" s="64"/>
+    </row>
+    <row r="4" spans="1:107" ht="18.75">
+      <c r="A4" s="192" t="s">
+        <v>489</v>
+      </c>
       <c r="H4" s="64"/>
       <c r="I4" s="64"/>
       <c r="J4" s="64"/>
@@ -6828,9 +6890,12 @@
       <c r="Q4" s="64"/>
       <c r="R4" s="64"/>
       <c r="S4" s="64"/>
-    </row>
-    <row r="5" spans="7:107" ht="15">
-      <c r="G5" s="64"/>
+      <c r="T4" s="64"/>
+    </row>
+    <row r="5" spans="1:107" ht="18.75">
+      <c r="A5" s="192" t="s">
+        <v>490</v>
+      </c>
       <c r="H5" s="64"/>
       <c r="I5" s="64"/>
       <c r="J5" s="64"/>
@@ -6843,12 +6908,13 @@
       <c r="Q5" s="64"/>
       <c r="R5" s="64"/>
       <c r="S5" s="64"/>
-    </row>
-    <row r="6" spans="7:107" ht="15">
-      <c r="G6" s="64" t="s">
+      <c r="T5" s="64"/>
+    </row>
+    <row r="6" spans="1:107" ht="18.75">
+      <c r="A6" s="192"/>
+      <c r="H6" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="64"/>
       <c r="I6" s="64"/>
       <c r="J6" s="64"/>
       <c r="K6" s="64"/>
@@ -6860,9 +6926,10 @@
       <c r="Q6" s="64"/>
       <c r="R6" s="64"/>
       <c r="S6" s="64"/>
-    </row>
-    <row r="7" spans="7:107" ht="15">
-      <c r="G7" s="64"/>
+      <c r="T6" s="64"/>
+    </row>
+    <row r="7" spans="1:107" ht="19.5" thickBot="1">
+      <c r="A7" s="196"/>
       <c r="H7" s="64"/>
       <c r="I7" s="64"/>
       <c r="J7" s="64"/>
@@ -6875,8 +6942,9 @@
       <c r="Q7" s="64"/>
       <c r="R7" s="64"/>
       <c r="S7" s="64"/>
-    </row>
-    <row r="8" spans="7:107" ht="15">
+      <c r="T7" s="64"/>
+    </row>
+    <row r="8" spans="1:107" ht="15">
       <c r="G8" s="64" t="s">
         <v>78</v>
       </c>
@@ -6893,7 +6961,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="64"/>
     </row>
-    <row r="9" spans="7:107" ht="15">
+    <row r="9" spans="1:107" ht="15">
       <c r="G9" s="64"/>
       <c r="H9" s="64"/>
       <c r="I9" s="64"/>
@@ -6908,7 +6976,7 @@
       <c r="R9" s="64"/>
       <c r="S9" s="64"/>
     </row>
-    <row r="10" spans="7:107" thickBot="1">
+    <row r="10" spans="1:107" thickBot="1">
       <c r="G10" s="64"/>
       <c r="H10" s="64"/>
       <c r="I10" s="64"/>
@@ -6927,17 +6995,17 @@
       <c r="V10" s="64"/>
       <c r="W10" s="64"/>
     </row>
-    <row r="11" spans="7:107" thickBot="1">
-      <c r="G11" s="202" t="s">
+    <row r="11" spans="1:107" thickBot="1">
+      <c r="G11" s="247" t="s">
         <v>336</v>
       </c>
-      <c r="H11" s="203"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="203"/>
-      <c r="K11" s="203"/>
-      <c r="L11" s="203"/>
-      <c r="M11" s="203"/>
-      <c r="N11" s="204"/>
+      <c r="H11" s="248"/>
+      <c r="I11" s="248"/>
+      <c r="J11" s="248"/>
+      <c r="K11" s="248"/>
+      <c r="L11" s="248"/>
+      <c r="M11" s="248"/>
+      <c r="N11" s="249"/>
       <c r="O11" s="84"/>
       <c r="P11" s="75"/>
       <c r="Q11" s="75"/>
@@ -6975,66 +7043,66 @@
       <c r="AW11" s="83"/>
       <c r="AX11" s="149"/>
       <c r="AY11" s="151"/>
-      <c r="BD11" s="202" t="s">
+      <c r="BD11" s="247" t="s">
         <v>336</v>
       </c>
-      <c r="BE11" s="203"/>
-      <c r="BF11" s="203"/>
-      <c r="BG11" s="203"/>
-      <c r="BH11" s="203"/>
-      <c r="BI11" s="203"/>
-      <c r="BJ11" s="203"/>
-      <c r="BK11" s="204"/>
-      <c r="BP11" s="202" t="s">
+      <c r="BE11" s="248"/>
+      <c r="BF11" s="248"/>
+      <c r="BG11" s="248"/>
+      <c r="BH11" s="248"/>
+      <c r="BI11" s="248"/>
+      <c r="BJ11" s="248"/>
+      <c r="BK11" s="249"/>
+      <c r="BP11" s="247" t="s">
         <v>336</v>
       </c>
-      <c r="BQ11" s="203"/>
-      <c r="BR11" s="203"/>
-      <c r="BS11" s="203"/>
-      <c r="BT11" s="203"/>
-      <c r="BU11" s="203"/>
-      <c r="BV11" s="203"/>
-      <c r="BW11" s="204"/>
-      <c r="CA11" s="202" t="s">
+      <c r="BQ11" s="248"/>
+      <c r="BR11" s="248"/>
+      <c r="BS11" s="248"/>
+      <c r="BT11" s="248"/>
+      <c r="BU11" s="248"/>
+      <c r="BV11" s="248"/>
+      <c r="BW11" s="249"/>
+      <c r="CA11" s="247" t="s">
         <v>336</v>
       </c>
-      <c r="CB11" s="203"/>
-      <c r="CC11" s="203"/>
-      <c r="CD11" s="203"/>
-      <c r="CE11" s="203"/>
-      <c r="CF11" s="203"/>
-      <c r="CG11" s="203"/>
-      <c r="CH11" s="204"/>
-      <c r="CL11" s="202" t="s">
+      <c r="CB11" s="248"/>
+      <c r="CC11" s="248"/>
+      <c r="CD11" s="248"/>
+      <c r="CE11" s="248"/>
+      <c r="CF11" s="248"/>
+      <c r="CG11" s="248"/>
+      <c r="CH11" s="249"/>
+      <c r="CL11" s="247" t="s">
         <v>336</v>
       </c>
-      <c r="CM11" s="203"/>
-      <c r="CN11" s="203"/>
-      <c r="CO11" s="203"/>
-      <c r="CP11" s="203"/>
-      <c r="CQ11" s="203"/>
-      <c r="CR11" s="203"/>
-      <c r="CS11" s="204"/>
-      <c r="CV11" s="202" t="s">
+      <c r="CM11" s="248"/>
+      <c r="CN11" s="248"/>
+      <c r="CO11" s="248"/>
+      <c r="CP11" s="248"/>
+      <c r="CQ11" s="248"/>
+      <c r="CR11" s="248"/>
+      <c r="CS11" s="249"/>
+      <c r="CV11" s="247" t="s">
         <v>336</v>
       </c>
-      <c r="CW11" s="203"/>
-      <c r="CX11" s="203"/>
-      <c r="CY11" s="203"/>
-      <c r="CZ11" s="203"/>
-      <c r="DA11" s="203"/>
-      <c r="DB11" s="203"/>
-      <c r="DC11" s="204"/>
-    </row>
-    <row r="12" spans="7:107" thickBot="1">
-      <c r="G12" s="205"/>
-      <c r="H12" s="206"/>
-      <c r="I12" s="206"/>
-      <c r="J12" s="206"/>
-      <c r="K12" s="206"/>
-      <c r="L12" s="206"/>
-      <c r="M12" s="206"/>
-      <c r="N12" s="207"/>
+      <c r="CW11" s="248"/>
+      <c r="CX11" s="248"/>
+      <c r="CY11" s="248"/>
+      <c r="CZ11" s="248"/>
+      <c r="DA11" s="248"/>
+      <c r="DB11" s="248"/>
+      <c r="DC11" s="249"/>
+    </row>
+    <row r="12" spans="1:107" thickBot="1">
+      <c r="G12" s="250"/>
+      <c r="H12" s="251"/>
+      <c r="I12" s="251"/>
+      <c r="J12" s="251"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="251"/>
+      <c r="M12" s="251"/>
+      <c r="N12" s="252"/>
       <c r="O12" s="76"/>
       <c r="P12" s="64"/>
       <c r="Q12" s="64"/>
@@ -7045,51 +7113,51 @@
       <c r="V12" s="64"/>
       <c r="W12" s="64"/>
       <c r="AX12" s="78"/>
-      <c r="AY12" s="199" t="s">
+      <c r="AY12" s="256" t="s">
         <v>335</v>
       </c>
-      <c r="BD12" s="205"/>
-      <c r="BE12" s="206"/>
-      <c r="BF12" s="206"/>
-      <c r="BG12" s="206"/>
-      <c r="BH12" s="206"/>
-      <c r="BI12" s="206"/>
-      <c r="BJ12" s="206"/>
-      <c r="BK12" s="207"/>
-      <c r="BP12" s="205"/>
-      <c r="BQ12" s="206"/>
-      <c r="BR12" s="206"/>
-      <c r="BS12" s="206"/>
-      <c r="BT12" s="206"/>
-      <c r="BU12" s="206"/>
-      <c r="BV12" s="206"/>
-      <c r="BW12" s="207"/>
-      <c r="CA12" s="205"/>
-      <c r="CB12" s="206"/>
-      <c r="CC12" s="206"/>
-      <c r="CD12" s="206"/>
-      <c r="CE12" s="206"/>
-      <c r="CF12" s="206"/>
-      <c r="CG12" s="206"/>
-      <c r="CH12" s="207"/>
-      <c r="CL12" s="205"/>
-      <c r="CM12" s="206"/>
-      <c r="CN12" s="206"/>
-      <c r="CO12" s="206"/>
-      <c r="CP12" s="206"/>
-      <c r="CQ12" s="206"/>
-      <c r="CR12" s="206"/>
-      <c r="CS12" s="207"/>
-      <c r="CV12" s="205"/>
-      <c r="CW12" s="206"/>
-      <c r="CX12" s="206"/>
-      <c r="CY12" s="206"/>
-      <c r="CZ12" s="206"/>
-      <c r="DA12" s="206"/>
-      <c r="DB12" s="206"/>
-      <c r="DC12" s="207"/>
-    </row>
-    <row r="13" spans="7:107" thickBot="1">
+      <c r="BD12" s="250"/>
+      <c r="BE12" s="251"/>
+      <c r="BF12" s="251"/>
+      <c r="BG12" s="251"/>
+      <c r="BH12" s="251"/>
+      <c r="BI12" s="251"/>
+      <c r="BJ12" s="251"/>
+      <c r="BK12" s="252"/>
+      <c r="BP12" s="250"/>
+      <c r="BQ12" s="251"/>
+      <c r="BR12" s="251"/>
+      <c r="BS12" s="251"/>
+      <c r="BT12" s="251"/>
+      <c r="BU12" s="251"/>
+      <c r="BV12" s="251"/>
+      <c r="BW12" s="252"/>
+      <c r="CA12" s="250"/>
+      <c r="CB12" s="251"/>
+      <c r="CC12" s="251"/>
+      <c r="CD12" s="251"/>
+      <c r="CE12" s="251"/>
+      <c r="CF12" s="251"/>
+      <c r="CG12" s="251"/>
+      <c r="CH12" s="252"/>
+      <c r="CL12" s="250"/>
+      <c r="CM12" s="251"/>
+      <c r="CN12" s="251"/>
+      <c r="CO12" s="251"/>
+      <c r="CP12" s="251"/>
+      <c r="CQ12" s="251"/>
+      <c r="CR12" s="251"/>
+      <c r="CS12" s="252"/>
+      <c r="CV12" s="250"/>
+      <c r="CW12" s="251"/>
+      <c r="CX12" s="251"/>
+      <c r="CY12" s="251"/>
+      <c r="CZ12" s="251"/>
+      <c r="DA12" s="251"/>
+      <c r="DB12" s="251"/>
+      <c r="DC12" s="252"/>
+    </row>
+    <row r="13" spans="1:107" thickBot="1">
       <c r="G13" s="76"/>
       <c r="J13" s="64"/>
       <c r="K13" s="64"/>
@@ -7106,7 +7174,7 @@
       <c r="V13" s="64"/>
       <c r="W13" s="64"/>
       <c r="AX13" s="78"/>
-      <c r="AY13" s="200"/>
+      <c r="AY13" s="257"/>
       <c r="BD13" s="76"/>
       <c r="BG13" s="64"/>
       <c r="BH13" s="64"/>
@@ -7130,17 +7198,17 @@
       <c r="CV13" s="77"/>
       <c r="DC13" s="78"/>
     </row>
-    <row r="14" spans="7:107" thickBot="1">
-      <c r="G14" s="208" t="s">
+    <row r="14" spans="1:107" thickBot="1">
+      <c r="G14" s="253" t="s">
         <v>337</v>
       </c>
-      <c r="H14" s="209"/>
-      <c r="I14" s="209"/>
-      <c r="J14" s="209"/>
-      <c r="K14" s="209"/>
-      <c r="L14" s="209"/>
-      <c r="M14" s="209"/>
-      <c r="N14" s="210"/>
+      <c r="H14" s="254"/>
+      <c r="I14" s="254"/>
+      <c r="J14" s="254"/>
+      <c r="K14" s="254"/>
+      <c r="L14" s="254"/>
+      <c r="M14" s="254"/>
+      <c r="N14" s="255"/>
       <c r="O14" s="76"/>
       <c r="P14" s="64"/>
       <c r="Q14" s="64"/>
@@ -7151,59 +7219,59 @@
       <c r="V14" s="64"/>
       <c r="W14" s="64"/>
       <c r="AX14" s="78"/>
-      <c r="AY14" s="200"/>
-      <c r="BD14" s="208" t="s">
+      <c r="AY14" s="257"/>
+      <c r="BD14" s="253" t="s">
         <v>350</v>
       </c>
-      <c r="BE14" s="209"/>
-      <c r="BF14" s="209"/>
-      <c r="BG14" s="209"/>
-      <c r="BH14" s="209"/>
-      <c r="BI14" s="209"/>
-      <c r="BJ14" s="209"/>
-      <c r="BK14" s="210"/>
-      <c r="BP14" s="208" t="s">
+      <c r="BE14" s="254"/>
+      <c r="BF14" s="254"/>
+      <c r="BG14" s="254"/>
+      <c r="BH14" s="254"/>
+      <c r="BI14" s="254"/>
+      <c r="BJ14" s="254"/>
+      <c r="BK14" s="255"/>
+      <c r="BP14" s="253" t="s">
         <v>339</v>
       </c>
-      <c r="BQ14" s="209"/>
-      <c r="BR14" s="209"/>
-      <c r="BS14" s="209"/>
-      <c r="BT14" s="209"/>
-      <c r="BU14" s="209"/>
-      <c r="BV14" s="209"/>
-      <c r="BW14" s="210"/>
-      <c r="CA14" s="208" t="s">
+      <c r="BQ14" s="254"/>
+      <c r="BR14" s="254"/>
+      <c r="BS14" s="254"/>
+      <c r="BT14" s="254"/>
+      <c r="BU14" s="254"/>
+      <c r="BV14" s="254"/>
+      <c r="BW14" s="255"/>
+      <c r="CA14" s="253" t="s">
         <v>338</v>
       </c>
-      <c r="CB14" s="209"/>
-      <c r="CC14" s="209"/>
-      <c r="CD14" s="209"/>
-      <c r="CE14" s="209"/>
-      <c r="CF14" s="209"/>
-      <c r="CG14" s="209"/>
-      <c r="CH14" s="210"/>
-      <c r="CL14" s="208" t="s">
+      <c r="CB14" s="254"/>
+      <c r="CC14" s="254"/>
+      <c r="CD14" s="254"/>
+      <c r="CE14" s="254"/>
+      <c r="CF14" s="254"/>
+      <c r="CG14" s="254"/>
+      <c r="CH14" s="255"/>
+      <c r="CL14" s="253" t="s">
         <v>341</v>
       </c>
-      <c r="CM14" s="209"/>
-      <c r="CN14" s="209"/>
-      <c r="CO14" s="209"/>
-      <c r="CP14" s="209"/>
-      <c r="CQ14" s="209"/>
-      <c r="CR14" s="209"/>
-      <c r="CS14" s="210"/>
-      <c r="CV14" s="208" t="s">
+      <c r="CM14" s="254"/>
+      <c r="CN14" s="254"/>
+      <c r="CO14" s="254"/>
+      <c r="CP14" s="254"/>
+      <c r="CQ14" s="254"/>
+      <c r="CR14" s="254"/>
+      <c r="CS14" s="255"/>
+      <c r="CV14" s="253" t="s">
         <v>340</v>
       </c>
-      <c r="CW14" s="209"/>
-      <c r="CX14" s="209"/>
-      <c r="CY14" s="209"/>
-      <c r="CZ14" s="209"/>
-      <c r="DA14" s="209"/>
-      <c r="DB14" s="209"/>
-      <c r="DC14" s="210"/>
-    </row>
-    <row r="15" spans="7:107" thickBot="1">
+      <c r="CW14" s="254"/>
+      <c r="CX14" s="254"/>
+      <c r="CY14" s="254"/>
+      <c r="CZ14" s="254"/>
+      <c r="DA14" s="254"/>
+      <c r="DB14" s="254"/>
+      <c r="DC14" s="255"/>
+    </row>
+    <row r="15" spans="1:107" thickBot="1">
       <c r="G15" s="153"/>
       <c r="H15" s="152"/>
       <c r="I15" s="150"/>
@@ -7222,7 +7290,7 @@
       <c r="V15" s="64"/>
       <c r="W15" s="64"/>
       <c r="AX15" s="78"/>
-      <c r="AY15" s="200"/>
+      <c r="AY15" s="257"/>
       <c r="BD15" s="153"/>
       <c r="BE15" s="152"/>
       <c r="BF15" s="150"/>
@@ -7264,7 +7332,7 @@
       <c r="DB15" s="153"/>
       <c r="DC15" s="154"/>
     </row>
-    <row r="16" spans="7:107" thickBot="1">
+    <row r="16" spans="1:107" thickBot="1">
       <c r="G16" s="76"/>
       <c r="H16" s="64"/>
       <c r="I16" s="64"/>
@@ -7283,7 +7351,7 @@
       <c r="V16" s="64"/>
       <c r="W16" s="64"/>
       <c r="AX16" s="78"/>
-      <c r="AY16" s="200"/>
+      <c r="AY16" s="257"/>
       <c r="BD16" s="76"/>
       <c r="BE16" s="64"/>
       <c r="BF16" s="64"/>
@@ -7335,16 +7403,16 @@
       <c r="M17" s="64"/>
       <c r="N17" s="64"/>
       <c r="O17" s="76"/>
-      <c r="P17" s="211"/>
-      <c r="Q17" s="187"/>
-      <c r="R17" s="187"/>
+      <c r="P17" s="259"/>
+      <c r="Q17" s="212"/>
+      <c r="R17" s="212"/>
       <c r="S17" s="64"/>
-      <c r="T17" s="211"/>
-      <c r="U17" s="187"/>
-      <c r="V17" s="187"/>
-      <c r="W17" s="187"/>
+      <c r="T17" s="259"/>
+      <c r="U17" s="212"/>
+      <c r="V17" s="212"/>
+      <c r="W17" s="212"/>
       <c r="AX17" s="78"/>
-      <c r="AY17" s="200"/>
+      <c r="AY17" s="257"/>
       <c r="BD17" s="76"/>
       <c r="BE17" s="64"/>
       <c r="BF17" s="64"/>
@@ -7362,14 +7430,14 @@
       <c r="BV17" s="64"/>
       <c r="BW17" s="82"/>
       <c r="CA17" s="76"/>
-      <c r="CB17" s="220" t="s">
+      <c r="CB17" s="221" t="s">
         <v>361</v>
       </c>
-      <c r="CC17" s="197"/>
-      <c r="CD17" s="197"/>
-      <c r="CE17" s="197"/>
-      <c r="CF17" s="197"/>
-      <c r="CG17" s="198"/>
+      <c r="CC17" s="224"/>
+      <c r="CD17" s="224"/>
+      <c r="CE17" s="224"/>
+      <c r="CF17" s="224"/>
+      <c r="CG17" s="225"/>
       <c r="CH17" s="82"/>
       <c r="CL17" s="76"/>
       <c r="CM17" s="64"/>
@@ -7392,96 +7460,96 @@
       <c r="G18" s="77"/>
       <c r="O18" s="77"/>
       <c r="AX18" s="78"/>
-      <c r="AY18" s="200"/>
+      <c r="AY18" s="257"/>
       <c r="BD18" s="77"/>
-      <c r="BE18" s="196" t="s">
+      <c r="BE18" s="235" t="s">
         <v>347</v>
       </c>
-      <c r="BF18" s="197"/>
-      <c r="BG18" s="197"/>
-      <c r="BH18" s="197"/>
-      <c r="BI18" s="197"/>
-      <c r="BJ18" s="198"/>
+      <c r="BF18" s="224"/>
+      <c r="BG18" s="224"/>
+      <c r="BH18" s="224"/>
+      <c r="BI18" s="224"/>
+      <c r="BJ18" s="225"/>
       <c r="BK18" s="78"/>
       <c r="BP18" s="77"/>
-      <c r="BQ18" s="196" t="s">
+      <c r="BQ18" s="235" t="s">
         <v>343</v>
       </c>
-      <c r="BR18" s="197"/>
-      <c r="BS18" s="197"/>
-      <c r="BT18" s="197"/>
-      <c r="BU18" s="197"/>
-      <c r="BV18" s="198"/>
+      <c r="BR18" s="224"/>
+      <c r="BS18" s="224"/>
+      <c r="BT18" s="224"/>
+      <c r="BU18" s="224"/>
+      <c r="BV18" s="225"/>
       <c r="BW18" s="78"/>
       <c r="CA18" s="77"/>
-      <c r="CB18" s="212" t="s">
+      <c r="CB18" s="236" t="s">
         <v>354</v>
       </c>
-      <c r="CC18" s="213"/>
-      <c r="CD18" s="196"/>
-      <c r="CE18" s="198"/>
-      <c r="CF18" s="212" t="s">
+      <c r="CC18" s="237"/>
+      <c r="CD18" s="235"/>
+      <c r="CE18" s="225"/>
+      <c r="CF18" s="236" t="s">
         <v>353</v>
       </c>
-      <c r="CG18" s="213"/>
+      <c r="CG18" s="237"/>
       <c r="CH18" s="78"/>
       <c r="CL18" s="77"/>
-      <c r="CM18" s="220" t="s">
+      <c r="CM18" s="221" t="s">
         <v>366</v>
       </c>
-      <c r="CN18" s="197"/>
-      <c r="CO18" s="197"/>
-      <c r="CP18" s="197"/>
-      <c r="CQ18" s="197"/>
-      <c r="CR18" s="198"/>
+      <c r="CN18" s="224"/>
+      <c r="CO18" s="224"/>
+      <c r="CP18" s="224"/>
+      <c r="CQ18" s="224"/>
+      <c r="CR18" s="225"/>
       <c r="CS18" s="78"/>
       <c r="CV18" s="77"/>
-      <c r="CW18" s="220" t="s">
+      <c r="CW18" s="221" t="s">
         <v>371</v>
       </c>
-      <c r="CX18" s="197"/>
-      <c r="CY18" s="197"/>
-      <c r="CZ18" s="197"/>
-      <c r="DA18" s="197"/>
-      <c r="DB18" s="198"/>
+      <c r="CX18" s="224"/>
+      <c r="CY18" s="224"/>
+      <c r="CZ18" s="224"/>
+      <c r="DA18" s="224"/>
+      <c r="DB18" s="225"/>
       <c r="DC18" s="78"/>
     </row>
     <row r="19" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G19" s="77"/>
       <c r="O19" s="77"/>
       <c r="AX19" s="78"/>
-      <c r="AY19" s="200"/>
+      <c r="AY19" s="257"/>
       <c r="BD19" s="77"/>
-      <c r="BE19" s="196" t="s">
+      <c r="BE19" s="235" t="s">
         <v>348</v>
       </c>
-      <c r="BF19" s="197"/>
-      <c r="BG19" s="197"/>
-      <c r="BH19" s="197"/>
-      <c r="BI19" s="197"/>
-      <c r="BJ19" s="198"/>
+      <c r="BF19" s="224"/>
+      <c r="BG19" s="224"/>
+      <c r="BH19" s="224"/>
+      <c r="BI19" s="224"/>
+      <c r="BJ19" s="225"/>
       <c r="BK19" s="78"/>
       <c r="BP19" s="77"/>
-      <c r="BQ19" s="196" t="s">
+      <c r="BQ19" s="235" t="s">
         <v>342</v>
       </c>
-      <c r="BR19" s="197"/>
-      <c r="BS19" s="197"/>
-      <c r="BT19" s="197"/>
-      <c r="BU19" s="197"/>
-      <c r="BV19" s="198"/>
+      <c r="BR19" s="224"/>
+      <c r="BS19" s="224"/>
+      <c r="BT19" s="224"/>
+      <c r="BU19" s="224"/>
+      <c r="BV19" s="225"/>
       <c r="BW19" s="78"/>
       <c r="CA19" s="77"/>
       <c r="CH19" s="78"/>
       <c r="CL19" s="77"/>
-      <c r="CM19" s="220" t="s">
+      <c r="CM19" s="221" t="s">
         <v>367</v>
       </c>
-      <c r="CN19" s="197"/>
-      <c r="CO19" s="197"/>
-      <c r="CP19" s="197"/>
-      <c r="CQ19" s="197"/>
-      <c r="CR19" s="198"/>
+      <c r="CN19" s="224"/>
+      <c r="CO19" s="224"/>
+      <c r="CP19" s="224"/>
+      <c r="CQ19" s="224"/>
+      <c r="CR19" s="225"/>
       <c r="CS19" s="78"/>
       <c r="CV19" s="77"/>
       <c r="DC19" s="78"/>
@@ -7490,114 +7558,114 @@
       <c r="G20" s="77"/>
       <c r="O20" s="77"/>
       <c r="AX20" s="78"/>
-      <c r="AY20" s="200"/>
+      <c r="AY20" s="257"/>
       <c r="BD20" s="77"/>
       <c r="BK20" s="78"/>
       <c r="BP20" s="77"/>
       <c r="BW20" s="78"/>
       <c r="CA20" s="77"/>
-      <c r="CB20" s="220" t="s">
+      <c r="CB20" s="221" t="s">
         <v>362</v>
       </c>
-      <c r="CC20" s="197"/>
-      <c r="CD20" s="197"/>
-      <c r="CE20" s="197"/>
-      <c r="CF20" s="197"/>
-      <c r="CG20" s="198"/>
+      <c r="CC20" s="224"/>
+      <c r="CD20" s="224"/>
+      <c r="CE20" s="224"/>
+      <c r="CF20" s="224"/>
+      <c r="CG20" s="225"/>
       <c r="CH20" s="78"/>
       <c r="CL20" s="77"/>
       <c r="CS20" s="78"/>
       <c r="CV20" s="77"/>
-      <c r="CW20" s="220" t="s">
+      <c r="CW20" s="221" t="s">
         <v>372</v>
       </c>
-      <c r="CX20" s="197"/>
-      <c r="CY20" s="197"/>
-      <c r="CZ20" s="197"/>
-      <c r="DA20" s="197"/>
-      <c r="DB20" s="198"/>
+      <c r="CX20" s="224"/>
+      <c r="CY20" s="224"/>
+      <c r="CZ20" s="224"/>
+      <c r="DA20" s="224"/>
+      <c r="DB20" s="225"/>
       <c r="DC20" s="78"/>
     </row>
     <row r="21" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G21" s="77"/>
       <c r="O21" s="77"/>
       <c r="AX21" s="78"/>
-      <c r="AY21" s="200"/>
+      <c r="AY21" s="257"/>
       <c r="BD21" s="77"/>
-      <c r="BE21" s="196" t="s">
+      <c r="BE21" s="235" t="s">
         <v>349</v>
       </c>
-      <c r="BF21" s="197"/>
-      <c r="BG21" s="197"/>
-      <c r="BH21" s="197"/>
-      <c r="BI21" s="197"/>
-      <c r="BJ21" s="198"/>
+      <c r="BF21" s="224"/>
+      <c r="BG21" s="224"/>
+      <c r="BH21" s="224"/>
+      <c r="BI21" s="224"/>
+      <c r="BJ21" s="225"/>
       <c r="BK21" s="78"/>
       <c r="BP21" s="77"/>
-      <c r="BQ21" s="196" t="s">
+      <c r="BQ21" s="235" t="s">
         <v>344</v>
       </c>
-      <c r="BR21" s="197"/>
-      <c r="BS21" s="197"/>
-      <c r="BT21" s="197"/>
-      <c r="BU21" s="197"/>
-      <c r="BV21" s="198"/>
+      <c r="BR21" s="224"/>
+      <c r="BS21" s="224"/>
+      <c r="BT21" s="224"/>
+      <c r="BU21" s="224"/>
+      <c r="BV21" s="225"/>
       <c r="BW21" s="78"/>
       <c r="CA21" s="77"/>
-      <c r="CB21" s="220" t="s">
+      <c r="CB21" s="221" t="s">
         <v>348</v>
       </c>
-      <c r="CC21" s="197"/>
-      <c r="CD21" s="197"/>
-      <c r="CE21" s="197"/>
-      <c r="CF21" s="197"/>
-      <c r="CG21" s="198"/>
+      <c r="CC21" s="224"/>
+      <c r="CD21" s="224"/>
+      <c r="CE21" s="224"/>
+      <c r="CF21" s="224"/>
+      <c r="CG21" s="225"/>
       <c r="CH21" s="78"/>
       <c r="CL21" s="77"/>
-      <c r="CM21" s="220" t="s">
+      <c r="CM21" s="221" t="s">
         <v>368</v>
       </c>
-      <c r="CN21" s="197"/>
-      <c r="CO21" s="197"/>
-      <c r="CP21" s="197"/>
-      <c r="CQ21" s="197"/>
-      <c r="CR21" s="198"/>
+      <c r="CN21" s="224"/>
+      <c r="CO21" s="224"/>
+      <c r="CP21" s="224"/>
+      <c r="CQ21" s="224"/>
+      <c r="CR21" s="225"/>
       <c r="CS21" s="78"/>
       <c r="CV21" s="77"/>
-      <c r="CW21" s="220" t="s">
+      <c r="CW21" s="221" t="s">
         <v>367</v>
       </c>
-      <c r="CX21" s="197"/>
-      <c r="CY21" s="197"/>
-      <c r="CZ21" s="197"/>
-      <c r="DA21" s="197"/>
-      <c r="DB21" s="198"/>
+      <c r="CX21" s="224"/>
+      <c r="CY21" s="224"/>
+      <c r="CZ21" s="224"/>
+      <c r="DA21" s="224"/>
+      <c r="DB21" s="225"/>
       <c r="DC21" s="78"/>
     </row>
     <row r="22" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G22" s="77"/>
       <c r="O22" s="77"/>
       <c r="AX22" s="78"/>
-      <c r="AY22" s="200"/>
+      <c r="AY22" s="257"/>
       <c r="BD22" s="77"/>
-      <c r="BE22" s="196" t="s">
+      <c r="BE22" s="235" t="s">
         <v>348</v>
       </c>
-      <c r="BF22" s="197"/>
-      <c r="BG22" s="197"/>
-      <c r="BH22" s="197"/>
-      <c r="BI22" s="197"/>
-      <c r="BJ22" s="198"/>
+      <c r="BF22" s="224"/>
+      <c r="BG22" s="224"/>
+      <c r="BH22" s="224"/>
+      <c r="BI22" s="224"/>
+      <c r="BJ22" s="225"/>
       <c r="BK22" s="78"/>
       <c r="BP22" s="77"/>
-      <c r="BQ22" s="196" t="s">
+      <c r="BQ22" s="235" t="s">
         <v>342</v>
       </c>
-      <c r="BR22" s="197"/>
-      <c r="BS22" s="197"/>
-      <c r="BT22" s="197"/>
-      <c r="BU22" s="197"/>
-      <c r="BV22" s="198"/>
+      <c r="BR22" s="224"/>
+      <c r="BS22" s="224"/>
+      <c r="BT22" s="224"/>
+      <c r="BU22" s="224"/>
+      <c r="BV22" s="225"/>
       <c r="BW22" s="78"/>
       <c r="CA22" s="77"/>
       <c r="CH22" s="78"/>
@@ -7610,7 +7678,7 @@
       <c r="G23" s="77"/>
       <c r="O23" s="77"/>
       <c r="AX23" s="78"/>
-      <c r="AY23" s="200"/>
+      <c r="AY23" s="257"/>
       <c r="BD23" s="77"/>
       <c r="BK23" s="78"/>
       <c r="BP23" s="77"/>
@@ -7619,57 +7687,57 @@
       <c r="CB23" s="64"/>
       <c r="CC23" s="64"/>
       <c r="CD23" s="64"/>
-      <c r="CE23" s="223" t="s">
+      <c r="CE23" s="244" t="s">
         <v>360</v>
       </c>
-      <c r="CF23" s="224"/>
-      <c r="CG23" s="224"/>
-      <c r="CH23" s="225"/>
+      <c r="CF23" s="245"/>
+      <c r="CG23" s="245"/>
+      <c r="CH23" s="246"/>
       <c r="CL23" s="77"/>
-      <c r="CM23" s="220" t="s">
+      <c r="CM23" s="221" t="s">
         <v>369</v>
       </c>
-      <c r="CN23" s="197"/>
-      <c r="CO23" s="197"/>
-      <c r="CP23" s="197"/>
-      <c r="CQ23" s="197"/>
-      <c r="CR23" s="198"/>
+      <c r="CN23" s="224"/>
+      <c r="CO23" s="224"/>
+      <c r="CP23" s="224"/>
+      <c r="CQ23" s="224"/>
+      <c r="CR23" s="225"/>
       <c r="CS23" s="78"/>
       <c r="CV23" s="77"/>
-      <c r="CW23" s="220" t="s">
+      <c r="CW23" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="CX23" s="197"/>
-      <c r="CY23" s="197"/>
-      <c r="CZ23" s="197"/>
-      <c r="DA23" s="197"/>
-      <c r="DB23" s="198"/>
+      <c r="CX23" s="224"/>
+      <c r="CY23" s="224"/>
+      <c r="CZ23" s="224"/>
+      <c r="DA23" s="224"/>
+      <c r="DB23" s="225"/>
       <c r="DC23" s="78"/>
     </row>
     <row r="24" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G24" s="77"/>
       <c r="O24" s="77"/>
       <c r="AX24" s="78"/>
-      <c r="AY24" s="200"/>
+      <c r="AY24" s="257"/>
       <c r="BD24" s="77"/>
-      <c r="BE24" s="196" t="s">
+      <c r="BE24" s="235" t="s">
         <v>351</v>
       </c>
-      <c r="BF24" s="197"/>
-      <c r="BG24" s="197"/>
-      <c r="BH24" s="197"/>
-      <c r="BI24" s="197"/>
-      <c r="BJ24" s="198"/>
+      <c r="BF24" s="224"/>
+      <c r="BG24" s="224"/>
+      <c r="BH24" s="224"/>
+      <c r="BI24" s="224"/>
+      <c r="BJ24" s="225"/>
       <c r="BK24" s="78"/>
       <c r="BP24" s="77"/>
-      <c r="BQ24" s="196" t="s">
+      <c r="BQ24" s="235" t="s">
         <v>345</v>
       </c>
-      <c r="BR24" s="197"/>
-      <c r="BS24" s="197"/>
-      <c r="BT24" s="197"/>
-      <c r="BU24" s="197"/>
-      <c r="BV24" s="198"/>
+      <c r="BR24" s="224"/>
+      <c r="BS24" s="224"/>
+      <c r="BT24" s="224"/>
+      <c r="BU24" s="224"/>
+      <c r="BV24" s="225"/>
       <c r="BW24" s="78"/>
       <c r="CA24" s="76"/>
       <c r="CB24" s="64"/>
@@ -7680,60 +7748,60 @@
       <c r="CG24" s="64"/>
       <c r="CH24" s="82"/>
       <c r="CL24" s="77"/>
-      <c r="CM24" s="220" t="s">
+      <c r="CM24" s="221" t="s">
         <v>367</v>
       </c>
-      <c r="CN24" s="197"/>
-      <c r="CO24" s="197"/>
-      <c r="CP24" s="197"/>
-      <c r="CQ24" s="197"/>
-      <c r="CR24" s="198"/>
+      <c r="CN24" s="224"/>
+      <c r="CO24" s="224"/>
+      <c r="CP24" s="224"/>
+      <c r="CQ24" s="224"/>
+      <c r="CR24" s="225"/>
       <c r="CS24" s="78"/>
       <c r="CV24" s="77"/>
-      <c r="CW24" s="220" t="s">
+      <c r="CW24" s="221" t="s">
         <v>367</v>
       </c>
-      <c r="CX24" s="197"/>
-      <c r="CY24" s="197"/>
-      <c r="CZ24" s="197"/>
-      <c r="DA24" s="197"/>
-      <c r="DB24" s="198"/>
+      <c r="CX24" s="224"/>
+      <c r="CY24" s="224"/>
+      <c r="CZ24" s="224"/>
+      <c r="DA24" s="224"/>
+      <c r="DB24" s="225"/>
       <c r="DC24" s="78"/>
     </row>
     <row r="25" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G25" s="77"/>
       <c r="O25" s="77"/>
       <c r="AX25" s="78"/>
-      <c r="AY25" s="200"/>
+      <c r="AY25" s="257"/>
       <c r="BD25" s="77"/>
-      <c r="BE25" s="196" t="s">
+      <c r="BE25" s="235" t="s">
         <v>348</v>
       </c>
-      <c r="BF25" s="197"/>
-      <c r="BG25" s="197"/>
-      <c r="BH25" s="197"/>
-      <c r="BI25" s="197"/>
-      <c r="BJ25" s="198"/>
+      <c r="BF25" s="224"/>
+      <c r="BG25" s="224"/>
+      <c r="BH25" s="224"/>
+      <c r="BI25" s="224"/>
+      <c r="BJ25" s="225"/>
       <c r="BK25" s="78"/>
       <c r="BP25" s="77"/>
-      <c r="BQ25" s="196" t="s">
+      <c r="BQ25" s="235" t="s">
         <v>342</v>
       </c>
-      <c r="BR25" s="197"/>
-      <c r="BS25" s="197"/>
-      <c r="BT25" s="197"/>
-      <c r="BU25" s="197"/>
-      <c r="BV25" s="198"/>
+      <c r="BR25" s="224"/>
+      <c r="BS25" s="224"/>
+      <c r="BT25" s="224"/>
+      <c r="BU25" s="224"/>
+      <c r="BV25" s="225"/>
       <c r="BW25" s="78"/>
       <c r="CA25" s="77"/>
-      <c r="CB25" s="220" t="s">
+      <c r="CB25" s="221" t="s">
         <v>355</v>
       </c>
-      <c r="CC25" s="221"/>
-      <c r="CD25" s="221"/>
-      <c r="CE25" s="221"/>
-      <c r="CF25" s="221"/>
-      <c r="CG25" s="222"/>
+      <c r="CC25" s="222"/>
+      <c r="CD25" s="222"/>
+      <c r="CE25" s="222"/>
+      <c r="CF25" s="222"/>
+      <c r="CG25" s="223"/>
       <c r="CH25" s="78"/>
       <c r="CL25" s="77"/>
       <c r="CS25" s="78"/>
@@ -7744,128 +7812,128 @@
       <c r="G26" s="77"/>
       <c r="O26" s="77"/>
       <c r="AX26" s="78"/>
-      <c r="AY26" s="200"/>
+      <c r="AY26" s="257"/>
       <c r="BD26" s="77"/>
       <c r="BK26" s="78"/>
       <c r="BP26" s="77"/>
       <c r="BW26" s="78"/>
       <c r="CA26" s="77"/>
-      <c r="CB26" s="212" t="s">
+      <c r="CB26" s="236" t="s">
         <v>354</v>
       </c>
-      <c r="CC26" s="213"/>
-      <c r="CD26" s="196"/>
-      <c r="CE26" s="198"/>
-      <c r="CF26" s="212" t="s">
+      <c r="CC26" s="237"/>
+      <c r="CD26" s="235"/>
+      <c r="CE26" s="225"/>
+      <c r="CF26" s="236" t="s">
         <v>353</v>
       </c>
-      <c r="CG26" s="213"/>
+      <c r="CG26" s="237"/>
       <c r="CH26" s="78"/>
       <c r="CL26" s="77"/>
-      <c r="CM26" s="196" t="s">
+      <c r="CM26" s="235" t="s">
         <v>343</v>
       </c>
-      <c r="CN26" s="197"/>
-      <c r="CO26" s="197"/>
-      <c r="CP26" s="197"/>
-      <c r="CQ26" s="197"/>
-      <c r="CR26" s="198"/>
+      <c r="CN26" s="224"/>
+      <c r="CO26" s="224"/>
+      <c r="CP26" s="224"/>
+      <c r="CQ26" s="224"/>
+      <c r="CR26" s="225"/>
       <c r="CS26" s="78"/>
       <c r="CV26" s="77"/>
-      <c r="CW26" s="220" t="s">
+      <c r="CW26" s="221" t="s">
         <v>374</v>
       </c>
-      <c r="CX26" s="197"/>
-      <c r="CY26" s="197"/>
-      <c r="CZ26" s="197"/>
-      <c r="DA26" s="197"/>
-      <c r="DB26" s="198"/>
+      <c r="CX26" s="224"/>
+      <c r="CY26" s="224"/>
+      <c r="CZ26" s="224"/>
+      <c r="DA26" s="224"/>
+      <c r="DB26" s="225"/>
       <c r="DC26" s="78"/>
     </row>
     <row r="27" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G27" s="77"/>
       <c r="O27" s="77"/>
       <c r="AX27" s="78"/>
-      <c r="AY27" s="200"/>
+      <c r="AY27" s="257"/>
       <c r="BD27" s="77"/>
-      <c r="BE27" s="196" t="s">
+      <c r="BE27" s="235" t="s">
         <v>352</v>
       </c>
-      <c r="BF27" s="197"/>
-      <c r="BG27" s="197"/>
-      <c r="BH27" s="197"/>
-      <c r="BI27" s="197"/>
-      <c r="BJ27" s="198"/>
+      <c r="BF27" s="224"/>
+      <c r="BG27" s="224"/>
+      <c r="BH27" s="224"/>
+      <c r="BI27" s="224"/>
+      <c r="BJ27" s="225"/>
       <c r="BK27" s="78"/>
       <c r="BP27" s="77"/>
-      <c r="BQ27" s="196" t="s">
+      <c r="BQ27" s="235" t="s">
         <v>346</v>
       </c>
-      <c r="BR27" s="197"/>
-      <c r="BS27" s="197"/>
-      <c r="BT27" s="197"/>
-      <c r="BU27" s="197"/>
-      <c r="BV27" s="198"/>
+      <c r="BR27" s="224"/>
+      <c r="BS27" s="224"/>
+      <c r="BT27" s="224"/>
+      <c r="BU27" s="224"/>
+      <c r="BV27" s="225"/>
       <c r="BW27" s="78"/>
       <c r="CA27" s="77"/>
       <c r="CH27" s="78"/>
       <c r="CL27" s="77"/>
-      <c r="CM27" s="220" t="s">
+      <c r="CM27" s="221" t="s">
         <v>367</v>
       </c>
-      <c r="CN27" s="197"/>
-      <c r="CO27" s="197"/>
-      <c r="CP27" s="197"/>
-      <c r="CQ27" s="197"/>
-      <c r="CR27" s="198"/>
+      <c r="CN27" s="224"/>
+      <c r="CO27" s="224"/>
+      <c r="CP27" s="224"/>
+      <c r="CQ27" s="224"/>
+      <c r="CR27" s="225"/>
       <c r="CS27" s="78"/>
       <c r="CV27" s="77"/>
-      <c r="CW27" s="220" t="s">
+      <c r="CW27" s="221" t="s">
         <v>367</v>
       </c>
-      <c r="CX27" s="197"/>
-      <c r="CY27" s="197"/>
-      <c r="CZ27" s="197"/>
-      <c r="DA27" s="197"/>
-      <c r="DB27" s="198"/>
+      <c r="CX27" s="224"/>
+      <c r="CY27" s="224"/>
+      <c r="CZ27" s="224"/>
+      <c r="DA27" s="224"/>
+      <c r="DB27" s="225"/>
       <c r="DC27" s="78"/>
     </row>
     <row r="28" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G28" s="77"/>
       <c r="O28" s="77"/>
       <c r="AX28" s="78"/>
-      <c r="AY28" s="200"/>
+      <c r="AY28" s="257"/>
       <c r="BD28" s="155"/>
-      <c r="BE28" s="212" t="s">
+      <c r="BE28" s="236" t="s">
         <v>354</v>
       </c>
-      <c r="BF28" s="213"/>
-      <c r="BG28" s="196"/>
-      <c r="BH28" s="198"/>
-      <c r="BI28" s="212" t="s">
+      <c r="BF28" s="237"/>
+      <c r="BG28" s="235"/>
+      <c r="BH28" s="225"/>
+      <c r="BI28" s="236" t="s">
         <v>353</v>
       </c>
-      <c r="BJ28" s="213"/>
+      <c r="BJ28" s="237"/>
       <c r="BK28" s="78"/>
       <c r="BP28" s="77"/>
-      <c r="BQ28" s="196" t="s">
+      <c r="BQ28" s="235" t="s">
         <v>342</v>
       </c>
-      <c r="BR28" s="197"/>
-      <c r="BS28" s="197"/>
-      <c r="BT28" s="197"/>
-      <c r="BU28" s="197"/>
-      <c r="BV28" s="198"/>
+      <c r="BR28" s="224"/>
+      <c r="BS28" s="224"/>
+      <c r="BT28" s="224"/>
+      <c r="BU28" s="224"/>
+      <c r="BV28" s="225"/>
       <c r="BW28" s="78"/>
       <c r="CA28" s="77"/>
-      <c r="CB28" s="220" t="s">
+      <c r="CB28" s="221" t="s">
         <v>356</v>
       </c>
-      <c r="CC28" s="221"/>
-      <c r="CD28" s="221"/>
-      <c r="CE28" s="221"/>
-      <c r="CF28" s="221"/>
-      <c r="CG28" s="222"/>
+      <c r="CC28" s="222"/>
+      <c r="CD28" s="222"/>
+      <c r="CE28" s="222"/>
+      <c r="CF28" s="222"/>
+      <c r="CG28" s="223"/>
       <c r="CH28" s="78"/>
       <c r="CL28" s="77"/>
       <c r="CS28" s="78"/>
@@ -7876,49 +7944,49 @@
       <c r="G29" s="77"/>
       <c r="O29" s="77"/>
       <c r="AX29" s="78"/>
-      <c r="AY29" s="200"/>
+      <c r="AY29" s="257"/>
       <c r="BD29" s="77"/>
       <c r="BK29" s="78"/>
       <c r="BP29" s="77"/>
       <c r="BW29" s="78"/>
       <c r="CA29" s="77"/>
-      <c r="CB29" s="212" t="s">
+      <c r="CB29" s="236" t="s">
         <v>354</v>
       </c>
-      <c r="CC29" s="213"/>
-      <c r="CD29" s="196"/>
-      <c r="CE29" s="198"/>
-      <c r="CF29" s="212" t="s">
+      <c r="CC29" s="237"/>
+      <c r="CD29" s="235"/>
+      <c r="CE29" s="225"/>
+      <c r="CF29" s="236" t="s">
         <v>353</v>
       </c>
-      <c r="CG29" s="213"/>
+      <c r="CG29" s="237"/>
       <c r="CH29" s="78"/>
       <c r="CL29" s="77"/>
-      <c r="CM29" s="196" t="s">
+      <c r="CM29" s="235" t="s">
         <v>344</v>
       </c>
-      <c r="CN29" s="197"/>
-      <c r="CO29" s="197"/>
-      <c r="CP29" s="197"/>
-      <c r="CQ29" s="197"/>
-      <c r="CR29" s="198"/>
+      <c r="CN29" s="224"/>
+      <c r="CO29" s="224"/>
+      <c r="CP29" s="224"/>
+      <c r="CQ29" s="224"/>
+      <c r="CR29" s="225"/>
       <c r="CS29" s="78"/>
       <c r="CV29" s="77"/>
-      <c r="CW29" s="220" t="s">
+      <c r="CW29" s="221" t="s">
         <v>375</v>
       </c>
-      <c r="CX29" s="197"/>
-      <c r="CY29" s="197"/>
-      <c r="CZ29" s="197"/>
-      <c r="DA29" s="197"/>
-      <c r="DB29" s="198"/>
+      <c r="CX29" s="224"/>
+      <c r="CY29" s="224"/>
+      <c r="CZ29" s="224"/>
+      <c r="DA29" s="224"/>
+      <c r="DB29" s="225"/>
       <c r="DC29" s="78"/>
     </row>
     <row r="30" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G30" s="77"/>
       <c r="O30" s="77"/>
       <c r="AX30" s="78"/>
-      <c r="AY30" s="200"/>
+      <c r="AY30" s="257"/>
       <c r="BD30" s="77"/>
       <c r="BK30" s="78"/>
       <c r="BP30" s="77"/>
@@ -7926,44 +7994,44 @@
       <c r="CA30" s="77"/>
       <c r="CH30" s="78"/>
       <c r="CL30" s="77"/>
-      <c r="CM30" s="220" t="s">
+      <c r="CM30" s="221" t="s">
         <v>367</v>
       </c>
-      <c r="CN30" s="197"/>
-      <c r="CO30" s="197"/>
-      <c r="CP30" s="197"/>
-      <c r="CQ30" s="197"/>
-      <c r="CR30" s="198"/>
+      <c r="CN30" s="224"/>
+      <c r="CO30" s="224"/>
+      <c r="CP30" s="224"/>
+      <c r="CQ30" s="224"/>
+      <c r="CR30" s="225"/>
       <c r="CS30" s="78"/>
       <c r="CV30" s="77"/>
-      <c r="CW30" s="220" t="s">
+      <c r="CW30" s="221" t="s">
         <v>367</v>
       </c>
-      <c r="CX30" s="221"/>
-      <c r="CY30" s="221"/>
-      <c r="CZ30" s="221"/>
-      <c r="DA30" s="221"/>
-      <c r="DB30" s="222"/>
+      <c r="CX30" s="222"/>
+      <c r="CY30" s="222"/>
+      <c r="CZ30" s="222"/>
+      <c r="DA30" s="222"/>
+      <c r="DB30" s="223"/>
       <c r="DC30" s="78"/>
     </row>
     <row r="31" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G31" s="77"/>
       <c r="O31" s="77"/>
       <c r="AX31" s="78"/>
-      <c r="AY31" s="200"/>
+      <c r="AY31" s="257"/>
       <c r="BD31" s="77"/>
       <c r="BK31" s="78"/>
       <c r="BP31" s="77"/>
       <c r="BW31" s="78"/>
       <c r="CA31" s="77"/>
-      <c r="CB31" s="220" t="s">
+      <c r="CB31" s="221" t="s">
         <v>357</v>
       </c>
-      <c r="CC31" s="221"/>
-      <c r="CD31" s="221"/>
-      <c r="CE31" s="221"/>
-      <c r="CF31" s="221"/>
-      <c r="CG31" s="222"/>
+      <c r="CC31" s="222"/>
+      <c r="CD31" s="222"/>
+      <c r="CE31" s="222"/>
+      <c r="CF31" s="222"/>
+      <c r="CG31" s="223"/>
       <c r="CH31" s="78"/>
       <c r="CL31" s="77"/>
       <c r="CS31" s="78"/>
@@ -7974,122 +8042,122 @@
       <c r="G32" s="77"/>
       <c r="O32" s="77"/>
       <c r="AX32" s="78"/>
-      <c r="AY32" s="200"/>
+      <c r="AY32" s="257"/>
       <c r="BD32" s="77"/>
-      <c r="BE32" s="214" t="s">
+      <c r="BE32" s="238" t="s">
         <v>289</v>
       </c>
-      <c r="BF32" s="215"/>
-      <c r="BG32" s="215"/>
-      <c r="BH32" s="215"/>
-      <c r="BI32" s="215"/>
-      <c r="BJ32" s="216"/>
+      <c r="BF32" s="239"/>
+      <c r="BG32" s="239"/>
+      <c r="BH32" s="239"/>
+      <c r="BI32" s="239"/>
+      <c r="BJ32" s="240"/>
       <c r="BK32" s="78"/>
       <c r="BP32" s="77"/>
-      <c r="BQ32" s="214" t="s">
+      <c r="BQ32" s="238" t="s">
         <v>364</v>
       </c>
-      <c r="BR32" s="215"/>
-      <c r="BS32" s="215"/>
-      <c r="BT32" s="215"/>
-      <c r="BU32" s="215"/>
-      <c r="BV32" s="216"/>
+      <c r="BR32" s="239"/>
+      <c r="BS32" s="239"/>
+      <c r="BT32" s="239"/>
+      <c r="BU32" s="239"/>
+      <c r="BV32" s="240"/>
       <c r="BW32" s="78"/>
       <c r="CA32" s="77"/>
-      <c r="CB32" s="212" t="s">
+      <c r="CB32" s="236" t="s">
         <v>354</v>
       </c>
-      <c r="CC32" s="213"/>
-      <c r="CD32" s="196"/>
-      <c r="CE32" s="198"/>
-      <c r="CF32" s="212" t="s">
+      <c r="CC32" s="237"/>
+      <c r="CD32" s="235"/>
+      <c r="CE32" s="225"/>
+      <c r="CF32" s="236" t="s">
         <v>353</v>
       </c>
-      <c r="CG32" s="213"/>
+      <c r="CG32" s="237"/>
       <c r="CH32" s="78"/>
       <c r="CL32" s="77"/>
-      <c r="CM32" s="196" t="s">
+      <c r="CM32" s="235" t="s">
         <v>345</v>
       </c>
-      <c r="CN32" s="197"/>
-      <c r="CO32" s="197"/>
-      <c r="CP32" s="197"/>
-      <c r="CQ32" s="197"/>
-      <c r="CR32" s="198"/>
+      <c r="CN32" s="224"/>
+      <c r="CO32" s="224"/>
+      <c r="CP32" s="224"/>
+      <c r="CQ32" s="224"/>
+      <c r="CR32" s="225"/>
       <c r="CS32" s="78"/>
       <c r="CV32" s="77"/>
-      <c r="CW32" s="220" t="s">
+      <c r="CW32" s="221" t="s">
         <v>376</v>
       </c>
-      <c r="CX32" s="197"/>
-      <c r="CY32" s="197"/>
-      <c r="CZ32" s="197"/>
-      <c r="DA32" s="197"/>
-      <c r="DB32" s="198"/>
+      <c r="CX32" s="224"/>
+      <c r="CY32" s="224"/>
+      <c r="CZ32" s="224"/>
+      <c r="DA32" s="224"/>
+      <c r="DB32" s="225"/>
       <c r="DC32" s="78"/>
     </row>
     <row r="33" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G33" s="77"/>
       <c r="O33" s="77"/>
       <c r="AX33" s="78"/>
-      <c r="AY33" s="200"/>
+      <c r="AY33" s="257"/>
       <c r="BD33" s="77"/>
-      <c r="BE33" s="217"/>
-      <c r="BF33" s="218"/>
-      <c r="BG33" s="218"/>
-      <c r="BH33" s="218"/>
-      <c r="BI33" s="218"/>
-      <c r="BJ33" s="219"/>
+      <c r="BE33" s="241"/>
+      <c r="BF33" s="242"/>
+      <c r="BG33" s="242"/>
+      <c r="BH33" s="242"/>
+      <c r="BI33" s="242"/>
+      <c r="BJ33" s="243"/>
       <c r="BK33" s="78"/>
       <c r="BP33" s="77"/>
-      <c r="BQ33" s="217"/>
-      <c r="BR33" s="218"/>
-      <c r="BS33" s="218"/>
-      <c r="BT33" s="218"/>
-      <c r="BU33" s="218"/>
-      <c r="BV33" s="219"/>
+      <c r="BQ33" s="241"/>
+      <c r="BR33" s="242"/>
+      <c r="BS33" s="242"/>
+      <c r="BT33" s="242"/>
+      <c r="BU33" s="242"/>
+      <c r="BV33" s="243"/>
       <c r="BW33" s="78"/>
       <c r="CA33" s="77"/>
       <c r="CH33" s="78"/>
       <c r="CL33" s="77"/>
-      <c r="CM33" s="220" t="s">
+      <c r="CM33" s="221" t="s">
         <v>367</v>
       </c>
-      <c r="CN33" s="221"/>
-      <c r="CO33" s="221"/>
-      <c r="CP33" s="221"/>
-      <c r="CQ33" s="221"/>
-      <c r="CR33" s="222"/>
+      <c r="CN33" s="222"/>
+      <c r="CO33" s="222"/>
+      <c r="CP33" s="222"/>
+      <c r="CQ33" s="222"/>
+      <c r="CR33" s="223"/>
       <c r="CS33" s="78"/>
       <c r="CV33" s="77"/>
-      <c r="CW33" s="220" t="s">
+      <c r="CW33" s="221" t="s">
         <v>367</v>
       </c>
-      <c r="CX33" s="221"/>
-      <c r="CY33" s="221"/>
-      <c r="CZ33" s="221"/>
-      <c r="DA33" s="221"/>
-      <c r="DB33" s="222"/>
+      <c r="CX33" s="222"/>
+      <c r="CY33" s="222"/>
+      <c r="CZ33" s="222"/>
+      <c r="DA33" s="222"/>
+      <c r="DB33" s="223"/>
       <c r="DC33" s="78"/>
     </row>
     <row r="34" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G34" s="77"/>
       <c r="O34" s="77"/>
       <c r="AX34" s="78"/>
-      <c r="AY34" s="200"/>
+      <c r="AY34" s="257"/>
       <c r="BD34" s="77"/>
       <c r="BK34" s="78"/>
       <c r="BP34" s="77"/>
       <c r="BW34" s="78"/>
       <c r="CA34" s="77"/>
-      <c r="CB34" s="220" t="s">
+      <c r="CB34" s="221" t="s">
         <v>358</v>
       </c>
-      <c r="CC34" s="221"/>
-      <c r="CD34" s="221"/>
-      <c r="CE34" s="221"/>
-      <c r="CF34" s="221"/>
-      <c r="CG34" s="222"/>
+      <c r="CC34" s="222"/>
+      <c r="CD34" s="222"/>
+      <c r="CE34" s="222"/>
+      <c r="CF34" s="222"/>
+      <c r="CG34" s="223"/>
       <c r="CH34" s="78"/>
       <c r="CL34" s="77"/>
       <c r="CS34" s="78"/>
@@ -8100,80 +8168,80 @@
       <c r="G35" s="77"/>
       <c r="O35" s="77"/>
       <c r="AX35" s="78"/>
-      <c r="AY35" s="200"/>
+      <c r="AY35" s="257"/>
       <c r="BD35" s="77"/>
       <c r="BK35" s="78"/>
       <c r="BP35" s="77"/>
-      <c r="BQ35" s="220" t="s">
+      <c r="BQ35" s="221" t="s">
         <v>363</v>
       </c>
-      <c r="BR35" s="197"/>
-      <c r="BS35" s="197"/>
-      <c r="BT35" s="197"/>
-      <c r="BU35" s="197"/>
-      <c r="BV35" s="198"/>
+      <c r="BR35" s="224"/>
+      <c r="BS35" s="224"/>
+      <c r="BT35" s="224"/>
+      <c r="BU35" s="224"/>
+      <c r="BV35" s="225"/>
       <c r="BW35" s="78"/>
       <c r="CA35" s="77"/>
-      <c r="CB35" s="212" t="s">
+      <c r="CB35" s="236" t="s">
         <v>354</v>
       </c>
-      <c r="CC35" s="213"/>
-      <c r="CD35" s="196"/>
-      <c r="CE35" s="198"/>
-      <c r="CF35" s="212" t="s">
+      <c r="CC35" s="237"/>
+      <c r="CD35" s="235"/>
+      <c r="CE35" s="225"/>
+      <c r="CF35" s="236" t="s">
         <v>353</v>
       </c>
-      <c r="CG35" s="213"/>
+      <c r="CG35" s="237"/>
       <c r="CH35" s="78"/>
       <c r="CL35" s="77"/>
-      <c r="CM35" s="220" t="s">
+      <c r="CM35" s="221" t="s">
         <v>370</v>
       </c>
-      <c r="CN35" s="197"/>
-      <c r="CO35" s="197"/>
-      <c r="CP35" s="197"/>
-      <c r="CQ35" s="197"/>
-      <c r="CR35" s="198"/>
+      <c r="CN35" s="224"/>
+      <c r="CO35" s="224"/>
+      <c r="CP35" s="224"/>
+      <c r="CQ35" s="224"/>
+      <c r="CR35" s="225"/>
       <c r="CS35" s="78"/>
       <c r="CV35" s="77"/>
-      <c r="CW35" s="220" t="s">
+      <c r="CW35" s="221" t="s">
         <v>377</v>
       </c>
-      <c r="CX35" s="197"/>
-      <c r="CY35" s="197"/>
-      <c r="CZ35" s="197"/>
-      <c r="DA35" s="197"/>
-      <c r="DB35" s="198"/>
+      <c r="CX35" s="224"/>
+      <c r="CY35" s="224"/>
+      <c r="CZ35" s="224"/>
+      <c r="DA35" s="224"/>
+      <c r="DB35" s="225"/>
       <c r="DC35" s="78"/>
     </row>
     <row r="36" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G36" s="77"/>
       <c r="O36" s="77"/>
       <c r="AX36" s="78"/>
-      <c r="AY36" s="200"/>
+      <c r="AY36" s="257"/>
       <c r="BD36" s="77"/>
       <c r="BK36" s="78"/>
       <c r="BP36" s="77"/>
-      <c r="BQ36" s="220" t="s">
+      <c r="BQ36" s="221" t="s">
         <v>365</v>
       </c>
-      <c r="BR36" s="197"/>
-      <c r="BS36" s="197"/>
-      <c r="BT36" s="197"/>
-      <c r="BU36" s="197"/>
-      <c r="BV36" s="198"/>
+      <c r="BR36" s="224"/>
+      <c r="BS36" s="224"/>
+      <c r="BT36" s="224"/>
+      <c r="BU36" s="224"/>
+      <c r="BV36" s="225"/>
       <c r="BW36" s="78"/>
       <c r="CA36" s="77"/>
       <c r="CH36" s="78"/>
       <c r="CL36" s="77"/>
-      <c r="CM36" s="220" t="s">
+      <c r="CM36" s="221" t="s">
         <v>367</v>
       </c>
-      <c r="CN36" s="221"/>
-      <c r="CO36" s="221"/>
-      <c r="CP36" s="221"/>
-      <c r="CQ36" s="221"/>
-      <c r="CR36" s="222"/>
+      <c r="CN36" s="222"/>
+      <c r="CO36" s="222"/>
+      <c r="CP36" s="222"/>
+      <c r="CQ36" s="222"/>
+      <c r="CR36" s="223"/>
       <c r="CS36" s="78"/>
       <c r="CV36" s="77"/>
       <c r="CW36" s="226"/>
@@ -8188,7 +8256,7 @@
       <c r="G37" s="77"/>
       <c r="O37" s="77"/>
       <c r="AX37" s="78"/>
-      <c r="AY37" s="200"/>
+      <c r="AY37" s="257"/>
       <c r="BD37" s="77"/>
       <c r="BK37" s="78"/>
       <c r="BP37" s="77"/>
@@ -8210,7 +8278,7 @@
       <c r="G38" s="77"/>
       <c r="O38" s="77"/>
       <c r="AX38" s="78"/>
-      <c r="AY38" s="200"/>
+      <c r="AY38" s="257"/>
       <c r="BD38" s="77"/>
       <c r="BK38" s="78"/>
       <c r="BP38" s="77"/>
@@ -8232,20 +8300,20 @@
       <c r="G39" s="77"/>
       <c r="O39" s="77"/>
       <c r="AX39" s="78"/>
-      <c r="AY39" s="200"/>
+      <c r="AY39" s="257"/>
       <c r="BD39" s="77"/>
       <c r="BK39" s="78"/>
       <c r="BP39" s="77"/>
       <c r="BW39" s="78"/>
       <c r="CA39" s="77"/>
-      <c r="CB39" s="214" t="s">
+      <c r="CB39" s="238" t="s">
         <v>359</v>
       </c>
-      <c r="CC39" s="215"/>
-      <c r="CD39" s="215"/>
-      <c r="CE39" s="215"/>
-      <c r="CF39" s="215"/>
-      <c r="CG39" s="216"/>
+      <c r="CC39" s="239"/>
+      <c r="CD39" s="239"/>
+      <c r="CE39" s="239"/>
+      <c r="CF39" s="239"/>
+      <c r="CG39" s="240"/>
       <c r="CH39" s="78"/>
       <c r="CL39" s="77"/>
       <c r="CS39" s="78"/>
@@ -8262,18 +8330,18 @@
       <c r="G40" s="77"/>
       <c r="O40" s="77"/>
       <c r="AX40" s="78"/>
-      <c r="AY40" s="201"/>
+      <c r="AY40" s="258"/>
       <c r="BD40" s="77"/>
       <c r="BK40" s="78"/>
       <c r="BP40" s="77"/>
       <c r="BW40" s="78"/>
       <c r="CA40" s="77"/>
-      <c r="CB40" s="217"/>
-      <c r="CC40" s="218"/>
-      <c r="CD40" s="218"/>
-      <c r="CE40" s="218"/>
-      <c r="CF40" s="218"/>
-      <c r="CG40" s="219"/>
+      <c r="CB40" s="241"/>
+      <c r="CC40" s="242"/>
+      <c r="CD40" s="242"/>
+      <c r="CE40" s="242"/>
+      <c r="CF40" s="242"/>
+      <c r="CG40" s="243"/>
       <c r="CH40" s="78"/>
       <c r="CL40" s="77"/>
       <c r="CS40" s="78"/>
@@ -8346,43 +8414,43 @@
       <c r="M42" s="80"/>
       <c r="N42" s="80"/>
       <c r="O42" s="151"/>
-      <c r="P42" s="196" t="s">
+      <c r="P42" s="235" t="s">
         <v>335</v>
       </c>
-      <c r="Q42" s="197"/>
-      <c r="R42" s="197"/>
-      <c r="S42" s="197"/>
-      <c r="T42" s="197"/>
-      <c r="U42" s="197"/>
-      <c r="V42" s="197"/>
-      <c r="W42" s="197"/>
-      <c r="X42" s="197"/>
-      <c r="Y42" s="197"/>
-      <c r="Z42" s="197"/>
-      <c r="AA42" s="197"/>
-      <c r="AB42" s="197"/>
-      <c r="AC42" s="197"/>
-      <c r="AD42" s="197"/>
-      <c r="AE42" s="197"/>
-      <c r="AF42" s="197"/>
-      <c r="AG42" s="197"/>
-      <c r="AH42" s="197"/>
-      <c r="AI42" s="197"/>
-      <c r="AJ42" s="197"/>
-      <c r="AK42" s="197"/>
-      <c r="AL42" s="197"/>
-      <c r="AM42" s="197"/>
-      <c r="AN42" s="197"/>
-      <c r="AO42" s="197"/>
-      <c r="AP42" s="197"/>
-      <c r="AQ42" s="197"/>
-      <c r="AR42" s="197"/>
-      <c r="AS42" s="197"/>
-      <c r="AT42" s="197"/>
-      <c r="AU42" s="197"/>
-      <c r="AV42" s="197"/>
-      <c r="AW42" s="197"/>
-      <c r="AX42" s="198"/>
+      <c r="Q42" s="224"/>
+      <c r="R42" s="224"/>
+      <c r="S42" s="224"/>
+      <c r="T42" s="224"/>
+      <c r="U42" s="224"/>
+      <c r="V42" s="224"/>
+      <c r="W42" s="224"/>
+      <c r="X42" s="224"/>
+      <c r="Y42" s="224"/>
+      <c r="Z42" s="224"/>
+      <c r="AA42" s="224"/>
+      <c r="AB42" s="224"/>
+      <c r="AC42" s="224"/>
+      <c r="AD42" s="224"/>
+      <c r="AE42" s="224"/>
+      <c r="AF42" s="224"/>
+      <c r="AG42" s="224"/>
+      <c r="AH42" s="224"/>
+      <c r="AI42" s="224"/>
+      <c r="AJ42" s="224"/>
+      <c r="AK42" s="224"/>
+      <c r="AL42" s="224"/>
+      <c r="AM42" s="224"/>
+      <c r="AN42" s="224"/>
+      <c r="AO42" s="224"/>
+      <c r="AP42" s="224"/>
+      <c r="AQ42" s="224"/>
+      <c r="AR42" s="224"/>
+      <c r="AS42" s="224"/>
+      <c r="AT42" s="224"/>
+      <c r="AU42" s="224"/>
+      <c r="AV42" s="224"/>
+      <c r="AW42" s="224"/>
+      <c r="AX42" s="225"/>
       <c r="AY42" s="151"/>
       <c r="BD42" s="79"/>
       <c r="BE42" s="80"/>
@@ -8427,6 +8495,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="P42:AX42"/>
+    <mergeCell ref="AY12:AY40"/>
+    <mergeCell ref="G11:N12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="BD11:BK12"/>
+    <mergeCell ref="BD14:BK14"/>
+    <mergeCell ref="BP11:BW12"/>
+    <mergeCell ref="BP14:BW14"/>
+    <mergeCell ref="CA11:CH12"/>
+    <mergeCell ref="CA14:CH14"/>
+    <mergeCell ref="CL11:CS12"/>
+    <mergeCell ref="CL14:CS14"/>
+    <mergeCell ref="CV11:DC12"/>
+    <mergeCell ref="CV14:DC14"/>
+    <mergeCell ref="BQ24:BV24"/>
+    <mergeCell ref="CM18:CR18"/>
+    <mergeCell ref="CM19:CR19"/>
+    <mergeCell ref="CM21:CR21"/>
+    <mergeCell ref="CM24:CR24"/>
+    <mergeCell ref="CM23:CR23"/>
+    <mergeCell ref="BE19:BJ19"/>
+    <mergeCell ref="BE18:BJ18"/>
+    <mergeCell ref="BE21:BJ21"/>
+    <mergeCell ref="BE22:BJ22"/>
+    <mergeCell ref="BQ19:BV19"/>
+    <mergeCell ref="BQ18:BV18"/>
+    <mergeCell ref="BQ21:BV21"/>
+    <mergeCell ref="BQ22:BV22"/>
+    <mergeCell ref="BE24:BJ24"/>
+    <mergeCell ref="BE25:BJ25"/>
+    <mergeCell ref="BE27:BJ27"/>
+    <mergeCell ref="BE28:BF28"/>
+    <mergeCell ref="BI28:BJ28"/>
+    <mergeCell ref="BG28:BH28"/>
+    <mergeCell ref="BE32:BJ33"/>
+    <mergeCell ref="CF29:CG29"/>
+    <mergeCell ref="CD29:CE29"/>
+    <mergeCell ref="CB29:CC29"/>
+    <mergeCell ref="CB28:CG28"/>
+    <mergeCell ref="BQ28:BV28"/>
+    <mergeCell ref="CB39:CG40"/>
+    <mergeCell ref="CB17:CG17"/>
+    <mergeCell ref="CB18:CC18"/>
+    <mergeCell ref="CD18:CE18"/>
+    <mergeCell ref="CF18:CG18"/>
+    <mergeCell ref="CB20:CG20"/>
+    <mergeCell ref="CF26:CG26"/>
+    <mergeCell ref="CD26:CE26"/>
+    <mergeCell ref="CB26:CC26"/>
+    <mergeCell ref="CB25:CG25"/>
+    <mergeCell ref="CE23:CH23"/>
+    <mergeCell ref="CB21:CG21"/>
+    <mergeCell ref="BQ36:BV36"/>
+    <mergeCell ref="CB31:CG31"/>
+    <mergeCell ref="CB32:CC32"/>
+    <mergeCell ref="CD32:CE32"/>
+    <mergeCell ref="CF32:CG32"/>
+    <mergeCell ref="CB34:CG34"/>
+    <mergeCell ref="CB35:CC35"/>
+    <mergeCell ref="CD35:CE35"/>
+    <mergeCell ref="CF35:CG35"/>
+    <mergeCell ref="BQ32:BV33"/>
+    <mergeCell ref="BQ25:BV25"/>
+    <mergeCell ref="BQ27:BV27"/>
+    <mergeCell ref="CM32:CR32"/>
+    <mergeCell ref="CM33:CR33"/>
+    <mergeCell ref="CM35:CR35"/>
+    <mergeCell ref="CM27:CR27"/>
+    <mergeCell ref="CM26:CR26"/>
+    <mergeCell ref="BQ35:BV35"/>
     <mergeCell ref="CM36:CR36"/>
     <mergeCell ref="CW18:DB18"/>
     <mergeCell ref="CW20:DB20"/>
@@ -8443,78 +8583,6 @@
     <mergeCell ref="CW36:DB40"/>
     <mergeCell ref="CM29:CR29"/>
     <mergeCell ref="CM30:CR30"/>
-    <mergeCell ref="BQ25:BV25"/>
-    <mergeCell ref="BQ27:BV27"/>
-    <mergeCell ref="CM32:CR32"/>
-    <mergeCell ref="CM33:CR33"/>
-    <mergeCell ref="CM35:CR35"/>
-    <mergeCell ref="CM27:CR27"/>
-    <mergeCell ref="CM26:CR26"/>
-    <mergeCell ref="BQ35:BV35"/>
-    <mergeCell ref="BQ36:BV36"/>
-    <mergeCell ref="CB31:CG31"/>
-    <mergeCell ref="CB32:CC32"/>
-    <mergeCell ref="CD32:CE32"/>
-    <mergeCell ref="CF32:CG32"/>
-    <mergeCell ref="CB34:CG34"/>
-    <mergeCell ref="CB35:CC35"/>
-    <mergeCell ref="CD35:CE35"/>
-    <mergeCell ref="CF35:CG35"/>
-    <mergeCell ref="BQ32:BV33"/>
-    <mergeCell ref="CB39:CG40"/>
-    <mergeCell ref="CB17:CG17"/>
-    <mergeCell ref="CB18:CC18"/>
-    <mergeCell ref="CD18:CE18"/>
-    <mergeCell ref="CF18:CG18"/>
-    <mergeCell ref="CB20:CG20"/>
-    <mergeCell ref="CF26:CG26"/>
-    <mergeCell ref="CD26:CE26"/>
-    <mergeCell ref="CB26:CC26"/>
-    <mergeCell ref="CB25:CG25"/>
-    <mergeCell ref="CE23:CH23"/>
-    <mergeCell ref="CB21:CG21"/>
-    <mergeCell ref="BE32:BJ33"/>
-    <mergeCell ref="CF29:CG29"/>
-    <mergeCell ref="CD29:CE29"/>
-    <mergeCell ref="CB29:CC29"/>
-    <mergeCell ref="CB28:CG28"/>
-    <mergeCell ref="BQ28:BV28"/>
-    <mergeCell ref="BE24:BJ24"/>
-    <mergeCell ref="BE25:BJ25"/>
-    <mergeCell ref="BE27:BJ27"/>
-    <mergeCell ref="BE28:BF28"/>
-    <mergeCell ref="BI28:BJ28"/>
-    <mergeCell ref="BG28:BH28"/>
-    <mergeCell ref="BE19:BJ19"/>
-    <mergeCell ref="BE18:BJ18"/>
-    <mergeCell ref="BE21:BJ21"/>
-    <mergeCell ref="BE22:BJ22"/>
-    <mergeCell ref="BQ19:BV19"/>
-    <mergeCell ref="BQ18:BV18"/>
-    <mergeCell ref="BQ21:BV21"/>
-    <mergeCell ref="BQ22:BV22"/>
-    <mergeCell ref="CL11:CS12"/>
-    <mergeCell ref="CL14:CS14"/>
-    <mergeCell ref="CV11:DC12"/>
-    <mergeCell ref="CV14:DC14"/>
-    <mergeCell ref="BQ24:BV24"/>
-    <mergeCell ref="CM18:CR18"/>
-    <mergeCell ref="CM19:CR19"/>
-    <mergeCell ref="CM21:CR21"/>
-    <mergeCell ref="CM24:CR24"/>
-    <mergeCell ref="CM23:CR23"/>
-    <mergeCell ref="BD11:BK12"/>
-    <mergeCell ref="BD14:BK14"/>
-    <mergeCell ref="BP11:BW12"/>
-    <mergeCell ref="BP14:BW14"/>
-    <mergeCell ref="CA11:CH12"/>
-    <mergeCell ref="CA14:CH14"/>
-    <mergeCell ref="P42:AX42"/>
-    <mergeCell ref="AY12:AY40"/>
-    <mergeCell ref="G11:N12"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="P17:R17"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8526,15 +8594,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:P119"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView topLeftCell="E88" workbookViewId="0">
-      <selection activeCell="N122" sqref="N122"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
@@ -8552,1319 +8620,1364 @@
     <col min="17" max="30" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C2" s="157" t="s">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1" s="187" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="189"/>
+      <c r="D2" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="159"/>
-    </row>
-    <row r="3" spans="2:16" ht="138.75" customHeight="1" thickBot="1">
-      <c r="B3" s="63"/>
-      <c r="C3" s="241" t="s">
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="158"/>
+    </row>
+    <row r="3" spans="1:16" ht="19.5" thickBot="1">
+      <c r="A3" s="192" t="s">
+        <v>488</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="262" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="243"/>
-    </row>
-    <row r="4" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-    </row>
-    <row r="5" spans="2:16" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="6" spans="2:16" ht="15.75" customHeight="1">
-      <c r="C6" s="181" t="s">
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="264"/>
+    </row>
+    <row r="4" spans="1:16" ht="21" customHeight="1">
+      <c r="A4" s="192" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="270"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="271"/>
+    </row>
+    <row r="5" spans="1:16" ht="18.75">
+      <c r="A5" s="192" t="s">
+        <v>490</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="270"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="271"/>
+    </row>
+    <row r="6" spans="1:16" ht="18.75">
+      <c r="A6" s="192"/>
+      <c r="C6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+    </row>
+    <row r="7" spans="1:16" ht="19.5" thickBot="1">
+      <c r="A7" s="196"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1">
+      <c r="C8" s="180" t="s">
         <v>401</v>
       </c>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="162" t="s">
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="181" t="s">
+      <c r="H8" s="180" t="s">
         <v>410</v>
       </c>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="162" t="s">
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="M6" s="181" t="s">
+      <c r="M8" s="180" t="s">
         <v>418</v>
       </c>
-      <c r="N6" s="161"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="162" t="s">
+      <c r="N8" s="160"/>
+      <c r="O8" s="160"/>
+      <c r="P8" s="161" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15.75" customHeight="1">
-      <c r="C7" s="163" t="s">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1">
+      <c r="C9" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="180" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="179" t="s">
         <v>387</v>
       </c>
-      <c r="H7" s="163" t="s">
+      <c r="H9" s="162" t="s">
         <v>378</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="180"/>
-      <c r="M7" s="182" t="s">
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="179"/>
+      <c r="M9" s="181" t="s">
         <v>419</v>
       </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="164" t="s">
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="163" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="15.75" customHeight="1">
-      <c r="C8" s="163"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="180" t="s">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1">
+      <c r="C10" s="162"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="179" t="s">
         <v>380</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="164"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="164" t="s">
+      <c r="H10" s="162"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="163"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="163" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15.75" customHeight="1">
-      <c r="C9" s="165" t="s">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1">
+      <c r="C11" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="166"/>
-      <c r="E9" s="22" t="s">
+      <c r="D11" s="165"/>
+      <c r="E11" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="167"/>
-      <c r="H9" s="165" t="s">
+      <c r="F11" s="166"/>
+      <c r="H11" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="166"/>
-      <c r="J9" s="22" t="s">
+      <c r="I11" s="165"/>
+      <c r="J11" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="167"/>
-      <c r="M9" s="165" t="s">
+      <c r="K11" s="166"/>
+      <c r="M11" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="N9" s="166"/>
-      <c r="O9" s="22" t="s">
+      <c r="N11" s="165"/>
+      <c r="O11" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="P9" s="167" t="s">
+      <c r="P11" s="166" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15.75" customHeight="1">
-      <c r="C10" s="139" t="s">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1">
+      <c r="C12" s="139" t="s">
         <v>379</v>
       </c>
-      <c r="E10" s="168" t="s">
+      <c r="E12" s="167" t="s">
         <v>387</v>
       </c>
-      <c r="F10" s="169"/>
-      <c r="H10" s="235" t="s">
+      <c r="F12" s="168"/>
+      <c r="H12" s="265" t="s">
         <v>412</v>
       </c>
-      <c r="I10" s="238"/>
-      <c r="J10" s="177" t="s">
+      <c r="I12" s="266"/>
+      <c r="J12" s="176" t="s">
         <v>416</v>
       </c>
-      <c r="K10" s="169"/>
-      <c r="M10" s="235" t="s">
+      <c r="K12" s="168"/>
+      <c r="M12" s="265" t="s">
         <v>427</v>
       </c>
-      <c r="N10" s="236"/>
-      <c r="O10" s="177" t="s">
+      <c r="N12" s="261"/>
+      <c r="O12" s="176" t="s">
         <v>434</v>
       </c>
-      <c r="P10" s="169"/>
-    </row>
-    <row r="11" spans="2:16" ht="15.75" customHeight="1">
-      <c r="C11" s="170" t="s">
+      <c r="P12" s="168"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1">
+      <c r="C13" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="E11" s="177" t="s">
+      <c r="E13" s="176" t="s">
         <v>380</v>
       </c>
-      <c r="F11" s="169"/>
-      <c r="H11" s="235" t="s">
+      <c r="F13" s="168"/>
+      <c r="H13" s="265" t="s">
         <v>413</v>
       </c>
-      <c r="I11" s="238"/>
-      <c r="J11" s="177" t="s">
+      <c r="I13" s="266"/>
+      <c r="J13" s="176" t="s">
         <v>415</v>
       </c>
-      <c r="K11" s="169"/>
-      <c r="M11" s="235" t="s">
+      <c r="K13" s="168"/>
+      <c r="M13" s="265" t="s">
         <v>228</v>
       </c>
-      <c r="N11" s="236"/>
-      <c r="O11" s="168" t="s">
+      <c r="N13" s="261"/>
+      <c r="O13" s="167" t="s">
         <v>429</v>
       </c>
-      <c r="P11" s="169"/>
-    </row>
-    <row r="12" spans="2:16" ht="15.75" customHeight="1">
-      <c r="C12" s="170" t="s">
+      <c r="P13" s="168"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1">
+      <c r="C14" s="169" t="s">
         <v>390</v>
       </c>
-      <c r="E12" s="168"/>
-      <c r="F12" s="169"/>
-      <c r="H12" s="235" t="s">
+      <c r="E14" s="167"/>
+      <c r="F14" s="168"/>
+      <c r="H14" s="265" t="s">
         <v>414</v>
       </c>
-      <c r="I12" s="238"/>
-      <c r="J12" s="177" t="s">
+      <c r="I14" s="266"/>
+      <c r="J14" s="176" t="s">
         <v>381</v>
       </c>
-      <c r="K12" s="169"/>
-      <c r="M12" s="235" t="s">
+      <c r="K14" s="168"/>
+      <c r="M14" s="265" t="s">
         <v>227</v>
       </c>
-      <c r="N12" s="236"/>
-      <c r="O12" s="168" t="s">
+      <c r="N14" s="261"/>
+      <c r="O14" s="167" t="s">
         <v>430</v>
       </c>
-      <c r="P12" s="169"/>
-    </row>
-    <row r="13" spans="2:16" ht="15.75" customHeight="1">
-      <c r="C13" s="139" t="s">
+      <c r="P14" s="168"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1">
+      <c r="C15" s="139" t="s">
         <v>388</v>
       </c>
-      <c r="E13" s="177"/>
-      <c r="F13" s="169"/>
-      <c r="H13" s="239"/>
-      <c r="I13" s="240"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="169"/>
-      <c r="M13" s="235" t="s">
+      <c r="E15" s="176"/>
+      <c r="F15" s="168"/>
+      <c r="H15" s="267"/>
+      <c r="I15" s="268"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="168"/>
+      <c r="M15" s="265" t="s">
         <v>223</v>
       </c>
-      <c r="N13" s="236"/>
-      <c r="O13" s="168" t="s">
+      <c r="N15" s="261"/>
+      <c r="O15" s="167" t="s">
         <v>431</v>
       </c>
-      <c r="P13" s="169"/>
-    </row>
-    <row r="14" spans="2:16" ht="15.75" customHeight="1">
-      <c r="C14" s="170" t="s">
+      <c r="P15" s="168"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1">
+      <c r="C16" s="169" t="s">
         <v>391</v>
       </c>
-      <c r="E14" s="168"/>
-      <c r="F14" s="171"/>
-      <c r="H14" s="239"/>
-      <c r="I14" s="240"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="169"/>
-      <c r="M14" s="235" t="s">
+      <c r="E16" s="167"/>
+      <c r="F16" s="170"/>
+      <c r="H16" s="267"/>
+      <c r="I16" s="268"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="168"/>
+      <c r="M16" s="265" t="s">
         <v>224</v>
       </c>
-      <c r="N14" s="236"/>
-      <c r="O14" s="168" t="s">
+      <c r="N16" s="261"/>
+      <c r="O16" s="167" t="s">
         <v>181</v>
       </c>
-      <c r="P14" s="169"/>
-    </row>
-    <row r="15" spans="2:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C15" s="170" t="s">
+      <c r="P16" s="168"/>
+    </row>
+    <row r="17" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C17" s="169" t="s">
         <v>392</v>
       </c>
-      <c r="E15" s="168"/>
-      <c r="F15" s="171"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="174"/>
-      <c r="M15" s="235" t="s">
+      <c r="E17" s="167"/>
+      <c r="F17" s="170"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="173"/>
+      <c r="M17" s="265" t="s">
         <v>428</v>
       </c>
-      <c r="N15" s="236"/>
-      <c r="O15" s="168" t="s">
+      <c r="N17" s="261"/>
+      <c r="O17" s="167" t="s">
         <v>432</v>
       </c>
-      <c r="P15" s="169"/>
-    </row>
-    <row r="16" spans="2:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C16" s="170"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="171"/>
-      <c r="M16" s="235" t="s">
+      <c r="P17" s="168"/>
+    </row>
+    <row r="18" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C18" s="169"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="170"/>
+      <c r="M18" s="265" t="s">
         <v>225</v>
       </c>
-      <c r="N16" s="236"/>
-      <c r="O16" s="168" t="s">
+      <c r="N18" s="261"/>
+      <c r="O18" s="167" t="s">
         <v>433</v>
       </c>
-      <c r="P16" s="169"/>
-    </row>
-    <row r="17" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C17" s="139" t="s">
+      <c r="P18" s="168"/>
+    </row>
+    <row r="19" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C19" s="139" t="s">
         <v>402</v>
       </c>
-      <c r="E17" s="168"/>
-      <c r="F17" s="171"/>
-      <c r="H17" s="181" t="s">
+      <c r="E19" s="167"/>
+      <c r="F19" s="170"/>
+      <c r="H19" s="180" t="s">
         <v>411</v>
       </c>
-      <c r="I17" s="161"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="162" t="s">
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="M17" s="235" t="s">
+      <c r="M19" s="265" t="s">
         <v>302</v>
       </c>
-      <c r="N17" s="236"/>
-      <c r="O17" s="168" t="s">
+      <c r="N19" s="261"/>
+      <c r="O19" s="167" t="s">
         <v>439</v>
       </c>
-      <c r="P17" s="169"/>
-    </row>
-    <row r="18" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C18" s="170" t="s">
+      <c r="P19" s="168"/>
+    </row>
+    <row r="20" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C20" s="169" t="s">
         <v>403</v>
       </c>
-      <c r="E18" s="168"/>
-      <c r="F18" s="171"/>
-      <c r="H18" s="163" t="s">
+      <c r="E20" s="167"/>
+      <c r="F20" s="170"/>
+      <c r="H20" s="162" t="s">
         <v>378</v>
       </c>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="164"/>
-      <c r="M18" s="237" t="s">
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="163"/>
+      <c r="M20" s="260" t="s">
         <v>435</v>
       </c>
-      <c r="N18" s="236"/>
-      <c r="O18" s="177" t="s">
+      <c r="N20" s="261"/>
+      <c r="O20" s="176" t="s">
         <v>492</v>
       </c>
-      <c r="P18" s="169"/>
-    </row>
-    <row r="19" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C19" s="170"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="171"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="164"/>
-      <c r="M19" s="237" t="s">
+      <c r="P20" s="168"/>
+    </row>
+    <row r="21" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C21" s="169"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="170"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="163"/>
+      <c r="M21" s="260" t="s">
         <v>436</v>
       </c>
-      <c r="N19" s="236"/>
-      <c r="O19" s="168"/>
-      <c r="P19" s="169"/>
-    </row>
-    <row r="20" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C20" s="178"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="174"/>
-      <c r="H20" s="165" t="s">
+      <c r="N21" s="261"/>
+      <c r="O21" s="167"/>
+      <c r="P21" s="168"/>
+    </row>
+    <row r="22" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C22" s="177"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="173"/>
+      <c r="H22" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="166"/>
-      <c r="J20" s="22" t="s">
+      <c r="I22" s="165"/>
+      <c r="J22" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="K20" s="167"/>
-      <c r="M20" s="237"/>
-      <c r="N20" s="236"/>
-      <c r="O20" s="168"/>
-      <c r="P20" s="169"/>
-    </row>
-    <row r="21" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H21" s="235" t="s">
+      <c r="K22" s="166"/>
+      <c r="M22" s="260"/>
+      <c r="N22" s="261"/>
+      <c r="O22" s="167"/>
+      <c r="P22" s="168"/>
+    </row>
+    <row r="23" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H23" s="265" t="s">
         <v>417</v>
       </c>
-      <c r="I21" s="238"/>
-      <c r="J21" s="177" t="s">
+      <c r="I23" s="266"/>
+      <c r="J23" s="176" t="s">
         <v>381</v>
       </c>
-      <c r="K21" s="169"/>
-      <c r="M21" s="237"/>
-      <c r="N21" s="236"/>
-      <c r="O21" s="168"/>
-      <c r="P21" s="169"/>
-    </row>
-    <row r="22" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C22" s="160" t="s">
+      <c r="K23" s="168"/>
+      <c r="M23" s="260"/>
+      <c r="N23" s="261"/>
+      <c r="O23" s="167"/>
+      <c r="P23" s="168"/>
+    </row>
+    <row r="24" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C24" s="159" t="s">
         <v>382</v>
       </c>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="162" t="s">
+      <c r="D24" s="160"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="235"/>
-      <c r="I22" s="238"/>
-      <c r="J22" s="177"/>
-      <c r="K22" s="169"/>
-      <c r="M22" s="237"/>
-      <c r="N22" s="236"/>
-      <c r="O22" s="168"/>
-      <c r="P22" s="169"/>
-    </row>
-    <row r="23" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C23" s="163" t="s">
+      <c r="H24" s="265"/>
+      <c r="I24" s="266"/>
+      <c r="J24" s="176"/>
+      <c r="K24" s="168"/>
+      <c r="M24" s="260"/>
+      <c r="N24" s="261"/>
+      <c r="O24" s="167"/>
+      <c r="P24" s="168"/>
+    </row>
+    <row r="25" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C25" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="180" t="s">
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="179" t="s">
         <v>385</v>
       </c>
-      <c r="H23" s="235"/>
-      <c r="I23" s="238"/>
-      <c r="J23" s="177"/>
-      <c r="K23" s="169"/>
-      <c r="M23" s="237"/>
-      <c r="N23" s="236"/>
-      <c r="O23" s="168"/>
-      <c r="P23" s="169"/>
-    </row>
-    <row r="24" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C24" s="163"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="164"/>
-      <c r="H24" s="239"/>
-      <c r="I24" s="240"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="169"/>
-      <c r="M24" s="237"/>
-      <c r="N24" s="236"/>
-      <c r="O24" s="168"/>
-      <c r="P24" s="169"/>
-    </row>
-    <row r="25" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C25" s="165" t="s">
+      <c r="H25" s="265"/>
+      <c r="I25" s="266"/>
+      <c r="J25" s="176"/>
+      <c r="K25" s="168"/>
+      <c r="M25" s="260"/>
+      <c r="N25" s="261"/>
+      <c r="O25" s="167"/>
+      <c r="P25" s="168"/>
+    </row>
+    <row r="26" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C26" s="162"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="163"/>
+      <c r="H26" s="267"/>
+      <c r="I26" s="268"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="168"/>
+      <c r="M26" s="260"/>
+      <c r="N26" s="261"/>
+      <c r="O26" s="167"/>
+      <c r="P26" s="168"/>
+    </row>
+    <row r="27" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C27" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="166"/>
-      <c r="E25" s="22" t="s">
+      <c r="D27" s="165"/>
+      <c r="E27" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="167"/>
-      <c r="H25" s="239"/>
-      <c r="I25" s="240"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="169"/>
-      <c r="M25" s="237"/>
-      <c r="N25" s="236"/>
-      <c r="O25" s="168"/>
-      <c r="P25" s="169"/>
-    </row>
-    <row r="26" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C26" s="170" t="s">
+      <c r="F27" s="166"/>
+      <c r="H27" s="267"/>
+      <c r="I27" s="268"/>
+      <c r="J27" s="176"/>
+      <c r="K27" s="168"/>
+      <c r="M27" s="260"/>
+      <c r="N27" s="261"/>
+      <c r="O27" s="167"/>
+      <c r="P27" s="168"/>
+    </row>
+    <row r="28" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C28" s="169" t="s">
         <v>393</v>
       </c>
-      <c r="E26" s="177" t="s">
+      <c r="E28" s="176" t="s">
         <v>399</v>
       </c>
-      <c r="F26" s="169"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="173"/>
-      <c r="K26" s="174"/>
-      <c r="M26" s="237"/>
-      <c r="N26" s="236"/>
-      <c r="O26" s="168"/>
-      <c r="P26" s="169"/>
-    </row>
-    <row r="27" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C27" s="139" t="s">
+      <c r="F28" s="168"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="173"/>
+      <c r="M28" s="260"/>
+      <c r="N28" s="261"/>
+      <c r="O28" s="167"/>
+      <c r="P28" s="168"/>
+    </row>
+    <row r="29" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C29" s="139" t="s">
         <v>383</v>
       </c>
-      <c r="E27" s="177" t="s">
+      <c r="E29" s="176" t="s">
         <v>400</v>
       </c>
-      <c r="F27" s="169"/>
-      <c r="M27" s="237"/>
-      <c r="N27" s="236"/>
-      <c r="O27" s="168"/>
-      <c r="P27" s="169"/>
-    </row>
-    <row r="28" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C28" s="170" t="s">
+      <c r="F29" s="168"/>
+      <c r="M29" s="260"/>
+      <c r="N29" s="261"/>
+      <c r="O29" s="167"/>
+      <c r="P29" s="168"/>
+    </row>
+    <row r="30" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C30" s="169" t="s">
         <v>396</v>
       </c>
-      <c r="E28" s="177"/>
-      <c r="F28" s="169"/>
-      <c r="M28" s="237"/>
-      <c r="N28" s="236"/>
-      <c r="O28" s="168"/>
-      <c r="P28" s="169"/>
-    </row>
-    <row r="29" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C29" s="170" t="s">
+      <c r="E30" s="176"/>
+      <c r="F30" s="168"/>
+      <c r="M30" s="260"/>
+      <c r="N30" s="261"/>
+      <c r="O30" s="167"/>
+      <c r="P30" s="168"/>
+    </row>
+    <row r="31" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C31" s="169" t="s">
         <v>395</v>
       </c>
-      <c r="E29" s="168"/>
-      <c r="F29" s="169"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="172"/>
-      <c r="O29" s="173"/>
-      <c r="P29" s="174"/>
-    </row>
-    <row r="30" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C30" s="170" t="s">
+      <c r="E31" s="167"/>
+      <c r="F31" s="168"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="171"/>
+      <c r="O31" s="172"/>
+      <c r="P31" s="173"/>
+    </row>
+    <row r="32" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C32" s="169" t="s">
         <v>394</v>
       </c>
-      <c r="E30" s="168"/>
-      <c r="F30" s="171"/>
-    </row>
-    <row r="31" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C31" s="170" t="s">
+      <c r="E32" s="167"/>
+      <c r="F32" s="170"/>
+    </row>
+    <row r="33" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C33" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="E31" s="168"/>
-      <c r="F31" s="171"/>
-      <c r="M31" s="181" t="s">
+      <c r="E33" s="167"/>
+      <c r="F33" s="170"/>
+      <c r="M33" s="180" t="s">
         <v>420</v>
       </c>
-      <c r="N31" s="161"/>
-      <c r="O31" s="161"/>
-      <c r="P31" s="162" t="s">
+      <c r="N33" s="160"/>
+      <c r="O33" s="160"/>
+      <c r="P33" s="161" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C32" s="170" t="s">
+    <row r="34" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C34" s="169" t="s">
         <v>397</v>
       </c>
-      <c r="E32" s="168"/>
-      <c r="F32" s="171"/>
-      <c r="M32" s="182" t="s">
+      <c r="E34" s="167"/>
+      <c r="F34" s="170"/>
+      <c r="M34" s="181" t="s">
         <v>419</v>
       </c>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="164" t="s">
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="163" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="33" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C33" s="170" t="s">
+    <row r="35" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C35" s="169" t="s">
         <v>398</v>
       </c>
-      <c r="E33" s="168"/>
-      <c r="F33" s="171"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="164"/>
-    </row>
-    <row r="34" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C34" s="170"/>
-      <c r="E34" s="168"/>
-      <c r="F34" s="171"/>
-      <c r="M34" s="165" t="s">
+      <c r="E35" s="167"/>
+      <c r="F35" s="170"/>
+      <c r="M35" s="162"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="163"/>
+    </row>
+    <row r="36" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C36" s="169"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="170"/>
+      <c r="M36" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="N34" s="166"/>
-      <c r="O34" s="22" t="s">
+      <c r="N36" s="165"/>
+      <c r="O36" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="P34" s="167"/>
-    </row>
-    <row r="35" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C35" s="170"/>
-      <c r="E35" s="168"/>
-      <c r="F35" s="171"/>
-      <c r="M35" s="235" t="s">
+      <c r="P36" s="166"/>
+    </row>
+    <row r="37" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C37" s="169"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="170"/>
+      <c r="M37" s="265" t="s">
         <v>440</v>
       </c>
-      <c r="N35" s="236"/>
-      <c r="O35" s="168" t="s">
+      <c r="N37" s="261"/>
+      <c r="O37" s="167" t="s">
         <v>442</v>
       </c>
-      <c r="P35" s="169"/>
-    </row>
-    <row r="36" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C36" s="170"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="171"/>
-      <c r="M36" s="237" t="s">
+      <c r="P37" s="168"/>
+    </row>
+    <row r="38" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C38" s="169"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="170"/>
+      <c r="M38" s="260" t="s">
         <v>441</v>
       </c>
-      <c r="N36" s="236"/>
-      <c r="O36" s="168" t="s">
+      <c r="N38" s="261"/>
+      <c r="O38" s="167" t="s">
         <v>443</v>
       </c>
-      <c r="P36" s="169"/>
-    </row>
-    <row r="37" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C37" s="175"/>
-      <c r="D37" s="172"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="176"/>
-      <c r="M37" s="237"/>
-      <c r="N37" s="236"/>
-      <c r="O37" s="168" t="s">
+      <c r="P38" s="168"/>
+    </row>
+    <row r="39" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C39" s="174"/>
+      <c r="D39" s="171"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="175"/>
+      <c r="M39" s="260"/>
+      <c r="N39" s="261"/>
+      <c r="O39" s="167" t="s">
         <v>444</v>
       </c>
-      <c r="P37" s="169"/>
-    </row>
-    <row r="38" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="M38" s="237"/>
-      <c r="N38" s="236"/>
-      <c r="O38" s="168" t="s">
+      <c r="P39" s="168"/>
+    </row>
+    <row r="40" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="M40" s="260"/>
+      <c r="N40" s="261"/>
+      <c r="O40" s="167" t="s">
         <v>445</v>
       </c>
-      <c r="P38" s="169"/>
-    </row>
-    <row r="39" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C39" s="160" t="s">
+      <c r="P40" s="168"/>
+    </row>
+    <row r="41" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C41" s="159" t="s">
         <v>386</v>
       </c>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="162" t="s">
+      <c r="D41" s="160"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="M39" s="237"/>
-      <c r="N39" s="236"/>
-      <c r="O39" s="168" t="s">
+      <c r="M41" s="260"/>
+      <c r="N41" s="261"/>
+      <c r="O41" s="167" t="s">
         <v>447</v>
       </c>
-      <c r="P39" s="169"/>
-    </row>
-    <row r="40" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C40" s="163" t="s">
+      <c r="P41" s="168"/>
+    </row>
+    <row r="42" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C42" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="180" t="s">
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="179" t="s">
         <v>385</v>
       </c>
-      <c r="M40" s="237"/>
-      <c r="N40" s="236"/>
-      <c r="O40" s="168" t="s">
+      <c r="M42" s="260"/>
+      <c r="N42" s="261"/>
+      <c r="O42" s="167" t="s">
         <v>446</v>
       </c>
-      <c r="P40" s="169"/>
-    </row>
-    <row r="41" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C41" s="163"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="164"/>
-      <c r="M41" s="134"/>
-      <c r="N41" s="172"/>
-      <c r="O41" s="173"/>
-      <c r="P41" s="183"/>
-    </row>
-    <row r="42" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C42" s="165" t="s">
+      <c r="P42" s="168"/>
+    </row>
+    <row r="43" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C43" s="162"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="163"/>
+      <c r="M43" s="134"/>
+      <c r="N43" s="171"/>
+      <c r="O43" s="172"/>
+      <c r="P43" s="182"/>
+    </row>
+    <row r="44" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C44" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="166"/>
-      <c r="E42" s="22" t="s">
+      <c r="D44" s="165"/>
+      <c r="E44" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="167"/>
-    </row>
-    <row r="43" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C43" s="170"/>
-      <c r="E43" s="177" t="s">
+      <c r="F44" s="166"/>
+    </row>
+    <row r="45" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C45" s="169"/>
+      <c r="E45" s="176" t="s">
         <v>407</v>
       </c>
-      <c r="F43" s="171"/>
-      <c r="M43" s="181" t="s">
+      <c r="F45" s="170"/>
+      <c r="M45" s="180" t="s">
         <v>421</v>
       </c>
-      <c r="N43" s="161"/>
-      <c r="O43" s="161"/>
-      <c r="P43" s="162" t="s">
+      <c r="N45" s="160"/>
+      <c r="O45" s="160"/>
+      <c r="P45" s="161" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C44" s="170" t="s">
+    <row r="46" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C46" s="169" t="s">
         <v>404</v>
       </c>
-      <c r="E44" s="177" t="s">
+      <c r="E46" s="176" t="s">
         <v>408</v>
       </c>
-      <c r="F44" s="171"/>
-      <c r="M44" s="182" t="s">
+      <c r="F46" s="170"/>
+      <c r="M46" s="181" t="s">
         <v>419</v>
       </c>
-      <c r="N44" s="64"/>
-      <c r="O44" s="64"/>
-      <c r="P44" s="164"/>
-    </row>
-    <row r="45" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C45" s="170" t="s">
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="163"/>
+    </row>
+    <row r="47" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C47" s="169" t="s">
         <v>405</v>
       </c>
-      <c r="E45" s="177" t="s">
+      <c r="E47" s="176" t="s">
         <v>343</v>
       </c>
-      <c r="F45" s="171"/>
-      <c r="M45" s="163"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-      <c r="P45" s="164"/>
-    </row>
-    <row r="46" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C46" s="170" t="s">
+      <c r="F47" s="170"/>
+      <c r="M47" s="162"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="163"/>
+    </row>
+    <row r="48" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C48" s="169" t="s">
         <v>406</v>
       </c>
-      <c r="E46" s="177" t="s">
+      <c r="E48" s="176" t="s">
         <v>344</v>
       </c>
-      <c r="F46" s="171"/>
-      <c r="M46" s="165" t="s">
+      <c r="F48" s="170"/>
+      <c r="M48" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="N46" s="166"/>
-      <c r="O46" s="22" t="s">
+      <c r="N48" s="165"/>
+      <c r="O48" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="P46" s="167"/>
-    </row>
-    <row r="47" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C47" s="170" t="s">
+      <c r="P48" s="166"/>
+    </row>
+    <row r="49" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C49" s="169" t="s">
         <v>470</v>
       </c>
-      <c r="E47" s="177" t="s">
+      <c r="E49" s="176" t="s">
         <v>409</v>
       </c>
-      <c r="F47" s="171"/>
-      <c r="M47" s="235" t="s">
+      <c r="F49" s="170"/>
+      <c r="M49" s="265" t="s">
         <v>448</v>
       </c>
-      <c r="N47" s="236"/>
-      <c r="O47" s="168" t="s">
+      <c r="N49" s="261"/>
+      <c r="O49" s="167" t="s">
         <v>451</v>
       </c>
-      <c r="P47" s="169"/>
-    </row>
-    <row r="48" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C48" s="170" t="s">
+      <c r="P49" s="168"/>
+    </row>
+    <row r="50" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C50" s="169" t="s">
         <v>471</v>
       </c>
-      <c r="E48" s="177" t="s">
+      <c r="E50" s="176" t="s">
         <v>346</v>
       </c>
-      <c r="F48" s="171"/>
-      <c r="M48" s="237" t="s">
+      <c r="F50" s="170"/>
+      <c r="M50" s="260" t="s">
         <v>449</v>
       </c>
-      <c r="N48" s="236"/>
-      <c r="O48" s="168" t="s">
+      <c r="N50" s="261"/>
+      <c r="O50" s="167" t="s">
         <v>452</v>
       </c>
-      <c r="P48" s="169"/>
-    </row>
-    <row r="49" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C49" s="170" t="s">
+      <c r="P50" s="168"/>
+    </row>
+    <row r="51" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C51" s="169" t="s">
         <v>472</v>
       </c>
-      <c r="E49" s="177" t="s">
+      <c r="E51" s="176" t="s">
         <v>381</v>
       </c>
-      <c r="F49" s="171"/>
-      <c r="M49" s="237" t="s">
+      <c r="F51" s="170"/>
+      <c r="M51" s="260" t="s">
         <v>450</v>
       </c>
-      <c r="N49" s="236"/>
-      <c r="O49" s="168"/>
-      <c r="P49" s="169"/>
-    </row>
-    <row r="50" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C50" s="170"/>
-      <c r="E50" s="177" t="s">
+      <c r="N51" s="261"/>
+      <c r="O51" s="167"/>
+      <c r="P51" s="168"/>
+    </row>
+    <row r="52" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C52" s="169"/>
+      <c r="E52" s="176" t="s">
         <v>468</v>
       </c>
-      <c r="F50" s="171"/>
-      <c r="M50" s="237" t="s">
+      <c r="F52" s="170"/>
+      <c r="M52" s="260" t="s">
         <v>453</v>
       </c>
-      <c r="N50" s="236"/>
-      <c r="O50" s="168"/>
-      <c r="P50" s="169"/>
-    </row>
-    <row r="51" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C51" s="134"/>
-      <c r="D51" s="172"/>
-      <c r="E51" s="185" t="s">
+      <c r="N52" s="261"/>
+      <c r="O52" s="167"/>
+      <c r="P52" s="168"/>
+    </row>
+    <row r="53" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C53" s="134"/>
+      <c r="D53" s="171"/>
+      <c r="E53" s="184" t="s">
         <v>469</v>
       </c>
-      <c r="F51" s="174"/>
-      <c r="M51" s="237"/>
-      <c r="N51" s="236"/>
-      <c r="O51" s="168"/>
-      <c r="P51" s="169"/>
-    </row>
-    <row r="52" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="M52" s="134"/>
-      <c r="N52" s="172"/>
-      <c r="O52" s="173"/>
-      <c r="P52" s="174"/>
-    </row>
-    <row r="53" spans="3:16" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="54" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M54" s="181" t="s">
+      <c r="F53" s="173"/>
+      <c r="M53" s="260"/>
+      <c r="N53" s="261"/>
+      <c r="O53" s="167"/>
+      <c r="P53" s="168"/>
+    </row>
+    <row r="54" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="M54" s="134"/>
+      <c r="N54" s="171"/>
+      <c r="O54" s="172"/>
+      <c r="P54" s="173"/>
+    </row>
+    <row r="55" spans="3:16" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="56" spans="3:16" ht="15.75" customHeight="1">
+      <c r="M56" s="180" t="s">
         <v>422</v>
       </c>
-      <c r="N54" s="161"/>
-      <c r="O54" s="161"/>
-      <c r="P54" s="162" t="s">
+      <c r="N56" s="160"/>
+      <c r="O56" s="160"/>
+      <c r="P56" s="161" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M55" s="182" t="s">
+    <row r="57" spans="3:16" ht="15.75" customHeight="1">
+      <c r="M57" s="181" t="s">
         <v>419</v>
       </c>
-      <c r="N55" s="64"/>
-      <c r="O55" s="64"/>
-      <c r="P55" s="164" t="s">
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="163" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="56" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M56" s="163"/>
-      <c r="N56" s="64"/>
-      <c r="O56" s="64"/>
-      <c r="P56" s="164" t="s">
+    <row r="58" spans="3:16" ht="15.75" customHeight="1">
+      <c r="M58" s="162"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="163" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="57" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M57" s="165" t="s">
+    <row r="59" spans="3:16" ht="15.75" customHeight="1">
+      <c r="M59" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="N57" s="166"/>
-      <c r="O57" s="22" t="s">
+      <c r="N59" s="165"/>
+      <c r="O59" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="P57" s="167" t="s">
+      <c r="P59" s="166" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="58" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M58" s="235" t="s">
+    <row r="60" spans="3:16" ht="15.75" customHeight="1">
+      <c r="M60" s="265" t="s">
         <v>454</v>
       </c>
-      <c r="N58" s="236"/>
-      <c r="O58" s="177" t="s">
+      <c r="N60" s="261"/>
+      <c r="O60" s="176" t="s">
         <v>458</v>
       </c>
-      <c r="P58" s="184" t="s">
+      <c r="P60" s="183" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="59" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M59" s="237" t="s">
+    <row r="61" spans="3:16" ht="15.75" customHeight="1">
+      <c r="M61" s="260" t="s">
         <v>455</v>
       </c>
-      <c r="N59" s="236"/>
-      <c r="O59" s="177" t="s">
+      <c r="N61" s="261"/>
+      <c r="O61" s="176" t="s">
         <v>459</v>
       </c>
-      <c r="P59" s="184" t="s">
+      <c r="P61" s="183" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="60" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M60" s="235" t="s">
+    <row r="62" spans="3:16" ht="15.75" customHeight="1">
+      <c r="M62" s="265" t="s">
         <v>460</v>
       </c>
-      <c r="N60" s="236"/>
-      <c r="O60" s="177" t="s">
+      <c r="N62" s="261"/>
+      <c r="O62" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="P60" s="171" t="s">
+      <c r="P62" s="170" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="61" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M61" s="237"/>
-      <c r="N61" s="236"/>
-      <c r="O61" s="168"/>
-      <c r="P61" s="169"/>
-    </row>
-    <row r="62" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M62" s="237"/>
-      <c r="N62" s="236"/>
-      <c r="O62" s="168"/>
-      <c r="P62" s="169"/>
-    </row>
-    <row r="63" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="M63" s="134"/>
-      <c r="N63" s="172"/>
-      <c r="O63" s="173"/>
-      <c r="P63" s="174"/>
-    </row>
-    <row r="64" spans="3:16" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="65" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M65" s="181" t="s">
+    <row r="63" spans="3:16" ht="15.75" customHeight="1">
+      <c r="M63" s="260"/>
+      <c r="N63" s="261"/>
+      <c r="O63" s="167"/>
+      <c r="P63" s="168"/>
+    </row>
+    <row r="64" spans="3:16" ht="15.75" customHeight="1">
+      <c r="M64" s="260"/>
+      <c r="N64" s="261"/>
+      <c r="O64" s="167"/>
+      <c r="P64" s="168"/>
+    </row>
+    <row r="65" spans="13:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="M65" s="134"/>
+      <c r="N65" s="171"/>
+      <c r="O65" s="172"/>
+      <c r="P65" s="173"/>
+    </row>
+    <row r="66" spans="13:16" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="67" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M67" s="180" t="s">
         <v>423</v>
       </c>
-      <c r="N65" s="161"/>
-      <c r="O65" s="161"/>
-      <c r="P65" s="162" t="s">
+      <c r="N67" s="160"/>
+      <c r="O67" s="160"/>
+      <c r="P67" s="161" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M66" s="182" t="s">
+    <row r="68" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M68" s="181" t="s">
         <v>419</v>
       </c>
-      <c r="N66" s="64"/>
-      <c r="O66" s="64"/>
-      <c r="P66" s="180" t="s">
+      <c r="N68" s="64"/>
+      <c r="O68" s="64"/>
+      <c r="P68" s="179" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="67" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M67" s="163"/>
-      <c r="N67" s="64"/>
-      <c r="O67" s="64"/>
-      <c r="P67" s="164"/>
-    </row>
-    <row r="68" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M68" s="165" t="s">
+    <row r="69" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M69" s="162"/>
+      <c r="N69" s="64"/>
+      <c r="O69" s="64"/>
+      <c r="P69" s="163"/>
+    </row>
+    <row r="70" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M70" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="N68" s="166"/>
-      <c r="O68" s="22" t="s">
+      <c r="N70" s="165"/>
+      <c r="O70" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="P68" s="167"/>
-    </row>
-    <row r="69" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M69" s="235" t="s">
+      <c r="P70" s="166"/>
+    </row>
+    <row r="71" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M71" s="265" t="s">
         <v>461</v>
       </c>
-      <c r="N69" s="236"/>
-      <c r="O69" s="177" t="s">
+      <c r="N71" s="261"/>
+      <c r="O71" s="176" t="s">
         <v>381</v>
       </c>
-      <c r="P69" s="169"/>
-    </row>
-    <row r="70" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M70" s="235" t="s">
+      <c r="P71" s="168"/>
+    </row>
+    <row r="72" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M72" s="265" t="s">
         <v>462</v>
       </c>
-      <c r="N70" s="236"/>
-      <c r="O70" s="177" t="s">
+      <c r="N72" s="261"/>
+      <c r="O72" s="176" t="s">
         <v>463</v>
       </c>
-      <c r="P70" s="169"/>
-    </row>
-    <row r="71" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M71" s="237"/>
-      <c r="N71" s="236"/>
-      <c r="O71" s="168"/>
-      <c r="P71" s="169"/>
-    </row>
-    <row r="72" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M72" s="237"/>
-      <c r="N72" s="236"/>
-      <c r="O72" s="168"/>
-      <c r="P72" s="169"/>
+      <c r="P72" s="168"/>
     </row>
     <row r="73" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M73" s="237"/>
-      <c r="N73" s="236"/>
-      <c r="O73" s="168"/>
-      <c r="P73" s="169"/>
-    </row>
-    <row r="74" spans="13:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="M74" s="134"/>
-      <c r="N74" s="172"/>
-      <c r="O74" s="173"/>
-      <c r="P74" s="174"/>
-    </row>
-    <row r="75" spans="13:16" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="76" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M76" s="181" t="s">
+      <c r="M73" s="260"/>
+      <c r="N73" s="261"/>
+      <c r="O73" s="167"/>
+      <c r="P73" s="168"/>
+    </row>
+    <row r="74" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M74" s="260"/>
+      <c r="N74" s="261"/>
+      <c r="O74" s="167"/>
+      <c r="P74" s="168"/>
+    </row>
+    <row r="75" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M75" s="260"/>
+      <c r="N75" s="261"/>
+      <c r="O75" s="167"/>
+      <c r="P75" s="168"/>
+    </row>
+    <row r="76" spans="13:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="M76" s="134"/>
+      <c r="N76" s="171"/>
+      <c r="O76" s="172"/>
+      <c r="P76" s="173"/>
+    </row>
+    <row r="77" spans="13:16" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="78" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M78" s="180" t="s">
         <v>424</v>
       </c>
-      <c r="N76" s="161"/>
-      <c r="O76" s="161"/>
-      <c r="P76" s="162" t="s">
+      <c r="N78" s="160"/>
+      <c r="O78" s="160"/>
+      <c r="P78" s="161" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M77" s="182" t="s">
+    <row r="79" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M79" s="181" t="s">
         <v>419</v>
       </c>
-      <c r="N77" s="64"/>
-      <c r="O77" s="64"/>
-      <c r="P77" s="180" t="s">
+      <c r="N79" s="64"/>
+      <c r="O79" s="64"/>
+      <c r="P79" s="179" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="78" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M78" s="163"/>
-      <c r="N78" s="64"/>
-      <c r="O78" s="64"/>
-      <c r="P78" s="164"/>
-    </row>
-    <row r="79" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M79" s="165" t="s">
+    <row r="80" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M80" s="162"/>
+      <c r="N80" s="64"/>
+      <c r="O80" s="64"/>
+      <c r="P80" s="163"/>
+    </row>
+    <row r="81" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M81" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="N79" s="166"/>
-      <c r="O79" s="22" t="s">
+      <c r="N81" s="165"/>
+      <c r="O81" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="P79" s="167"/>
-    </row>
-    <row r="80" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M80" s="235" t="s">
+      <c r="P81" s="166"/>
+    </row>
+    <row r="82" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M82" s="265" t="s">
         <v>461</v>
       </c>
-      <c r="N80" s="236"/>
-      <c r="O80" s="177" t="s">
+      <c r="N82" s="261"/>
+      <c r="O82" s="176" t="s">
         <v>381</v>
       </c>
-      <c r="P80" s="169"/>
-    </row>
-    <row r="81" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M81" s="235" t="s">
+      <c r="P82" s="168"/>
+    </row>
+    <row r="83" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M83" s="265" t="s">
         <v>464</v>
       </c>
-      <c r="N81" s="236"/>
-      <c r="O81" s="177" t="s">
+      <c r="N83" s="261"/>
+      <c r="O83" s="176" t="s">
         <v>463</v>
       </c>
-      <c r="P81" s="169"/>
-    </row>
-    <row r="82" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M82" s="237"/>
-      <c r="N82" s="236"/>
-      <c r="O82" s="168"/>
-      <c r="P82" s="169"/>
-    </row>
-    <row r="83" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M83" s="237"/>
-      <c r="N83" s="236"/>
-      <c r="O83" s="168"/>
-      <c r="P83" s="169"/>
+      <c r="P83" s="168"/>
     </row>
     <row r="84" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M84" s="237"/>
-      <c r="N84" s="236"/>
-      <c r="O84" s="168"/>
-      <c r="P84" s="169"/>
-    </row>
-    <row r="85" spans="13:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="M85" s="134"/>
-      <c r="N85" s="172"/>
-      <c r="O85" s="173"/>
-      <c r="P85" s="174"/>
-    </row>
-    <row r="86" spans="13:16" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="87" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M87" s="181" t="s">
+      <c r="M84" s="260"/>
+      <c r="N84" s="261"/>
+      <c r="O84" s="167"/>
+      <c r="P84" s="168"/>
+    </row>
+    <row r="85" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M85" s="260"/>
+      <c r="N85" s="261"/>
+      <c r="O85" s="167"/>
+      <c r="P85" s="168"/>
+    </row>
+    <row r="86" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M86" s="260"/>
+      <c r="N86" s="261"/>
+      <c r="O86" s="167"/>
+      <c r="P86" s="168"/>
+    </row>
+    <row r="87" spans="13:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="M87" s="134"/>
+      <c r="N87" s="171"/>
+      <c r="O87" s="172"/>
+      <c r="P87" s="173"/>
+    </row>
+    <row r="88" spans="13:16" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="89" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M89" s="180" t="s">
         <v>425</v>
       </c>
-      <c r="N87" s="161"/>
-      <c r="O87" s="161"/>
-      <c r="P87" s="162" t="s">
+      <c r="N89" s="160"/>
+      <c r="O89" s="160"/>
+      <c r="P89" s="161" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M88" s="182" t="s">
+    <row r="90" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M90" s="181" t="s">
         <v>419</v>
       </c>
-      <c r="N88" s="64"/>
-      <c r="O88" s="64"/>
-      <c r="P88" s="164"/>
-    </row>
-    <row r="89" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M89" s="163"/>
-      <c r="N89" s="64"/>
-      <c r="O89" s="64"/>
-      <c r="P89" s="164"/>
-    </row>
-    <row r="90" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M90" s="165" t="s">
+      <c r="N90" s="64"/>
+      <c r="O90" s="64"/>
+      <c r="P90" s="163"/>
+    </row>
+    <row r="91" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M91" s="162"/>
+      <c r="N91" s="64"/>
+      <c r="O91" s="64"/>
+      <c r="P91" s="163"/>
+    </row>
+    <row r="92" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M92" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="N90" s="166"/>
-      <c r="O90" s="22" t="s">
+      <c r="N92" s="165"/>
+      <c r="O92" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="P90" s="167"/>
-    </row>
-    <row r="91" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M91" s="235" t="s">
+      <c r="P92" s="166"/>
+    </row>
+    <row r="93" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M93" s="265" t="s">
         <v>228</v>
       </c>
-      <c r="N91" s="236"/>
-      <c r="O91" s="177" t="s">
+      <c r="N93" s="261"/>
+      <c r="O93" s="176" t="s">
         <v>465</v>
       </c>
-      <c r="P91" s="169"/>
-    </row>
-    <row r="92" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M92" s="237"/>
-      <c r="N92" s="236"/>
-      <c r="O92" s="177" t="s">
+      <c r="P93" s="168"/>
+    </row>
+    <row r="94" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M94" s="260"/>
+      <c r="N94" s="261"/>
+      <c r="O94" s="176" t="s">
         <v>466</v>
       </c>
-      <c r="P92" s="169"/>
-    </row>
-    <row r="93" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M93" s="237"/>
-      <c r="N93" s="236"/>
-      <c r="O93" s="177" t="s">
+      <c r="P94" s="168"/>
+    </row>
+    <row r="95" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M95" s="260"/>
+      <c r="N95" s="261"/>
+      <c r="O95" s="176" t="s">
         <v>467</v>
       </c>
-      <c r="P93" s="169"/>
-    </row>
-    <row r="94" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M94" s="237"/>
-      <c r="N94" s="236"/>
-      <c r="O94" s="168"/>
-      <c r="P94" s="169"/>
-    </row>
-    <row r="95" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M95" s="237"/>
-      <c r="N95" s="236"/>
-      <c r="O95" s="168"/>
-      <c r="P95" s="169"/>
-    </row>
-    <row r="96" spans="13:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="M96" s="134"/>
-      <c r="N96" s="172"/>
-      <c r="O96" s="173"/>
-      <c r="P96" s="174"/>
-    </row>
-    <row r="97" spans="13:16" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="98" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M98" s="181" t="s">
+      <c r="P95" s="168"/>
+    </row>
+    <row r="96" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M96" s="260"/>
+      <c r="N96" s="261"/>
+      <c r="O96" s="167"/>
+      <c r="P96" s="168"/>
+    </row>
+    <row r="97" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M97" s="260"/>
+      <c r="N97" s="261"/>
+      <c r="O97" s="167"/>
+      <c r="P97" s="168"/>
+    </row>
+    <row r="98" spans="13:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="M98" s="134"/>
+      <c r="N98" s="171"/>
+      <c r="O98" s="172"/>
+      <c r="P98" s="173"/>
+    </row>
+    <row r="99" spans="13:16" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="100" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M100" s="180" t="s">
         <v>426</v>
       </c>
-      <c r="N98" s="161"/>
-      <c r="O98" s="161"/>
-      <c r="P98" s="162" t="s">
+      <c r="N100" s="160"/>
+      <c r="O100" s="160"/>
+      <c r="P100" s="161" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M99" s="182" t="s">
+    <row r="101" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M101" s="181" t="s">
         <v>419</v>
       </c>
-      <c r="N99" s="64"/>
-      <c r="O99" s="64"/>
-      <c r="P99" s="164"/>
-    </row>
-    <row r="100" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M100" s="163"/>
-      <c r="N100" s="64"/>
-      <c r="O100" s="64"/>
-      <c r="P100" s="164"/>
-    </row>
-    <row r="101" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M101" s="165" t="s">
+      <c r="N101" s="64"/>
+      <c r="O101" s="64"/>
+      <c r="P101" s="163"/>
+    </row>
+    <row r="102" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M102" s="162"/>
+      <c r="N102" s="64"/>
+      <c r="O102" s="64"/>
+      <c r="P102" s="163"/>
+    </row>
+    <row r="103" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M103" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="N101" s="166"/>
-      <c r="O101" s="22" t="s">
+      <c r="N103" s="165"/>
+      <c r="O103" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="P101" s="167"/>
-    </row>
-    <row r="102" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M102" s="235" t="s">
+      <c r="P103" s="166"/>
+    </row>
+    <row r="104" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M104" s="265" t="s">
         <v>477</v>
       </c>
-      <c r="N102" s="236"/>
-      <c r="O102" s="177" t="s">
+      <c r="N104" s="261"/>
+      <c r="O104" s="176" t="s">
         <v>474</v>
       </c>
-      <c r="P102" s="169"/>
-    </row>
-    <row r="103" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M103" s="235" t="s">
+      <c r="P104" s="168"/>
+    </row>
+    <row r="105" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M105" s="265" t="s">
         <v>478</v>
       </c>
-      <c r="N103" s="236"/>
-      <c r="O103" s="177" t="s">
+      <c r="N105" s="261"/>
+      <c r="O105" s="176" t="s">
         <v>473</v>
       </c>
-      <c r="P103" s="169"/>
-    </row>
-    <row r="104" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M104" s="235" t="s">
+      <c r="P105" s="168"/>
+    </row>
+    <row r="106" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M106" s="265" t="s">
         <v>479</v>
       </c>
-      <c r="N104" s="236"/>
-      <c r="O104" s="177" t="s">
+      <c r="N106" s="261"/>
+      <c r="O106" s="176" t="s">
         <v>475</v>
       </c>
-      <c r="P104" s="169"/>
-    </row>
-    <row r="105" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M105" s="237"/>
-      <c r="N105" s="236"/>
-      <c r="O105" s="177" t="s">
+      <c r="P106" s="168"/>
+    </row>
+    <row r="107" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M107" s="260"/>
+      <c r="N107" s="261"/>
+      <c r="O107" s="176" t="s">
         <v>476</v>
       </c>
-      <c r="P105" s="169"/>
-    </row>
-    <row r="106" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M106" s="237"/>
-      <c r="N106" s="236"/>
-      <c r="O106" s="168"/>
-      <c r="P106" s="169"/>
-    </row>
-    <row r="107" spans="13:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="M107" s="134"/>
-      <c r="N107" s="172"/>
-      <c r="O107" s="173"/>
-      <c r="P107" s="174"/>
-    </row>
-    <row r="108" spans="13:16" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="109" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M109" s="181" t="s">
+      <c r="P107" s="168"/>
+    </row>
+    <row r="108" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M108" s="260"/>
+      <c r="N108" s="261"/>
+      <c r="O108" s="167"/>
+      <c r="P108" s="168"/>
+    </row>
+    <row r="109" spans="13:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="M109" s="134"/>
+      <c r="N109" s="171"/>
+      <c r="O109" s="172"/>
+      <c r="P109" s="173"/>
+    </row>
+    <row r="110" spans="13:16" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="111" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M111" s="180" t="s">
         <v>493</v>
       </c>
-      <c r="N109" s="161"/>
-      <c r="O109" s="161"/>
-      <c r="P109" s="162" t="s">
+      <c r="N111" s="160"/>
+      <c r="O111" s="160"/>
+      <c r="P111" s="161" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M110" s="182" t="s">
+    <row r="112" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M112" s="181" t="s">
         <v>419</v>
       </c>
-      <c r="N110" s="156"/>
-      <c r="O110" s="156"/>
-      <c r="P110" s="180" t="s">
+      <c r="N112" s="64"/>
+      <c r="O112" s="64"/>
+      <c r="P112" s="179" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="111" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M111" s="163"/>
-      <c r="N111" s="156"/>
-      <c r="O111" s="156"/>
-      <c r="P111" s="164"/>
-    </row>
-    <row r="112" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M112" s="165" t="s">
+    <row r="113" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M113" s="162"/>
+      <c r="N113" s="64"/>
+      <c r="O113" s="64"/>
+      <c r="P113" s="163"/>
+    </row>
+    <row r="114" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M114" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="N112" s="166"/>
-      <c r="O112" s="22" t="s">
+      <c r="N114" s="165"/>
+      <c r="O114" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="P112" s="167"/>
-    </row>
-    <row r="113" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M113" s="235" t="s">
+      <c r="P114" s="166"/>
+    </row>
+    <row r="115" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M115" s="265" t="s">
         <v>494</v>
       </c>
-      <c r="N113" s="236"/>
-      <c r="O113" s="177" t="s">
+      <c r="N115" s="261"/>
+      <c r="O115" s="176" t="s">
         <v>495</v>
       </c>
-      <c r="P113" s="169"/>
-    </row>
-    <row r="114" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M114" s="237"/>
-      <c r="N114" s="236"/>
-      <c r="O114" s="168"/>
-      <c r="P114" s="169"/>
-    </row>
-    <row r="115" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M115" s="237"/>
-      <c r="N115" s="236"/>
-      <c r="O115" s="168"/>
-      <c r="P115" s="169"/>
+      <c r="P115" s="168"/>
     </row>
     <row r="116" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M116" s="237"/>
-      <c r="N116" s="236"/>
-      <c r="O116" s="168"/>
-      <c r="P116" s="169"/>
+      <c r="M116" s="260"/>
+      <c r="N116" s="261"/>
+      <c r="O116" s="167"/>
+      <c r="P116" s="168"/>
     </row>
     <row r="117" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M117" s="237"/>
-      <c r="N117" s="236"/>
-      <c r="O117" s="168"/>
-      <c r="P117" s="169"/>
+      <c r="M117" s="260"/>
+      <c r="N117" s="261"/>
+      <c r="O117" s="167"/>
+      <c r="P117" s="168"/>
     </row>
     <row r="118" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M118" s="237"/>
-      <c r="N118" s="236"/>
-      <c r="O118" s="168"/>
-      <c r="P118" s="169"/>
-    </row>
-    <row r="119" spans="13:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="M119" s="134"/>
-      <c r="N119" s="172"/>
-      <c r="O119" s="173"/>
-      <c r="P119" s="183"/>
+      <c r="M118" s="260"/>
+      <c r="N118" s="261"/>
+      <c r="O118" s="167"/>
+      <c r="P118" s="168"/>
+    </row>
+    <row r="119" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M119" s="260"/>
+      <c r="N119" s="261"/>
+      <c r="O119" s="167"/>
+      <c r="P119" s="168"/>
+    </row>
+    <row r="120" spans="13:16" ht="15.75" customHeight="1">
+      <c r="M120" s="260"/>
+      <c r="N120" s="261"/>
+      <c r="O120" s="167"/>
+      <c r="P120" s="168"/>
+    </row>
+    <row r="121" spans="13:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="M121" s="134"/>
+      <c r="N121" s="171"/>
+      <c r="O121" s="172"/>
+      <c r="P121" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M42:N42"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="M22:N22"/>
@@ -9872,41 +9985,31 @@
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
     <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
@@ -9919,1503 +10022,1502 @@
   </sheetPr>
   <dimension ref="B1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6" style="245" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="245" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="245" customWidth="1"/>
-    <col min="4" max="4" width="108.42578125" style="245" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="126.85546875" style="245" customWidth="1"/>
-    <col min="6" max="10" width="73.7109375" style="245" customWidth="1"/>
-    <col min="11" max="16384" width="17.28515625" style="245"/>
+    <col min="1" max="1" width="6" style="186" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="186" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="186" customWidth="1"/>
+    <col min="4" max="4" width="108.42578125" style="186" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="126.85546875" style="186" customWidth="1"/>
+    <col min="6" max="10" width="73.7109375" style="186" customWidth="1"/>
+    <col min="11" max="16384" width="17.28515625" style="186"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="57" customHeight="1"/>
     <row r="2" spans="2:8" ht="1.5" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B3" s="246" t="s">
+      <c r="B3" s="187" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="247" t="s">
+      <c r="D3" s="188" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="159"/>
+      <c r="E3" s="158"/>
     </row>
     <row r="4" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B4" s="248"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="250"/>
+      <c r="B4" s="189"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
     </row>
     <row r="5" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B5" s="251" t="s">
+      <c r="B5" s="192" t="s">
         <v>488</v>
       </c>
-      <c r="D5" s="252" t="s">
+      <c r="D5" s="193" t="s">
         <v>480</v>
       </c>
-      <c r="E5" s="250"/>
+      <c r="E5" s="191"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B6" s="251" t="s">
+      <c r="B6" s="192" t="s">
         <v>489</v>
       </c>
-      <c r="D6" s="253" t="s">
+      <c r="D6" s="194" t="s">
         <v>481</v>
       </c>
-      <c r="E6" s="250"/>
+      <c r="E6" s="191"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B7" s="251" t="s">
+      <c r="B7" s="192" t="s">
         <v>490</v>
       </c>
-      <c r="D7" s="253" t="s">
+      <c r="D7" s="194" t="s">
         <v>482</v>
       </c>
-      <c r="E7" s="250"/>
+      <c r="E7" s="191"/>
     </row>
     <row r="8" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B8" s="251"/>
-      <c r="D8" s="253" t="s">
+      <c r="B8" s="192"/>
+      <c r="D8" s="194" t="s">
         <v>483</v>
       </c>
-      <c r="E8" s="250"/>
-    </row>
-    <row r="9" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B9" s="251"/>
-      <c r="C9" s="254"/>
-      <c r="D9" s="253" t="s">
+      <c r="E8" s="191"/>
+    </row>
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B9" s="196"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="194" t="s">
         <v>484</v>
       </c>
-      <c r="E9" s="250"/>
+      <c r="E9" s="191"/>
     </row>
     <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B10" s="255"/>
-      <c r="C10" s="254"/>
-      <c r="D10" s="256" t="s">
+      <c r="B10" s="199"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="197" t="s">
         <v>485</v>
       </c>
-      <c r="E10" s="257"/>
-      <c r="F10" s="258"/>
-      <c r="H10" s="258"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="199"/>
+      <c r="H10" s="199"/>
     </row>
     <row r="11" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B11" s="258"/>
-      <c r="C11" s="254"/>
-      <c r="D11" s="258"/>
-      <c r="E11" s="258"/>
-      <c r="F11" s="258"/>
-      <c r="H11" s="258"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
+      <c r="H11" s="199"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B12" s="258"/>
-      <c r="C12" s="254"/>
-      <c r="D12" s="258"/>
-      <c r="E12" s="258"/>
-      <c r="F12" s="258"/>
-      <c r="H12" s="258"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="H12" s="199"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C13" s="254"/>
-      <c r="E13" s="258"/>
-      <c r="F13" s="258"/>
-      <c r="H13" s="258"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="195"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="H13" s="199"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B14" s="258"/>
-      <c r="C14" s="254"/>
-      <c r="D14" s="259" t="s">
+      <c r="B14" s="199"/>
+      <c r="C14" s="195"/>
+      <c r="D14" s="200" t="s">
         <v>486</v>
       </c>
-      <c r="E14" s="260" t="s">
+      <c r="E14" s="201" t="s">
         <v>487</v>
       </c>
-      <c r="F14" s="261"/>
-      <c r="G14" s="261"/>
-      <c r="H14" s="261"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B15" s="258"/>
-      <c r="C15" s="254"/>
-      <c r="D15" s="266" t="s">
+      <c r="B15" s="199"/>
+      <c r="C15" s="195"/>
+      <c r="D15" s="207" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="262"/>
-      <c r="F15" s="258"/>
-      <c r="G15" s="258"/>
-      <c r="H15" s="258"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="199"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B16" s="258"/>
-      <c r="C16" s="254"/>
-      <c r="D16" s="271" t="s">
+      <c r="B16" s="199"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="208" t="s">
         <v>511</v>
       </c>
-      <c r="E16" s="265"/>
-      <c r="F16" s="258"/>
-      <c r="G16" s="258"/>
-      <c r="H16" s="258"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B17" s="258"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="273"/>
-      <c r="E17" s="265"/>
-      <c r="F17" s="258"/>
-      <c r="G17" s="258"/>
-      <c r="H17" s="258"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="199"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B18" s="258"/>
-      <c r="C18" s="254"/>
-      <c r="D18" s="273" t="s">
+      <c r="B18" s="199"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="210" t="s">
         <v>491</v>
       </c>
-      <c r="E18" s="265"/>
-      <c r="F18" s="258"/>
-      <c r="G18" s="258"/>
-      <c r="H18" s="258"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
     </row>
     <row r="19" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B19" s="258"/>
-      <c r="C19" s="254"/>
-      <c r="D19" s="271" t="s">
+      <c r="B19" s="199"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="208" t="s">
         <v>496</v>
       </c>
-      <c r="E19" s="265"/>
-      <c r="F19" s="258"/>
-      <c r="G19" s="258"/>
-      <c r="H19" s="258"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="199"/>
     </row>
     <row r="20" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B20" s="258"/>
-      <c r="C20" s="254"/>
-      <c r="D20" s="271" t="s">
+      <c r="B20" s="199"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="208" t="s">
         <v>499</v>
       </c>
-      <c r="E20" s="272" t="s">
+      <c r="E20" s="209" t="s">
         <v>497</v>
       </c>
-      <c r="F20" s="258"/>
-      <c r="G20" s="258"/>
-      <c r="H20" s="258"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="199"/>
     </row>
     <row r="21" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B21" s="258"/>
-      <c r="C21" s="254"/>
-      <c r="D21" s="271" t="s">
+      <c r="B21" s="199"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="208" t="s">
         <v>498</v>
       </c>
-      <c r="E21" s="265"/>
-      <c r="F21" s="258"/>
-      <c r="G21" s="258"/>
-      <c r="H21" s="258"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="199"/>
+      <c r="H21" s="199"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B22" s="258"/>
-      <c r="C22" s="254"/>
-      <c r="D22" s="271"/>
-      <c r="E22" s="265"/>
-      <c r="F22" s="258"/>
-      <c r="G22" s="258"/>
-      <c r="H22" s="258"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="195"/>
+      <c r="D22" s="208"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="199"/>
+      <c r="H22" s="199"/>
     </row>
     <row r="23" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B23" s="258"/>
-      <c r="C23" s="254"/>
-      <c r="D23" s="273" t="s">
+      <c r="B23" s="199"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="210" t="s">
         <v>505</v>
       </c>
-      <c r="E23" s="265"/>
-      <c r="F23" s="258"/>
-      <c r="G23" s="258"/>
-      <c r="H23" s="258"/>
+      <c r="E23" s="206"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="199"/>
+      <c r="H23" s="199"/>
     </row>
     <row r="24" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B24" s="258"/>
-      <c r="C24" s="254"/>
-      <c r="D24" s="271" t="s">
+      <c r="B24" s="199"/>
+      <c r="C24" s="195"/>
+      <c r="D24" s="208" t="s">
         <v>500</v>
       </c>
-      <c r="E24" s="265"/>
-      <c r="F24" s="258"/>
-      <c r="G24" s="258"/>
-      <c r="H24" s="258"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="199"/>
+      <c r="H24" s="199"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B25" s="258"/>
-      <c r="C25" s="254"/>
-      <c r="D25" s="271" t="s">
+      <c r="B25" s="199"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="208" t="s">
         <v>501</v>
       </c>
-      <c r="E25" s="265"/>
-      <c r="F25" s="258"/>
-      <c r="G25" s="258"/>
-      <c r="H25" s="258"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="199"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B26" s="258"/>
-      <c r="C26" s="254"/>
-      <c r="D26" s="271" t="s">
+      <c r="B26" s="199"/>
+      <c r="C26" s="195"/>
+      <c r="D26" s="208" t="s">
         <v>508</v>
       </c>
-      <c r="E26" s="272" t="s">
+      <c r="E26" s="209" t="s">
         <v>510</v>
       </c>
-      <c r="F26" s="258"/>
-      <c r="G26" s="258"/>
-      <c r="H26" s="258"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="199"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B27" s="258"/>
-      <c r="C27" s="254"/>
-      <c r="D27" s="271" t="s">
+      <c r="B27" s="199"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="208" t="s">
         <v>502</v>
       </c>
-      <c r="E27" s="272" t="s">
+      <c r="E27" s="209" t="s">
         <v>512</v>
       </c>
-      <c r="F27" s="258"/>
-      <c r="G27" s="258"/>
-      <c r="H27" s="258"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="199"/>
+      <c r="H27" s="199"/>
     </row>
     <row r="28" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B28" s="258"/>
-      <c r="C28" s="254"/>
-      <c r="D28" s="264" t="s">
+      <c r="B28" s="199"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="205" t="s">
         <v>503</v>
       </c>
-      <c r="E28" s="272" t="s">
+      <c r="E28" s="209" t="s">
         <v>512</v>
       </c>
-      <c r="F28" s="258"/>
-      <c r="G28" s="258"/>
-      <c r="H28" s="258"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="199"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B29" s="258"/>
-      <c r="C29" s="254"/>
-      <c r="D29" s="264" t="s">
+      <c r="B29" s="199"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="205" t="s">
         <v>504</v>
       </c>
-      <c r="E29" s="265"/>
-      <c r="F29" s="258"/>
-      <c r="G29" s="258"/>
-      <c r="H29" s="258"/>
+      <c r="E29" s="206"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="199"/>
+      <c r="H29" s="199"/>
     </row>
     <row r="30" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B30" s="258"/>
-      <c r="C30" s="254"/>
-      <c r="D30" s="264"/>
-      <c r="E30" s="265"/>
-      <c r="F30" s="258"/>
-      <c r="G30" s="258"/>
-      <c r="H30" s="258"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="205"/>
+      <c r="E30" s="206"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B31" s="258"/>
-      <c r="C31" s="254"/>
-      <c r="D31" s="273" t="s">
+      <c r="B31" s="199"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="210" t="s">
         <v>506</v>
       </c>
-      <c r="E31" s="265"/>
-      <c r="F31" s="258"/>
-      <c r="G31" s="258"/>
-      <c r="H31" s="258"/>
+      <c r="E31" s="206"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="199"/>
+      <c r="H31" s="199"/>
     </row>
     <row r="32" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B32" s="258"/>
-      <c r="C32" s="254"/>
-      <c r="D32" s="271" t="s">
+      <c r="B32" s="199"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="208" t="s">
         <v>507</v>
       </c>
-      <c r="E32" s="265"/>
-      <c r="F32" s="258"/>
-      <c r="G32" s="258"/>
-      <c r="H32" s="258"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="199"/>
+      <c r="G32" s="199"/>
+      <c r="H32" s="199"/>
     </row>
     <row r="33" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B33" s="258"/>
-      <c r="C33" s="254"/>
-      <c r="D33" s="271" t="s">
+      <c r="B33" s="199"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="208" t="s">
         <v>508</v>
       </c>
-      <c r="E33" s="265" t="s">
+      <c r="E33" s="206" t="s">
         <v>509</v>
       </c>
-      <c r="F33" s="258"/>
-      <c r="G33" s="258"/>
-      <c r="H33" s="258"/>
+      <c r="F33" s="199"/>
+      <c r="G33" s="199"/>
+      <c r="H33" s="199"/>
     </row>
     <row r="34" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B34" s="258"/>
-      <c r="C34" s="254"/>
-      <c r="D34" s="264" t="s">
+      <c r="B34" s="199"/>
+      <c r="C34" s="195"/>
+      <c r="D34" s="205" t="s">
         <v>498</v>
       </c>
-      <c r="E34" s="265"/>
-      <c r="F34" s="258"/>
-      <c r="G34" s="258"/>
-      <c r="H34" s="258"/>
+      <c r="E34" s="206"/>
+      <c r="F34" s="199"/>
+      <c r="G34" s="199"/>
+      <c r="H34" s="199"/>
     </row>
     <row r="35" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B35" s="258"/>
-      <c r="C35" s="254"/>
-      <c r="D35" s="264"/>
-      <c r="E35" s="265"/>
-      <c r="F35" s="258"/>
-      <c r="G35" s="258"/>
-      <c r="H35" s="258"/>
+      <c r="B35" s="199"/>
+      <c r="C35" s="195"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="199"/>
+      <c r="G35" s="199"/>
+      <c r="H35" s="199"/>
     </row>
     <row r="36" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B36" s="258"/>
-      <c r="C36" s="254"/>
-      <c r="D36" s="273" t="s">
+      <c r="B36" s="199"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="210" t="s">
         <v>186</v>
       </c>
-      <c r="E36" s="265"/>
-      <c r="F36" s="258"/>
-      <c r="G36" s="258"/>
-      <c r="H36" s="258"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="199"/>
+      <c r="G36" s="199"/>
+      <c r="H36" s="199"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B37" s="258"/>
-      <c r="C37" s="254"/>
-      <c r="D37" s="271" t="s">
+      <c r="B37" s="199"/>
+      <c r="C37" s="195"/>
+      <c r="D37" s="208" t="s">
         <v>514</v>
       </c>
-      <c r="E37" s="272" t="s">
+      <c r="E37" s="209" t="s">
         <v>513</v>
       </c>
-      <c r="F37" s="258"/>
-      <c r="G37" s="258"/>
-      <c r="H37" s="258"/>
+      <c r="F37" s="199"/>
+      <c r="G37" s="199"/>
+      <c r="H37" s="199"/>
     </row>
     <row r="38" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B38" s="258"/>
-      <c r="C38" s="254"/>
-      <c r="D38" s="271" t="s">
+      <c r="B38" s="199"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="208" t="s">
         <v>324</v>
       </c>
-      <c r="E38" s="265"/>
-      <c r="F38" s="258"/>
-      <c r="G38" s="258"/>
-      <c r="H38" s="258"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="199"/>
+      <c r="G38" s="199"/>
+      <c r="H38" s="199"/>
     </row>
     <row r="39" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B39" s="258"/>
-      <c r="C39" s="254"/>
-      <c r="D39" s="264"/>
-      <c r="E39" s="265"/>
-      <c r="F39" s="258"/>
-      <c r="G39" s="258"/>
-      <c r="H39" s="258"/>
+      <c r="B39" s="199"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="199"/>
+      <c r="G39" s="199"/>
+      <c r="H39" s="199"/>
     </row>
     <row r="40" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B40" s="258"/>
-      <c r="C40" s="254"/>
-      <c r="D40" s="273" t="s">
+      <c r="B40" s="199"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="210" t="s">
         <v>227</v>
       </c>
-      <c r="E40" s="265"/>
-      <c r="F40" s="258"/>
-      <c r="G40" s="258"/>
-      <c r="H40" s="258"/>
+      <c r="E40" s="206"/>
+      <c r="F40" s="199"/>
+      <c r="G40" s="199"/>
+      <c r="H40" s="199"/>
     </row>
     <row r="41" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B41" s="258"/>
-      <c r="C41" s="254"/>
-      <c r="D41" s="271" t="s">
+      <c r="B41" s="199"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="208" t="s">
         <v>515</v>
       </c>
-      <c r="E41" s="272" t="s">
+      <c r="E41" s="209" t="s">
         <v>517</v>
       </c>
-      <c r="F41" s="258"/>
-      <c r="G41" s="258"/>
-      <c r="H41" s="258"/>
+      <c r="F41" s="199"/>
+      <c r="G41" s="199"/>
+      <c r="H41" s="199"/>
     </row>
     <row r="42" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B42" s="258"/>
-      <c r="C42" s="254"/>
-      <c r="D42" s="271" t="s">
+      <c r="B42" s="199"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="208" t="s">
         <v>516</v>
       </c>
-      <c r="E42" s="265"/>
-      <c r="F42" s="258"/>
-      <c r="G42" s="258"/>
-      <c r="H42" s="258"/>
+      <c r="E42" s="206"/>
+      <c r="F42" s="199"/>
+      <c r="G42" s="199"/>
+      <c r="H42" s="199"/>
     </row>
     <row r="43" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B43" s="258"/>
-      <c r="C43" s="254"/>
-      <c r="D43" s="271" t="s">
+      <c r="B43" s="199"/>
+      <c r="C43" s="195"/>
+      <c r="D43" s="208" t="s">
         <v>518</v>
       </c>
-      <c r="E43" s="265"/>
-      <c r="F43" s="258"/>
-      <c r="G43" s="258"/>
-      <c r="H43" s="258"/>
+      <c r="E43" s="206"/>
+      <c r="F43" s="199"/>
+      <c r="G43" s="199"/>
+      <c r="H43" s="199"/>
     </row>
     <row r="44" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B44" s="258"/>
-      <c r="C44" s="254"/>
-      <c r="D44" s="271" t="s">
+      <c r="B44" s="199"/>
+      <c r="C44" s="195"/>
+      <c r="D44" s="208" t="s">
         <v>519</v>
       </c>
-      <c r="E44" s="265"/>
-      <c r="F44" s="258"/>
-      <c r="G44" s="258"/>
-      <c r="H44" s="258"/>
+      <c r="E44" s="206"/>
+      <c r="F44" s="199"/>
+      <c r="G44" s="199"/>
+      <c r="H44" s="199"/>
     </row>
     <row r="45" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B45" s="258"/>
-      <c r="C45" s="254"/>
-      <c r="D45" s="271" t="s">
+      <c r="B45" s="199"/>
+      <c r="C45" s="195"/>
+      <c r="D45" s="208" t="s">
         <v>520</v>
       </c>
-      <c r="E45" s="265"/>
-      <c r="F45" s="258"/>
-      <c r="G45" s="258"/>
-      <c r="H45" s="258"/>
+      <c r="E45" s="206"/>
+      <c r="F45" s="199"/>
+      <c r="G45" s="199"/>
+      <c r="H45" s="199"/>
     </row>
     <row r="46" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B46" s="258"/>
-      <c r="C46" s="254"/>
-      <c r="D46" s="271" t="s">
+      <c r="B46" s="199"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="208" t="s">
         <v>521</v>
       </c>
-      <c r="E46" s="265"/>
-      <c r="F46" s="258"/>
-      <c r="G46" s="258"/>
-      <c r="H46" s="258"/>
+      <c r="E46" s="206"/>
+      <c r="F46" s="199"/>
+      <c r="G46" s="199"/>
+      <c r="H46" s="199"/>
     </row>
     <row r="47" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B47" s="258"/>
-      <c r="C47" s="254"/>
-      <c r="D47" s="271" t="s">
+      <c r="B47" s="199"/>
+      <c r="C47" s="195"/>
+      <c r="D47" s="208" t="s">
         <v>522</v>
       </c>
-      <c r="E47" s="265"/>
-      <c r="F47" s="258"/>
-      <c r="G47" s="258"/>
-      <c r="H47" s="258"/>
+      <c r="E47" s="206"/>
+      <c r="F47" s="199"/>
+      <c r="G47" s="199"/>
+      <c r="H47" s="199"/>
     </row>
     <row r="48" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B48" s="258"/>
-      <c r="C48" s="254"/>
-      <c r="D48" s="271" t="s">
+      <c r="B48" s="199"/>
+      <c r="C48" s="195"/>
+      <c r="D48" s="208" t="s">
         <v>524</v>
       </c>
-      <c r="E48" s="265"/>
-      <c r="F48" s="258"/>
-      <c r="G48" s="258"/>
-      <c r="H48" s="258"/>
+      <c r="E48" s="206"/>
+      <c r="F48" s="199"/>
+      <c r="G48" s="199"/>
+      <c r="H48" s="199"/>
     </row>
     <row r="49" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B49" s="258"/>
-      <c r="C49" s="254"/>
-      <c r="D49" s="271" t="s">
+      <c r="B49" s="199"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="208" t="s">
         <v>523</v>
       </c>
-      <c r="E49" s="265"/>
-      <c r="F49" s="258"/>
-      <c r="G49" s="258"/>
-      <c r="H49" s="258"/>
+      <c r="E49" s="206"/>
+      <c r="F49" s="199"/>
+      <c r="G49" s="199"/>
+      <c r="H49" s="199"/>
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B50" s="258"/>
-      <c r="C50" s="254"/>
-      <c r="D50" s="264"/>
-      <c r="E50" s="265"/>
-      <c r="F50" s="258"/>
-      <c r="G50" s="258"/>
-      <c r="H50" s="258"/>
+      <c r="B50" s="199"/>
+      <c r="C50" s="195"/>
+      <c r="D50" s="205"/>
+      <c r="E50" s="206"/>
+      <c r="F50" s="199"/>
+      <c r="G50" s="199"/>
+      <c r="H50" s="199"/>
     </row>
     <row r="51" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B51" s="258"/>
-      <c r="C51" s="254"/>
-      <c r="D51" s="273" t="s">
+      <c r="B51" s="199"/>
+      <c r="C51" s="195"/>
+      <c r="D51" s="210" t="s">
         <v>525</v>
       </c>
-      <c r="E51" s="265"/>
-      <c r="F51" s="258"/>
-      <c r="G51" s="258"/>
-      <c r="H51" s="258"/>
+      <c r="E51" s="206"/>
+      <c r="F51" s="199"/>
+      <c r="G51" s="199"/>
+      <c r="H51" s="199"/>
     </row>
     <row r="52" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B52" s="258"/>
-      <c r="C52" s="254"/>
-      <c r="D52" s="271" t="s">
+      <c r="B52" s="199"/>
+      <c r="C52" s="195"/>
+      <c r="D52" s="208" t="s">
         <v>526</v>
       </c>
-      <c r="E52" s="265"/>
-      <c r="F52" s="258"/>
-      <c r="G52" s="258"/>
-      <c r="H52" s="258"/>
+      <c r="E52" s="206"/>
+      <c r="F52" s="199"/>
+      <c r="G52" s="199"/>
+      <c r="H52" s="199"/>
     </row>
     <row r="53" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B53" s="258"/>
-      <c r="C53" s="254"/>
-      <c r="D53" s="271" t="s">
+      <c r="B53" s="199"/>
+      <c r="C53" s="195"/>
+      <c r="D53" s="208" t="s">
         <v>527</v>
       </c>
-      <c r="E53" s="272" t="s">
+      <c r="E53" s="209" t="s">
         <v>528</v>
       </c>
-      <c r="F53" s="258"/>
-      <c r="G53" s="258"/>
-      <c r="H53" s="258"/>
+      <c r="F53" s="199"/>
+      <c r="G53" s="199"/>
+      <c r="H53" s="199"/>
     </row>
     <row r="54" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B54" s="258"/>
-      <c r="C54" s="254"/>
-      <c r="D54" s="271" t="s">
+      <c r="B54" s="199"/>
+      <c r="C54" s="195"/>
+      <c r="D54" s="208" t="s">
         <v>529</v>
       </c>
-      <c r="E54" s="265"/>
-      <c r="F54" s="258"/>
-      <c r="G54" s="258"/>
-      <c r="H54" s="258"/>
+      <c r="E54" s="206"/>
+      <c r="F54" s="199"/>
+      <c r="G54" s="199"/>
+      <c r="H54" s="199"/>
     </row>
     <row r="55" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B55" s="258"/>
-      <c r="C55" s="254"/>
-      <c r="D55" s="271" t="s">
+      <c r="B55" s="199"/>
+      <c r="C55" s="195"/>
+      <c r="D55" s="208" t="s">
         <v>530</v>
       </c>
-      <c r="E55" s="265"/>
-      <c r="F55" s="258"/>
-      <c r="G55" s="258"/>
-      <c r="H55" s="258"/>
+      <c r="E55" s="206"/>
+      <c r="F55" s="199"/>
+      <c r="G55" s="199"/>
+      <c r="H55" s="199"/>
     </row>
     <row r="56" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B56" s="258"/>
-      <c r="C56" s="254"/>
-      <c r="D56" s="271"/>
-      <c r="E56" s="265"/>
-      <c r="F56" s="258"/>
-      <c r="G56" s="258"/>
-      <c r="H56" s="258"/>
+      <c r="B56" s="199"/>
+      <c r="C56" s="195"/>
+      <c r="D56" s="208"/>
+      <c r="E56" s="206"/>
+      <c r="F56" s="199"/>
+      <c r="G56" s="199"/>
+      <c r="H56" s="199"/>
     </row>
     <row r="57" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B57" s="258"/>
-      <c r="C57" s="254"/>
-      <c r="D57" s="273" t="s">
+      <c r="B57" s="199"/>
+      <c r="C57" s="195"/>
+      <c r="D57" s="210" t="s">
         <v>225</v>
       </c>
-      <c r="E57" s="265"/>
-      <c r="F57" s="258"/>
-      <c r="G57" s="258"/>
-      <c r="H57" s="258"/>
+      <c r="E57" s="206"/>
+      <c r="F57" s="199"/>
+      <c r="G57" s="199"/>
+      <c r="H57" s="199"/>
     </row>
     <row r="58" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B58" s="258"/>
-      <c r="C58" s="254"/>
-      <c r="D58" s="271" t="s">
+      <c r="B58" s="199"/>
+      <c r="C58" s="195"/>
+      <c r="D58" s="208" t="s">
         <v>534</v>
       </c>
-      <c r="E58" s="265"/>
-      <c r="F58" s="258"/>
-      <c r="G58" s="258"/>
-      <c r="H58" s="258"/>
+      <c r="E58" s="206"/>
+      <c r="F58" s="199"/>
+      <c r="G58" s="199"/>
+      <c r="H58" s="199"/>
     </row>
     <row r="59" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B59" s="258"/>
-      <c r="C59" s="254"/>
-      <c r="D59" s="271" t="s">
+      <c r="B59" s="199"/>
+      <c r="C59" s="195"/>
+      <c r="D59" s="208" t="s">
         <v>535</v>
       </c>
-      <c r="E59" s="272" t="s">
+      <c r="E59" s="209" t="s">
         <v>536</v>
       </c>
-      <c r="F59" s="258"/>
-      <c r="G59" s="258"/>
-      <c r="H59" s="258"/>
+      <c r="F59" s="199"/>
+      <c r="G59" s="199"/>
+      <c r="H59" s="199"/>
     </row>
     <row r="60" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B60" s="258"/>
-      <c r="C60" s="254"/>
-      <c r="D60" s="271" t="s">
+      <c r="B60" s="199"/>
+      <c r="C60" s="195"/>
+      <c r="D60" s="208" t="s">
         <v>537</v>
       </c>
-      <c r="E60" s="265"/>
-      <c r="F60" s="258"/>
-      <c r="G60" s="258"/>
-      <c r="H60" s="258"/>
+      <c r="E60" s="206"/>
+      <c r="F60" s="199"/>
+      <c r="G60" s="199"/>
+      <c r="H60" s="199"/>
     </row>
     <row r="61" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B61" s="258"/>
-      <c r="C61" s="254"/>
-      <c r="D61" s="271" t="s">
+      <c r="B61" s="199"/>
+      <c r="C61" s="195"/>
+      <c r="D61" s="208" t="s">
         <v>538</v>
       </c>
-      <c r="E61" s="265"/>
-      <c r="F61" s="258"/>
-      <c r="G61" s="258"/>
-      <c r="H61" s="258"/>
+      <c r="E61" s="206"/>
+      <c r="F61" s="199"/>
+      <c r="G61" s="199"/>
+      <c r="H61" s="199"/>
     </row>
     <row r="62" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B62" s="258"/>
-      <c r="C62" s="254"/>
-      <c r="D62" s="271" t="s">
+      <c r="B62" s="199"/>
+      <c r="C62" s="195"/>
+      <c r="D62" s="208" t="s">
         <v>539</v>
       </c>
-      <c r="E62" s="272" t="s">
+      <c r="E62" s="209" t="s">
         <v>540</v>
       </c>
-      <c r="F62" s="258"/>
-      <c r="G62" s="258"/>
-      <c r="H62" s="258"/>
+      <c r="F62" s="199"/>
+      <c r="G62" s="199"/>
+      <c r="H62" s="199"/>
     </row>
     <row r="63" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B63" s="258"/>
-      <c r="C63" s="254"/>
-      <c r="D63" s="264"/>
-      <c r="E63" s="265"/>
-      <c r="F63" s="258"/>
-      <c r="G63" s="258"/>
-      <c r="H63" s="258"/>
+      <c r="B63" s="199"/>
+      <c r="C63" s="195"/>
+      <c r="D63" s="205"/>
+      <c r="E63" s="206"/>
+      <c r="F63" s="199"/>
+      <c r="G63" s="199"/>
+      <c r="H63" s="199"/>
     </row>
     <row r="64" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B64" s="258"/>
-      <c r="C64" s="254"/>
-      <c r="D64" s="273" t="s">
+      <c r="B64" s="199"/>
+      <c r="C64" s="195"/>
+      <c r="D64" s="210" t="s">
         <v>531</v>
       </c>
-      <c r="E64" s="265"/>
-      <c r="F64" s="258"/>
-      <c r="G64" s="258"/>
-      <c r="H64" s="258"/>
+      <c r="E64" s="206"/>
+      <c r="F64" s="199"/>
+      <c r="G64" s="199"/>
+      <c r="H64" s="199"/>
     </row>
     <row r="65" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B65" s="258"/>
-      <c r="C65" s="254"/>
-      <c r="D65" s="271" t="s">
+      <c r="B65" s="199"/>
+      <c r="C65" s="195"/>
+      <c r="D65" s="208" t="s">
         <v>533</v>
       </c>
-      <c r="E65" s="265"/>
-      <c r="F65" s="258"/>
-      <c r="G65" s="258"/>
-      <c r="H65" s="258"/>
+      <c r="E65" s="206"/>
+      <c r="F65" s="199"/>
+      <c r="G65" s="199"/>
+      <c r="H65" s="199"/>
     </row>
     <row r="66" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B66" s="258"/>
-      <c r="C66" s="254"/>
-      <c r="D66" s="271" t="s">
+      <c r="B66" s="199"/>
+      <c r="C66" s="195"/>
+      <c r="D66" s="208" t="s">
         <v>532</v>
       </c>
-      <c r="E66" s="265"/>
-      <c r="F66" s="258"/>
-      <c r="G66" s="258"/>
-      <c r="H66" s="258"/>
+      <c r="E66" s="206"/>
+      <c r="F66" s="199"/>
+      <c r="G66" s="199"/>
+      <c r="H66" s="199"/>
     </row>
     <row r="67" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B67" s="258"/>
-      <c r="C67" s="254"/>
-      <c r="D67" s="264"/>
-      <c r="E67" s="265"/>
-      <c r="F67" s="258"/>
-      <c r="G67" s="258"/>
-      <c r="H67" s="258"/>
+      <c r="B67" s="199"/>
+      <c r="C67" s="195"/>
+      <c r="D67" s="205"/>
+      <c r="E67" s="206"/>
+      <c r="F67" s="199"/>
+      <c r="G67" s="199"/>
+      <c r="H67" s="199"/>
     </row>
     <row r="68" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B68" s="258"/>
-      <c r="C68" s="254"/>
-      <c r="D68" s="273" t="s">
+      <c r="B68" s="199"/>
+      <c r="C68" s="195"/>
+      <c r="D68" s="210" t="s">
         <v>223</v>
       </c>
-      <c r="E68" s="265"/>
-      <c r="F68" s="258"/>
-      <c r="G68" s="258"/>
-      <c r="H68" s="258"/>
+      <c r="E68" s="206"/>
+      <c r="F68" s="199"/>
+      <c r="G68" s="199"/>
+      <c r="H68" s="199"/>
     </row>
     <row r="69" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B69" s="258"/>
-      <c r="C69" s="254"/>
-      <c r="D69" s="271" t="s">
+      <c r="B69" s="199"/>
+      <c r="C69" s="195"/>
+      <c r="D69" s="208" t="s">
         <v>541</v>
       </c>
-      <c r="E69" s="265"/>
-      <c r="F69" s="258"/>
-      <c r="G69" s="258"/>
-      <c r="H69" s="258"/>
+      <c r="E69" s="206"/>
+      <c r="F69" s="199"/>
+      <c r="G69" s="199"/>
+      <c r="H69" s="199"/>
     </row>
     <row r="70" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B70" s="258"/>
-      <c r="C70" s="254"/>
-      <c r="D70" s="264" t="s">
+      <c r="B70" s="199"/>
+      <c r="C70" s="195"/>
+      <c r="D70" s="205" t="s">
         <v>542</v>
       </c>
-      <c r="E70" s="265"/>
-      <c r="F70" s="258"/>
-      <c r="G70" s="258"/>
-      <c r="H70" s="258"/>
+      <c r="E70" s="206"/>
+      <c r="F70" s="199"/>
+      <c r="G70" s="199"/>
+      <c r="H70" s="199"/>
     </row>
     <row r="71" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B71" s="258"/>
-      <c r="C71" s="254"/>
-      <c r="D71" s="264" t="s">
+      <c r="B71" s="199"/>
+      <c r="C71" s="195"/>
+      <c r="D71" s="205" t="s">
         <v>543</v>
       </c>
-      <c r="E71" s="265"/>
-      <c r="F71" s="258"/>
-      <c r="G71" s="258"/>
-      <c r="H71" s="258"/>
+      <c r="E71" s="206"/>
+      <c r="F71" s="199"/>
+      <c r="G71" s="199"/>
+      <c r="H71" s="199"/>
     </row>
     <row r="72" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B72" s="258"/>
-      <c r="C72" s="254"/>
-      <c r="D72" s="264" t="s">
+      <c r="B72" s="199"/>
+      <c r="C72" s="195"/>
+      <c r="D72" s="205" t="s">
         <v>544</v>
       </c>
-      <c r="E72" s="265" t="s">
+      <c r="E72" s="206" t="s">
         <v>546</v>
       </c>
-      <c r="F72" s="258"/>
-      <c r="G72" s="258"/>
-      <c r="H72" s="258"/>
+      <c r="F72" s="199"/>
+      <c r="G72" s="199"/>
+      <c r="H72" s="199"/>
     </row>
     <row r="73" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B73" s="258"/>
-      <c r="C73" s="254"/>
-      <c r="D73" s="264" t="s">
+      <c r="B73" s="199"/>
+      <c r="C73" s="195"/>
+      <c r="D73" s="205" t="s">
         <v>545</v>
       </c>
-      <c r="E73" s="265"/>
-      <c r="F73" s="258"/>
-      <c r="G73" s="258"/>
-      <c r="H73" s="258"/>
+      <c r="E73" s="206"/>
+      <c r="F73" s="199"/>
+      <c r="G73" s="199"/>
+      <c r="H73" s="199"/>
     </row>
     <row r="74" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B74" s="258"/>
-      <c r="C74" s="254"/>
-      <c r="D74" s="264" t="s">
+      <c r="B74" s="199"/>
+      <c r="C74" s="195"/>
+      <c r="D74" s="205" t="s">
         <v>547</v>
       </c>
-      <c r="E74" s="265"/>
-      <c r="F74" s="258"/>
-      <c r="G74" s="258"/>
-      <c r="H74" s="258"/>
+      <c r="E74" s="206"/>
+      <c r="F74" s="199"/>
+      <c r="G74" s="199"/>
+      <c r="H74" s="199"/>
     </row>
     <row r="75" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B75" s="258"/>
-      <c r="C75" s="254"/>
-      <c r="D75" s="264" t="s">
+      <c r="B75" s="199"/>
+      <c r="C75" s="195"/>
+      <c r="D75" s="205" t="s">
         <v>548</v>
       </c>
-      <c r="E75" s="265"/>
-      <c r="F75" s="258"/>
-      <c r="G75" s="258"/>
-      <c r="H75" s="258"/>
+      <c r="E75" s="206"/>
+      <c r="F75" s="199"/>
+      <c r="G75" s="199"/>
+      <c r="H75" s="199"/>
     </row>
     <row r="76" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B76" s="258"/>
-      <c r="C76" s="254"/>
-      <c r="D76" s="264" t="s">
+      <c r="B76" s="199"/>
+      <c r="C76" s="195"/>
+      <c r="D76" s="205" t="s">
         <v>549</v>
       </c>
-      <c r="E76" s="265"/>
-      <c r="F76" s="258"/>
-      <c r="G76" s="258"/>
-      <c r="H76" s="258"/>
+      <c r="E76" s="206"/>
+      <c r="F76" s="199"/>
+      <c r="G76" s="199"/>
+      <c r="H76" s="199"/>
     </row>
     <row r="77" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B77" s="258"/>
-      <c r="C77" s="254"/>
-      <c r="D77" s="264" t="s">
+      <c r="B77" s="199"/>
+      <c r="C77" s="195"/>
+      <c r="D77" s="205" t="s">
         <v>550</v>
       </c>
-      <c r="E77" s="265"/>
-      <c r="F77" s="258"/>
-      <c r="G77" s="258"/>
-      <c r="H77" s="258"/>
+      <c r="E77" s="206"/>
+      <c r="F77" s="199"/>
+      <c r="G77" s="199"/>
+      <c r="H77" s="199"/>
     </row>
     <row r="78" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B78" s="258"/>
-      <c r="C78" s="254"/>
-      <c r="D78" s="264"/>
-      <c r="E78" s="265"/>
-      <c r="F78" s="258"/>
-      <c r="G78" s="258"/>
-      <c r="H78" s="258"/>
+      <c r="B78" s="199"/>
+      <c r="C78" s="195"/>
+      <c r="D78" s="205"/>
+      <c r="E78" s="206"/>
+      <c r="F78" s="199"/>
+      <c r="G78" s="199"/>
+      <c r="H78" s="199"/>
     </row>
     <row r="79" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B79" s="258"/>
-      <c r="C79" s="254"/>
-      <c r="D79" s="273" t="s">
+      <c r="B79" s="199"/>
+      <c r="C79" s="195"/>
+      <c r="D79" s="210" t="s">
         <v>551</v>
       </c>
-      <c r="E79" s="265"/>
-      <c r="F79" s="258"/>
-      <c r="G79" s="258"/>
-      <c r="H79" s="258"/>
+      <c r="E79" s="206"/>
+      <c r="F79" s="199"/>
+      <c r="G79" s="199"/>
+      <c r="H79" s="199"/>
     </row>
     <row r="80" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B80" s="258"/>
-      <c r="C80" s="254"/>
-      <c r="D80" s="271" t="s">
+      <c r="B80" s="199"/>
+      <c r="C80" s="195"/>
+      <c r="D80" s="208" t="s">
         <v>553</v>
       </c>
-      <c r="E80" s="265"/>
-      <c r="F80" s="258"/>
-      <c r="G80" s="258"/>
-      <c r="H80" s="258"/>
+      <c r="E80" s="206"/>
+      <c r="F80" s="199"/>
+      <c r="G80" s="199"/>
+      <c r="H80" s="199"/>
     </row>
     <row r="81" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B81" s="258"/>
-      <c r="C81" s="254"/>
-      <c r="D81" s="271" t="s">
+      <c r="B81" s="199"/>
+      <c r="C81" s="195"/>
+      <c r="D81" s="208" t="s">
         <v>552</v>
       </c>
-      <c r="E81" s="265"/>
-      <c r="F81" s="258"/>
-      <c r="G81" s="258"/>
-      <c r="H81" s="258"/>
+      <c r="E81" s="206"/>
+      <c r="F81" s="199"/>
+      <c r="G81" s="199"/>
+      <c r="H81" s="199"/>
     </row>
     <row r="82" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B82" s="258"/>
-      <c r="C82" s="254"/>
-      <c r="D82" s="264"/>
-      <c r="E82" s="265"/>
-      <c r="F82" s="258"/>
-      <c r="G82" s="258"/>
-      <c r="H82" s="258"/>
+      <c r="B82" s="199"/>
+      <c r="C82" s="195"/>
+      <c r="D82" s="205"/>
+      <c r="E82" s="206"/>
+      <c r="F82" s="199"/>
+      <c r="G82" s="199"/>
+      <c r="H82" s="199"/>
     </row>
     <row r="83" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B83" s="258"/>
-      <c r="C83" s="254"/>
-      <c r="D83" s="273" t="s">
+      <c r="B83" s="199"/>
+      <c r="C83" s="195"/>
+      <c r="D83" s="210" t="s">
         <v>346</v>
       </c>
-      <c r="E83" s="265"/>
-      <c r="F83" s="258"/>
-      <c r="G83" s="258"/>
-      <c r="H83" s="258"/>
+      <c r="E83" s="206"/>
+      <c r="F83" s="199"/>
+      <c r="G83" s="199"/>
+      <c r="H83" s="199"/>
     </row>
     <row r="84" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B84" s="258"/>
-      <c r="C84" s="254"/>
-      <c r="D84" s="271" t="s">
+      <c r="B84" s="199"/>
+      <c r="C84" s="195"/>
+      <c r="D84" s="208" t="s">
         <v>554</v>
       </c>
-      <c r="E84" s="265"/>
-      <c r="F84" s="258"/>
-      <c r="G84" s="258"/>
-      <c r="H84" s="258"/>
+      <c r="E84" s="206"/>
+      <c r="F84" s="199"/>
+      <c r="G84" s="199"/>
+      <c r="H84" s="199"/>
     </row>
     <row r="85" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B85" s="258"/>
-      <c r="C85" s="254"/>
-      <c r="D85" s="271" t="s">
+      <c r="B85" s="199"/>
+      <c r="C85" s="195"/>
+      <c r="D85" s="208" t="s">
         <v>555</v>
       </c>
-      <c r="E85" s="265"/>
-      <c r="F85" s="258"/>
-      <c r="G85" s="258"/>
-      <c r="H85" s="258"/>
+      <c r="E85" s="206"/>
+      <c r="F85" s="199"/>
+      <c r="G85" s="199"/>
+      <c r="H85" s="199"/>
     </row>
     <row r="86" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B86" s="258"/>
-      <c r="C86" s="254"/>
-      <c r="D86" s="271" t="s">
+      <c r="B86" s="199"/>
+      <c r="C86" s="195"/>
+      <c r="D86" s="208" t="s">
         <v>556</v>
       </c>
-      <c r="E86" s="265"/>
-      <c r="F86" s="258"/>
-      <c r="G86" s="258"/>
-      <c r="H86" s="258"/>
+      <c r="E86" s="206"/>
+      <c r="F86" s="199"/>
+      <c r="G86" s="199"/>
+      <c r="H86" s="199"/>
     </row>
     <row r="87" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B87" s="258"/>
-      <c r="C87" s="254"/>
-      <c r="D87" s="271" t="s">
+      <c r="B87" s="199"/>
+      <c r="C87" s="195"/>
+      <c r="D87" s="208" t="s">
         <v>557</v>
       </c>
-      <c r="E87" s="265"/>
-      <c r="F87" s="258"/>
-      <c r="G87" s="258"/>
-      <c r="H87" s="258"/>
+      <c r="E87" s="206"/>
+      <c r="F87" s="199"/>
+      <c r="G87" s="199"/>
+      <c r="H87" s="199"/>
     </row>
     <row r="88" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B88" s="258"/>
-      <c r="C88" s="254"/>
-      <c r="D88" s="271" t="s">
+      <c r="B88" s="199"/>
+      <c r="C88" s="195"/>
+      <c r="D88" s="208" t="s">
         <v>558</v>
       </c>
-      <c r="E88" s="265"/>
-      <c r="F88" s="258"/>
-      <c r="G88" s="258"/>
-      <c r="H88" s="258"/>
+      <c r="E88" s="206"/>
+      <c r="F88" s="199"/>
+      <c r="G88" s="199"/>
+      <c r="H88" s="199"/>
     </row>
     <row r="89" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B89" s="258"/>
-      <c r="C89" s="254"/>
-      <c r="D89" s="264"/>
-      <c r="E89" s="265"/>
-      <c r="F89" s="258"/>
-      <c r="G89" s="258"/>
-      <c r="H89" s="258"/>
+      <c r="B89" s="199"/>
+      <c r="C89" s="195"/>
+      <c r="D89" s="205"/>
+      <c r="E89" s="206"/>
+      <c r="F89" s="199"/>
+      <c r="G89" s="199"/>
+      <c r="H89" s="199"/>
     </row>
     <row r="90" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B90" s="258"/>
-      <c r="C90" s="254"/>
-      <c r="D90" s="273" t="s">
+      <c r="B90" s="199"/>
+      <c r="C90" s="195"/>
+      <c r="D90" s="210" t="s">
         <v>428</v>
       </c>
-      <c r="E90" s="265"/>
-      <c r="F90" s="258"/>
-      <c r="G90" s="258"/>
-      <c r="H90" s="258"/>
+      <c r="E90" s="206"/>
+      <c r="F90" s="199"/>
+      <c r="G90" s="199"/>
+      <c r="H90" s="199"/>
     </row>
     <row r="91" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B91" s="258"/>
-      <c r="C91" s="254"/>
-      <c r="D91" s="271" t="s">
+      <c r="B91" s="199"/>
+      <c r="C91" s="195"/>
+      <c r="D91" s="208" t="s">
         <v>560</v>
       </c>
-      <c r="E91" s="265"/>
-      <c r="F91" s="258"/>
-      <c r="G91" s="258"/>
-      <c r="H91" s="258"/>
+      <c r="E91" s="206"/>
+      <c r="F91" s="199"/>
+      <c r="G91" s="199"/>
+      <c r="H91" s="199"/>
     </row>
     <row r="92" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B92" s="258"/>
-      <c r="C92" s="254"/>
-      <c r="D92" s="271" t="s">
+      <c r="B92" s="199"/>
+      <c r="C92" s="195"/>
+      <c r="D92" s="208" t="s">
         <v>559</v>
       </c>
-      <c r="E92" s="265"/>
-      <c r="F92" s="258"/>
-      <c r="G92" s="258"/>
-      <c r="H92" s="258"/>
+      <c r="E92" s="206"/>
+      <c r="F92" s="199"/>
+      <c r="G92" s="199"/>
+      <c r="H92" s="199"/>
     </row>
     <row r="93" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B93" s="258"/>
-      <c r="C93" s="254"/>
-      <c r="D93" s="271" t="s">
+      <c r="B93" s="199"/>
+      <c r="C93" s="195"/>
+      <c r="D93" s="208" t="s">
         <v>561</v>
       </c>
-      <c r="E93" s="265"/>
-      <c r="F93" s="258"/>
-      <c r="G93" s="258"/>
-      <c r="H93" s="258"/>
+      <c r="E93" s="206"/>
+      <c r="F93" s="199"/>
+      <c r="G93" s="199"/>
+      <c r="H93" s="199"/>
     </row>
     <row r="94" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B94" s="258"/>
-      <c r="C94" s="254"/>
-      <c r="D94" s="264" t="s">
+      <c r="B94" s="199"/>
+      <c r="C94" s="195"/>
+      <c r="D94" s="205" t="s">
         <v>562</v>
       </c>
-      <c r="E94" s="265" t="s">
+      <c r="E94" s="206" t="s">
         <v>563</v>
       </c>
-      <c r="F94" s="258"/>
-      <c r="G94" s="258"/>
-      <c r="H94" s="258"/>
+      <c r="F94" s="199"/>
+      <c r="G94" s="199"/>
+      <c r="H94" s="199"/>
     </row>
     <row r="95" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B95" s="258"/>
-      <c r="C95" s="254"/>
-      <c r="D95" s="264"/>
-      <c r="E95" s="265"/>
-      <c r="F95" s="258"/>
-      <c r="G95" s="258"/>
-      <c r="H95" s="258"/>
+      <c r="B95" s="199"/>
+      <c r="C95" s="195"/>
+      <c r="D95" s="205"/>
+      <c r="E95" s="206"/>
+      <c r="F95" s="199"/>
+      <c r="G95" s="199"/>
+      <c r="H95" s="199"/>
     </row>
     <row r="96" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B96" s="258"/>
-      <c r="C96" s="254"/>
-      <c r="D96" s="273" t="s">
+      <c r="B96" s="199"/>
+      <c r="C96" s="195"/>
+      <c r="D96" s="210" t="s">
         <v>343</v>
       </c>
-      <c r="E96" s="265"/>
-      <c r="F96" s="258"/>
-      <c r="G96" s="258"/>
-      <c r="H96" s="258"/>
+      <c r="E96" s="206"/>
+      <c r="F96" s="199"/>
+      <c r="G96" s="199"/>
+      <c r="H96" s="199"/>
     </row>
     <row r="97" spans="2:8" ht="18.75">
-      <c r="B97" s="258"/>
-      <c r="C97" s="254"/>
-      <c r="D97" s="264" t="s">
+      <c r="B97" s="199"/>
+      <c r="C97" s="195"/>
+      <c r="D97" s="205" t="s">
         <v>564</v>
       </c>
-      <c r="E97" s="265"/>
-      <c r="F97" s="258"/>
-      <c r="G97" s="258"/>
-      <c r="H97" s="258"/>
+      <c r="E97" s="206"/>
+      <c r="F97" s="199"/>
+      <c r="G97" s="199"/>
+      <c r="H97" s="199"/>
     </row>
     <row r="98" spans="2:8" ht="18.75">
-      <c r="B98" s="258"/>
-      <c r="C98" s="254"/>
-      <c r="D98" s="264" t="s">
+      <c r="B98" s="199"/>
+      <c r="C98" s="195"/>
+      <c r="D98" s="205" t="s">
         <v>565</v>
       </c>
-      <c r="E98" s="265"/>
-      <c r="F98" s="258"/>
-      <c r="G98" s="258"/>
-      <c r="H98" s="258"/>
+      <c r="E98" s="206"/>
+      <c r="F98" s="199"/>
+      <c r="G98" s="199"/>
+      <c r="H98" s="199"/>
     </row>
     <row r="99" spans="2:8" ht="18.75">
-      <c r="B99" s="258"/>
-      <c r="C99" s="254"/>
-      <c r="D99" s="271" t="s">
+      <c r="B99" s="199"/>
+      <c r="C99" s="195"/>
+      <c r="D99" s="208" t="s">
         <v>566</v>
       </c>
-      <c r="E99" s="265"/>
-      <c r="F99" s="258"/>
-      <c r="G99" s="258"/>
-      <c r="H99" s="258"/>
+      <c r="E99" s="206"/>
+      <c r="F99" s="199"/>
+      <c r="G99" s="199"/>
+      <c r="H99" s="199"/>
     </row>
     <row r="100" spans="2:8" ht="18.75">
-      <c r="B100" s="258"/>
-      <c r="C100" s="254"/>
-      <c r="D100" s="271" t="s">
+      <c r="B100" s="199"/>
+      <c r="C100" s="195"/>
+      <c r="D100" s="208" t="s">
         <v>567</v>
       </c>
-      <c r="E100" s="265"/>
-      <c r="F100" s="258"/>
-      <c r="G100" s="258"/>
-      <c r="H100" s="258"/>
+      <c r="E100" s="206"/>
+      <c r="F100" s="199"/>
+      <c r="G100" s="199"/>
+      <c r="H100" s="199"/>
     </row>
     <row r="101" spans="2:8" ht="18.75">
-      <c r="B101" s="258"/>
-      <c r="C101" s="254"/>
-      <c r="D101" s="271" t="s">
+      <c r="B101" s="199"/>
+      <c r="C101" s="195"/>
+      <c r="D101" s="208" t="s">
         <v>568</v>
       </c>
-      <c r="E101" s="272" t="s">
+      <c r="E101" s="209" t="s">
         <v>569</v>
       </c>
-      <c r="F101" s="258"/>
-      <c r="G101" s="258"/>
-      <c r="H101" s="258"/>
+      <c r="F101" s="199"/>
+      <c r="G101" s="199"/>
+      <c r="H101" s="199"/>
     </row>
     <row r="102" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B102" s="258"/>
-      <c r="C102" s="254"/>
-      <c r="D102" s="264"/>
-      <c r="E102" s="265"/>
-      <c r="F102" s="258"/>
-      <c r="G102" s="258"/>
-      <c r="H102" s="258"/>
+      <c r="B102" s="199"/>
+      <c r="C102" s="195"/>
+      <c r="D102" s="205"/>
+      <c r="E102" s="206"/>
+      <c r="F102" s="199"/>
+      <c r="G102" s="199"/>
+      <c r="H102" s="199"/>
     </row>
     <row r="103" spans="2:8" ht="18.75">
-      <c r="B103" s="258"/>
-      <c r="C103" s="254"/>
-      <c r="D103" s="273" t="s">
+      <c r="B103" s="199"/>
+      <c r="C103" s="195"/>
+      <c r="D103" s="210" t="s">
         <v>344</v>
       </c>
-      <c r="E103" s="265"/>
-      <c r="F103" s="258"/>
-      <c r="G103" s="258"/>
-      <c r="H103" s="258"/>
+      <c r="E103" s="206"/>
+      <c r="F103" s="199"/>
+      <c r="G103" s="199"/>
+      <c r="H103" s="199"/>
     </row>
     <row r="104" spans="2:8" ht="18.75">
-      <c r="B104" s="258"/>
-      <c r="C104" s="254"/>
-      <c r="D104" s="271" t="s">
+      <c r="B104" s="199"/>
+      <c r="C104" s="195"/>
+      <c r="D104" s="208" t="s">
         <v>564</v>
       </c>
-      <c r="E104" s="265"/>
-      <c r="F104" s="258"/>
-      <c r="G104" s="258"/>
-      <c r="H104" s="258"/>
+      <c r="E104" s="206"/>
+      <c r="F104" s="199"/>
+      <c r="G104" s="199"/>
+      <c r="H104" s="199"/>
     </row>
     <row r="105" spans="2:8" ht="18.75">
-      <c r="B105" s="258"/>
-      <c r="C105" s="254"/>
-      <c r="D105" s="271" t="s">
+      <c r="B105" s="199"/>
+      <c r="C105" s="195"/>
+      <c r="D105" s="208" t="s">
         <v>570</v>
       </c>
-      <c r="E105" s="265"/>
-      <c r="F105" s="258"/>
-      <c r="G105" s="258"/>
-      <c r="H105" s="258"/>
+      <c r="E105" s="206"/>
+      <c r="F105" s="199"/>
+      <c r="G105" s="199"/>
+      <c r="H105" s="199"/>
     </row>
     <row r="106" spans="2:8" ht="18.75">
-      <c r="B106" s="258"/>
-      <c r="C106" s="254"/>
-      <c r="D106" s="271" t="s">
+      <c r="B106" s="199"/>
+      <c r="C106" s="195"/>
+      <c r="D106" s="208" t="s">
         <v>571</v>
       </c>
-      <c r="E106" s="265"/>
-      <c r="F106" s="258"/>
-      <c r="G106" s="258"/>
-      <c r="H106" s="258"/>
+      <c r="E106" s="206"/>
+      <c r="F106" s="199"/>
+      <c r="G106" s="199"/>
+      <c r="H106" s="199"/>
     </row>
     <row r="107" spans="2:8" ht="18.75">
-      <c r="B107" s="258"/>
-      <c r="C107" s="254"/>
-      <c r="D107" s="271" t="s">
+      <c r="B107" s="199"/>
+      <c r="C107" s="195"/>
+      <c r="D107" s="208" t="s">
         <v>573</v>
       </c>
-      <c r="E107" s="265"/>
-      <c r="F107" s="258"/>
-      <c r="G107" s="258"/>
-      <c r="H107" s="258"/>
+      <c r="E107" s="206"/>
+      <c r="F107" s="199"/>
+      <c r="G107" s="199"/>
+      <c r="H107" s="199"/>
     </row>
     <row r="108" spans="2:8" ht="18.75">
-      <c r="B108" s="258"/>
-      <c r="C108" s="254"/>
-      <c r="D108" s="271" t="s">
+      <c r="B108" s="199"/>
+      <c r="C108" s="195"/>
+      <c r="D108" s="208" t="s">
         <v>572</v>
       </c>
-      <c r="E108" s="265"/>
-      <c r="F108" s="258"/>
-      <c r="G108" s="258"/>
-      <c r="H108" s="258"/>
+      <c r="E108" s="206"/>
+      <c r="F108" s="199"/>
+      <c r="G108" s="199"/>
+      <c r="H108" s="199"/>
     </row>
     <row r="109" spans="2:8" ht="18.75">
-      <c r="B109" s="258"/>
-      <c r="C109" s="254"/>
-      <c r="D109" s="271" t="s">
+      <c r="B109" s="199"/>
+      <c r="C109" s="195"/>
+      <c r="D109" s="208" t="s">
         <v>574</v>
       </c>
-      <c r="E109" s="265"/>
-      <c r="F109" s="258"/>
-      <c r="G109" s="258"/>
-      <c r="H109" s="258"/>
+      <c r="E109" s="206"/>
+      <c r="F109" s="199"/>
+      <c r="G109" s="199"/>
+      <c r="H109" s="199"/>
     </row>
     <row r="110" spans="2:8" ht="18.75">
-      <c r="B110" s="258"/>
-      <c r="C110" s="254"/>
-      <c r="D110" s="264"/>
-      <c r="E110" s="265"/>
-      <c r="F110" s="258"/>
-      <c r="G110" s="258"/>
-      <c r="H110" s="258"/>
+      <c r="B110" s="199"/>
+      <c r="C110" s="195"/>
+      <c r="D110" s="205"/>
+      <c r="E110" s="206"/>
+      <c r="F110" s="199"/>
+      <c r="G110" s="199"/>
+      <c r="H110" s="199"/>
     </row>
     <row r="111" spans="2:8" ht="18.75">
-      <c r="B111" s="258"/>
-      <c r="C111" s="254"/>
-      <c r="D111" s="273" t="s">
+      <c r="B111" s="199"/>
+      <c r="C111" s="195"/>
+      <c r="D111" s="210" t="s">
         <v>415</v>
       </c>
-      <c r="E111" s="265"/>
-      <c r="F111" s="258"/>
-      <c r="G111" s="258"/>
-      <c r="H111" s="258"/>
+      <c r="E111" s="206"/>
+      <c r="F111" s="199"/>
+      <c r="G111" s="199"/>
+      <c r="H111" s="199"/>
     </row>
     <row r="112" spans="2:8" ht="18.75">
-      <c r="B112" s="258"/>
-      <c r="C112" s="254"/>
-      <c r="D112" s="271" t="s">
+      <c r="B112" s="199"/>
+      <c r="C112" s="195"/>
+      <c r="D112" s="208" t="s">
         <v>576</v>
       </c>
-      <c r="E112" s="265"/>
-      <c r="F112" s="258"/>
-      <c r="G112" s="258"/>
-      <c r="H112" s="258"/>
+      <c r="E112" s="206"/>
+      <c r="F112" s="199"/>
+      <c r="G112" s="199"/>
+      <c r="H112" s="199"/>
     </row>
     <row r="113" spans="2:8" ht="18.75">
-      <c r="B113" s="258"/>
-      <c r="C113" s="254"/>
-      <c r="D113" s="271" t="s">
+      <c r="B113" s="199"/>
+      <c r="C113" s="195"/>
+      <c r="D113" s="208" t="s">
         <v>577</v>
       </c>
-      <c r="E113" s="265"/>
-      <c r="F113" s="258"/>
-      <c r="G113" s="258"/>
-      <c r="H113" s="258"/>
+      <c r="E113" s="206"/>
+      <c r="F113" s="199"/>
+      <c r="G113" s="199"/>
+      <c r="H113" s="199"/>
     </row>
     <row r="114" spans="2:8" ht="18.75">
-      <c r="B114" s="258"/>
-      <c r="C114" s="254"/>
-      <c r="D114" s="271" t="s">
+      <c r="B114" s="199"/>
+      <c r="C114" s="195"/>
+      <c r="D114" s="208" t="s">
         <v>579</v>
       </c>
-      <c r="E114" s="265"/>
-      <c r="F114" s="258"/>
-      <c r="G114" s="258"/>
-      <c r="H114" s="258"/>
+      <c r="E114" s="206"/>
+      <c r="F114" s="199"/>
+      <c r="G114" s="199"/>
+      <c r="H114" s="199"/>
     </row>
     <row r="115" spans="2:8" ht="18.75">
-      <c r="B115" s="258"/>
-      <c r="C115" s="254"/>
-      <c r="D115" s="271" t="s">
+      <c r="B115" s="199"/>
+      <c r="C115" s="195"/>
+      <c r="D115" s="208" t="s">
         <v>582</v>
       </c>
-      <c r="E115" s="265"/>
-      <c r="F115" s="258"/>
-      <c r="G115" s="258"/>
-      <c r="H115" s="258"/>
+      <c r="E115" s="206"/>
+      <c r="F115" s="199"/>
+      <c r="G115" s="199"/>
+      <c r="H115" s="199"/>
     </row>
     <row r="116" spans="2:8" ht="18.75">
-      <c r="B116" s="258"/>
-      <c r="C116" s="254"/>
-      <c r="D116" s="271" t="s">
+      <c r="B116" s="199"/>
+      <c r="C116" s="195"/>
+      <c r="D116" s="208" t="s">
         <v>578</v>
       </c>
-      <c r="E116" s="265"/>
-      <c r="F116" s="258"/>
-      <c r="G116" s="258"/>
-      <c r="H116" s="258"/>
+      <c r="E116" s="206"/>
+      <c r="F116" s="199"/>
+      <c r="G116" s="199"/>
+      <c r="H116" s="199"/>
     </row>
     <row r="117" spans="2:8" ht="18.75">
-      <c r="B117" s="258"/>
-      <c r="C117" s="254"/>
-      <c r="D117" s="271" t="s">
+      <c r="B117" s="199"/>
+      <c r="C117" s="195"/>
+      <c r="D117" s="208" t="s">
         <v>580</v>
       </c>
-      <c r="E117" s="265"/>
-      <c r="F117" s="258"/>
-      <c r="G117" s="258"/>
-      <c r="H117" s="258"/>
+      <c r="E117" s="206"/>
+      <c r="F117" s="199"/>
+      <c r="G117" s="199"/>
+      <c r="H117" s="199"/>
     </row>
     <row r="118" spans="2:8" ht="18.75">
-      <c r="B118" s="258"/>
-      <c r="C118" s="254"/>
-      <c r="D118" s="264"/>
-      <c r="E118" s="265"/>
-      <c r="F118" s="258"/>
-      <c r="G118" s="258"/>
-      <c r="H118" s="258"/>
+      <c r="B118" s="199"/>
+      <c r="C118" s="195"/>
+      <c r="D118" s="205"/>
+      <c r="E118" s="206"/>
+      <c r="F118" s="199"/>
+      <c r="G118" s="199"/>
+      <c r="H118" s="199"/>
     </row>
     <row r="119" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B119" s="258"/>
-      <c r="C119" s="254"/>
-      <c r="D119" s="273" t="s">
+      <c r="B119" s="199"/>
+      <c r="C119" s="195"/>
+      <c r="D119" s="210" t="s">
         <v>575</v>
       </c>
-      <c r="E119" s="265"/>
-      <c r="F119" s="258"/>
-      <c r="G119" s="258"/>
-      <c r="H119" s="258"/>
+      <c r="E119" s="206"/>
+      <c r="F119" s="199"/>
+      <c r="G119" s="199"/>
+      <c r="H119" s="199"/>
     </row>
     <row r="120" spans="2:8" ht="18.75">
-      <c r="B120" s="258"/>
-      <c r="C120" s="254"/>
-      <c r="D120" s="271" t="s">
+      <c r="B120" s="199"/>
+      <c r="C120" s="195"/>
+      <c r="D120" s="208" t="s">
         <v>581</v>
       </c>
-      <c r="E120" s="265"/>
-      <c r="F120" s="258"/>
-      <c r="G120" s="258"/>
-      <c r="H120" s="258"/>
+      <c r="E120" s="206"/>
+      <c r="F120" s="199"/>
+      <c r="G120" s="199"/>
+      <c r="H120" s="199"/>
     </row>
     <row r="121" spans="2:8" ht="18.75">
-      <c r="B121" s="258"/>
-      <c r="C121" s="254"/>
-      <c r="D121" s="271" t="s">
+      <c r="B121" s="199"/>
+      <c r="C121" s="195"/>
+      <c r="D121" s="208" t="s">
         <v>585</v>
       </c>
-      <c r="E121" s="265"/>
-      <c r="F121" s="258"/>
-      <c r="G121" s="258"/>
-      <c r="H121" s="258"/>
+      <c r="E121" s="206"/>
+      <c r="F121" s="199"/>
+      <c r="G121" s="199"/>
+      <c r="H121" s="199"/>
     </row>
     <row r="122" spans="2:8" ht="18.75">
-      <c r="B122" s="258"/>
-      <c r="C122" s="254"/>
-      <c r="D122" s="271" t="s">
+      <c r="B122" s="199"/>
+      <c r="C122" s="195"/>
+      <c r="D122" s="208" t="s">
         <v>592</v>
       </c>
-      <c r="E122" s="265"/>
-      <c r="F122" s="258"/>
-      <c r="G122" s="258"/>
-      <c r="H122" s="258"/>
+      <c r="E122" s="206"/>
+      <c r="F122" s="199"/>
+      <c r="G122" s="199"/>
+      <c r="H122" s="199"/>
     </row>
     <row r="123" spans="2:8" ht="18.75">
-      <c r="B123" s="258"/>
-      <c r="C123" s="254"/>
-      <c r="D123" s="271" t="s">
+      <c r="B123" s="199"/>
+      <c r="C123" s="195"/>
+      <c r="D123" s="208" t="s">
         <v>583</v>
       </c>
-      <c r="E123" s="265"/>
-      <c r="F123" s="258"/>
-      <c r="G123" s="258"/>
-      <c r="H123" s="258"/>
+      <c r="E123" s="206"/>
+      <c r="F123" s="199"/>
+      <c r="G123" s="199"/>
+      <c r="H123" s="199"/>
     </row>
     <row r="124" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B124" s="258"/>
-      <c r="C124" s="254"/>
-      <c r="D124" s="271" t="s">
+      <c r="B124" s="199"/>
+      <c r="C124" s="195"/>
+      <c r="D124" s="208" t="s">
         <v>584</v>
       </c>
-      <c r="E124" s="265"/>
-      <c r="F124" s="258"/>
-      <c r="G124" s="258"/>
-      <c r="H124" s="258"/>
+      <c r="E124" s="206"/>
+      <c r="F124" s="199"/>
+      <c r="G124" s="199"/>
+      <c r="H124" s="199"/>
     </row>
     <row r="125" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B125" s="258"/>
-      <c r="C125" s="254"/>
-      <c r="D125" s="264"/>
-      <c r="E125" s="265"/>
-      <c r="F125" s="258"/>
-      <c r="G125" s="258"/>
-      <c r="H125" s="258"/>
+      <c r="B125" s="199"/>
+      <c r="C125" s="195"/>
+      <c r="D125" s="205"/>
+      <c r="E125" s="206"/>
+      <c r="F125" s="199"/>
+      <c r="G125" s="199"/>
+      <c r="H125" s="199"/>
     </row>
     <row r="126" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B126" s="258"/>
-      <c r="C126" s="254"/>
-      <c r="D126" s="273" t="s">
+      <c r="B126" s="199"/>
+      <c r="C126" s="195"/>
+      <c r="D126" s="210" t="s">
         <v>586</v>
       </c>
-      <c r="E126" s="265"/>
-      <c r="F126" s="258"/>
-      <c r="G126" s="258"/>
-      <c r="H126" s="258"/>
+      <c r="E126" s="206"/>
+      <c r="F126" s="199"/>
+      <c r="G126" s="199"/>
+      <c r="H126" s="199"/>
     </row>
     <row r="127" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B127" s="258"/>
-      <c r="C127" s="254"/>
-      <c r="D127" s="271" t="s">
+      <c r="B127" s="199"/>
+      <c r="C127" s="195"/>
+      <c r="D127" s="208" t="s">
         <v>587</v>
       </c>
-      <c r="E127" s="272" t="s">
+      <c r="E127" s="209" t="s">
         <v>588</v>
       </c>
-      <c r="F127" s="258"/>
-      <c r="G127" s="258"/>
-      <c r="H127" s="258"/>
+      <c r="F127" s="199"/>
+      <c r="G127" s="199"/>
+      <c r="H127" s="199"/>
     </row>
     <row r="128" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B128" s="258"/>
-      <c r="C128" s="254"/>
-      <c r="D128" s="271" t="s">
+      <c r="B128" s="199"/>
+      <c r="C128" s="195"/>
+      <c r="D128" s="208" t="s">
         <v>589</v>
       </c>
-      <c r="E128" s="265"/>
-      <c r="F128" s="258"/>
-      <c r="G128" s="258"/>
-      <c r="H128" s="258"/>
+      <c r="E128" s="206"/>
+      <c r="F128" s="199"/>
+      <c r="G128" s="199"/>
+      <c r="H128" s="199"/>
     </row>
     <row r="129" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B129" s="258"/>
-      <c r="C129" s="254"/>
-      <c r="D129" s="264" t="s">
+      <c r="B129" s="199"/>
+      <c r="C129" s="195"/>
+      <c r="D129" s="205" t="s">
         <v>590</v>
       </c>
-      <c r="E129" s="265" t="s">
+      <c r="E129" s="206" t="s">
         <v>591</v>
       </c>
-      <c r="F129" s="258"/>
-      <c r="G129" s="258"/>
-      <c r="H129" s="258"/>
+      <c r="F129" s="199"/>
+      <c r="G129" s="199"/>
+      <c r="H129" s="199"/>
     </row>
     <row r="130" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B130" s="258"/>
-      <c r="C130" s="254"/>
-      <c r="D130" s="264"/>
-      <c r="E130" s="265"/>
-      <c r="F130" s="258"/>
-      <c r="G130" s="258"/>
-      <c r="H130" s="258"/>
+      <c r="B130" s="199"/>
+      <c r="C130" s="195"/>
+      <c r="D130" s="205"/>
+      <c r="E130" s="206"/>
+      <c r="F130" s="199"/>
+      <c r="G130" s="199"/>
+      <c r="H130" s="199"/>
     </row>
     <row r="131" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B131" s="258"/>
-      <c r="C131" s="254"/>
-      <c r="D131" s="273" t="s">
+      <c r="B131" s="199"/>
+      <c r="C131" s="195"/>
+      <c r="D131" s="210" t="s">
         <v>593</v>
       </c>
-      <c r="E131" s="265"/>
-      <c r="F131" s="258"/>
-      <c r="G131" s="258"/>
-      <c r="H131" s="258"/>
+      <c r="E131" s="206"/>
+      <c r="F131" s="199"/>
+      <c r="G131" s="199"/>
+      <c r="H131" s="199"/>
     </row>
     <row r="132" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B132" s="258"/>
-      <c r="C132" s="254"/>
-      <c r="D132" s="271" t="s">
+      <c r="B132" s="199"/>
+      <c r="C132" s="195"/>
+      <c r="D132" s="208" t="s">
         <v>594</v>
       </c>
-      <c r="E132" s="265"/>
-      <c r="F132" s="258"/>
-      <c r="G132" s="258"/>
-      <c r="H132" s="258"/>
+      <c r="E132" s="206"/>
+      <c r="F132" s="199"/>
+      <c r="G132" s="199"/>
+      <c r="H132" s="199"/>
     </row>
     <row r="133" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B133" s="258"/>
-      <c r="C133" s="254"/>
-      <c r="D133" s="271" t="s">
+      <c r="B133" s="199"/>
+      <c r="C133" s="195"/>
+      <c r="D133" s="208" t="s">
         <v>595</v>
       </c>
-      <c r="E133" s="265"/>
-      <c r="F133" s="258"/>
-      <c r="G133" s="258"/>
-      <c r="H133" s="258"/>
+      <c r="E133" s="206"/>
+      <c r="F133" s="199"/>
+      <c r="G133" s="199"/>
+      <c r="H133" s="199"/>
     </row>
     <row r="134" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B134" s="258"/>
-      <c r="C134" s="254"/>
-      <c r="D134" s="264"/>
-      <c r="E134" s="265"/>
-      <c r="F134" s="258"/>
-      <c r="G134" s="258"/>
-      <c r="H134" s="258"/>
+      <c r="B134" s="199"/>
+      <c r="C134" s="195"/>
+      <c r="D134" s="205"/>
+      <c r="E134" s="206"/>
+      <c r="F134" s="199"/>
+      <c r="G134" s="199"/>
+      <c r="H134" s="199"/>
     </row>
     <row r="135" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B135" s="258"/>
-      <c r="C135" s="254"/>
-      <c r="D135" s="273" t="s">
+      <c r="B135" s="199"/>
+      <c r="C135" s="195"/>
+      <c r="D135" s="210" t="s">
         <v>596</v>
       </c>
-      <c r="E135" s="265"/>
-      <c r="F135" s="258"/>
-      <c r="G135" s="258"/>
-      <c r="H135" s="258"/>
+      <c r="E135" s="206"/>
+      <c r="F135" s="199"/>
+      <c r="G135" s="199"/>
+      <c r="H135" s="199"/>
     </row>
     <row r="136" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B136" s="258"/>
-      <c r="C136" s="254"/>
-      <c r="D136" s="271" t="s">
+      <c r="B136" s="199"/>
+      <c r="C136" s="195"/>
+      <c r="D136" s="208" t="s">
         <v>597</v>
       </c>
-      <c r="E136" s="265"/>
-      <c r="F136" s="258"/>
-      <c r="G136" s="258"/>
-      <c r="H136" s="258"/>
+      <c r="E136" s="206"/>
+      <c r="F136" s="199"/>
+      <c r="G136" s="199"/>
+      <c r="H136" s="199"/>
     </row>
     <row r="137" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B137" s="258"/>
-      <c r="C137" s="254"/>
-      <c r="D137" s="271" t="s">
+      <c r="B137" s="199"/>
+      <c r="C137" s="195"/>
+      <c r="D137" s="208" t="s">
         <v>598</v>
       </c>
-      <c r="E137" s="265"/>
-      <c r="F137" s="258"/>
-      <c r="G137" s="258"/>
-      <c r="H137" s="258"/>
+      <c r="E137" s="206"/>
+      <c r="F137" s="199"/>
+      <c r="G137" s="199"/>
+      <c r="H137" s="199"/>
     </row>
     <row r="138" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B138" s="258"/>
-      <c r="C138" s="254"/>
-      <c r="D138" s="271" t="s">
+      <c r="B138" s="199"/>
+      <c r="C138" s="195"/>
+      <c r="D138" s="208" t="s">
         <v>599</v>
       </c>
-      <c r="E138" s="265"/>
-      <c r="F138" s="258"/>
-      <c r="G138" s="258"/>
-      <c r="H138" s="258"/>
+      <c r="E138" s="206"/>
+      <c r="F138" s="199"/>
+      <c r="G138" s="199"/>
+      <c r="H138" s="199"/>
     </row>
     <row r="139" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B139" s="258"/>
-      <c r="C139" s="254"/>
-      <c r="D139" s="271" t="s">
+      <c r="B139" s="199"/>
+      <c r="C139" s="195"/>
+      <c r="D139" s="208" t="s">
         <v>600</v>
       </c>
-      <c r="E139" s="265"/>
-      <c r="F139" s="258"/>
-      <c r="G139" s="258"/>
-      <c r="H139" s="258"/>
+      <c r="E139" s="206"/>
+      <c r="F139" s="199"/>
+      <c r="G139" s="199"/>
+      <c r="H139" s="199"/>
     </row>
     <row r="140" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B140" s="258"/>
-      <c r="C140" s="254"/>
-      <c r="D140" s="264"/>
-      <c r="E140" s="265"/>
-      <c r="F140" s="258"/>
-      <c r="G140" s="258"/>
-      <c r="H140" s="258"/>
+      <c r="C140" s="195"/>
+      <c r="D140" s="205"/>
+      <c r="E140" s="206"/>
+      <c r="F140" s="199"/>
+      <c r="G140" s="199"/>
+      <c r="H140" s="199"/>
     </row>
     <row r="141" spans="2:8" ht="18.75" customHeight="1" thickBot="1">
-      <c r="D141" s="263"/>
-      <c r="E141" s="263"/>
+      <c r="D141" s="204"/>
+      <c r="E141" s="204"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -11472,12 +11574,12 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1">
       <c r="B4" s="56"/>

--- a/doc/chiffrier_sim_vie.xlsx
+++ b/doc/chiffrier_sim_vie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\sim_vie\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DACDC73-2FC6-4C22-96E8-A4B9133C9DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D069CD11-2ACE-42A6-805C-17F3C182B3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="599">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -2032,6 +2032,9 @@
   <si>
     <t>Méthode Percevoir (phéromone + nourriture) ** À déterminer : son interraction avec les neuronnes</t>
   </si>
+  <si>
+    <t>Implémenter l'émission de phéromone dans la boucle de simulation</t>
+  </si>
 </sst>
 </file>
 
@@ -2041,7 +2044,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2238,8 +2241,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2250,6 +2260,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3276,7 +3292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3822,20 +3838,93 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3864,84 +3953,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3952,18 +3977,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3994,6 +4010,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="35" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5682,8 +5699,8 @@
   </sheetPr>
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7013,7 +7030,7 @@
   <dimension ref="A1:DC42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:A7"/>
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7202,16 +7219,16 @@
       <c r="W10" s="29"/>
     </row>
     <row r="11" spans="1:107" thickBot="1">
-      <c r="G11" s="269" t="s">
+      <c r="G11" s="249" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="270"/>
-      <c r="I11" s="270"/>
-      <c r="J11" s="270"/>
-      <c r="K11" s="270"/>
-      <c r="L11" s="270"/>
-      <c r="M11" s="270"/>
-      <c r="N11" s="271"/>
+      <c r="H11" s="250"/>
+      <c r="I11" s="250"/>
+      <c r="J11" s="250"/>
+      <c r="K11" s="250"/>
+      <c r="L11" s="250"/>
+      <c r="M11" s="250"/>
+      <c r="N11" s="251"/>
       <c r="O11" s="48"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
@@ -7249,66 +7266,66 @@
       <c r="AW11" s="47"/>
       <c r="AX11" s="113"/>
       <c r="AY11" s="115"/>
-      <c r="BD11" s="269" t="s">
+      <c r="BD11" s="249" t="s">
         <v>324</v>
       </c>
-      <c r="BE11" s="270"/>
-      <c r="BF11" s="270"/>
-      <c r="BG11" s="270"/>
-      <c r="BH11" s="270"/>
-      <c r="BI11" s="270"/>
-      <c r="BJ11" s="270"/>
-      <c r="BK11" s="271"/>
-      <c r="BP11" s="269" t="s">
+      <c r="BE11" s="250"/>
+      <c r="BF11" s="250"/>
+      <c r="BG11" s="250"/>
+      <c r="BH11" s="250"/>
+      <c r="BI11" s="250"/>
+      <c r="BJ11" s="250"/>
+      <c r="BK11" s="251"/>
+      <c r="BP11" s="249" t="s">
         <v>324</v>
       </c>
-      <c r="BQ11" s="270"/>
-      <c r="BR11" s="270"/>
-      <c r="BS11" s="270"/>
-      <c r="BT11" s="270"/>
-      <c r="BU11" s="270"/>
-      <c r="BV11" s="270"/>
-      <c r="BW11" s="271"/>
-      <c r="CA11" s="269" t="s">
+      <c r="BQ11" s="250"/>
+      <c r="BR11" s="250"/>
+      <c r="BS11" s="250"/>
+      <c r="BT11" s="250"/>
+      <c r="BU11" s="250"/>
+      <c r="BV11" s="250"/>
+      <c r="BW11" s="251"/>
+      <c r="CA11" s="249" t="s">
         <v>324</v>
       </c>
-      <c r="CB11" s="270"/>
-      <c r="CC11" s="270"/>
-      <c r="CD11" s="270"/>
-      <c r="CE11" s="270"/>
-      <c r="CF11" s="270"/>
-      <c r="CG11" s="270"/>
-      <c r="CH11" s="271"/>
-      <c r="CL11" s="269" t="s">
+      <c r="CB11" s="250"/>
+      <c r="CC11" s="250"/>
+      <c r="CD11" s="250"/>
+      <c r="CE11" s="250"/>
+      <c r="CF11" s="250"/>
+      <c r="CG11" s="250"/>
+      <c r="CH11" s="251"/>
+      <c r="CL11" s="249" t="s">
         <v>324</v>
       </c>
-      <c r="CM11" s="270"/>
-      <c r="CN11" s="270"/>
-      <c r="CO11" s="270"/>
-      <c r="CP11" s="270"/>
-      <c r="CQ11" s="270"/>
-      <c r="CR11" s="270"/>
-      <c r="CS11" s="271"/>
-      <c r="CV11" s="269" t="s">
+      <c r="CM11" s="250"/>
+      <c r="CN11" s="250"/>
+      <c r="CO11" s="250"/>
+      <c r="CP11" s="250"/>
+      <c r="CQ11" s="250"/>
+      <c r="CR11" s="250"/>
+      <c r="CS11" s="251"/>
+      <c r="CV11" s="249" t="s">
         <v>324</v>
       </c>
-      <c r="CW11" s="270"/>
-      <c r="CX11" s="270"/>
-      <c r="CY11" s="270"/>
-      <c r="CZ11" s="270"/>
-      <c r="DA11" s="270"/>
-      <c r="DB11" s="270"/>
-      <c r="DC11" s="271"/>
+      <c r="CW11" s="250"/>
+      <c r="CX11" s="250"/>
+      <c r="CY11" s="250"/>
+      <c r="CZ11" s="250"/>
+      <c r="DA11" s="250"/>
+      <c r="DB11" s="250"/>
+      <c r="DC11" s="251"/>
     </row>
     <row r="12" spans="1:107" thickBot="1">
-      <c r="G12" s="272"/>
-      <c r="H12" s="273"/>
-      <c r="I12" s="273"/>
-      <c r="J12" s="273"/>
-      <c r="K12" s="273"/>
-      <c r="L12" s="273"/>
-      <c r="M12" s="273"/>
-      <c r="N12" s="274"/>
+      <c r="G12" s="252"/>
+      <c r="H12" s="253"/>
+      <c r="I12" s="253"/>
+      <c r="J12" s="253"/>
+      <c r="K12" s="253"/>
+      <c r="L12" s="253"/>
+      <c r="M12" s="253"/>
+      <c r="N12" s="254"/>
       <c r="O12" s="40"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
@@ -7319,49 +7336,49 @@
       <c r="V12" s="29"/>
       <c r="W12" s="29"/>
       <c r="AX12" s="42"/>
-      <c r="AY12" s="278" t="s">
+      <c r="AY12" s="246" t="s">
         <v>323</v>
       </c>
-      <c r="BD12" s="272"/>
-      <c r="BE12" s="273"/>
-      <c r="BF12" s="273"/>
-      <c r="BG12" s="273"/>
-      <c r="BH12" s="273"/>
-      <c r="BI12" s="273"/>
-      <c r="BJ12" s="273"/>
-      <c r="BK12" s="274"/>
-      <c r="BP12" s="272"/>
-      <c r="BQ12" s="273"/>
-      <c r="BR12" s="273"/>
-      <c r="BS12" s="273"/>
-      <c r="BT12" s="273"/>
-      <c r="BU12" s="273"/>
-      <c r="BV12" s="273"/>
-      <c r="BW12" s="274"/>
-      <c r="CA12" s="272"/>
-      <c r="CB12" s="273"/>
-      <c r="CC12" s="273"/>
-      <c r="CD12" s="273"/>
-      <c r="CE12" s="273"/>
-      <c r="CF12" s="273"/>
-      <c r="CG12" s="273"/>
-      <c r="CH12" s="274"/>
-      <c r="CL12" s="272"/>
-      <c r="CM12" s="273"/>
-      <c r="CN12" s="273"/>
-      <c r="CO12" s="273"/>
-      <c r="CP12" s="273"/>
-      <c r="CQ12" s="273"/>
-      <c r="CR12" s="273"/>
-      <c r="CS12" s="274"/>
-      <c r="CV12" s="272"/>
-      <c r="CW12" s="273"/>
-      <c r="CX12" s="273"/>
-      <c r="CY12" s="273"/>
-      <c r="CZ12" s="273"/>
-      <c r="DA12" s="273"/>
-      <c r="DB12" s="273"/>
-      <c r="DC12" s="274"/>
+      <c r="BD12" s="252"/>
+      <c r="BE12" s="253"/>
+      <c r="BF12" s="253"/>
+      <c r="BG12" s="253"/>
+      <c r="BH12" s="253"/>
+      <c r="BI12" s="253"/>
+      <c r="BJ12" s="253"/>
+      <c r="BK12" s="254"/>
+      <c r="BP12" s="252"/>
+      <c r="BQ12" s="253"/>
+      <c r="BR12" s="253"/>
+      <c r="BS12" s="253"/>
+      <c r="BT12" s="253"/>
+      <c r="BU12" s="253"/>
+      <c r="BV12" s="253"/>
+      <c r="BW12" s="254"/>
+      <c r="CA12" s="252"/>
+      <c r="CB12" s="253"/>
+      <c r="CC12" s="253"/>
+      <c r="CD12" s="253"/>
+      <c r="CE12" s="253"/>
+      <c r="CF12" s="253"/>
+      <c r="CG12" s="253"/>
+      <c r="CH12" s="254"/>
+      <c r="CL12" s="252"/>
+      <c r="CM12" s="253"/>
+      <c r="CN12" s="253"/>
+      <c r="CO12" s="253"/>
+      <c r="CP12" s="253"/>
+      <c r="CQ12" s="253"/>
+      <c r="CR12" s="253"/>
+      <c r="CS12" s="254"/>
+      <c r="CV12" s="252"/>
+      <c r="CW12" s="253"/>
+      <c r="CX12" s="253"/>
+      <c r="CY12" s="253"/>
+      <c r="CZ12" s="253"/>
+      <c r="DA12" s="253"/>
+      <c r="DB12" s="253"/>
+      <c r="DC12" s="254"/>
     </row>
     <row r="13" spans="1:107" thickBot="1">
       <c r="G13" s="40"/>
@@ -7380,7 +7397,7 @@
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
       <c r="AX13" s="42"/>
-      <c r="AY13" s="279"/>
+      <c r="AY13" s="247"/>
       <c r="BD13" s="40"/>
       <c r="BG13" s="29"/>
       <c r="BH13" s="29"/>
@@ -7405,16 +7422,16 @@
       <c r="DC13" s="42"/>
     </row>
     <row r="14" spans="1:107" thickBot="1">
-      <c r="G14" s="275" t="s">
+      <c r="G14" s="255" t="s">
         <v>325</v>
       </c>
-      <c r="H14" s="276"/>
-      <c r="I14" s="276"/>
-      <c r="J14" s="276"/>
-      <c r="K14" s="276"/>
-      <c r="L14" s="276"/>
-      <c r="M14" s="276"/>
-      <c r="N14" s="277"/>
+      <c r="H14" s="256"/>
+      <c r="I14" s="256"/>
+      <c r="J14" s="256"/>
+      <c r="K14" s="256"/>
+      <c r="L14" s="256"/>
+      <c r="M14" s="256"/>
+      <c r="N14" s="257"/>
       <c r="O14" s="40"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -7425,57 +7442,57 @@
       <c r="V14" s="29"/>
       <c r="W14" s="29"/>
       <c r="AX14" s="42"/>
-      <c r="AY14" s="279"/>
-      <c r="BD14" s="275" t="s">
+      <c r="AY14" s="247"/>
+      <c r="BD14" s="255" t="s">
         <v>338</v>
       </c>
-      <c r="BE14" s="276"/>
-      <c r="BF14" s="276"/>
-      <c r="BG14" s="276"/>
-      <c r="BH14" s="276"/>
-      <c r="BI14" s="276"/>
-      <c r="BJ14" s="276"/>
-      <c r="BK14" s="277"/>
-      <c r="BP14" s="275" t="s">
+      <c r="BE14" s="256"/>
+      <c r="BF14" s="256"/>
+      <c r="BG14" s="256"/>
+      <c r="BH14" s="256"/>
+      <c r="BI14" s="256"/>
+      <c r="BJ14" s="256"/>
+      <c r="BK14" s="257"/>
+      <c r="BP14" s="255" t="s">
         <v>327</v>
       </c>
-      <c r="BQ14" s="276"/>
-      <c r="BR14" s="276"/>
-      <c r="BS14" s="276"/>
-      <c r="BT14" s="276"/>
-      <c r="BU14" s="276"/>
-      <c r="BV14" s="276"/>
-      <c r="BW14" s="277"/>
-      <c r="CA14" s="275" t="s">
+      <c r="BQ14" s="256"/>
+      <c r="BR14" s="256"/>
+      <c r="BS14" s="256"/>
+      <c r="BT14" s="256"/>
+      <c r="BU14" s="256"/>
+      <c r="BV14" s="256"/>
+      <c r="BW14" s="257"/>
+      <c r="CA14" s="255" t="s">
         <v>326</v>
       </c>
-      <c r="CB14" s="276"/>
-      <c r="CC14" s="276"/>
-      <c r="CD14" s="276"/>
-      <c r="CE14" s="276"/>
-      <c r="CF14" s="276"/>
-      <c r="CG14" s="276"/>
-      <c r="CH14" s="277"/>
-      <c r="CL14" s="275" t="s">
+      <c r="CB14" s="256"/>
+      <c r="CC14" s="256"/>
+      <c r="CD14" s="256"/>
+      <c r="CE14" s="256"/>
+      <c r="CF14" s="256"/>
+      <c r="CG14" s="256"/>
+      <c r="CH14" s="257"/>
+      <c r="CL14" s="255" t="s">
         <v>329</v>
       </c>
-      <c r="CM14" s="276"/>
-      <c r="CN14" s="276"/>
-      <c r="CO14" s="276"/>
-      <c r="CP14" s="276"/>
-      <c r="CQ14" s="276"/>
-      <c r="CR14" s="276"/>
-      <c r="CS14" s="277"/>
-      <c r="CV14" s="275" t="s">
+      <c r="CM14" s="256"/>
+      <c r="CN14" s="256"/>
+      <c r="CO14" s="256"/>
+      <c r="CP14" s="256"/>
+      <c r="CQ14" s="256"/>
+      <c r="CR14" s="256"/>
+      <c r="CS14" s="257"/>
+      <c r="CV14" s="255" t="s">
         <v>328</v>
       </c>
-      <c r="CW14" s="276"/>
-      <c r="CX14" s="276"/>
-      <c r="CY14" s="276"/>
-      <c r="CZ14" s="276"/>
-      <c r="DA14" s="276"/>
-      <c r="DB14" s="276"/>
-      <c r="DC14" s="277"/>
+      <c r="CW14" s="256"/>
+      <c r="CX14" s="256"/>
+      <c r="CY14" s="256"/>
+      <c r="CZ14" s="256"/>
+      <c r="DA14" s="256"/>
+      <c r="DB14" s="256"/>
+      <c r="DC14" s="257"/>
     </row>
     <row r="15" spans="1:107" thickBot="1">
       <c r="G15" s="117"/>
@@ -7496,7 +7513,7 @@
       <c r="V15" s="29"/>
       <c r="W15" s="29"/>
       <c r="AX15" s="42"/>
-      <c r="AY15" s="279"/>
+      <c r="AY15" s="247"/>
       <c r="BD15" s="117"/>
       <c r="BE15" s="116"/>
       <c r="BF15" s="114"/>
@@ -7557,7 +7574,7 @@
       <c r="V16" s="29"/>
       <c r="W16" s="29"/>
       <c r="AX16" s="42"/>
-      <c r="AY16" s="279"/>
+      <c r="AY16" s="247"/>
       <c r="BD16" s="40"/>
       <c r="BE16" s="29"/>
       <c r="BF16" s="29"/>
@@ -7609,16 +7626,16 @@
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="40"/>
-      <c r="P17" s="281"/>
+      <c r="P17" s="258"/>
       <c r="Q17" s="234"/>
       <c r="R17" s="234"/>
       <c r="S17" s="29"/>
-      <c r="T17" s="281"/>
+      <c r="T17" s="258"/>
       <c r="U17" s="234"/>
       <c r="V17" s="234"/>
       <c r="W17" s="234"/>
       <c r="AX17" s="42"/>
-      <c r="AY17" s="279"/>
+      <c r="AY17" s="247"/>
       <c r="BD17" s="40"/>
       <c r="BE17" s="29"/>
       <c r="BF17" s="29"/>
@@ -7636,14 +7653,14 @@
       <c r="BV17" s="29"/>
       <c r="BW17" s="46"/>
       <c r="CA17" s="40"/>
-      <c r="CB17" s="243" t="s">
+      <c r="CB17" s="259" t="s">
         <v>349</v>
       </c>
-      <c r="CC17" s="246"/>
-      <c r="CD17" s="246"/>
-      <c r="CE17" s="246"/>
-      <c r="CF17" s="246"/>
-      <c r="CG17" s="247"/>
+      <c r="CC17" s="244"/>
+      <c r="CD17" s="244"/>
+      <c r="CE17" s="244"/>
+      <c r="CF17" s="244"/>
+      <c r="CG17" s="245"/>
       <c r="CH17" s="46"/>
       <c r="CL17" s="40"/>
       <c r="CM17" s="29"/>
@@ -7666,96 +7683,96 @@
       <c r="G18" s="41"/>
       <c r="O18" s="41"/>
       <c r="AX18" s="42"/>
-      <c r="AY18" s="279"/>
+      <c r="AY18" s="247"/>
       <c r="BD18" s="41"/>
-      <c r="BE18" s="257" t="s">
+      <c r="BE18" s="243" t="s">
         <v>335</v>
       </c>
-      <c r="BF18" s="246"/>
-      <c r="BG18" s="246"/>
-      <c r="BH18" s="246"/>
-      <c r="BI18" s="246"/>
-      <c r="BJ18" s="247"/>
+      <c r="BF18" s="244"/>
+      <c r="BG18" s="244"/>
+      <c r="BH18" s="244"/>
+      <c r="BI18" s="244"/>
+      <c r="BJ18" s="245"/>
       <c r="BK18" s="42"/>
       <c r="BP18" s="41"/>
-      <c r="BQ18" s="257" t="s">
+      <c r="BQ18" s="243" t="s">
         <v>331</v>
       </c>
-      <c r="BR18" s="246"/>
-      <c r="BS18" s="246"/>
-      <c r="BT18" s="246"/>
-      <c r="BU18" s="246"/>
-      <c r="BV18" s="247"/>
+      <c r="BR18" s="244"/>
+      <c r="BS18" s="244"/>
+      <c r="BT18" s="244"/>
+      <c r="BU18" s="244"/>
+      <c r="BV18" s="245"/>
       <c r="BW18" s="42"/>
       <c r="CA18" s="41"/>
-      <c r="CB18" s="258" t="s">
+      <c r="CB18" s="260" t="s">
         <v>342</v>
       </c>
-      <c r="CC18" s="259"/>
-      <c r="CD18" s="257"/>
-      <c r="CE18" s="247"/>
-      <c r="CF18" s="258" t="s">
+      <c r="CC18" s="261"/>
+      <c r="CD18" s="243"/>
+      <c r="CE18" s="245"/>
+      <c r="CF18" s="260" t="s">
         <v>341</v>
       </c>
-      <c r="CG18" s="259"/>
+      <c r="CG18" s="261"/>
       <c r="CH18" s="42"/>
       <c r="CL18" s="41"/>
-      <c r="CM18" s="243" t="s">
+      <c r="CM18" s="259" t="s">
         <v>354</v>
       </c>
-      <c r="CN18" s="246"/>
-      <c r="CO18" s="246"/>
-      <c r="CP18" s="246"/>
-      <c r="CQ18" s="246"/>
-      <c r="CR18" s="247"/>
+      <c r="CN18" s="244"/>
+      <c r="CO18" s="244"/>
+      <c r="CP18" s="244"/>
+      <c r="CQ18" s="244"/>
+      <c r="CR18" s="245"/>
       <c r="CS18" s="42"/>
       <c r="CV18" s="41"/>
-      <c r="CW18" s="243" t="s">
+      <c r="CW18" s="259" t="s">
         <v>359</v>
       </c>
-      <c r="CX18" s="246"/>
-      <c r="CY18" s="246"/>
-      <c r="CZ18" s="246"/>
-      <c r="DA18" s="246"/>
-      <c r="DB18" s="247"/>
+      <c r="CX18" s="244"/>
+      <c r="CY18" s="244"/>
+      <c r="CZ18" s="244"/>
+      <c r="DA18" s="244"/>
+      <c r="DB18" s="245"/>
       <c r="DC18" s="42"/>
     </row>
     <row r="19" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G19" s="41"/>
       <c r="O19" s="41"/>
       <c r="AX19" s="42"/>
-      <c r="AY19" s="279"/>
+      <c r="AY19" s="247"/>
       <c r="BD19" s="41"/>
-      <c r="BE19" s="257" t="s">
+      <c r="BE19" s="243" t="s">
         <v>336</v>
       </c>
-      <c r="BF19" s="246"/>
-      <c r="BG19" s="246"/>
-      <c r="BH19" s="246"/>
-      <c r="BI19" s="246"/>
-      <c r="BJ19" s="247"/>
+      <c r="BF19" s="244"/>
+      <c r="BG19" s="244"/>
+      <c r="BH19" s="244"/>
+      <c r="BI19" s="244"/>
+      <c r="BJ19" s="245"/>
       <c r="BK19" s="42"/>
       <c r="BP19" s="41"/>
-      <c r="BQ19" s="257" t="s">
+      <c r="BQ19" s="243" t="s">
         <v>330</v>
       </c>
-      <c r="BR19" s="246"/>
-      <c r="BS19" s="246"/>
-      <c r="BT19" s="246"/>
-      <c r="BU19" s="246"/>
-      <c r="BV19" s="247"/>
+      <c r="BR19" s="244"/>
+      <c r="BS19" s="244"/>
+      <c r="BT19" s="244"/>
+      <c r="BU19" s="244"/>
+      <c r="BV19" s="245"/>
       <c r="BW19" s="42"/>
       <c r="CA19" s="41"/>
       <c r="CH19" s="42"/>
       <c r="CL19" s="41"/>
-      <c r="CM19" s="243" t="s">
+      <c r="CM19" s="259" t="s">
         <v>355</v>
       </c>
-      <c r="CN19" s="246"/>
-      <c r="CO19" s="246"/>
-      <c r="CP19" s="246"/>
-      <c r="CQ19" s="246"/>
-      <c r="CR19" s="247"/>
+      <c r="CN19" s="244"/>
+      <c r="CO19" s="244"/>
+      <c r="CP19" s="244"/>
+      <c r="CQ19" s="244"/>
+      <c r="CR19" s="245"/>
       <c r="CS19" s="42"/>
       <c r="CV19" s="41"/>
       <c r="DC19" s="42"/>
@@ -7764,114 +7781,114 @@
       <c r="G20" s="41"/>
       <c r="O20" s="41"/>
       <c r="AX20" s="42"/>
-      <c r="AY20" s="279"/>
+      <c r="AY20" s="247"/>
       <c r="BD20" s="41"/>
       <c r="BK20" s="42"/>
       <c r="BP20" s="41"/>
       <c r="BW20" s="42"/>
       <c r="CA20" s="41"/>
-      <c r="CB20" s="243" t="s">
+      <c r="CB20" s="259" t="s">
         <v>350</v>
       </c>
-      <c r="CC20" s="246"/>
-      <c r="CD20" s="246"/>
-      <c r="CE20" s="246"/>
-      <c r="CF20" s="246"/>
-      <c r="CG20" s="247"/>
+      <c r="CC20" s="244"/>
+      <c r="CD20" s="244"/>
+      <c r="CE20" s="244"/>
+      <c r="CF20" s="244"/>
+      <c r="CG20" s="245"/>
       <c r="CH20" s="42"/>
       <c r="CL20" s="41"/>
       <c r="CS20" s="42"/>
       <c r="CV20" s="41"/>
-      <c r="CW20" s="243" t="s">
+      <c r="CW20" s="259" t="s">
         <v>360</v>
       </c>
-      <c r="CX20" s="246"/>
-      <c r="CY20" s="246"/>
-      <c r="CZ20" s="246"/>
-      <c r="DA20" s="246"/>
-      <c r="DB20" s="247"/>
+      <c r="CX20" s="244"/>
+      <c r="CY20" s="244"/>
+      <c r="CZ20" s="244"/>
+      <c r="DA20" s="244"/>
+      <c r="DB20" s="245"/>
       <c r="DC20" s="42"/>
     </row>
     <row r="21" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G21" s="41"/>
       <c r="O21" s="41"/>
       <c r="AX21" s="42"/>
-      <c r="AY21" s="279"/>
+      <c r="AY21" s="247"/>
       <c r="BD21" s="41"/>
-      <c r="BE21" s="257" t="s">
+      <c r="BE21" s="243" t="s">
         <v>337</v>
       </c>
-      <c r="BF21" s="246"/>
-      <c r="BG21" s="246"/>
-      <c r="BH21" s="246"/>
-      <c r="BI21" s="246"/>
-      <c r="BJ21" s="247"/>
+      <c r="BF21" s="244"/>
+      <c r="BG21" s="244"/>
+      <c r="BH21" s="244"/>
+      <c r="BI21" s="244"/>
+      <c r="BJ21" s="245"/>
       <c r="BK21" s="42"/>
       <c r="BP21" s="41"/>
-      <c r="BQ21" s="257" t="s">
+      <c r="BQ21" s="243" t="s">
         <v>332</v>
       </c>
-      <c r="BR21" s="246"/>
-      <c r="BS21" s="246"/>
-      <c r="BT21" s="246"/>
-      <c r="BU21" s="246"/>
-      <c r="BV21" s="247"/>
+      <c r="BR21" s="244"/>
+      <c r="BS21" s="244"/>
+      <c r="BT21" s="244"/>
+      <c r="BU21" s="244"/>
+      <c r="BV21" s="245"/>
       <c r="BW21" s="42"/>
       <c r="CA21" s="41"/>
-      <c r="CB21" s="243" t="s">
+      <c r="CB21" s="259" t="s">
         <v>336</v>
       </c>
-      <c r="CC21" s="246"/>
-      <c r="CD21" s="246"/>
-      <c r="CE21" s="246"/>
-      <c r="CF21" s="246"/>
-      <c r="CG21" s="247"/>
+      <c r="CC21" s="244"/>
+      <c r="CD21" s="244"/>
+      <c r="CE21" s="244"/>
+      <c r="CF21" s="244"/>
+      <c r="CG21" s="245"/>
       <c r="CH21" s="42"/>
       <c r="CL21" s="41"/>
-      <c r="CM21" s="243" t="s">
+      <c r="CM21" s="259" t="s">
         <v>356</v>
       </c>
-      <c r="CN21" s="246"/>
-      <c r="CO21" s="246"/>
-      <c r="CP21" s="246"/>
-      <c r="CQ21" s="246"/>
-      <c r="CR21" s="247"/>
+      <c r="CN21" s="244"/>
+      <c r="CO21" s="244"/>
+      <c r="CP21" s="244"/>
+      <c r="CQ21" s="244"/>
+      <c r="CR21" s="245"/>
       <c r="CS21" s="42"/>
       <c r="CV21" s="41"/>
-      <c r="CW21" s="243" t="s">
+      <c r="CW21" s="259" t="s">
         <v>355</v>
       </c>
-      <c r="CX21" s="246"/>
-      <c r="CY21" s="246"/>
-      <c r="CZ21" s="246"/>
-      <c r="DA21" s="246"/>
-      <c r="DB21" s="247"/>
+      <c r="CX21" s="244"/>
+      <c r="CY21" s="244"/>
+      <c r="CZ21" s="244"/>
+      <c r="DA21" s="244"/>
+      <c r="DB21" s="245"/>
       <c r="DC21" s="42"/>
     </row>
     <row r="22" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G22" s="41"/>
       <c r="O22" s="41"/>
       <c r="AX22" s="42"/>
-      <c r="AY22" s="279"/>
+      <c r="AY22" s="247"/>
       <c r="BD22" s="41"/>
-      <c r="BE22" s="257" t="s">
+      <c r="BE22" s="243" t="s">
         <v>336</v>
       </c>
-      <c r="BF22" s="246"/>
-      <c r="BG22" s="246"/>
-      <c r="BH22" s="246"/>
-      <c r="BI22" s="246"/>
-      <c r="BJ22" s="247"/>
+      <c r="BF22" s="244"/>
+      <c r="BG22" s="244"/>
+      <c r="BH22" s="244"/>
+      <c r="BI22" s="244"/>
+      <c r="BJ22" s="245"/>
       <c r="BK22" s="42"/>
       <c r="BP22" s="41"/>
-      <c r="BQ22" s="257" t="s">
+      <c r="BQ22" s="243" t="s">
         <v>330</v>
       </c>
-      <c r="BR22" s="246"/>
-      <c r="BS22" s="246"/>
-      <c r="BT22" s="246"/>
-      <c r="BU22" s="246"/>
-      <c r="BV22" s="247"/>
+      <c r="BR22" s="244"/>
+      <c r="BS22" s="244"/>
+      <c r="BT22" s="244"/>
+      <c r="BU22" s="244"/>
+      <c r="BV22" s="245"/>
       <c r="BW22" s="42"/>
       <c r="CA22" s="41"/>
       <c r="CH22" s="42"/>
@@ -7884,7 +7901,7 @@
       <c r="G23" s="41"/>
       <c r="O23" s="41"/>
       <c r="AX23" s="42"/>
-      <c r="AY23" s="279"/>
+      <c r="AY23" s="247"/>
       <c r="BD23" s="41"/>
       <c r="BK23" s="42"/>
       <c r="BP23" s="41"/>
@@ -7893,57 +7910,57 @@
       <c r="CB23" s="29"/>
       <c r="CC23" s="29"/>
       <c r="CD23" s="29"/>
-      <c r="CE23" s="266" t="s">
+      <c r="CE23" s="270" t="s">
         <v>348</v>
       </c>
-      <c r="CF23" s="267"/>
-      <c r="CG23" s="267"/>
-      <c r="CH23" s="268"/>
+      <c r="CF23" s="271"/>
+      <c r="CG23" s="271"/>
+      <c r="CH23" s="272"/>
       <c r="CL23" s="41"/>
-      <c r="CM23" s="243" t="s">
+      <c r="CM23" s="259" t="s">
         <v>357</v>
       </c>
-      <c r="CN23" s="246"/>
-      <c r="CO23" s="246"/>
-      <c r="CP23" s="246"/>
-      <c r="CQ23" s="246"/>
-      <c r="CR23" s="247"/>
+      <c r="CN23" s="244"/>
+      <c r="CO23" s="244"/>
+      <c r="CP23" s="244"/>
+      <c r="CQ23" s="244"/>
+      <c r="CR23" s="245"/>
       <c r="CS23" s="42"/>
       <c r="CV23" s="41"/>
-      <c r="CW23" s="243" t="s">
+      <c r="CW23" s="259" t="s">
         <v>361</v>
       </c>
-      <c r="CX23" s="246"/>
-      <c r="CY23" s="246"/>
-      <c r="CZ23" s="246"/>
-      <c r="DA23" s="246"/>
-      <c r="DB23" s="247"/>
+      <c r="CX23" s="244"/>
+      <c r="CY23" s="244"/>
+      <c r="CZ23" s="244"/>
+      <c r="DA23" s="244"/>
+      <c r="DB23" s="245"/>
       <c r="DC23" s="42"/>
     </row>
     <row r="24" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G24" s="41"/>
       <c r="O24" s="41"/>
       <c r="AX24" s="42"/>
-      <c r="AY24" s="279"/>
+      <c r="AY24" s="247"/>
       <c r="BD24" s="41"/>
-      <c r="BE24" s="257" t="s">
+      <c r="BE24" s="243" t="s">
         <v>339</v>
       </c>
-      <c r="BF24" s="246"/>
-      <c r="BG24" s="246"/>
-      <c r="BH24" s="246"/>
-      <c r="BI24" s="246"/>
-      <c r="BJ24" s="247"/>
+      <c r="BF24" s="244"/>
+      <c r="BG24" s="244"/>
+      <c r="BH24" s="244"/>
+      <c r="BI24" s="244"/>
+      <c r="BJ24" s="245"/>
       <c r="BK24" s="42"/>
       <c r="BP24" s="41"/>
-      <c r="BQ24" s="257" t="s">
+      <c r="BQ24" s="243" t="s">
         <v>333</v>
       </c>
-      <c r="BR24" s="246"/>
-      <c r="BS24" s="246"/>
-      <c r="BT24" s="246"/>
-      <c r="BU24" s="246"/>
-      <c r="BV24" s="247"/>
+      <c r="BR24" s="244"/>
+      <c r="BS24" s="244"/>
+      <c r="BT24" s="244"/>
+      <c r="BU24" s="244"/>
+      <c r="BV24" s="245"/>
       <c r="BW24" s="42"/>
       <c r="CA24" s="40"/>
       <c r="CB24" s="29"/>
@@ -7954,60 +7971,60 @@
       <c r="CG24" s="29"/>
       <c r="CH24" s="46"/>
       <c r="CL24" s="41"/>
-      <c r="CM24" s="243" t="s">
+      <c r="CM24" s="259" t="s">
         <v>355</v>
       </c>
-      <c r="CN24" s="246"/>
-      <c r="CO24" s="246"/>
-      <c r="CP24" s="246"/>
-      <c r="CQ24" s="246"/>
-      <c r="CR24" s="247"/>
+      <c r="CN24" s="244"/>
+      <c r="CO24" s="244"/>
+      <c r="CP24" s="244"/>
+      <c r="CQ24" s="244"/>
+      <c r="CR24" s="245"/>
       <c r="CS24" s="42"/>
       <c r="CV24" s="41"/>
-      <c r="CW24" s="243" t="s">
+      <c r="CW24" s="259" t="s">
         <v>355</v>
       </c>
-      <c r="CX24" s="246"/>
-      <c r="CY24" s="246"/>
-      <c r="CZ24" s="246"/>
-      <c r="DA24" s="246"/>
-      <c r="DB24" s="247"/>
+      <c r="CX24" s="244"/>
+      <c r="CY24" s="244"/>
+      <c r="CZ24" s="244"/>
+      <c r="DA24" s="244"/>
+      <c r="DB24" s="245"/>
       <c r="DC24" s="42"/>
     </row>
     <row r="25" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G25" s="41"/>
       <c r="O25" s="41"/>
       <c r="AX25" s="42"/>
-      <c r="AY25" s="279"/>
+      <c r="AY25" s="247"/>
       <c r="BD25" s="41"/>
-      <c r="BE25" s="257" t="s">
+      <c r="BE25" s="243" t="s">
         <v>336</v>
       </c>
-      <c r="BF25" s="246"/>
-      <c r="BG25" s="246"/>
-      <c r="BH25" s="246"/>
-      <c r="BI25" s="246"/>
-      <c r="BJ25" s="247"/>
+      <c r="BF25" s="244"/>
+      <c r="BG25" s="244"/>
+      <c r="BH25" s="244"/>
+      <c r="BI25" s="244"/>
+      <c r="BJ25" s="245"/>
       <c r="BK25" s="42"/>
       <c r="BP25" s="41"/>
-      <c r="BQ25" s="257" t="s">
+      <c r="BQ25" s="243" t="s">
         <v>330</v>
       </c>
-      <c r="BR25" s="246"/>
-      <c r="BS25" s="246"/>
-      <c r="BT25" s="246"/>
-      <c r="BU25" s="246"/>
-      <c r="BV25" s="247"/>
+      <c r="BR25" s="244"/>
+      <c r="BS25" s="244"/>
+      <c r="BT25" s="244"/>
+      <c r="BU25" s="244"/>
+      <c r="BV25" s="245"/>
       <c r="BW25" s="42"/>
       <c r="CA25" s="41"/>
-      <c r="CB25" s="243" t="s">
+      <c r="CB25" s="259" t="s">
         <v>343</v>
       </c>
-      <c r="CC25" s="244"/>
-      <c r="CD25" s="244"/>
-      <c r="CE25" s="244"/>
-      <c r="CF25" s="244"/>
-      <c r="CG25" s="245"/>
+      <c r="CC25" s="268"/>
+      <c r="CD25" s="268"/>
+      <c r="CE25" s="268"/>
+      <c r="CF25" s="268"/>
+      <c r="CG25" s="269"/>
       <c r="CH25" s="42"/>
       <c r="CL25" s="41"/>
       <c r="CS25" s="42"/>
@@ -8018,128 +8035,128 @@
       <c r="G26" s="41"/>
       <c r="O26" s="41"/>
       <c r="AX26" s="42"/>
-      <c r="AY26" s="279"/>
+      <c r="AY26" s="247"/>
       <c r="BD26" s="41"/>
       <c r="BK26" s="42"/>
       <c r="BP26" s="41"/>
       <c r="BW26" s="42"/>
       <c r="CA26" s="41"/>
-      <c r="CB26" s="258" t="s">
+      <c r="CB26" s="260" t="s">
         <v>342</v>
       </c>
-      <c r="CC26" s="259"/>
-      <c r="CD26" s="257"/>
-      <c r="CE26" s="247"/>
-      <c r="CF26" s="258" t="s">
+      <c r="CC26" s="261"/>
+      <c r="CD26" s="243"/>
+      <c r="CE26" s="245"/>
+      <c r="CF26" s="260" t="s">
         <v>341</v>
       </c>
-      <c r="CG26" s="259"/>
+      <c r="CG26" s="261"/>
       <c r="CH26" s="42"/>
       <c r="CL26" s="41"/>
-      <c r="CM26" s="257" t="s">
+      <c r="CM26" s="243" t="s">
         <v>331</v>
       </c>
-      <c r="CN26" s="246"/>
-      <c r="CO26" s="246"/>
-      <c r="CP26" s="246"/>
-      <c r="CQ26" s="246"/>
-      <c r="CR26" s="247"/>
+      <c r="CN26" s="244"/>
+      <c r="CO26" s="244"/>
+      <c r="CP26" s="244"/>
+      <c r="CQ26" s="244"/>
+      <c r="CR26" s="245"/>
       <c r="CS26" s="42"/>
       <c r="CV26" s="41"/>
-      <c r="CW26" s="243" t="s">
+      <c r="CW26" s="259" t="s">
         <v>362</v>
       </c>
-      <c r="CX26" s="246"/>
-      <c r="CY26" s="246"/>
-      <c r="CZ26" s="246"/>
-      <c r="DA26" s="246"/>
-      <c r="DB26" s="247"/>
+      <c r="CX26" s="244"/>
+      <c r="CY26" s="244"/>
+      <c r="CZ26" s="244"/>
+      <c r="DA26" s="244"/>
+      <c r="DB26" s="245"/>
       <c r="DC26" s="42"/>
     </row>
     <row r="27" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G27" s="41"/>
       <c r="O27" s="41"/>
       <c r="AX27" s="42"/>
-      <c r="AY27" s="279"/>
+      <c r="AY27" s="247"/>
       <c r="BD27" s="41"/>
-      <c r="BE27" s="257" t="s">
+      <c r="BE27" s="243" t="s">
         <v>340</v>
       </c>
-      <c r="BF27" s="246"/>
-      <c r="BG27" s="246"/>
-      <c r="BH27" s="246"/>
-      <c r="BI27" s="246"/>
-      <c r="BJ27" s="247"/>
+      <c r="BF27" s="244"/>
+      <c r="BG27" s="244"/>
+      <c r="BH27" s="244"/>
+      <c r="BI27" s="244"/>
+      <c r="BJ27" s="245"/>
       <c r="BK27" s="42"/>
       <c r="BP27" s="41"/>
-      <c r="BQ27" s="257" t="s">
+      <c r="BQ27" s="243" t="s">
         <v>334</v>
       </c>
-      <c r="BR27" s="246"/>
-      <c r="BS27" s="246"/>
-      <c r="BT27" s="246"/>
-      <c r="BU27" s="246"/>
-      <c r="BV27" s="247"/>
+      <c r="BR27" s="244"/>
+      <c r="BS27" s="244"/>
+      <c r="BT27" s="244"/>
+      <c r="BU27" s="244"/>
+      <c r="BV27" s="245"/>
       <c r="BW27" s="42"/>
       <c r="CA27" s="41"/>
       <c r="CH27" s="42"/>
       <c r="CL27" s="41"/>
-      <c r="CM27" s="243" t="s">
+      <c r="CM27" s="259" t="s">
         <v>355</v>
       </c>
-      <c r="CN27" s="246"/>
-      <c r="CO27" s="246"/>
-      <c r="CP27" s="246"/>
-      <c r="CQ27" s="246"/>
-      <c r="CR27" s="247"/>
+      <c r="CN27" s="244"/>
+      <c r="CO27" s="244"/>
+      <c r="CP27" s="244"/>
+      <c r="CQ27" s="244"/>
+      <c r="CR27" s="245"/>
       <c r="CS27" s="42"/>
       <c r="CV27" s="41"/>
-      <c r="CW27" s="243" t="s">
+      <c r="CW27" s="259" t="s">
         <v>355</v>
       </c>
-      <c r="CX27" s="246"/>
-      <c r="CY27" s="246"/>
-      <c r="CZ27" s="246"/>
-      <c r="DA27" s="246"/>
-      <c r="DB27" s="247"/>
+      <c r="CX27" s="244"/>
+      <c r="CY27" s="244"/>
+      <c r="CZ27" s="244"/>
+      <c r="DA27" s="244"/>
+      <c r="DB27" s="245"/>
       <c r="DC27" s="42"/>
     </row>
     <row r="28" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G28" s="41"/>
       <c r="O28" s="41"/>
       <c r="AX28" s="42"/>
-      <c r="AY28" s="279"/>
+      <c r="AY28" s="247"/>
       <c r="BD28" s="119"/>
-      <c r="BE28" s="258" t="s">
+      <c r="BE28" s="260" t="s">
         <v>342</v>
       </c>
-      <c r="BF28" s="259"/>
-      <c r="BG28" s="257"/>
-      <c r="BH28" s="247"/>
-      <c r="BI28" s="258" t="s">
+      <c r="BF28" s="261"/>
+      <c r="BG28" s="243"/>
+      <c r="BH28" s="245"/>
+      <c r="BI28" s="260" t="s">
         <v>341</v>
       </c>
-      <c r="BJ28" s="259"/>
+      <c r="BJ28" s="261"/>
       <c r="BK28" s="42"/>
       <c r="BP28" s="41"/>
-      <c r="BQ28" s="257" t="s">
+      <c r="BQ28" s="243" t="s">
         <v>330</v>
       </c>
-      <c r="BR28" s="246"/>
-      <c r="BS28" s="246"/>
-      <c r="BT28" s="246"/>
-      <c r="BU28" s="246"/>
-      <c r="BV28" s="247"/>
+      <c r="BR28" s="244"/>
+      <c r="BS28" s="244"/>
+      <c r="BT28" s="244"/>
+      <c r="BU28" s="244"/>
+      <c r="BV28" s="245"/>
       <c r="BW28" s="42"/>
       <c r="CA28" s="41"/>
-      <c r="CB28" s="243" t="s">
+      <c r="CB28" s="259" t="s">
         <v>344</v>
       </c>
-      <c r="CC28" s="244"/>
-      <c r="CD28" s="244"/>
-      <c r="CE28" s="244"/>
-      <c r="CF28" s="244"/>
-      <c r="CG28" s="245"/>
+      <c r="CC28" s="268"/>
+      <c r="CD28" s="268"/>
+      <c r="CE28" s="268"/>
+      <c r="CF28" s="268"/>
+      <c r="CG28" s="269"/>
       <c r="CH28" s="42"/>
       <c r="CL28" s="41"/>
       <c r="CS28" s="42"/>
@@ -8150,49 +8167,49 @@
       <c r="G29" s="41"/>
       <c r="O29" s="41"/>
       <c r="AX29" s="42"/>
-      <c r="AY29" s="279"/>
+      <c r="AY29" s="247"/>
       <c r="BD29" s="41"/>
       <c r="BK29" s="42"/>
       <c r="BP29" s="41"/>
       <c r="BW29" s="42"/>
       <c r="CA29" s="41"/>
-      <c r="CB29" s="258" t="s">
+      <c r="CB29" s="260" t="s">
         <v>342</v>
       </c>
-      <c r="CC29" s="259"/>
-      <c r="CD29" s="257"/>
-      <c r="CE29" s="247"/>
-      <c r="CF29" s="258" t="s">
+      <c r="CC29" s="261"/>
+      <c r="CD29" s="243"/>
+      <c r="CE29" s="245"/>
+      <c r="CF29" s="260" t="s">
         <v>341</v>
       </c>
-      <c r="CG29" s="259"/>
+      <c r="CG29" s="261"/>
       <c r="CH29" s="42"/>
       <c r="CL29" s="41"/>
-      <c r="CM29" s="257" t="s">
+      <c r="CM29" s="243" t="s">
         <v>332</v>
       </c>
-      <c r="CN29" s="246"/>
-      <c r="CO29" s="246"/>
-      <c r="CP29" s="246"/>
-      <c r="CQ29" s="246"/>
-      <c r="CR29" s="247"/>
+      <c r="CN29" s="244"/>
+      <c r="CO29" s="244"/>
+      <c r="CP29" s="244"/>
+      <c r="CQ29" s="244"/>
+      <c r="CR29" s="245"/>
       <c r="CS29" s="42"/>
       <c r="CV29" s="41"/>
-      <c r="CW29" s="243" t="s">
+      <c r="CW29" s="259" t="s">
         <v>363</v>
       </c>
-      <c r="CX29" s="246"/>
-      <c r="CY29" s="246"/>
-      <c r="CZ29" s="246"/>
-      <c r="DA29" s="246"/>
-      <c r="DB29" s="247"/>
+      <c r="CX29" s="244"/>
+      <c r="CY29" s="244"/>
+      <c r="CZ29" s="244"/>
+      <c r="DA29" s="244"/>
+      <c r="DB29" s="245"/>
       <c r="DC29" s="42"/>
     </row>
     <row r="30" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G30" s="41"/>
       <c r="O30" s="41"/>
       <c r="AX30" s="42"/>
-      <c r="AY30" s="279"/>
+      <c r="AY30" s="247"/>
       <c r="BD30" s="41"/>
       <c r="BK30" s="42"/>
       <c r="BP30" s="41"/>
@@ -8200,44 +8217,44 @@
       <c r="CA30" s="41"/>
       <c r="CH30" s="42"/>
       <c r="CL30" s="41"/>
-      <c r="CM30" s="243" t="s">
+      <c r="CM30" s="259" t="s">
         <v>355</v>
       </c>
-      <c r="CN30" s="246"/>
-      <c r="CO30" s="246"/>
-      <c r="CP30" s="246"/>
-      <c r="CQ30" s="246"/>
-      <c r="CR30" s="247"/>
+      <c r="CN30" s="244"/>
+      <c r="CO30" s="244"/>
+      <c r="CP30" s="244"/>
+      <c r="CQ30" s="244"/>
+      <c r="CR30" s="245"/>
       <c r="CS30" s="42"/>
       <c r="CV30" s="41"/>
-      <c r="CW30" s="243" t="s">
+      <c r="CW30" s="259" t="s">
         <v>355</v>
       </c>
-      <c r="CX30" s="244"/>
-      <c r="CY30" s="244"/>
-      <c r="CZ30" s="244"/>
-      <c r="DA30" s="244"/>
-      <c r="DB30" s="245"/>
+      <c r="CX30" s="268"/>
+      <c r="CY30" s="268"/>
+      <c r="CZ30" s="268"/>
+      <c r="DA30" s="268"/>
+      <c r="DB30" s="269"/>
       <c r="DC30" s="42"/>
     </row>
     <row r="31" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G31" s="41"/>
       <c r="O31" s="41"/>
       <c r="AX31" s="42"/>
-      <c r="AY31" s="279"/>
+      <c r="AY31" s="247"/>
       <c r="BD31" s="41"/>
       <c r="BK31" s="42"/>
       <c r="BP31" s="41"/>
       <c r="BW31" s="42"/>
       <c r="CA31" s="41"/>
-      <c r="CB31" s="243" t="s">
+      <c r="CB31" s="259" t="s">
         <v>345</v>
       </c>
-      <c r="CC31" s="244"/>
-      <c r="CD31" s="244"/>
-      <c r="CE31" s="244"/>
-      <c r="CF31" s="244"/>
-      <c r="CG31" s="245"/>
+      <c r="CC31" s="268"/>
+      <c r="CD31" s="268"/>
+      <c r="CE31" s="268"/>
+      <c r="CF31" s="268"/>
+      <c r="CG31" s="269"/>
       <c r="CH31" s="42"/>
       <c r="CL31" s="41"/>
       <c r="CS31" s="42"/>
@@ -8248,122 +8265,122 @@
       <c r="G32" s="41"/>
       <c r="O32" s="41"/>
       <c r="AX32" s="42"/>
-      <c r="AY32" s="279"/>
+      <c r="AY32" s="247"/>
       <c r="BD32" s="41"/>
-      <c r="BE32" s="260" t="s">
+      <c r="BE32" s="262" t="s">
         <v>277</v>
       </c>
-      <c r="BF32" s="261"/>
-      <c r="BG32" s="261"/>
-      <c r="BH32" s="261"/>
-      <c r="BI32" s="261"/>
-      <c r="BJ32" s="262"/>
+      <c r="BF32" s="263"/>
+      <c r="BG32" s="263"/>
+      <c r="BH32" s="263"/>
+      <c r="BI32" s="263"/>
+      <c r="BJ32" s="264"/>
       <c r="BK32" s="42"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="260" t="s">
+      <c r="BQ32" s="262" t="s">
         <v>352</v>
       </c>
-      <c r="BR32" s="261"/>
-      <c r="BS32" s="261"/>
-      <c r="BT32" s="261"/>
-      <c r="BU32" s="261"/>
-      <c r="BV32" s="262"/>
+      <c r="BR32" s="263"/>
+      <c r="BS32" s="263"/>
+      <c r="BT32" s="263"/>
+      <c r="BU32" s="263"/>
+      <c r="BV32" s="264"/>
       <c r="BW32" s="42"/>
       <c r="CA32" s="41"/>
-      <c r="CB32" s="258" t="s">
+      <c r="CB32" s="260" t="s">
         <v>342</v>
       </c>
-      <c r="CC32" s="259"/>
-      <c r="CD32" s="257"/>
-      <c r="CE32" s="247"/>
-      <c r="CF32" s="258" t="s">
+      <c r="CC32" s="261"/>
+      <c r="CD32" s="243"/>
+      <c r="CE32" s="245"/>
+      <c r="CF32" s="260" t="s">
         <v>341</v>
       </c>
-      <c r="CG32" s="259"/>
+      <c r="CG32" s="261"/>
       <c r="CH32" s="42"/>
       <c r="CL32" s="41"/>
-      <c r="CM32" s="257" t="s">
+      <c r="CM32" s="243" t="s">
         <v>333</v>
       </c>
-      <c r="CN32" s="246"/>
-      <c r="CO32" s="246"/>
-      <c r="CP32" s="246"/>
-      <c r="CQ32" s="246"/>
-      <c r="CR32" s="247"/>
+      <c r="CN32" s="244"/>
+      <c r="CO32" s="244"/>
+      <c r="CP32" s="244"/>
+      <c r="CQ32" s="244"/>
+      <c r="CR32" s="245"/>
       <c r="CS32" s="42"/>
       <c r="CV32" s="41"/>
-      <c r="CW32" s="243" t="s">
+      <c r="CW32" s="259" t="s">
         <v>364</v>
       </c>
-      <c r="CX32" s="246"/>
-      <c r="CY32" s="246"/>
-      <c r="CZ32" s="246"/>
-      <c r="DA32" s="246"/>
-      <c r="DB32" s="247"/>
+      <c r="CX32" s="244"/>
+      <c r="CY32" s="244"/>
+      <c r="CZ32" s="244"/>
+      <c r="DA32" s="244"/>
+      <c r="DB32" s="245"/>
       <c r="DC32" s="42"/>
     </row>
     <row r="33" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G33" s="41"/>
       <c r="O33" s="41"/>
       <c r="AX33" s="42"/>
-      <c r="AY33" s="279"/>
+      <c r="AY33" s="247"/>
       <c r="BD33" s="41"/>
-      <c r="BE33" s="263"/>
-      <c r="BF33" s="264"/>
-      <c r="BG33" s="264"/>
-      <c r="BH33" s="264"/>
-      <c r="BI33" s="264"/>
-      <c r="BJ33" s="265"/>
+      <c r="BE33" s="265"/>
+      <c r="BF33" s="266"/>
+      <c r="BG33" s="266"/>
+      <c r="BH33" s="266"/>
+      <c r="BI33" s="266"/>
+      <c r="BJ33" s="267"/>
       <c r="BK33" s="42"/>
       <c r="BP33" s="41"/>
-      <c r="BQ33" s="263"/>
-      <c r="BR33" s="264"/>
-      <c r="BS33" s="264"/>
-      <c r="BT33" s="264"/>
-      <c r="BU33" s="264"/>
-      <c r="BV33" s="265"/>
+      <c r="BQ33" s="265"/>
+      <c r="BR33" s="266"/>
+      <c r="BS33" s="266"/>
+      <c r="BT33" s="266"/>
+      <c r="BU33" s="266"/>
+      <c r="BV33" s="267"/>
       <c r="BW33" s="42"/>
       <c r="CA33" s="41"/>
       <c r="CH33" s="42"/>
       <c r="CL33" s="41"/>
-      <c r="CM33" s="243" t="s">
+      <c r="CM33" s="259" t="s">
         <v>355</v>
       </c>
-      <c r="CN33" s="244"/>
-      <c r="CO33" s="244"/>
-      <c r="CP33" s="244"/>
-      <c r="CQ33" s="244"/>
-      <c r="CR33" s="245"/>
+      <c r="CN33" s="268"/>
+      <c r="CO33" s="268"/>
+      <c r="CP33" s="268"/>
+      <c r="CQ33" s="268"/>
+      <c r="CR33" s="269"/>
       <c r="CS33" s="42"/>
       <c r="CV33" s="41"/>
-      <c r="CW33" s="243" t="s">
+      <c r="CW33" s="259" t="s">
         <v>355</v>
       </c>
-      <c r="CX33" s="244"/>
-      <c r="CY33" s="244"/>
-      <c r="CZ33" s="244"/>
-      <c r="DA33" s="244"/>
-      <c r="DB33" s="245"/>
+      <c r="CX33" s="268"/>
+      <c r="CY33" s="268"/>
+      <c r="CZ33" s="268"/>
+      <c r="DA33" s="268"/>
+      <c r="DB33" s="269"/>
       <c r="DC33" s="42"/>
     </row>
     <row r="34" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G34" s="41"/>
       <c r="O34" s="41"/>
       <c r="AX34" s="42"/>
-      <c r="AY34" s="279"/>
+      <c r="AY34" s="247"/>
       <c r="BD34" s="41"/>
       <c r="BK34" s="42"/>
       <c r="BP34" s="41"/>
       <c r="BW34" s="42"/>
       <c r="CA34" s="41"/>
-      <c r="CB34" s="243" t="s">
+      <c r="CB34" s="259" t="s">
         <v>346</v>
       </c>
-      <c r="CC34" s="244"/>
-      <c r="CD34" s="244"/>
-      <c r="CE34" s="244"/>
-      <c r="CF34" s="244"/>
-      <c r="CG34" s="245"/>
+      <c r="CC34" s="268"/>
+      <c r="CD34" s="268"/>
+      <c r="CE34" s="268"/>
+      <c r="CF34" s="268"/>
+      <c r="CG34" s="269"/>
       <c r="CH34" s="42"/>
       <c r="CL34" s="41"/>
       <c r="CS34" s="42"/>
@@ -8374,95 +8391,95 @@
       <c r="G35" s="41"/>
       <c r="O35" s="41"/>
       <c r="AX35" s="42"/>
-      <c r="AY35" s="279"/>
+      <c r="AY35" s="247"/>
       <c r="BD35" s="41"/>
       <c r="BK35" s="42"/>
       <c r="BP35" s="41"/>
-      <c r="BQ35" s="243" t="s">
+      <c r="BQ35" s="259" t="s">
         <v>351</v>
       </c>
-      <c r="BR35" s="246"/>
-      <c r="BS35" s="246"/>
-      <c r="BT35" s="246"/>
-      <c r="BU35" s="246"/>
-      <c r="BV35" s="247"/>
+      <c r="BR35" s="244"/>
+      <c r="BS35" s="244"/>
+      <c r="BT35" s="244"/>
+      <c r="BU35" s="244"/>
+      <c r="BV35" s="245"/>
       <c r="BW35" s="42"/>
       <c r="CA35" s="41"/>
-      <c r="CB35" s="258" t="s">
+      <c r="CB35" s="260" t="s">
         <v>342</v>
       </c>
-      <c r="CC35" s="259"/>
-      <c r="CD35" s="257"/>
-      <c r="CE35" s="247"/>
-      <c r="CF35" s="258" t="s">
+      <c r="CC35" s="261"/>
+      <c r="CD35" s="243"/>
+      <c r="CE35" s="245"/>
+      <c r="CF35" s="260" t="s">
         <v>341</v>
       </c>
-      <c r="CG35" s="259"/>
+      <c r="CG35" s="261"/>
       <c r="CH35" s="42"/>
       <c r="CL35" s="41"/>
-      <c r="CM35" s="243" t="s">
+      <c r="CM35" s="259" t="s">
         <v>358</v>
       </c>
-      <c r="CN35" s="246"/>
-      <c r="CO35" s="246"/>
-      <c r="CP35" s="246"/>
-      <c r="CQ35" s="246"/>
-      <c r="CR35" s="247"/>
+      <c r="CN35" s="244"/>
+      <c r="CO35" s="244"/>
+      <c r="CP35" s="244"/>
+      <c r="CQ35" s="244"/>
+      <c r="CR35" s="245"/>
       <c r="CS35" s="42"/>
       <c r="CV35" s="41"/>
-      <c r="CW35" s="243" t="s">
+      <c r="CW35" s="259" t="s">
         <v>365</v>
       </c>
-      <c r="CX35" s="246"/>
-      <c r="CY35" s="246"/>
-      <c r="CZ35" s="246"/>
-      <c r="DA35" s="246"/>
-      <c r="DB35" s="247"/>
+      <c r="CX35" s="244"/>
+      <c r="CY35" s="244"/>
+      <c r="CZ35" s="244"/>
+      <c r="DA35" s="244"/>
+      <c r="DB35" s="245"/>
       <c r="DC35" s="42"/>
     </row>
     <row r="36" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G36" s="41"/>
       <c r="O36" s="41"/>
       <c r="AX36" s="42"/>
-      <c r="AY36" s="279"/>
+      <c r="AY36" s="247"/>
       <c r="BD36" s="41"/>
       <c r="BK36" s="42"/>
       <c r="BP36" s="41"/>
-      <c r="BQ36" s="243" t="s">
+      <c r="BQ36" s="259" t="s">
         <v>353</v>
       </c>
-      <c r="BR36" s="246"/>
-      <c r="BS36" s="246"/>
-      <c r="BT36" s="246"/>
-      <c r="BU36" s="246"/>
-      <c r="BV36" s="247"/>
+      <c r="BR36" s="244"/>
+      <c r="BS36" s="244"/>
+      <c r="BT36" s="244"/>
+      <c r="BU36" s="244"/>
+      <c r="BV36" s="245"/>
       <c r="BW36" s="42"/>
       <c r="CA36" s="41"/>
       <c r="CH36" s="42"/>
       <c r="CL36" s="41"/>
-      <c r="CM36" s="243" t="s">
+      <c r="CM36" s="259" t="s">
         <v>355</v>
       </c>
-      <c r="CN36" s="244"/>
-      <c r="CO36" s="244"/>
-      <c r="CP36" s="244"/>
-      <c r="CQ36" s="244"/>
-      <c r="CR36" s="245"/>
+      <c r="CN36" s="268"/>
+      <c r="CO36" s="268"/>
+      <c r="CP36" s="268"/>
+      <c r="CQ36" s="268"/>
+      <c r="CR36" s="269"/>
       <c r="CS36" s="42"/>
       <c r="CV36" s="41"/>
-      <c r="CW36" s="248"/>
-      <c r="CX36" s="249"/>
-      <c r="CY36" s="249"/>
-      <c r="CZ36" s="249"/>
-      <c r="DA36" s="249"/>
-      <c r="DB36" s="250"/>
+      <c r="CW36" s="273"/>
+      <c r="CX36" s="274"/>
+      <c r="CY36" s="274"/>
+      <c r="CZ36" s="274"/>
+      <c r="DA36" s="274"/>
+      <c r="DB36" s="275"/>
       <c r="DC36" s="42"/>
     </row>
     <row r="37" spans="7:107" ht="15.75" customHeight="1">
       <c r="G37" s="41"/>
       <c r="O37" s="41"/>
       <c r="AX37" s="42"/>
-      <c r="AY37" s="279"/>
+      <c r="AY37" s="247"/>
       <c r="BD37" s="41"/>
       <c r="BK37" s="42"/>
       <c r="BP37" s="41"/>
@@ -8472,19 +8489,19 @@
       <c r="CL37" s="41"/>
       <c r="CS37" s="42"/>
       <c r="CV37" s="41"/>
-      <c r="CW37" s="251"/>
-      <c r="CX37" s="252"/>
-      <c r="CY37" s="252"/>
-      <c r="CZ37" s="252"/>
-      <c r="DA37" s="252"/>
-      <c r="DB37" s="253"/>
+      <c r="CW37" s="276"/>
+      <c r="CX37" s="277"/>
+      <c r="CY37" s="277"/>
+      <c r="CZ37" s="277"/>
+      <c r="DA37" s="277"/>
+      <c r="DB37" s="278"/>
       <c r="DC37" s="42"/>
     </row>
     <row r="38" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G38" s="41"/>
       <c r="O38" s="41"/>
       <c r="AX38" s="42"/>
-      <c r="AY38" s="279"/>
+      <c r="AY38" s="247"/>
       <c r="BD38" s="41"/>
       <c r="BK38" s="42"/>
       <c r="BP38" s="41"/>
@@ -8494,70 +8511,70 @@
       <c r="CL38" s="41"/>
       <c r="CS38" s="42"/>
       <c r="CV38" s="41"/>
-      <c r="CW38" s="251"/>
-      <c r="CX38" s="252"/>
-      <c r="CY38" s="252"/>
-      <c r="CZ38" s="252"/>
-      <c r="DA38" s="252"/>
-      <c r="DB38" s="253"/>
+      <c r="CW38" s="276"/>
+      <c r="CX38" s="277"/>
+      <c r="CY38" s="277"/>
+      <c r="CZ38" s="277"/>
+      <c r="DA38" s="277"/>
+      <c r="DB38" s="278"/>
       <c r="DC38" s="42"/>
     </row>
     <row r="39" spans="7:107" ht="15.75" customHeight="1">
       <c r="G39" s="41"/>
       <c r="O39" s="41"/>
       <c r="AX39" s="42"/>
-      <c r="AY39" s="279"/>
+      <c r="AY39" s="247"/>
       <c r="BD39" s="41"/>
       <c r="BK39" s="42"/>
       <c r="BP39" s="41"/>
       <c r="BW39" s="42"/>
       <c r="CA39" s="41"/>
-      <c r="CB39" s="260" t="s">
+      <c r="CB39" s="262" t="s">
         <v>347</v>
       </c>
-      <c r="CC39" s="261"/>
-      <c r="CD39" s="261"/>
-      <c r="CE39" s="261"/>
-      <c r="CF39" s="261"/>
-      <c r="CG39" s="262"/>
+      <c r="CC39" s="263"/>
+      <c r="CD39" s="263"/>
+      <c r="CE39" s="263"/>
+      <c r="CF39" s="263"/>
+      <c r="CG39" s="264"/>
       <c r="CH39" s="42"/>
       <c r="CL39" s="41"/>
       <c r="CS39" s="42"/>
       <c r="CV39" s="41"/>
-      <c r="CW39" s="251"/>
-      <c r="CX39" s="252"/>
-      <c r="CY39" s="252"/>
-      <c r="CZ39" s="252"/>
-      <c r="DA39" s="252"/>
-      <c r="DB39" s="253"/>
+      <c r="CW39" s="276"/>
+      <c r="CX39" s="277"/>
+      <c r="CY39" s="277"/>
+      <c r="CZ39" s="277"/>
+      <c r="DA39" s="277"/>
+      <c r="DB39" s="278"/>
       <c r="DC39" s="42"/>
     </row>
     <row r="40" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G40" s="41"/>
       <c r="O40" s="41"/>
       <c r="AX40" s="42"/>
-      <c r="AY40" s="280"/>
+      <c r="AY40" s="248"/>
       <c r="BD40" s="41"/>
       <c r="BK40" s="42"/>
       <c r="BP40" s="41"/>
       <c r="BW40" s="42"/>
       <c r="CA40" s="41"/>
-      <c r="CB40" s="263"/>
-      <c r="CC40" s="264"/>
-      <c r="CD40" s="264"/>
-      <c r="CE40" s="264"/>
-      <c r="CF40" s="264"/>
-      <c r="CG40" s="265"/>
+      <c r="CB40" s="265"/>
+      <c r="CC40" s="266"/>
+      <c r="CD40" s="266"/>
+      <c r="CE40" s="266"/>
+      <c r="CF40" s="266"/>
+      <c r="CG40" s="267"/>
       <c r="CH40" s="42"/>
       <c r="CL40" s="41"/>
       <c r="CS40" s="42"/>
       <c r="CV40" s="41"/>
-      <c r="CW40" s="254"/>
-      <c r="CX40" s="255"/>
-      <c r="CY40" s="255"/>
-      <c r="CZ40" s="255"/>
-      <c r="DA40" s="255"/>
-      <c r="DB40" s="256"/>
+      <c r="CW40" s="279"/>
+      <c r="CX40" s="280"/>
+      <c r="CY40" s="280"/>
+      <c r="CZ40" s="280"/>
+      <c r="DA40" s="280"/>
+      <c r="DB40" s="281"/>
       <c r="DC40" s="42"/>
     </row>
     <row r="41" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
@@ -8620,43 +8637,43 @@
       <c r="M42" s="44"/>
       <c r="N42" s="44"/>
       <c r="O42" s="115"/>
-      <c r="P42" s="257" t="s">
+      <c r="P42" s="243" t="s">
         <v>323</v>
       </c>
-      <c r="Q42" s="246"/>
-      <c r="R42" s="246"/>
-      <c r="S42" s="246"/>
-      <c r="T42" s="246"/>
-      <c r="U42" s="246"/>
-      <c r="V42" s="246"/>
-      <c r="W42" s="246"/>
-      <c r="X42" s="246"/>
-      <c r="Y42" s="246"/>
-      <c r="Z42" s="246"/>
-      <c r="AA42" s="246"/>
-      <c r="AB42" s="246"/>
-      <c r="AC42" s="246"/>
-      <c r="AD42" s="246"/>
-      <c r="AE42" s="246"/>
-      <c r="AF42" s="246"/>
-      <c r="AG42" s="246"/>
-      <c r="AH42" s="246"/>
-      <c r="AI42" s="246"/>
-      <c r="AJ42" s="246"/>
-      <c r="AK42" s="246"/>
-      <c r="AL42" s="246"/>
-      <c r="AM42" s="246"/>
-      <c r="AN42" s="246"/>
-      <c r="AO42" s="246"/>
-      <c r="AP42" s="246"/>
-      <c r="AQ42" s="246"/>
-      <c r="AR42" s="246"/>
-      <c r="AS42" s="246"/>
-      <c r="AT42" s="246"/>
-      <c r="AU42" s="246"/>
-      <c r="AV42" s="246"/>
-      <c r="AW42" s="246"/>
-      <c r="AX42" s="247"/>
+      <c r="Q42" s="244"/>
+      <c r="R42" s="244"/>
+      <c r="S42" s="244"/>
+      <c r="T42" s="244"/>
+      <c r="U42" s="244"/>
+      <c r="V42" s="244"/>
+      <c r="W42" s="244"/>
+      <c r="X42" s="244"/>
+      <c r="Y42" s="244"/>
+      <c r="Z42" s="244"/>
+      <c r="AA42" s="244"/>
+      <c r="AB42" s="244"/>
+      <c r="AC42" s="244"/>
+      <c r="AD42" s="244"/>
+      <c r="AE42" s="244"/>
+      <c r="AF42" s="244"/>
+      <c r="AG42" s="244"/>
+      <c r="AH42" s="244"/>
+      <c r="AI42" s="244"/>
+      <c r="AJ42" s="244"/>
+      <c r="AK42" s="244"/>
+      <c r="AL42" s="244"/>
+      <c r="AM42" s="244"/>
+      <c r="AN42" s="244"/>
+      <c r="AO42" s="244"/>
+      <c r="AP42" s="244"/>
+      <c r="AQ42" s="244"/>
+      <c r="AR42" s="244"/>
+      <c r="AS42" s="244"/>
+      <c r="AT42" s="244"/>
+      <c r="AU42" s="244"/>
+      <c r="AV42" s="244"/>
+      <c r="AW42" s="244"/>
+      <c r="AX42" s="245"/>
       <c r="AY42" s="115"/>
       <c r="BD42" s="43"/>
       <c r="BE42" s="44"/>
@@ -8701,78 +8718,6 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="P42:AX42"/>
-    <mergeCell ref="AY12:AY40"/>
-    <mergeCell ref="G11:N12"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="BD11:BK12"/>
-    <mergeCell ref="BD14:BK14"/>
-    <mergeCell ref="BP11:BW12"/>
-    <mergeCell ref="BP14:BW14"/>
-    <mergeCell ref="CA11:CH12"/>
-    <mergeCell ref="CA14:CH14"/>
-    <mergeCell ref="CL11:CS12"/>
-    <mergeCell ref="CL14:CS14"/>
-    <mergeCell ref="CV11:DC12"/>
-    <mergeCell ref="CV14:DC14"/>
-    <mergeCell ref="BQ24:BV24"/>
-    <mergeCell ref="CM18:CR18"/>
-    <mergeCell ref="CM19:CR19"/>
-    <mergeCell ref="CM21:CR21"/>
-    <mergeCell ref="CM24:CR24"/>
-    <mergeCell ref="CM23:CR23"/>
-    <mergeCell ref="BE19:BJ19"/>
-    <mergeCell ref="BE18:BJ18"/>
-    <mergeCell ref="BE21:BJ21"/>
-    <mergeCell ref="BE22:BJ22"/>
-    <mergeCell ref="BQ19:BV19"/>
-    <mergeCell ref="BQ18:BV18"/>
-    <mergeCell ref="BQ21:BV21"/>
-    <mergeCell ref="BQ22:BV22"/>
-    <mergeCell ref="BE24:BJ24"/>
-    <mergeCell ref="BE25:BJ25"/>
-    <mergeCell ref="BE27:BJ27"/>
-    <mergeCell ref="BE28:BF28"/>
-    <mergeCell ref="BI28:BJ28"/>
-    <mergeCell ref="BG28:BH28"/>
-    <mergeCell ref="BE32:BJ33"/>
-    <mergeCell ref="CF29:CG29"/>
-    <mergeCell ref="CD29:CE29"/>
-    <mergeCell ref="CB29:CC29"/>
-    <mergeCell ref="CB28:CG28"/>
-    <mergeCell ref="BQ28:BV28"/>
-    <mergeCell ref="CB39:CG40"/>
-    <mergeCell ref="CB17:CG17"/>
-    <mergeCell ref="CB18:CC18"/>
-    <mergeCell ref="CD18:CE18"/>
-    <mergeCell ref="CF18:CG18"/>
-    <mergeCell ref="CB20:CG20"/>
-    <mergeCell ref="CF26:CG26"/>
-    <mergeCell ref="CD26:CE26"/>
-    <mergeCell ref="CB26:CC26"/>
-    <mergeCell ref="CB25:CG25"/>
-    <mergeCell ref="CE23:CH23"/>
-    <mergeCell ref="CB21:CG21"/>
-    <mergeCell ref="BQ36:BV36"/>
-    <mergeCell ref="CB31:CG31"/>
-    <mergeCell ref="CB32:CC32"/>
-    <mergeCell ref="CD32:CE32"/>
-    <mergeCell ref="CF32:CG32"/>
-    <mergeCell ref="CB34:CG34"/>
-    <mergeCell ref="CB35:CC35"/>
-    <mergeCell ref="CD35:CE35"/>
-    <mergeCell ref="CF35:CG35"/>
-    <mergeCell ref="BQ32:BV33"/>
-    <mergeCell ref="BQ25:BV25"/>
-    <mergeCell ref="BQ27:BV27"/>
-    <mergeCell ref="CM32:CR32"/>
-    <mergeCell ref="CM33:CR33"/>
-    <mergeCell ref="CM35:CR35"/>
-    <mergeCell ref="CM27:CR27"/>
-    <mergeCell ref="CM26:CR26"/>
-    <mergeCell ref="BQ35:BV35"/>
     <mergeCell ref="CM36:CR36"/>
     <mergeCell ref="CW18:DB18"/>
     <mergeCell ref="CW20:DB20"/>
@@ -8789,6 +8734,78 @@
     <mergeCell ref="CW36:DB40"/>
     <mergeCell ref="CM29:CR29"/>
     <mergeCell ref="CM30:CR30"/>
+    <mergeCell ref="BQ25:BV25"/>
+    <mergeCell ref="BQ27:BV27"/>
+    <mergeCell ref="CM32:CR32"/>
+    <mergeCell ref="CM33:CR33"/>
+    <mergeCell ref="CM35:CR35"/>
+    <mergeCell ref="CM27:CR27"/>
+    <mergeCell ref="CM26:CR26"/>
+    <mergeCell ref="BQ35:BV35"/>
+    <mergeCell ref="BQ36:BV36"/>
+    <mergeCell ref="CB31:CG31"/>
+    <mergeCell ref="CB32:CC32"/>
+    <mergeCell ref="CD32:CE32"/>
+    <mergeCell ref="CF32:CG32"/>
+    <mergeCell ref="CB34:CG34"/>
+    <mergeCell ref="CB35:CC35"/>
+    <mergeCell ref="CD35:CE35"/>
+    <mergeCell ref="CF35:CG35"/>
+    <mergeCell ref="BQ32:BV33"/>
+    <mergeCell ref="CB39:CG40"/>
+    <mergeCell ref="CB17:CG17"/>
+    <mergeCell ref="CB18:CC18"/>
+    <mergeCell ref="CD18:CE18"/>
+    <mergeCell ref="CF18:CG18"/>
+    <mergeCell ref="CB20:CG20"/>
+    <mergeCell ref="CF26:CG26"/>
+    <mergeCell ref="CD26:CE26"/>
+    <mergeCell ref="CB26:CC26"/>
+    <mergeCell ref="CB25:CG25"/>
+    <mergeCell ref="CE23:CH23"/>
+    <mergeCell ref="CB21:CG21"/>
+    <mergeCell ref="BE32:BJ33"/>
+    <mergeCell ref="CF29:CG29"/>
+    <mergeCell ref="CD29:CE29"/>
+    <mergeCell ref="CB29:CC29"/>
+    <mergeCell ref="CB28:CG28"/>
+    <mergeCell ref="BQ28:BV28"/>
+    <mergeCell ref="BE24:BJ24"/>
+    <mergeCell ref="BE25:BJ25"/>
+    <mergeCell ref="BE27:BJ27"/>
+    <mergeCell ref="BE28:BF28"/>
+    <mergeCell ref="BI28:BJ28"/>
+    <mergeCell ref="BG28:BH28"/>
+    <mergeCell ref="BE19:BJ19"/>
+    <mergeCell ref="BE18:BJ18"/>
+    <mergeCell ref="BE21:BJ21"/>
+    <mergeCell ref="BE22:BJ22"/>
+    <mergeCell ref="BQ19:BV19"/>
+    <mergeCell ref="BQ18:BV18"/>
+    <mergeCell ref="BQ21:BV21"/>
+    <mergeCell ref="BQ22:BV22"/>
+    <mergeCell ref="CL11:CS12"/>
+    <mergeCell ref="CL14:CS14"/>
+    <mergeCell ref="CV11:DC12"/>
+    <mergeCell ref="CV14:DC14"/>
+    <mergeCell ref="BQ24:BV24"/>
+    <mergeCell ref="CM18:CR18"/>
+    <mergeCell ref="CM19:CR19"/>
+    <mergeCell ref="CM21:CR21"/>
+    <mergeCell ref="CM24:CR24"/>
+    <mergeCell ref="CM23:CR23"/>
+    <mergeCell ref="BD11:BK12"/>
+    <mergeCell ref="BD14:BK14"/>
+    <mergeCell ref="BP11:BW12"/>
+    <mergeCell ref="BP14:BW14"/>
+    <mergeCell ref="CA11:CH12"/>
+    <mergeCell ref="CA14:CH14"/>
+    <mergeCell ref="P42:AX42"/>
+    <mergeCell ref="AY12:AY40"/>
+    <mergeCell ref="G11:N12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="P17:R17"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8847,14 +8864,14 @@
         <v>476</v>
       </c>
       <c r="C3" s="28"/>
-      <c r="D3" s="284" t="s">
+      <c r="D3" s="287" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="285"/>
-      <c r="H3" s="285"/>
-      <c r="I3" s="286"/>
+      <c r="E3" s="288"/>
+      <c r="F3" s="288"/>
+      <c r="G3" s="288"/>
+      <c r="H3" s="288"/>
+      <c r="I3" s="289"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1">
       <c r="A4" s="156" t="s">
@@ -8993,15 +9010,15 @@
         <v>375</v>
       </c>
       <c r="F12" s="132"/>
-      <c r="H12" s="287" t="s">
+      <c r="H12" s="282" t="s">
         <v>400</v>
       </c>
-      <c r="I12" s="288"/>
+      <c r="I12" s="290"/>
       <c r="J12" s="140" t="s">
         <v>404</v>
       </c>
       <c r="K12" s="132"/>
-      <c r="M12" s="287" t="s">
+      <c r="M12" s="282" t="s">
         <v>415</v>
       </c>
       <c r="N12" s="283"/>
@@ -9018,15 +9035,15 @@
         <v>368</v>
       </c>
       <c r="F13" s="132"/>
-      <c r="H13" s="287" t="s">
+      <c r="H13" s="282" t="s">
         <v>401</v>
       </c>
-      <c r="I13" s="288"/>
+      <c r="I13" s="290"/>
       <c r="J13" s="140" t="s">
         <v>403</v>
       </c>
       <c r="K13" s="132"/>
-      <c r="M13" s="287" t="s">
+      <c r="M13" s="282" t="s">
         <v>216</v>
       </c>
       <c r="N13" s="283"/>
@@ -9041,15 +9058,15 @@
       </c>
       <c r="E14" s="131"/>
       <c r="F14" s="132"/>
-      <c r="H14" s="287" t="s">
+      <c r="H14" s="282" t="s">
         <v>402</v>
       </c>
-      <c r="I14" s="288"/>
+      <c r="I14" s="290"/>
       <c r="J14" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K14" s="132"/>
-      <c r="M14" s="287" t="s">
+      <c r="M14" s="282" t="s">
         <v>215</v>
       </c>
       <c r="N14" s="283"/>
@@ -9064,11 +9081,11 @@
       </c>
       <c r="E15" s="140"/>
       <c r="F15" s="132"/>
-      <c r="H15" s="289"/>
-      <c r="I15" s="290"/>
+      <c r="H15" s="285"/>
+      <c r="I15" s="286"/>
       <c r="J15" s="140"/>
       <c r="K15" s="132"/>
-      <c r="M15" s="287" t="s">
+      <c r="M15" s="282" t="s">
         <v>211</v>
       </c>
       <c r="N15" s="283"/>
@@ -9083,11 +9100,11 @@
       </c>
       <c r="E16" s="131"/>
       <c r="F16" s="134"/>
-      <c r="H16" s="289"/>
-      <c r="I16" s="290"/>
+      <c r="H16" s="285"/>
+      <c r="I16" s="286"/>
       <c r="J16" s="140"/>
       <c r="K16" s="132"/>
-      <c r="M16" s="287" t="s">
+      <c r="M16" s="282" t="s">
         <v>212</v>
       </c>
       <c r="N16" s="283"/>
@@ -9106,7 +9123,7 @@
       <c r="I17" s="135"/>
       <c r="J17" s="136"/>
       <c r="K17" s="137"/>
-      <c r="M17" s="287" t="s">
+      <c r="M17" s="282" t="s">
         <v>416</v>
       </c>
       <c r="N17" s="283"/>
@@ -9119,7 +9136,7 @@
       <c r="C18" s="133"/>
       <c r="E18" s="131"/>
       <c r="F18" s="134"/>
-      <c r="M18" s="287" t="s">
+      <c r="M18" s="282" t="s">
         <v>213</v>
       </c>
       <c r="N18" s="283"/>
@@ -9142,7 +9159,7 @@
       <c r="K19" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="287" t="s">
+      <c r="M19" s="282" t="s">
         <v>290</v>
       </c>
       <c r="N19" s="283"/>
@@ -9163,7 +9180,7 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
       <c r="K20" s="127"/>
-      <c r="M20" s="282" t="s">
+      <c r="M20" s="284" t="s">
         <v>423</v>
       </c>
       <c r="N20" s="283"/>
@@ -9180,7 +9197,7 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="127"/>
-      <c r="M21" s="282" t="s">
+      <c r="M21" s="284" t="s">
         <v>424</v>
       </c>
       <c r="N21" s="283"/>
@@ -9200,21 +9217,21 @@
         <v>84</v>
       </c>
       <c r="K22" s="130"/>
-      <c r="M22" s="282"/>
+      <c r="M22" s="284"/>
       <c r="N22" s="283"/>
       <c r="O22" s="131"/>
       <c r="P22" s="132"/>
     </row>
     <row r="23" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H23" s="287" t="s">
+      <c r="H23" s="282" t="s">
         <v>405</v>
       </c>
-      <c r="I23" s="288"/>
+      <c r="I23" s="290"/>
       <c r="J23" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K23" s="132"/>
-      <c r="M23" s="282"/>
+      <c r="M23" s="284"/>
       <c r="N23" s="283"/>
       <c r="O23" s="131"/>
       <c r="P23" s="132"/>
@@ -9228,11 +9245,11 @@
       <c r="F24" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="287"/>
-      <c r="I24" s="288"/>
+      <c r="H24" s="282"/>
+      <c r="I24" s="290"/>
       <c r="J24" s="140"/>
       <c r="K24" s="132"/>
-      <c r="M24" s="282"/>
+      <c r="M24" s="284"/>
       <c r="N24" s="283"/>
       <c r="O24" s="131"/>
       <c r="P24" s="132"/>
@@ -9246,11 +9263,11 @@
       <c r="F25" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="H25" s="287"/>
-      <c r="I25" s="288"/>
+      <c r="H25" s="282"/>
+      <c r="I25" s="290"/>
       <c r="J25" s="140"/>
       <c r="K25" s="132"/>
-      <c r="M25" s="282"/>
+      <c r="M25" s="284"/>
       <c r="N25" s="283"/>
       <c r="O25" s="131"/>
       <c r="P25" s="132"/>
@@ -9260,11 +9277,11 @@
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="127"/>
-      <c r="H26" s="289"/>
-      <c r="I26" s="290"/>
+      <c r="H26" s="285"/>
+      <c r="I26" s="286"/>
       <c r="J26" s="140"/>
       <c r="K26" s="132"/>
-      <c r="M26" s="282"/>
+      <c r="M26" s="284"/>
       <c r="N26" s="283"/>
       <c r="O26" s="131"/>
       <c r="P26" s="132"/>
@@ -9278,11 +9295,11 @@
         <v>84</v>
       </c>
       <c r="F27" s="130"/>
-      <c r="H27" s="289"/>
-      <c r="I27" s="290"/>
+      <c r="H27" s="285"/>
+      <c r="I27" s="286"/>
       <c r="J27" s="140"/>
       <c r="K27" s="132"/>
-      <c r="M27" s="282"/>
+      <c r="M27" s="284"/>
       <c r="N27" s="283"/>
       <c r="O27" s="131"/>
       <c r="P27" s="132"/>
@@ -9299,7 +9316,7 @@
       <c r="I28" s="135"/>
       <c r="J28" s="136"/>
       <c r="K28" s="137"/>
-      <c r="M28" s="282"/>
+      <c r="M28" s="284"/>
       <c r="N28" s="283"/>
       <c r="O28" s="131"/>
       <c r="P28" s="132"/>
@@ -9312,7 +9329,7 @@
         <v>388</v>
       </c>
       <c r="F29" s="132"/>
-      <c r="M29" s="282"/>
+      <c r="M29" s="284"/>
       <c r="N29" s="283"/>
       <c r="O29" s="131"/>
       <c r="P29" s="132"/>
@@ -9323,7 +9340,7 @@
       </c>
       <c r="E30" s="140"/>
       <c r="F30" s="132"/>
-      <c r="M30" s="282"/>
+      <c r="M30" s="284"/>
       <c r="N30" s="283"/>
       <c r="O30" s="131"/>
       <c r="P30" s="132"/>
@@ -9404,7 +9421,7 @@
       <c r="C37" s="133"/>
       <c r="E37" s="131"/>
       <c r="F37" s="134"/>
-      <c r="M37" s="287" t="s">
+      <c r="M37" s="282" t="s">
         <v>428</v>
       </c>
       <c r="N37" s="283"/>
@@ -9417,7 +9434,7 @@
       <c r="C38" s="133"/>
       <c r="E38" s="131"/>
       <c r="F38" s="134"/>
-      <c r="M38" s="282" t="s">
+      <c r="M38" s="284" t="s">
         <v>429</v>
       </c>
       <c r="N38" s="283"/>
@@ -9431,7 +9448,7 @@
       <c r="D39" s="135"/>
       <c r="E39" s="136"/>
       <c r="F39" s="139"/>
-      <c r="M39" s="282"/>
+      <c r="M39" s="284"/>
       <c r="N39" s="283"/>
       <c r="O39" s="131" t="s">
         <v>432</v>
@@ -9439,7 +9456,7 @@
       <c r="P39" s="132"/>
     </row>
     <row r="40" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="M40" s="282"/>
+      <c r="M40" s="284"/>
       <c r="N40" s="283"/>
       <c r="O40" s="131" t="s">
         <v>433</v>
@@ -9455,7 +9472,7 @@
       <c r="F41" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M41" s="282"/>
+      <c r="M41" s="284"/>
       <c r="N41" s="283"/>
       <c r="O41" s="131" t="s">
         <v>435</v>
@@ -9471,7 +9488,7 @@
       <c r="F42" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="M42" s="282"/>
+      <c r="M42" s="284"/>
       <c r="N42" s="283"/>
       <c r="O42" s="131" t="s">
         <v>434</v>
@@ -9566,7 +9583,7 @@
         <v>397</v>
       </c>
       <c r="F49" s="134"/>
-      <c r="M49" s="287" t="s">
+      <c r="M49" s="282" t="s">
         <v>436</v>
       </c>
       <c r="N49" s="283"/>
@@ -9583,7 +9600,7 @@
         <v>334</v>
       </c>
       <c r="F50" s="134"/>
-      <c r="M50" s="282" t="s">
+      <c r="M50" s="284" t="s">
         <v>437</v>
       </c>
       <c r="N50" s="283"/>
@@ -9600,7 +9617,7 @@
         <v>369</v>
       </c>
       <c r="F51" s="134"/>
-      <c r="M51" s="282" t="s">
+      <c r="M51" s="284" t="s">
         <v>438</v>
       </c>
       <c r="N51" s="283"/>
@@ -9613,7 +9630,7 @@
         <v>456</v>
       </c>
       <c r="F52" s="134"/>
-      <c r="M52" s="282" t="s">
+      <c r="M52" s="284" t="s">
         <v>441</v>
       </c>
       <c r="N52" s="283"/>
@@ -9627,7 +9644,7 @@
         <v>457</v>
       </c>
       <c r="F53" s="137"/>
-      <c r="M53" s="282"/>
+      <c r="M53" s="284"/>
       <c r="N53" s="283"/>
       <c r="O53" s="131"/>
       <c r="P53" s="132"/>
@@ -9680,7 +9697,7 @@
       </c>
     </row>
     <row r="60" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M60" s="287" t="s">
+      <c r="M60" s="282" t="s">
         <v>442</v>
       </c>
       <c r="N60" s="283"/>
@@ -9692,7 +9709,7 @@
       </c>
     </row>
     <row r="61" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M61" s="282" t="s">
+      <c r="M61" s="284" t="s">
         <v>443</v>
       </c>
       <c r="N61" s="283"/>
@@ -9704,7 +9721,7 @@
       </c>
     </row>
     <row r="62" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M62" s="287" t="s">
+      <c r="M62" s="282" t="s">
         <v>448</v>
       </c>
       <c r="N62" s="283"/>
@@ -9716,13 +9733,13 @@
       </c>
     </row>
     <row r="63" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M63" s="282"/>
+      <c r="M63" s="284"/>
       <c r="N63" s="283"/>
       <c r="O63" s="131"/>
       <c r="P63" s="132"/>
     </row>
     <row r="64" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M64" s="282"/>
+      <c r="M64" s="284"/>
       <c r="N64" s="283"/>
       <c r="O64" s="131"/>
       <c r="P64" s="132"/>
@@ -9771,7 +9788,7 @@
       <c r="P70" s="130"/>
     </row>
     <row r="71" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M71" s="287" t="s">
+      <c r="M71" s="282" t="s">
         <v>449</v>
       </c>
       <c r="N71" s="283"/>
@@ -9781,7 +9798,7 @@
       <c r="P71" s="132"/>
     </row>
     <row r="72" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M72" s="287" t="s">
+      <c r="M72" s="282" t="s">
         <v>450</v>
       </c>
       <c r="N72" s="283"/>
@@ -9791,19 +9808,19 @@
       <c r="P72" s="132"/>
     </row>
     <row r="73" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M73" s="282"/>
+      <c r="M73" s="284"/>
       <c r="N73" s="283"/>
       <c r="O73" s="131"/>
       <c r="P73" s="132"/>
     </row>
     <row r="74" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M74" s="282"/>
+      <c r="M74" s="284"/>
       <c r="N74" s="283"/>
       <c r="O74" s="131"/>
       <c r="P74" s="132"/>
     </row>
     <row r="75" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M75" s="282"/>
+      <c r="M75" s="284"/>
       <c r="N75" s="283"/>
       <c r="O75" s="131"/>
       <c r="P75" s="132"/>
@@ -9852,7 +9869,7 @@
       <c r="P81" s="130"/>
     </row>
     <row r="82" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M82" s="287" t="s">
+      <c r="M82" s="282" t="s">
         <v>449</v>
       </c>
       <c r="N82" s="283"/>
@@ -9862,7 +9879,7 @@
       <c r="P82" s="132"/>
     </row>
     <row r="83" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M83" s="287" t="s">
+      <c r="M83" s="282" t="s">
         <v>452</v>
       </c>
       <c r="N83" s="283"/>
@@ -9872,19 +9889,19 @@
       <c r="P83" s="132"/>
     </row>
     <row r="84" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M84" s="282"/>
+      <c r="M84" s="284"/>
       <c r="N84" s="283"/>
       <c r="O84" s="131"/>
       <c r="P84" s="132"/>
     </row>
     <row r="85" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M85" s="282"/>
+      <c r="M85" s="284"/>
       <c r="N85" s="283"/>
       <c r="O85" s="131"/>
       <c r="P85" s="132"/>
     </row>
     <row r="86" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M86" s="282"/>
+      <c r="M86" s="284"/>
       <c r="N86" s="283"/>
       <c r="O86" s="131"/>
       <c r="P86" s="132"/>
@@ -9931,7 +9948,7 @@
       <c r="P92" s="130"/>
     </row>
     <row r="93" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M93" s="287" t="s">
+      <c r="M93" s="282" t="s">
         <v>216</v>
       </c>
       <c r="N93" s="283"/>
@@ -9941,7 +9958,7 @@
       <c r="P93" s="132"/>
     </row>
     <row r="94" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M94" s="282"/>
+      <c r="M94" s="284"/>
       <c r="N94" s="283"/>
       <c r="O94" s="140" t="s">
         <v>454</v>
@@ -9949,7 +9966,7 @@
       <c r="P94" s="132"/>
     </row>
     <row r="95" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M95" s="282"/>
+      <c r="M95" s="284"/>
       <c r="N95" s="283"/>
       <c r="O95" s="140" t="s">
         <v>455</v>
@@ -9957,13 +9974,13 @@
       <c r="P95" s="132"/>
     </row>
     <row r="96" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M96" s="282"/>
+      <c r="M96" s="284"/>
       <c r="N96" s="283"/>
       <c r="O96" s="131"/>
       <c r="P96" s="132"/>
     </row>
     <row r="97" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M97" s="282"/>
+      <c r="M97" s="284"/>
       <c r="N97" s="283"/>
       <c r="O97" s="131"/>
       <c r="P97" s="132"/>
@@ -10010,7 +10027,7 @@
       <c r="P103" s="130"/>
     </row>
     <row r="104" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M104" s="287" t="s">
+      <c r="M104" s="282" t="s">
         <v>465</v>
       </c>
       <c r="N104" s="283"/>
@@ -10020,7 +10037,7 @@
       <c r="P104" s="132"/>
     </row>
     <row r="105" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M105" s="287" t="s">
+      <c r="M105" s="282" t="s">
         <v>466</v>
       </c>
       <c r="N105" s="283"/>
@@ -10030,7 +10047,7 @@
       <c r="P105" s="132"/>
     </row>
     <row r="106" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M106" s="287" t="s">
+      <c r="M106" s="282" t="s">
         <v>467</v>
       </c>
       <c r="N106" s="283"/>
@@ -10040,7 +10057,7 @@
       <c r="P106" s="132"/>
     </row>
     <row r="107" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M107" s="282"/>
+      <c r="M107" s="284"/>
       <c r="N107" s="283"/>
       <c r="O107" s="140" t="s">
         <v>464</v>
@@ -10048,7 +10065,7 @@
       <c r="P107" s="132"/>
     </row>
     <row r="108" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M108" s="282"/>
+      <c r="M108" s="284"/>
       <c r="N108" s="283"/>
       <c r="O108" s="131"/>
       <c r="P108" s="132"/>
@@ -10097,7 +10114,7 @@
       <c r="P114" s="130"/>
     </row>
     <row r="115" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M115" s="287" t="s">
+      <c r="M115" s="282" t="s">
         <v>482</v>
       </c>
       <c r="N115" s="283"/>
@@ -10107,31 +10124,31 @@
       <c r="P115" s="132"/>
     </row>
     <row r="116" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M116" s="282"/>
+      <c r="M116" s="284"/>
       <c r="N116" s="283"/>
       <c r="O116" s="131"/>
       <c r="P116" s="132"/>
     </row>
     <row r="117" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M117" s="282"/>
+      <c r="M117" s="284"/>
       <c r="N117" s="283"/>
       <c r="O117" s="131"/>
       <c r="P117" s="132"/>
     </row>
     <row r="118" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M118" s="282"/>
+      <c r="M118" s="284"/>
       <c r="N118" s="283"/>
       <c r="O118" s="131"/>
       <c r="P118" s="132"/>
     </row>
     <row r="119" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M119" s="282"/>
+      <c r="M119" s="284"/>
       <c r="N119" s="283"/>
       <c r="O119" s="131"/>
       <c r="P119" s="132"/>
     </row>
     <row r="120" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M120" s="282"/>
+      <c r="M120" s="284"/>
       <c r="N120" s="283"/>
       <c r="O120" s="131"/>
       <c r="P120" s="132"/>
@@ -10144,46 +10161,22 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="M12:N12"/>
@@ -10200,22 +10193,46 @@
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M104:N104"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
@@ -11736,10 +11753,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:U94"/>
+  <dimension ref="B2:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -12113,7 +12130,7 @@
       <c r="E16" s="231">
         <v>45978</v>
       </c>
-      <c r="F16" s="232"/>
+      <c r="F16" s="301"/>
       <c r="G16" s="217"/>
       <c r="H16" s="231"/>
       <c r="I16" s="216"/>
@@ -12140,7 +12157,7 @@
       <c r="E17" s="231">
         <v>45978</v>
       </c>
-      <c r="F17" s="232"/>
+      <c r="F17" s="301"/>
       <c r="G17" s="217"/>
       <c r="H17" s="231"/>
       <c r="I17" s="216"/>
@@ -12159,15 +12176,11 @@
     <row r="18" spans="2:21" ht="20.25" customHeight="1">
       <c r="B18" s="172"/>
       <c r="C18" s="172" t="s">
-        <v>486</v>
-      </c>
-      <c r="D18" s="218" t="s">
-        <v>596</v>
-      </c>
-      <c r="E18" s="231">
-        <v>45978</v>
-      </c>
-      <c r="F18" s="232"/>
+        <v>598</v>
+      </c>
+      <c r="D18" s="218"/>
+      <c r="E18" s="231"/>
+      <c r="F18" s="301"/>
       <c r="G18" s="217"/>
       <c r="H18" s="231"/>
       <c r="I18" s="216"/>
@@ -12185,9 +12198,15 @@
     </row>
     <row r="19" spans="2:21" ht="20.25" customHeight="1">
       <c r="B19" s="172"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="218"/>
-      <c r="E19" s="231"/>
+      <c r="C19" s="172" t="s">
+        <v>486</v>
+      </c>
+      <c r="D19" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E19" s="231">
+        <v>45978</v>
+      </c>
       <c r="F19" s="232"/>
       <c r="G19" s="217"/>
       <c r="H19" s="231"/>
@@ -12205,14 +12224,10 @@
       <c r="U19" s="297"/>
     </row>
     <row r="20" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B20" s="174" t="s">
-        <v>493</v>
-      </c>
-      <c r="C20" s="174"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="172"/>
       <c r="D20" s="218"/>
-      <c r="E20" s="231">
-        <v>45978</v>
-      </c>
+      <c r="E20" s="231"/>
       <c r="F20" s="232"/>
       <c r="G20" s="217"/>
       <c r="H20" s="231"/>
@@ -12230,13 +12245,11 @@
       <c r="U20" s="297"/>
     </row>
     <row r="21" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B21" s="172"/>
-      <c r="C21" s="172" t="s">
-        <v>488</v>
-      </c>
-      <c r="D21" s="218" t="s">
-        <v>596</v>
-      </c>
+      <c r="B21" s="174" t="s">
+        <v>493</v>
+      </c>
+      <c r="C21" s="174"/>
+      <c r="D21" s="218"/>
       <c r="E21" s="231">
         <v>45978</v>
       </c>
@@ -12259,7 +12272,7 @@
     <row r="22" spans="2:21" ht="20.25" customHeight="1">
       <c r="B22" s="172"/>
       <c r="C22" s="172" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D22" s="218" t="s">
         <v>596</v>
@@ -12286,7 +12299,7 @@
     <row r="23" spans="2:21" ht="20.25" customHeight="1">
       <c r="B23" s="172"/>
       <c r="C23" s="172" t="s">
-        <v>597</v>
+        <v>489</v>
       </c>
       <c r="D23" s="218" t="s">
         <v>596</v>
@@ -12313,7 +12326,7 @@
     <row r="24" spans="2:21" ht="20.25" customHeight="1">
       <c r="B24" s="172"/>
       <c r="C24" s="172" t="s">
-        <v>490</v>
+        <v>597</v>
       </c>
       <c r="D24" s="218" t="s">
         <v>596</v>
@@ -12338,9 +12351,9 @@
       <c r="U24" s="297"/>
     </row>
     <row r="25" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B25" s="169"/>
-      <c r="C25" s="169" t="s">
-        <v>491</v>
+      <c r="B25" s="172"/>
+      <c r="C25" s="172" t="s">
+        <v>490</v>
       </c>
       <c r="D25" s="218" t="s">
         <v>596</v>
@@ -12367,7 +12380,7 @@
     <row r="26" spans="2:21" ht="20.25" customHeight="1">
       <c r="B26" s="169"/>
       <c r="C26" s="169" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D26" s="218" t="s">
         <v>596</v>
@@ -12393,9 +12406,15 @@
     </row>
     <row r="27" spans="2:21" ht="20.25" customHeight="1">
       <c r="B27" s="169"/>
-      <c r="C27" s="169"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="231"/>
+      <c r="C27" s="169" t="s">
+        <v>492</v>
+      </c>
+      <c r="D27" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E27" s="231">
+        <v>45978</v>
+      </c>
       <c r="F27" s="232"/>
       <c r="G27" s="217"/>
       <c r="H27" s="231"/>
@@ -12413,10 +12432,8 @@
       <c r="U27" s="297"/>
     </row>
     <row r="28" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B28" s="174" t="s">
-        <v>494</v>
-      </c>
-      <c r="C28" s="174"/>
+      <c r="B28" s="169"/>
+      <c r="C28" s="169"/>
       <c r="D28" s="218"/>
       <c r="E28" s="231"/>
       <c r="F28" s="232"/>
@@ -12436,16 +12453,12 @@
       <c r="U28" s="297"/>
     </row>
     <row r="29" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B29" s="172"/>
-      <c r="C29" s="172" t="s">
-        <v>495</v>
-      </c>
-      <c r="D29" s="218" t="s">
-        <v>596</v>
-      </c>
-      <c r="E29" s="231">
-        <v>45978</v>
-      </c>
+      <c r="B29" s="174" t="s">
+        <v>494</v>
+      </c>
+      <c r="C29" s="174"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="231"/>
       <c r="F29" s="232"/>
       <c r="G29" s="217"/>
       <c r="H29" s="231"/>
@@ -12465,7 +12478,7 @@
     <row r="30" spans="2:21" ht="20.25" customHeight="1">
       <c r="B30" s="172"/>
       <c r="C30" s="172" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D30" s="218" t="s">
         <v>596</v>
@@ -12490,9 +12503,9 @@
       <c r="U30" s="297"/>
     </row>
     <row r="31" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B31" s="169"/>
-      <c r="C31" s="169" t="s">
-        <v>486</v>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172" t="s">
+        <v>496</v>
       </c>
       <c r="D31" s="218" t="s">
         <v>596</v>
@@ -12518,9 +12531,15 @@
     </row>
     <row r="32" spans="2:21" ht="20.25" customHeight="1">
       <c r="B32" s="169"/>
-      <c r="C32" s="169"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="231"/>
+      <c r="C32" s="169" t="s">
+        <v>486</v>
+      </c>
+      <c r="D32" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E32" s="231">
+        <v>45978</v>
+      </c>
       <c r="F32" s="232"/>
       <c r="G32" s="217"/>
       <c r="H32" s="231"/>
@@ -12538,10 +12557,8 @@
       <c r="U32" s="297"/>
     </row>
     <row r="33" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B33" s="174" t="s">
-        <v>174</v>
-      </c>
-      <c r="C33" s="174"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
       <c r="D33" s="218"/>
       <c r="E33" s="231"/>
       <c r="F33" s="232"/>
@@ -12561,16 +12578,12 @@
       <c r="U33" s="297"/>
     </row>
     <row r="34" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B34" s="172"/>
-      <c r="C34" s="172" t="s">
-        <v>502</v>
-      </c>
-      <c r="D34" s="218" t="s">
-        <v>596</v>
-      </c>
-      <c r="E34" s="231">
-        <v>45978</v>
-      </c>
+      <c r="B34" s="174" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="174"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="231"/>
       <c r="F34" s="232"/>
       <c r="G34" s="217"/>
       <c r="H34" s="231"/>
@@ -12590,7 +12603,7 @@
     <row r="35" spans="2:21" ht="20.25" customHeight="1">
       <c r="B35" s="172"/>
       <c r="C35" s="172" t="s">
-        <v>312</v>
+        <v>502</v>
       </c>
       <c r="D35" s="218" t="s">
         <v>596</v>
@@ -12615,10 +12628,16 @@
       <c r="U35" s="297"/>
     </row>
     <row r="36" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B36" s="169"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="218"/>
-      <c r="E36" s="231"/>
+      <c r="B36" s="172"/>
+      <c r="C36" s="172" t="s">
+        <v>312</v>
+      </c>
+      <c r="D36" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E36" s="231">
+        <v>45978</v>
+      </c>
       <c r="F36" s="232"/>
       <c r="G36" s="217"/>
       <c r="H36" s="231"/>
@@ -12636,10 +12655,8 @@
       <c r="U36" s="297"/>
     </row>
     <row r="37" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B37" s="174" t="s">
-        <v>215</v>
-      </c>
-      <c r="C37" s="174"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
       <c r="D37" s="218"/>
       <c r="E37" s="231"/>
       <c r="F37" s="232"/>
@@ -12659,17 +12676,15 @@
       <c r="U37" s="297"/>
     </row>
     <row r="38" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B38" s="172"/>
-      <c r="C38" s="172" t="s">
-        <v>503</v>
-      </c>
+      <c r="B38" s="174" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" s="174"/>
       <c r="D38" s="218"/>
       <c r="E38" s="231"/>
       <c r="F38" s="232"/>
       <c r="G38" s="217"/>
-      <c r="H38" s="231">
-        <v>45982</v>
-      </c>
+      <c r="H38" s="231"/>
       <c r="I38" s="216"/>
       <c r="J38" s="217"/>
       <c r="K38" s="231"/>
@@ -12686,7 +12701,7 @@
     <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="172"/>
       <c r="C39" s="172" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D39" s="218"/>
       <c r="E39" s="231"/>
@@ -12711,7 +12726,7 @@
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
       <c r="B40" s="172"/>
       <c r="C40" s="172" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D40" s="218"/>
       <c r="E40" s="231"/>
@@ -12736,7 +12751,7 @@
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="172"/>
       <c r="C41" s="172" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D41" s="218"/>
       <c r="E41" s="231"/>
@@ -12761,7 +12776,7 @@
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="172"/>
       <c r="C42" s="172" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D42" s="218"/>
       <c r="E42" s="231"/>
@@ -12786,7 +12801,7 @@
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
       <c r="B43" s="172"/>
       <c r="C43" s="172" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D43" s="218"/>
       <c r="E43" s="231"/>
@@ -12811,7 +12826,7 @@
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="172"/>
       <c r="C44" s="172" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D44" s="218"/>
       <c r="E44" s="231"/>
@@ -12836,7 +12851,7 @@
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="172"/>
       <c r="C45" s="172" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D45" s="218"/>
       <c r="E45" s="231"/>
@@ -12861,7 +12876,7 @@
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
       <c r="B46" s="172"/>
       <c r="C46" s="172" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D46" s="218"/>
       <c r="E46" s="231"/>
@@ -12884,13 +12899,17 @@
       <c r="U46" s="297"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B47" s="169"/>
-      <c r="C47" s="169"/>
+      <c r="B47" s="172"/>
+      <c r="C47" s="172" t="s">
+        <v>511</v>
+      </c>
       <c r="D47" s="218"/>
       <c r="E47" s="231"/>
       <c r="F47" s="232"/>
       <c r="G47" s="217"/>
-      <c r="H47" s="231"/>
+      <c r="H47" s="231">
+        <v>45982</v>
+      </c>
       <c r="I47" s="216"/>
       <c r="J47" s="217"/>
       <c r="K47" s="231"/>
@@ -12905,10 +12924,8 @@
       <c r="U47" s="297"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B48" s="174" t="s">
-        <v>513</v>
-      </c>
-      <c r="C48" s="174"/>
+      <c r="B48" s="169"/>
+      <c r="C48" s="169"/>
       <c r="D48" s="218"/>
       <c r="E48" s="231"/>
       <c r="F48" s="232"/>
@@ -12928,10 +12945,10 @@
       <c r="U48" s="297"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B49" s="172"/>
-      <c r="C49" s="172" t="s">
-        <v>514</v>
-      </c>
+      <c r="B49" s="174" t="s">
+        <v>513</v>
+      </c>
+      <c r="C49" s="174"/>
       <c r="D49" s="218"/>
       <c r="E49" s="231"/>
       <c r="F49" s="232"/>
@@ -12939,9 +12956,7 @@
       <c r="H49" s="231"/>
       <c r="I49" s="216"/>
       <c r="J49" s="217"/>
-      <c r="K49" s="231">
-        <v>45985</v>
-      </c>
+      <c r="K49" s="231"/>
       <c r="L49" s="216"/>
       <c r="M49" s="217"/>
       <c r="N49" s="231"/>
@@ -12955,7 +12970,7 @@
     <row r="50" spans="2:21" ht="20.25" customHeight="1">
       <c r="B50" s="172"/>
       <c r="C50" s="172" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D50" s="218"/>
       <c r="E50" s="231"/>
@@ -12980,7 +12995,7 @@
     <row r="51" spans="2:21" ht="20.25" customHeight="1">
       <c r="B51" s="172"/>
       <c r="C51" s="172" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D51" s="218"/>
       <c r="E51" s="231"/>
@@ -13005,7 +13020,7 @@
     <row r="52" spans="2:21" ht="20.25" customHeight="1">
       <c r="B52" s="172"/>
       <c r="C52" s="172" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D52" s="218"/>
       <c r="E52" s="231"/>
@@ -13029,7 +13044,9 @@
     </row>
     <row r="53" spans="2:21" ht="20.25" customHeight="1">
       <c r="B53" s="172"/>
-      <c r="C53" s="172"/>
+      <c r="C53" s="172" t="s">
+        <v>518</v>
+      </c>
       <c r="D53" s="218"/>
       <c r="E53" s="231"/>
       <c r="F53" s="232"/>
@@ -13037,7 +13054,9 @@
       <c r="H53" s="231"/>
       <c r="I53" s="216"/>
       <c r="J53" s="217"/>
-      <c r="K53" s="231"/>
+      <c r="K53" s="231">
+        <v>45985</v>
+      </c>
       <c r="L53" s="216"/>
       <c r="M53" s="217"/>
       <c r="N53" s="231"/>
@@ -13049,10 +13068,8 @@
       <c r="U53" s="297"/>
     </row>
     <row r="54" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B54" s="174" t="s">
-        <v>213</v>
-      </c>
-      <c r="C54" s="174"/>
+      <c r="B54" s="172"/>
+      <c r="C54" s="172"/>
       <c r="D54" s="218"/>
       <c r="E54" s="231"/>
       <c r="F54" s="232"/>
@@ -13072,10 +13089,10 @@
       <c r="U54" s="297"/>
     </row>
     <row r="55" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B55" s="172"/>
-      <c r="C55" s="172" t="s">
-        <v>522</v>
-      </c>
+      <c r="B55" s="174" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55" s="174"/>
       <c r="D55" s="218"/>
       <c r="E55" s="231"/>
       <c r="F55" s="232"/>
@@ -13083,9 +13100,7 @@
       <c r="H55" s="231"/>
       <c r="I55" s="216"/>
       <c r="J55" s="217"/>
-      <c r="K55" s="231">
-        <v>45985</v>
-      </c>
+      <c r="K55" s="231"/>
       <c r="L55" s="216"/>
       <c r="M55" s="217"/>
       <c r="N55" s="231"/>
@@ -13099,7 +13114,7 @@
     <row r="56" spans="2:21" ht="20.25" customHeight="1">
       <c r="B56" s="172"/>
       <c r="C56" s="172" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D56" s="218"/>
       <c r="E56" s="231"/>
@@ -13124,7 +13139,7 @@
     <row r="57" spans="2:21" ht="20.25" customHeight="1">
       <c r="B57" s="172"/>
       <c r="C57" s="172" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D57" s="218"/>
       <c r="E57" s="231"/>
@@ -13149,7 +13164,7 @@
     <row r="58" spans="2:21" ht="20.25" customHeight="1">
       <c r="B58" s="172"/>
       <c r="C58" s="172" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D58" s="218"/>
       <c r="E58" s="231"/>
@@ -13174,7 +13189,7 @@
     <row r="59" spans="2:21" ht="20.25" customHeight="1">
       <c r="B59" s="172"/>
       <c r="C59" s="172" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D59" s="218"/>
       <c r="E59" s="231"/>
@@ -13197,8 +13212,10 @@
       <c r="U59" s="297"/>
     </row>
     <row r="60" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B60" s="218"/>
-      <c r="C60" s="218"/>
+      <c r="B60" s="172"/>
+      <c r="C60" s="172" t="s">
+        <v>527</v>
+      </c>
       <c r="D60" s="218"/>
       <c r="E60" s="231"/>
       <c r="F60" s="232"/>
@@ -13206,7 +13223,9 @@
       <c r="H60" s="231"/>
       <c r="I60" s="216"/>
       <c r="J60" s="217"/>
-      <c r="K60" s="231"/>
+      <c r="K60" s="231">
+        <v>45985</v>
+      </c>
       <c r="L60" s="216"/>
       <c r="M60" s="217"/>
       <c r="N60" s="231"/>
@@ -13218,10 +13237,8 @@
       <c r="U60" s="297"/>
     </row>
     <row r="61" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B61" s="174" t="s">
-        <v>519</v>
-      </c>
-      <c r="C61" s="174"/>
+      <c r="B61" s="218"/>
+      <c r="C61" s="218"/>
       <c r="D61" s="218"/>
       <c r="E61" s="231"/>
       <c r="F61" s="232"/>
@@ -13241,10 +13258,10 @@
       <c r="U61" s="297"/>
     </row>
     <row r="62" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B62" s="172"/>
-      <c r="C62" s="172" t="s">
-        <v>521</v>
-      </c>
+      <c r="B62" s="174" t="s">
+        <v>519</v>
+      </c>
+      <c r="C62" s="174"/>
       <c r="D62" s="218"/>
       <c r="E62" s="231"/>
       <c r="F62" s="232"/>
@@ -13252,9 +13269,7 @@
       <c r="H62" s="231"/>
       <c r="I62" s="216"/>
       <c r="J62" s="217"/>
-      <c r="K62" s="231">
-        <v>45985</v>
-      </c>
+      <c r="K62" s="231"/>
       <c r="L62" s="216"/>
       <c r="M62" s="217"/>
       <c r="N62" s="231"/>
@@ -13268,7 +13283,7 @@
     <row r="63" spans="2:21" ht="20.25" customHeight="1">
       <c r="B63" s="172"/>
       <c r="C63" s="172" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D63" s="218"/>
       <c r="E63" s="231"/>
@@ -13291,8 +13306,10 @@
       <c r="U63" s="297"/>
     </row>
     <row r="64" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B64" s="169"/>
-      <c r="C64" s="169"/>
+      <c r="B64" s="172"/>
+      <c r="C64" s="172" t="s">
+        <v>520</v>
+      </c>
       <c r="D64" s="218"/>
       <c r="E64" s="231"/>
       <c r="F64" s="232"/>
@@ -13300,7 +13317,9 @@
       <c r="H64" s="231"/>
       <c r="I64" s="216"/>
       <c r="J64" s="217"/>
-      <c r="K64" s="231"/>
+      <c r="K64" s="231">
+        <v>45985</v>
+      </c>
       <c r="L64" s="216"/>
       <c r="M64" s="217"/>
       <c r="N64" s="231"/>
@@ -13312,10 +13331,8 @@
       <c r="U64" s="297"/>
     </row>
     <row r="65" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B65" s="174" t="s">
-        <v>211</v>
-      </c>
-      <c r="C65" s="174"/>
+      <c r="B65" s="169"/>
+      <c r="C65" s="169"/>
       <c r="D65" s="218"/>
       <c r="E65" s="231"/>
       <c r="F65" s="232"/>
@@ -13326,9 +13343,7 @@
       <c r="K65" s="231"/>
       <c r="L65" s="216"/>
       <c r="M65" s="217"/>
-      <c r="N65" s="231">
-        <v>45989</v>
-      </c>
+      <c r="N65" s="231"/>
       <c r="O65" s="216"/>
       <c r="P65" s="217"/>
       <c r="R65" s="295"/>
@@ -13337,10 +13352,10 @@
       <c r="U65" s="297"/>
     </row>
     <row r="66" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B66" s="172"/>
-      <c r="C66" s="172" t="s">
-        <v>529</v>
-      </c>
+      <c r="B66" s="174" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="174"/>
       <c r="D66" s="218"/>
       <c r="E66" s="231"/>
       <c r="F66" s="232"/>
@@ -13362,9 +13377,9 @@
       <c r="U66" s="297"/>
     </row>
     <row r="67" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B67" s="169"/>
-      <c r="C67" s="169" t="s">
-        <v>530</v>
+      <c r="B67" s="172"/>
+      <c r="C67" s="172" t="s">
+        <v>529</v>
       </c>
       <c r="D67" s="218"/>
       <c r="E67" s="231"/>
@@ -13389,7 +13404,7 @@
     <row r="68" spans="2:21" ht="20.25" customHeight="1">
       <c r="B68" s="169"/>
       <c r="C68" s="169" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D68" s="218"/>
       <c r="E68" s="231"/>
@@ -13414,7 +13429,7 @@
     <row r="69" spans="2:21" ht="20.25" customHeight="1">
       <c r="B69" s="169"/>
       <c r="C69" s="169" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D69" s="218"/>
       <c r="E69" s="231"/>
@@ -13439,7 +13454,7 @@
     <row r="70" spans="2:21" ht="20.25" customHeight="1">
       <c r="B70" s="169"/>
       <c r="C70" s="169" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D70" s="218"/>
       <c r="E70" s="231"/>
@@ -13464,7 +13479,7 @@
     <row r="71" spans="2:21" ht="20.25" customHeight="1">
       <c r="B71" s="169"/>
       <c r="C71" s="169" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D71" s="218"/>
       <c r="E71" s="231"/>
@@ -13489,7 +13504,7 @@
     <row r="72" spans="2:21" ht="20.25" customHeight="1">
       <c r="B72" s="169"/>
       <c r="C72" s="169" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D72" s="218"/>
       <c r="E72" s="231"/>
@@ -13514,7 +13529,7 @@
     <row r="73" spans="2:21" ht="20.25" customHeight="1">
       <c r="B73" s="169"/>
       <c r="C73" s="169" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D73" s="218"/>
       <c r="E73" s="231"/>
@@ -13539,7 +13554,7 @@
     <row r="74" spans="2:21" ht="20.25" customHeight="1">
       <c r="B74" s="169"/>
       <c r="C74" s="169" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D74" s="218"/>
       <c r="E74" s="231"/>
@@ -13563,7 +13578,9 @@
     </row>
     <row r="75" spans="2:21" ht="20.25" customHeight="1">
       <c r="B75" s="169"/>
-      <c r="C75" s="169"/>
+      <c r="C75" s="169" t="s">
+        <v>538</v>
+      </c>
       <c r="D75" s="218"/>
       <c r="E75" s="231"/>
       <c r="F75" s="232"/>
@@ -13574,7 +13591,9 @@
       <c r="K75" s="231"/>
       <c r="L75" s="216"/>
       <c r="M75" s="217"/>
-      <c r="N75" s="231"/>
+      <c r="N75" s="231">
+        <v>45989</v>
+      </c>
       <c r="O75" s="216"/>
       <c r="P75" s="217"/>
       <c r="R75" s="295"/>
@@ -13583,10 +13602,8 @@
       <c r="U75" s="297"/>
     </row>
     <row r="76" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B76" s="174" t="s">
-        <v>539</v>
-      </c>
-      <c r="C76" s="174"/>
+      <c r="B76" s="169"/>
+      <c r="C76" s="169"/>
       <c r="D76" s="218"/>
       <c r="E76" s="231"/>
       <c r="F76" s="232"/>
@@ -13597,9 +13614,7 @@
       <c r="K76" s="231"/>
       <c r="L76" s="216"/>
       <c r="M76" s="217"/>
-      <c r="N76" s="231">
-        <v>45989</v>
-      </c>
+      <c r="N76" s="231"/>
       <c r="O76" s="216"/>
       <c r="P76" s="217"/>
       <c r="R76" s="295"/>
@@ -13608,10 +13623,10 @@
       <c r="U76" s="297"/>
     </row>
     <row r="77" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B77" s="172"/>
-      <c r="C77" s="172" t="s">
-        <v>541</v>
-      </c>
+      <c r="B77" s="174" t="s">
+        <v>539</v>
+      </c>
+      <c r="C77" s="174"/>
       <c r="D77" s="218"/>
       <c r="E77" s="231"/>
       <c r="F77" s="232"/>
@@ -13635,7 +13650,7 @@
     <row r="78" spans="2:21" ht="20.25" customHeight="1">
       <c r="B78" s="172"/>
       <c r="C78" s="172" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D78" s="218"/>
       <c r="E78" s="231"/>
@@ -13658,8 +13673,10 @@
       <c r="U78" s="297"/>
     </row>
     <row r="79" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B79" s="169"/>
-      <c r="C79" s="169"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="172" t="s">
+        <v>540</v>
+      </c>
       <c r="D79" s="218"/>
       <c r="E79" s="231"/>
       <c r="F79" s="232"/>
@@ -13670,7 +13687,9 @@
       <c r="K79" s="231"/>
       <c r="L79" s="216"/>
       <c r="M79" s="217"/>
-      <c r="N79" s="231"/>
+      <c r="N79" s="231">
+        <v>45989</v>
+      </c>
       <c r="O79" s="216"/>
       <c r="P79" s="217"/>
       <c r="R79" s="295"/>
@@ -13679,10 +13698,8 @@
       <c r="U79" s="297"/>
     </row>
     <row r="80" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B80" s="174" t="s">
-        <v>334</v>
-      </c>
-      <c r="C80" s="174"/>
+      <c r="B80" s="169"/>
+      <c r="C80" s="169"/>
       <c r="D80" s="218"/>
       <c r="E80" s="231"/>
       <c r="F80" s="232"/>
@@ -13693,9 +13710,7 @@
       <c r="K80" s="231"/>
       <c r="L80" s="216"/>
       <c r="M80" s="217"/>
-      <c r="N80" s="231">
-        <v>45989</v>
-      </c>
+      <c r="N80" s="231"/>
       <c r="O80" s="216"/>
       <c r="P80" s="217"/>
       <c r="R80" s="295"/>
@@ -13704,10 +13719,10 @@
       <c r="U80" s="297"/>
     </row>
     <row r="81" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B81" s="172"/>
-      <c r="C81" s="172" t="s">
-        <v>542</v>
-      </c>
+      <c r="B81" s="174" t="s">
+        <v>334</v>
+      </c>
+      <c r="C81" s="174"/>
       <c r="D81" s="218"/>
       <c r="E81" s="231"/>
       <c r="F81" s="232"/>
@@ -13731,7 +13746,7 @@
     <row r="82" spans="2:21" ht="20.25" customHeight="1">
       <c r="B82" s="172"/>
       <c r="C82" s="172" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D82" s="218"/>
       <c r="E82" s="231"/>
@@ -13756,7 +13771,7 @@
     <row r="83" spans="2:21" ht="20.25" customHeight="1">
       <c r="B83" s="172"/>
       <c r="C83" s="172" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D83" s="218"/>
       <c r="E83" s="231"/>
@@ -13781,7 +13796,7 @@
     <row r="84" spans="2:21" ht="20.25" customHeight="1">
       <c r="B84" s="172"/>
       <c r="C84" s="172" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D84" s="218"/>
       <c r="E84" s="231"/>
@@ -13806,7 +13821,7 @@
     <row r="85" spans="2:21" ht="20.25" customHeight="1">
       <c r="B85" s="172"/>
       <c r="C85" s="172" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D85" s="218"/>
       <c r="E85" s="231"/>
@@ -13829,8 +13844,10 @@
       <c r="U85" s="297"/>
     </row>
     <row r="86" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B86" s="169"/>
-      <c r="C86" s="169"/>
+      <c r="B86" s="172"/>
+      <c r="C86" s="172" t="s">
+        <v>546</v>
+      </c>
       <c r="D86" s="218"/>
       <c r="E86" s="231"/>
       <c r="F86" s="232"/>
@@ -13841,7 +13858,9 @@
       <c r="K86" s="231"/>
       <c r="L86" s="216"/>
       <c r="M86" s="217"/>
-      <c r="N86" s="231"/>
+      <c r="N86" s="231">
+        <v>45989</v>
+      </c>
       <c r="O86" s="216"/>
       <c r="P86" s="217"/>
       <c r="R86" s="295"/>
@@ -13850,10 +13869,8 @@
       <c r="U86" s="297"/>
     </row>
     <row r="87" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B87" s="174" t="s">
-        <v>416</v>
-      </c>
-      <c r="C87" s="174"/>
+      <c r="B87" s="169"/>
+      <c r="C87" s="169"/>
       <c r="D87" s="218"/>
       <c r="E87" s="231"/>
       <c r="F87" s="232"/>
@@ -13864,9 +13881,7 @@
       <c r="K87" s="231"/>
       <c r="L87" s="216"/>
       <c r="M87" s="217"/>
-      <c r="N87" s="231">
-        <v>45989</v>
-      </c>
+      <c r="N87" s="231"/>
       <c r="O87" s="216"/>
       <c r="P87" s="217"/>
       <c r="R87" s="295"/>
@@ -13875,10 +13890,10 @@
       <c r="U87" s="297"/>
     </row>
     <row r="88" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B88" s="172"/>
-      <c r="C88" s="172" t="s">
-        <v>548</v>
-      </c>
+      <c r="B88" s="174" t="s">
+        <v>416</v>
+      </c>
+      <c r="C88" s="174"/>
       <c r="D88" s="218"/>
       <c r="E88" s="231"/>
       <c r="F88" s="232"/>
@@ -13902,7 +13917,7 @@
     <row r="89" spans="2:21" ht="20.25" customHeight="1">
       <c r="B89" s="172"/>
       <c r="C89" s="172" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="231"/>
@@ -13927,7 +13942,7 @@
     <row r="90" spans="2:21" ht="20.25" customHeight="1">
       <c r="B90" s="172"/>
       <c r="C90" s="172" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D90" s="218"/>
       <c r="E90" s="231"/>
@@ -13950,9 +13965,9 @@
       <c r="U90" s="297"/>
     </row>
     <row r="91" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B91" s="169"/>
-      <c r="C91" s="169" t="s">
-        <v>550</v>
+      <c r="B91" s="172"/>
+      <c r="C91" s="172" t="s">
+        <v>549</v>
       </c>
       <c r="D91" s="218"/>
       <c r="E91" s="231"/>
@@ -13975,8 +13990,10 @@
       <c r="U91" s="297"/>
     </row>
     <row r="92" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B92" s="218"/>
-      <c r="C92" s="218"/>
+      <c r="B92" s="169"/>
+      <c r="C92" s="169" t="s">
+        <v>550</v>
+      </c>
       <c r="D92" s="218"/>
       <c r="E92" s="231"/>
       <c r="F92" s="232"/>
@@ -13987,7 +14004,9 @@
       <c r="K92" s="231"/>
       <c r="L92" s="216"/>
       <c r="M92" s="217"/>
-      <c r="N92" s="231"/>
+      <c r="N92" s="231">
+        <v>45989</v>
+      </c>
       <c r="O92" s="216"/>
       <c r="P92" s="217"/>
       <c r="R92" s="295"/>
@@ -13995,49 +14014,70 @@
       <c r="T92" s="296"/>
       <c r="U92" s="297"/>
     </row>
-    <row r="93" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B93" s="225"/>
-      <c r="C93" s="226"/>
-      <c r="D93" s="227"/>
-      <c r="E93" s="230"/>
-      <c r="F93" s="226"/>
-      <c r="G93" s="228"/>
-      <c r="H93" s="230"/>
-      <c r="I93" s="226"/>
-      <c r="J93" s="228"/>
-      <c r="K93" s="230"/>
-      <c r="L93" s="226"/>
-      <c r="M93" s="228"/>
-      <c r="N93" s="230"/>
-      <c r="O93" s="226"/>
-      <c r="P93" s="228"/>
-      <c r="R93" s="298"/>
-      <c r="S93" s="299"/>
-      <c r="T93" s="299"/>
-      <c r="U93" s="300"/>
-    </row>
-    <row r="94" spans="2:21" ht="15.75" customHeight="1">
-      <c r="B94" s="186"/>
-      <c r="C94" s="186"/>
-      <c r="D94" s="186"/>
-      <c r="E94" s="186"/>
-      <c r="F94" s="186"/>
-      <c r="G94" s="186"/>
-      <c r="H94" s="186"/>
-      <c r="I94" s="186"/>
-      <c r="J94" s="186"/>
-      <c r="K94" s="186"/>
-      <c r="L94" s="186"/>
-      <c r="M94" s="186"/>
-      <c r="N94" s="186"/>
-      <c r="O94" s="186"/>
-      <c r="P94" s="186"/>
-      <c r="Q94" s="186"/>
+    <row r="93" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B93" s="218"/>
+      <c r="C93" s="218"/>
+      <c r="D93" s="218"/>
+      <c r="E93" s="231"/>
+      <c r="F93" s="232"/>
+      <c r="G93" s="217"/>
+      <c r="H93" s="231"/>
+      <c r="I93" s="216"/>
+      <c r="J93" s="217"/>
+      <c r="K93" s="231"/>
+      <c r="L93" s="216"/>
+      <c r="M93" s="217"/>
+      <c r="N93" s="231"/>
+      <c r="O93" s="216"/>
+      <c r="P93" s="217"/>
+      <c r="R93" s="295"/>
+      <c r="S93" s="296"/>
+      <c r="T93" s="296"/>
+      <c r="U93" s="297"/>
+    </row>
+    <row r="94" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B94" s="225"/>
+      <c r="C94" s="226"/>
+      <c r="D94" s="227"/>
+      <c r="E94" s="230"/>
+      <c r="F94" s="226"/>
+      <c r="G94" s="228"/>
+      <c r="H94" s="230"/>
+      <c r="I94" s="226"/>
+      <c r="J94" s="228"/>
+      <c r="K94" s="230"/>
+      <c r="L94" s="226"/>
+      <c r="M94" s="228"/>
+      <c r="N94" s="230"/>
+      <c r="O94" s="226"/>
+      <c r="P94" s="228"/>
+      <c r="R94" s="298"/>
+      <c r="S94" s="299"/>
+      <c r="T94" s="299"/>
+      <c r="U94" s="300"/>
+    </row>
+    <row r="95" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B95" s="186"/>
+      <c r="C95" s="186"/>
+      <c r="D95" s="186"/>
+      <c r="E95" s="186"/>
+      <c r="F95" s="186"/>
+      <c r="G95" s="186"/>
+      <c r="H95" s="186"/>
+      <c r="I95" s="186"/>
+      <c r="J95" s="186"/>
+      <c r="K95" s="186"/>
+      <c r="L95" s="186"/>
+      <c r="M95" s="186"/>
+      <c r="N95" s="186"/>
+      <c r="O95" s="186"/>
+      <c r="P95" s="186"/>
+      <c r="Q95" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H3:P3"/>
-    <mergeCell ref="R6:U93"/>
+    <mergeCell ref="R6:U94"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>

--- a/doc/chiffrier_sim_vie.xlsx
+++ b/doc/chiffrier_sim_vie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\sim_vie\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D069CD11-2ACE-42A6-805C-17F3C182B3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68355356-B3F3-4F7C-961B-0D236D3B3288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="601">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -2034,6 +2034,12 @@
   </si>
   <si>
     <t>Implémenter l'émission de phéromone dans la boucle de simulation</t>
+  </si>
+  <si>
+    <t>Pour l'instant, on laisse tomber cette fonctionnalité</t>
+  </si>
+  <si>
+    <t>Dessiner l'aura de la vision (peut-être activé et désactivé)</t>
   </si>
 </sst>
 </file>
@@ -2249,7 +2255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2265,6 +2271,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3292,7 +3304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3808,6 +3820,7 @@
     <xf numFmtId="164" fontId="29" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="29" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="29" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="35" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3838,14 +3851,110 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -3856,110 +3965,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3968,18 +3993,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4010,7 +4023,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4725,22 +4738,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="233"/>
-      <c r="G36" s="234"/>
-      <c r="H36" s="234"/>
-      <c r="I36" s="234"/>
+      <c r="F36" s="234"/>
+      <c r="G36" s="235"/>
+      <c r="H36" s="235"/>
+      <c r="I36" s="235"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="234"/>
-      <c r="G37" s="234"/>
-      <c r="H37" s="234"/>
-      <c r="I37" s="234"/>
+      <c r="F37" s="235"/>
+      <c r="G37" s="235"/>
+      <c r="H37" s="235"/>
+      <c r="I37" s="235"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="234"/>
-      <c r="G38" s="234"/>
-      <c r="H38" s="234"/>
-      <c r="I38" s="234"/>
+      <c r="F38" s="235"/>
+      <c r="G38" s="235"/>
+      <c r="H38" s="235"/>
+      <c r="I38" s="235"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="29"/>
@@ -4749,22 +4762,22 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="233"/>
-      <c r="G40" s="234"/>
-      <c r="H40" s="234"/>
-      <c r="I40" s="234"/>
+      <c r="F40" s="234"/>
+      <c r="G40" s="235"/>
+      <c r="H40" s="235"/>
+      <c r="I40" s="235"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="234"/>
-      <c r="G41" s="234"/>
-      <c r="H41" s="234"/>
-      <c r="I41" s="234"/>
+      <c r="F41" s="235"/>
+      <c r="G41" s="235"/>
+      <c r="H41" s="235"/>
+      <c r="I41" s="235"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="234"/>
-      <c r="G42" s="234"/>
-      <c r="H42" s="234"/>
-      <c r="I42" s="234"/>
+      <c r="F42" s="235"/>
+      <c r="G42" s="235"/>
+      <c r="H42" s="235"/>
+      <c r="I42" s="235"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="29"/>
@@ -4779,34 +4792,34 @@
       <c r="I44" s="29"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="233"/>
-      <c r="G45" s="234"/>
-      <c r="H45" s="234"/>
-      <c r="I45" s="234"/>
+      <c r="F45" s="234"/>
+      <c r="G45" s="235"/>
+      <c r="H45" s="235"/>
+      <c r="I45" s="235"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="234"/>
-      <c r="G46" s="234"/>
-      <c r="H46" s="234"/>
-      <c r="I46" s="234"/>
+      <c r="F46" s="235"/>
+      <c r="G46" s="235"/>
+      <c r="H46" s="235"/>
+      <c r="I46" s="235"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="234"/>
-      <c r="G47" s="234"/>
-      <c r="H47" s="234"/>
-      <c r="I47" s="234"/>
+      <c r="F47" s="235"/>
+      <c r="G47" s="235"/>
+      <c r="H47" s="235"/>
+      <c r="I47" s="235"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="234"/>
-      <c r="G48" s="234"/>
-      <c r="H48" s="234"/>
-      <c r="I48" s="234"/>
+      <c r="F48" s="235"/>
+      <c r="G48" s="235"/>
+      <c r="H48" s="235"/>
+      <c r="I48" s="235"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="234"/>
-      <c r="G49" s="234"/>
-      <c r="H49" s="234"/>
-      <c r="I49" s="234"/>
+      <c r="F49" s="235"/>
+      <c r="G49" s="235"/>
+      <c r="H49" s="235"/>
+      <c r="I49" s="235"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4946,7 +4959,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B13" s="235" t="s">
+      <c r="B13" s="236" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="49"/>
@@ -4955,7 +4968,7 @@
       <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B14" s="236"/>
+      <c r="B14" s="237"/>
       <c r="C14" s="50" t="s">
         <v>104</v>
       </c>
@@ -4968,13 +4981,13 @@
       <c r="H14" s="70"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B15" s="236"/>
+      <c r="B15" s="237"/>
       <c r="C15" s="53"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B16" s="236"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="63" t="s">
         <v>171</v>
       </c>
@@ -4986,7 +4999,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="237"/>
+      <c r="B17" s="238"/>
       <c r="C17" s="53" t="s">
         <v>101</v>
       </c>
@@ -4994,7 +5007,7 @@
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="237"/>
+      <c r="B18" s="238"/>
       <c r="C18" s="63" t="s">
         <v>172</v>
       </c>
@@ -5004,13 +5017,13 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="237"/>
+      <c r="B19" s="238"/>
       <c r="C19" s="53"/>
       <c r="D19" s="51"/>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="237"/>
+      <c r="B20" s="238"/>
       <c r="C20" s="50" t="s">
         <v>105</v>
       </c>
@@ -5022,13 +5035,13 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="237"/>
+      <c r="B21" s="238"/>
       <c r="C21" s="53"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="237"/>
+      <c r="B22" s="238"/>
       <c r="C22" s="63" t="s">
         <v>174</v>
       </c>
@@ -5040,7 +5053,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="237"/>
+      <c r="B23" s="238"/>
       <c r="C23" s="68" t="s">
         <v>110</v>
       </c>
@@ -5052,7 +5065,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="237"/>
+      <c r="B24" s="238"/>
       <c r="C24" s="53"/>
       <c r="D24" s="64" t="s">
         <v>176</v>
@@ -5060,7 +5073,7 @@
       <c r="E24" s="65"/>
     </row>
     <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="237"/>
+      <c r="B25" s="238"/>
       <c r="C25" s="63"/>
       <c r="D25" s="64" t="s">
         <v>113</v>
@@ -5068,7 +5081,7 @@
       <c r="E25" s="65"/>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="237"/>
+      <c r="B26" s="238"/>
       <c r="C26" s="63" t="s">
         <v>114</v>
       </c>
@@ -5078,7 +5091,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B27" s="237"/>
+      <c r="B27" s="238"/>
       <c r="C27" s="63" t="s">
         <v>116</v>
       </c>
@@ -5088,13 +5101,13 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="237"/>
+      <c r="B28" s="238"/>
       <c r="C28" s="53"/>
       <c r="D28" s="51"/>
       <c r="E28" s="52"/>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="237"/>
+      <c r="B29" s="238"/>
       <c r="C29" s="50" t="s">
         <v>118</v>
       </c>
@@ -5102,13 +5115,13 @@
       <c r="E29" s="52"/>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="237"/>
+      <c r="B30" s="238"/>
       <c r="C30" s="53"/>
       <c r="D30" s="51"/>
       <c r="E30" s="52"/>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="237"/>
+      <c r="B31" s="238"/>
       <c r="C31" s="63" t="s">
         <v>119</v>
       </c>
@@ -5118,7 +5131,7 @@
       <c r="E31" s="52"/>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="237"/>
+      <c r="B32" s="238"/>
       <c r="C32" s="63" t="s">
         <v>120</v>
       </c>
@@ -5126,7 +5139,7 @@
       <c r="E32" s="52"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="237"/>
+      <c r="B33" s="238"/>
       <c r="C33" s="63" t="s">
         <v>121</v>
       </c>
@@ -5134,7 +5147,7 @@
       <c r="E33" s="52"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="237"/>
+      <c r="B34" s="238"/>
       <c r="C34" s="63" t="s">
         <v>122</v>
       </c>
@@ -5142,7 +5155,7 @@
       <c r="E34" s="52"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="237"/>
+      <c r="B35" s="238"/>
       <c r="C35" s="63" t="s">
         <v>123</v>
       </c>
@@ -5150,13 +5163,13 @@
       <c r="E35" s="52"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="237"/>
+      <c r="B36" s="238"/>
       <c r="C36" s="63"/>
       <c r="D36" s="64"/>
       <c r="E36" s="52"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="237"/>
+      <c r="B37" s="238"/>
       <c r="C37" s="63" t="s">
         <v>177</v>
       </c>
@@ -5164,7 +5177,7 @@
       <c r="E37" s="52"/>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="237"/>
+      <c r="B38" s="238"/>
       <c r="C38" s="63" t="s">
         <v>127</v>
       </c>
@@ -5172,7 +5185,7 @@
       <c r="E38" s="52"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="237"/>
+      <c r="B39" s="238"/>
       <c r="C39" s="63" t="s">
         <v>125</v>
       </c>
@@ -5182,13 +5195,13 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="237"/>
+      <c r="B40" s="238"/>
       <c r="C40" s="63"/>
       <c r="D40" s="51"/>
       <c r="E40" s="52"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="237"/>
+      <c r="B41" s="238"/>
       <c r="C41" s="50" t="s">
         <v>128</v>
       </c>
@@ -5196,13 +5209,13 @@
       <c r="E41" s="52"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="237"/>
+      <c r="B42" s="238"/>
       <c r="C42" s="63"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="237"/>
+      <c r="B43" s="238"/>
       <c r="C43" s="63" t="s">
         <v>129</v>
       </c>
@@ -5210,7 +5223,7 @@
       <c r="E43" s="52"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="237"/>
+      <c r="B44" s="238"/>
       <c r="C44" s="63" t="s">
         <v>101</v>
       </c>
@@ -5220,7 +5233,7 @@
       <c r="E44" s="52"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="237"/>
+      <c r="B45" s="238"/>
       <c r="C45" s="63" t="s">
         <v>131</v>
       </c>
@@ -5230,7 +5243,7 @@
       <c r="E45" s="52"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="237"/>
+      <c r="B46" s="238"/>
       <c r="C46" s="63" t="s">
         <v>133</v>
       </c>
@@ -5240,7 +5253,7 @@
       <c r="E46" s="52"/>
     </row>
     <row r="47" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B47" s="237"/>
+      <c r="B47" s="238"/>
       <c r="C47" s="63" t="s">
         <v>135</v>
       </c>
@@ -5250,7 +5263,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B48" s="237"/>
+      <c r="B48" s="238"/>
       <c r="C48" s="68" t="s">
         <v>137</v>
       </c>
@@ -5258,7 +5271,7 @@
       <c r="E48" s="52"/>
     </row>
     <row r="49" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B49" s="237"/>
+      <c r="B49" s="238"/>
       <c r="C49" s="68" t="s">
         <v>138</v>
       </c>
@@ -5266,13 +5279,13 @@
       <c r="E49" s="52"/>
     </row>
     <row r="50" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B50" s="237"/>
+      <c r="B50" s="238"/>
       <c r="C50" s="63"/>
       <c r="D50" s="51"/>
       <c r="E50" s="52"/>
     </row>
     <row r="51" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B51" s="237"/>
+      <c r="B51" s="238"/>
       <c r="C51" s="50" t="s">
         <v>139</v>
       </c>
@@ -5280,13 +5293,13 @@
       <c r="E51" s="52"/>
     </row>
     <row r="52" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B52" s="237"/>
+      <c r="B52" s="238"/>
       <c r="C52" s="63"/>
       <c r="D52" s="51"/>
       <c r="E52" s="52"/>
     </row>
     <row r="53" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B53" s="237"/>
+      <c r="B53" s="238"/>
       <c r="C53" s="63" t="s">
         <v>140</v>
       </c>
@@ -5296,7 +5309,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B54" s="237"/>
+      <c r="B54" s="238"/>
       <c r="C54" s="63" t="s">
         <v>142</v>
       </c>
@@ -5304,7 +5317,7 @@
       <c r="E54" s="52"/>
     </row>
     <row r="55" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B55" s="237"/>
+      <c r="B55" s="238"/>
       <c r="C55" s="63" t="s">
         <v>143</v>
       </c>
@@ -5312,7 +5325,7 @@
       <c r="E55" s="52"/>
     </row>
     <row r="56" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B56" s="237"/>
+      <c r="B56" s="238"/>
       <c r="C56" s="63" t="s">
         <v>144</v>
       </c>
@@ -5320,7 +5333,7 @@
       <c r="E56" s="52"/>
     </row>
     <row r="57" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B57" s="237"/>
+      <c r="B57" s="238"/>
       <c r="C57" s="63" t="s">
         <v>145</v>
       </c>
@@ -5328,7 +5341,7 @@
       <c r="E57" s="52"/>
     </row>
     <row r="58" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B58" s="237"/>
+      <c r="B58" s="238"/>
       <c r="C58" s="63" t="s">
         <v>146</v>
       </c>
@@ -5338,7 +5351,7 @@
       <c r="E58" s="52"/>
     </row>
     <row r="59" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B59" s="237"/>
+      <c r="B59" s="238"/>
       <c r="C59" s="63" t="s">
         <v>138</v>
       </c>
@@ -5348,7 +5361,7 @@
       <c r="E59" s="52"/>
     </row>
     <row r="60" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B60" s="237"/>
+      <c r="B60" s="238"/>
       <c r="C60" s="63" t="s">
         <v>149</v>
       </c>
@@ -5356,7 +5369,7 @@
       <c r="E60" s="52"/>
     </row>
     <row r="61" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B61" s="237"/>
+      <c r="B61" s="238"/>
       <c r="C61" s="63" t="s">
         <v>150</v>
       </c>
@@ -5366,7 +5379,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B62" s="237"/>
+      <c r="B62" s="238"/>
       <c r="C62" s="63" t="s">
         <v>152</v>
       </c>
@@ -5374,13 +5387,13 @@
       <c r="E62" s="52"/>
     </row>
     <row r="63" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B63" s="237"/>
+      <c r="B63" s="238"/>
       <c r="C63" s="63"/>
       <c r="D63" s="51"/>
       <c r="E63" s="52"/>
     </row>
     <row r="64" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B64" s="237"/>
+      <c r="B64" s="238"/>
       <c r="C64" s="50" t="s">
         <v>153</v>
       </c>
@@ -5388,13 +5401,13 @@
       <c r="E64" s="52"/>
     </row>
     <row r="65" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B65" s="237"/>
+      <c r="B65" s="238"/>
       <c r="C65" s="63"/>
       <c r="D65" s="51"/>
       <c r="E65" s="52"/>
     </row>
     <row r="66" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B66" s="237"/>
+      <c r="B66" s="238"/>
       <c r="C66" s="63" t="s">
         <v>155</v>
       </c>
@@ -5402,7 +5415,7 @@
       <c r="E66" s="52"/>
     </row>
     <row r="67" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B67" s="237"/>
+      <c r="B67" s="238"/>
       <c r="C67" s="63" t="s">
         <v>156</v>
       </c>
@@ -5410,7 +5423,7 @@
       <c r="E67" s="52"/>
     </row>
     <row r="68" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B68" s="237"/>
+      <c r="B68" s="238"/>
       <c r="C68" s="63" t="s">
         <v>154</v>
       </c>
@@ -5418,7 +5431,7 @@
       <c r="E68" s="52"/>
     </row>
     <row r="69" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B69" s="237"/>
+      <c r="B69" s="238"/>
       <c r="C69" s="63" t="s">
         <v>157</v>
       </c>
@@ -5426,25 +5439,25 @@
       <c r="E69" s="52"/>
     </row>
     <row r="70" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B70" s="237"/>
+      <c r="B70" s="238"/>
       <c r="C70" s="63"/>
       <c r="D70" s="51"/>
       <c r="E70" s="52"/>
     </row>
     <row r="71" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B71" s="237"/>
+      <c r="B71" s="238"/>
       <c r="C71" s="63"/>
       <c r="D71" s="51"/>
       <c r="E71" s="52"/>
     </row>
     <row r="72" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B72" s="238"/>
+      <c r="B72" s="239"/>
       <c r="C72" s="54"/>
       <c r="D72" s="55"/>
       <c r="E72" s="56"/>
     </row>
     <row r="73" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B73" s="235" t="s">
+      <c r="B73" s="236" t="s">
         <v>61</v>
       </c>
       <c r="C73" s="63"/>
@@ -5456,7 +5469,7 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B74" s="237"/>
+      <c r="B74" s="238"/>
       <c r="C74" s="63" t="s">
         <v>188</v>
       </c>
@@ -5468,7 +5481,7 @@
       </c>
     </row>
     <row r="75" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B75" s="237"/>
+      <c r="B75" s="238"/>
       <c r="C75" s="53"/>
       <c r="D75" s="64" t="s">
         <v>162</v>
@@ -5478,7 +5491,7 @@
       </c>
     </row>
     <row r="76" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B76" s="237"/>
+      <c r="B76" s="238"/>
       <c r="C76" s="53"/>
       <c r="D76" s="51" t="s">
         <v>102</v>
@@ -5488,7 +5501,7 @@
       </c>
     </row>
     <row r="77" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B77" s="237"/>
+      <c r="B77" s="238"/>
       <c r="C77" s="53"/>
       <c r="D77" s="51" t="s">
         <v>103</v>
@@ -5498,7 +5511,7 @@
       </c>
     </row>
     <row r="78" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B78" s="237"/>
+      <c r="B78" s="238"/>
       <c r="C78" s="53"/>
       <c r="D78" s="64" t="s">
         <v>106</v>
@@ -5508,7 +5521,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B79" s="237"/>
+      <c r="B79" s="238"/>
       <c r="C79" s="53"/>
       <c r="D79" s="64" t="s">
         <v>179</v>
@@ -5518,7 +5531,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B80" s="237"/>
+      <c r="B80" s="238"/>
       <c r="C80" s="53"/>
       <c r="D80" s="64" t="s">
         <v>158</v>
@@ -5528,7 +5541,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B81" s="237"/>
+      <c r="B81" s="238"/>
       <c r="C81" s="53"/>
       <c r="D81" s="64" t="s">
         <v>159</v>
@@ -5538,7 +5551,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B82" s="237"/>
+      <c r="B82" s="238"/>
       <c r="C82" s="53"/>
       <c r="D82" s="64" t="s">
         <v>160</v>
@@ -5548,7 +5561,7 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B83" s="237"/>
+      <c r="B83" s="238"/>
       <c r="C83" s="63"/>
       <c r="D83" s="64" t="s">
         <v>180</v>
@@ -5558,7 +5571,7 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B84" s="237"/>
+      <c r="B84" s="238"/>
       <c r="C84" s="63"/>
       <c r="D84" s="64" t="s">
         <v>181</v>
@@ -5568,7 +5581,7 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B85" s="237"/>
+      <c r="B85" s="238"/>
       <c r="C85" s="53"/>
       <c r="D85" s="64" t="s">
         <v>182</v>
@@ -5578,7 +5591,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B86" s="237"/>
+      <c r="B86" s="238"/>
       <c r="C86" s="53"/>
       <c r="D86" s="64" t="s">
         <v>184</v>
@@ -5588,7 +5601,7 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B87" s="237"/>
+      <c r="B87" s="238"/>
       <c r="C87" s="53"/>
       <c r="D87" s="64" t="s">
         <v>193</v>
@@ -5598,7 +5611,7 @@
       </c>
     </row>
     <row r="88" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B88" s="237"/>
+      <c r="B88" s="238"/>
       <c r="C88" s="53"/>
       <c r="D88" s="64" t="s">
         <v>194</v>
@@ -5608,13 +5621,13 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B89" s="238"/>
+      <c r="B89" s="239"/>
       <c r="C89" s="54"/>
       <c r="D89" s="55"/>
       <c r="E89" s="56"/>
     </row>
     <row r="90" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B90" s="235" t="s">
+      <c r="B90" s="236" t="s">
         <v>62</v>
       </c>
       <c r="C90" s="57"/>
@@ -5622,7 +5635,7 @@
       <c r="E90" s="59"/>
     </row>
     <row r="91" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B91" s="237"/>
+      <c r="B91" s="238"/>
       <c r="C91" s="63" t="s">
         <v>189</v>
       </c>
@@ -5630,7 +5643,7 @@
       <c r="E91" s="52"/>
     </row>
     <row r="92" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B92" s="237"/>
+      <c r="B92" s="238"/>
       <c r="C92" s="63" t="s">
         <v>190</v>
       </c>
@@ -5638,7 +5651,7 @@
       <c r="E92" s="52"/>
     </row>
     <row r="93" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B93" s="237"/>
+      <c r="B93" s="238"/>
       <c r="C93" s="53" t="s">
         <v>191</v>
       </c>
@@ -5646,37 +5659,37 @@
       <c r="E93" s="52"/>
     </row>
     <row r="94" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B94" s="237"/>
+      <c r="B94" s="238"/>
       <c r="C94" s="53"/>
       <c r="D94" s="51"/>
       <c r="E94" s="52"/>
     </row>
     <row r="95" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B95" s="237"/>
+      <c r="B95" s="238"/>
       <c r="C95" s="53"/>
       <c r="D95" s="51"/>
       <c r="E95" s="52"/>
     </row>
     <row r="96" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B96" s="237"/>
+      <c r="B96" s="238"/>
       <c r="C96" s="53"/>
       <c r="D96" s="51"/>
       <c r="E96" s="52"/>
     </row>
     <row r="97" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B97" s="237"/>
+      <c r="B97" s="238"/>
       <c r="C97" s="53"/>
       <c r="D97" s="51"/>
       <c r="E97" s="52"/>
     </row>
     <row r="98" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B98" s="237"/>
+      <c r="B98" s="238"/>
       <c r="C98" s="53"/>
       <c r="D98" s="51"/>
       <c r="E98" s="52"/>
     </row>
     <row r="99" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B99" s="238"/>
+      <c r="B99" s="239"/>
       <c r="C99" s="60"/>
       <c r="D99" s="61"/>
       <c r="E99" s="62"/>
@@ -5739,11 +5752,11 @@
         <v>476</v>
       </c>
       <c r="C3" s="106"/>
-      <c r="D3" s="239" t="s">
+      <c r="D3" s="240" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="240"/>
-      <c r="F3" s="241"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="242"/>
       <c r="H3" s="75"/>
     </row>
     <row r="4" spans="1:8" s="76" customFormat="1" ht="30.75" customHeight="1">
@@ -5751,11 +5764,11 @@
         <v>477</v>
       </c>
       <c r="C4" s="106"/>
-      <c r="D4" s="242" t="s">
+      <c r="D4" s="243" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="240"/>
-      <c r="F4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="242"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1">
       <c r="A5" s="156" t="s">
@@ -7219,16 +7232,16 @@
       <c r="W10" s="29"/>
     </row>
     <row r="11" spans="1:107" thickBot="1">
-      <c r="G11" s="249" t="s">
+      <c r="G11" s="270" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="250"/>
-      <c r="I11" s="250"/>
-      <c r="J11" s="250"/>
-      <c r="K11" s="250"/>
-      <c r="L11" s="250"/>
-      <c r="M11" s="250"/>
-      <c r="N11" s="251"/>
+      <c r="H11" s="271"/>
+      <c r="I11" s="271"/>
+      <c r="J11" s="271"/>
+      <c r="K11" s="271"/>
+      <c r="L11" s="271"/>
+      <c r="M11" s="271"/>
+      <c r="N11" s="272"/>
       <c r="O11" s="48"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
@@ -7266,66 +7279,66 @@
       <c r="AW11" s="47"/>
       <c r="AX11" s="113"/>
       <c r="AY11" s="115"/>
-      <c r="BD11" s="249" t="s">
+      <c r="BD11" s="270" t="s">
         <v>324</v>
       </c>
-      <c r="BE11" s="250"/>
-      <c r="BF11" s="250"/>
-      <c r="BG11" s="250"/>
-      <c r="BH11" s="250"/>
-      <c r="BI11" s="250"/>
-      <c r="BJ11" s="250"/>
-      <c r="BK11" s="251"/>
-      <c r="BP11" s="249" t="s">
+      <c r="BE11" s="271"/>
+      <c r="BF11" s="271"/>
+      <c r="BG11" s="271"/>
+      <c r="BH11" s="271"/>
+      <c r="BI11" s="271"/>
+      <c r="BJ11" s="271"/>
+      <c r="BK11" s="272"/>
+      <c r="BP11" s="270" t="s">
         <v>324</v>
       </c>
-      <c r="BQ11" s="250"/>
-      <c r="BR11" s="250"/>
-      <c r="BS11" s="250"/>
-      <c r="BT11" s="250"/>
-      <c r="BU11" s="250"/>
-      <c r="BV11" s="250"/>
-      <c r="BW11" s="251"/>
-      <c r="CA11" s="249" t="s">
+      <c r="BQ11" s="271"/>
+      <c r="BR11" s="271"/>
+      <c r="BS11" s="271"/>
+      <c r="BT11" s="271"/>
+      <c r="BU11" s="271"/>
+      <c r="BV11" s="271"/>
+      <c r="BW11" s="272"/>
+      <c r="CA11" s="270" t="s">
         <v>324</v>
       </c>
-      <c r="CB11" s="250"/>
-      <c r="CC11" s="250"/>
-      <c r="CD11" s="250"/>
-      <c r="CE11" s="250"/>
-      <c r="CF11" s="250"/>
-      <c r="CG11" s="250"/>
-      <c r="CH11" s="251"/>
-      <c r="CL11" s="249" t="s">
+      <c r="CB11" s="271"/>
+      <c r="CC11" s="271"/>
+      <c r="CD11" s="271"/>
+      <c r="CE11" s="271"/>
+      <c r="CF11" s="271"/>
+      <c r="CG11" s="271"/>
+      <c r="CH11" s="272"/>
+      <c r="CL11" s="270" t="s">
         <v>324</v>
       </c>
-      <c r="CM11" s="250"/>
-      <c r="CN11" s="250"/>
-      <c r="CO11" s="250"/>
-      <c r="CP11" s="250"/>
-      <c r="CQ11" s="250"/>
-      <c r="CR11" s="250"/>
-      <c r="CS11" s="251"/>
-      <c r="CV11" s="249" t="s">
+      <c r="CM11" s="271"/>
+      <c r="CN11" s="271"/>
+      <c r="CO11" s="271"/>
+      <c r="CP11" s="271"/>
+      <c r="CQ11" s="271"/>
+      <c r="CR11" s="271"/>
+      <c r="CS11" s="272"/>
+      <c r="CV11" s="270" t="s">
         <v>324</v>
       </c>
-      <c r="CW11" s="250"/>
-      <c r="CX11" s="250"/>
-      <c r="CY11" s="250"/>
-      <c r="CZ11" s="250"/>
-      <c r="DA11" s="250"/>
-      <c r="DB11" s="250"/>
-      <c r="DC11" s="251"/>
+      <c r="CW11" s="271"/>
+      <c r="CX11" s="271"/>
+      <c r="CY11" s="271"/>
+      <c r="CZ11" s="271"/>
+      <c r="DA11" s="271"/>
+      <c r="DB11" s="271"/>
+      <c r="DC11" s="272"/>
     </row>
     <row r="12" spans="1:107" thickBot="1">
-      <c r="G12" s="252"/>
-      <c r="H12" s="253"/>
-      <c r="I12" s="253"/>
-      <c r="J12" s="253"/>
-      <c r="K12" s="253"/>
-      <c r="L12" s="253"/>
-      <c r="M12" s="253"/>
-      <c r="N12" s="254"/>
+      <c r="G12" s="273"/>
+      <c r="H12" s="274"/>
+      <c r="I12" s="274"/>
+      <c r="J12" s="274"/>
+      <c r="K12" s="274"/>
+      <c r="L12" s="274"/>
+      <c r="M12" s="274"/>
+      <c r="N12" s="275"/>
       <c r="O12" s="40"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
@@ -7336,49 +7349,49 @@
       <c r="V12" s="29"/>
       <c r="W12" s="29"/>
       <c r="AX12" s="42"/>
-      <c r="AY12" s="246" t="s">
+      <c r="AY12" s="279" t="s">
         <v>323</v>
       </c>
-      <c r="BD12" s="252"/>
-      <c r="BE12" s="253"/>
-      <c r="BF12" s="253"/>
-      <c r="BG12" s="253"/>
-      <c r="BH12" s="253"/>
-      <c r="BI12" s="253"/>
-      <c r="BJ12" s="253"/>
-      <c r="BK12" s="254"/>
-      <c r="BP12" s="252"/>
-      <c r="BQ12" s="253"/>
-      <c r="BR12" s="253"/>
-      <c r="BS12" s="253"/>
-      <c r="BT12" s="253"/>
-      <c r="BU12" s="253"/>
-      <c r="BV12" s="253"/>
-      <c r="BW12" s="254"/>
-      <c r="CA12" s="252"/>
-      <c r="CB12" s="253"/>
-      <c r="CC12" s="253"/>
-      <c r="CD12" s="253"/>
-      <c r="CE12" s="253"/>
-      <c r="CF12" s="253"/>
-      <c r="CG12" s="253"/>
-      <c r="CH12" s="254"/>
-      <c r="CL12" s="252"/>
-      <c r="CM12" s="253"/>
-      <c r="CN12" s="253"/>
-      <c r="CO12" s="253"/>
-      <c r="CP12" s="253"/>
-      <c r="CQ12" s="253"/>
-      <c r="CR12" s="253"/>
-      <c r="CS12" s="254"/>
-      <c r="CV12" s="252"/>
-      <c r="CW12" s="253"/>
-      <c r="CX12" s="253"/>
-      <c r="CY12" s="253"/>
-      <c r="CZ12" s="253"/>
-      <c r="DA12" s="253"/>
-      <c r="DB12" s="253"/>
-      <c r="DC12" s="254"/>
+      <c r="BD12" s="273"/>
+      <c r="BE12" s="274"/>
+      <c r="BF12" s="274"/>
+      <c r="BG12" s="274"/>
+      <c r="BH12" s="274"/>
+      <c r="BI12" s="274"/>
+      <c r="BJ12" s="274"/>
+      <c r="BK12" s="275"/>
+      <c r="BP12" s="273"/>
+      <c r="BQ12" s="274"/>
+      <c r="BR12" s="274"/>
+      <c r="BS12" s="274"/>
+      <c r="BT12" s="274"/>
+      <c r="BU12" s="274"/>
+      <c r="BV12" s="274"/>
+      <c r="BW12" s="275"/>
+      <c r="CA12" s="273"/>
+      <c r="CB12" s="274"/>
+      <c r="CC12" s="274"/>
+      <c r="CD12" s="274"/>
+      <c r="CE12" s="274"/>
+      <c r="CF12" s="274"/>
+      <c r="CG12" s="274"/>
+      <c r="CH12" s="275"/>
+      <c r="CL12" s="273"/>
+      <c r="CM12" s="274"/>
+      <c r="CN12" s="274"/>
+      <c r="CO12" s="274"/>
+      <c r="CP12" s="274"/>
+      <c r="CQ12" s="274"/>
+      <c r="CR12" s="274"/>
+      <c r="CS12" s="275"/>
+      <c r="CV12" s="273"/>
+      <c r="CW12" s="274"/>
+      <c r="CX12" s="274"/>
+      <c r="CY12" s="274"/>
+      <c r="CZ12" s="274"/>
+      <c r="DA12" s="274"/>
+      <c r="DB12" s="274"/>
+      <c r="DC12" s="275"/>
     </row>
     <row r="13" spans="1:107" thickBot="1">
       <c r="G13" s="40"/>
@@ -7397,7 +7410,7 @@
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
       <c r="AX13" s="42"/>
-      <c r="AY13" s="247"/>
+      <c r="AY13" s="280"/>
       <c r="BD13" s="40"/>
       <c r="BG13" s="29"/>
       <c r="BH13" s="29"/>
@@ -7422,16 +7435,16 @@
       <c r="DC13" s="42"/>
     </row>
     <row r="14" spans="1:107" thickBot="1">
-      <c r="G14" s="255" t="s">
+      <c r="G14" s="276" t="s">
         <v>325</v>
       </c>
-      <c r="H14" s="256"/>
-      <c r="I14" s="256"/>
-      <c r="J14" s="256"/>
-      <c r="K14" s="256"/>
-      <c r="L14" s="256"/>
-      <c r="M14" s="256"/>
-      <c r="N14" s="257"/>
+      <c r="H14" s="277"/>
+      <c r="I14" s="277"/>
+      <c r="J14" s="277"/>
+      <c r="K14" s="277"/>
+      <c r="L14" s="277"/>
+      <c r="M14" s="277"/>
+      <c r="N14" s="278"/>
       <c r="O14" s="40"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -7442,57 +7455,57 @@
       <c r="V14" s="29"/>
       <c r="W14" s="29"/>
       <c r="AX14" s="42"/>
-      <c r="AY14" s="247"/>
-      <c r="BD14" s="255" t="s">
+      <c r="AY14" s="280"/>
+      <c r="BD14" s="276" t="s">
         <v>338</v>
       </c>
-      <c r="BE14" s="256"/>
-      <c r="BF14" s="256"/>
-      <c r="BG14" s="256"/>
-      <c r="BH14" s="256"/>
-      <c r="BI14" s="256"/>
-      <c r="BJ14" s="256"/>
-      <c r="BK14" s="257"/>
-      <c r="BP14" s="255" t="s">
+      <c r="BE14" s="277"/>
+      <c r="BF14" s="277"/>
+      <c r="BG14" s="277"/>
+      <c r="BH14" s="277"/>
+      <c r="BI14" s="277"/>
+      <c r="BJ14" s="277"/>
+      <c r="BK14" s="278"/>
+      <c r="BP14" s="276" t="s">
         <v>327</v>
       </c>
-      <c r="BQ14" s="256"/>
-      <c r="BR14" s="256"/>
-      <c r="BS14" s="256"/>
-      <c r="BT14" s="256"/>
-      <c r="BU14" s="256"/>
-      <c r="BV14" s="256"/>
-      <c r="BW14" s="257"/>
-      <c r="CA14" s="255" t="s">
+      <c r="BQ14" s="277"/>
+      <c r="BR14" s="277"/>
+      <c r="BS14" s="277"/>
+      <c r="BT14" s="277"/>
+      <c r="BU14" s="277"/>
+      <c r="BV14" s="277"/>
+      <c r="BW14" s="278"/>
+      <c r="CA14" s="276" t="s">
         <v>326</v>
       </c>
-      <c r="CB14" s="256"/>
-      <c r="CC14" s="256"/>
-      <c r="CD14" s="256"/>
-      <c r="CE14" s="256"/>
-      <c r="CF14" s="256"/>
-      <c r="CG14" s="256"/>
-      <c r="CH14" s="257"/>
-      <c r="CL14" s="255" t="s">
+      <c r="CB14" s="277"/>
+      <c r="CC14" s="277"/>
+      <c r="CD14" s="277"/>
+      <c r="CE14" s="277"/>
+      <c r="CF14" s="277"/>
+      <c r="CG14" s="277"/>
+      <c r="CH14" s="278"/>
+      <c r="CL14" s="276" t="s">
         <v>329</v>
       </c>
-      <c r="CM14" s="256"/>
-      <c r="CN14" s="256"/>
-      <c r="CO14" s="256"/>
-      <c r="CP14" s="256"/>
-      <c r="CQ14" s="256"/>
-      <c r="CR14" s="256"/>
-      <c r="CS14" s="257"/>
-      <c r="CV14" s="255" t="s">
+      <c r="CM14" s="277"/>
+      <c r="CN14" s="277"/>
+      <c r="CO14" s="277"/>
+      <c r="CP14" s="277"/>
+      <c r="CQ14" s="277"/>
+      <c r="CR14" s="277"/>
+      <c r="CS14" s="278"/>
+      <c r="CV14" s="276" t="s">
         <v>328</v>
       </c>
-      <c r="CW14" s="256"/>
-      <c r="CX14" s="256"/>
-      <c r="CY14" s="256"/>
-      <c r="CZ14" s="256"/>
-      <c r="DA14" s="256"/>
-      <c r="DB14" s="256"/>
-      <c r="DC14" s="257"/>
+      <c r="CW14" s="277"/>
+      <c r="CX14" s="277"/>
+      <c r="CY14" s="277"/>
+      <c r="CZ14" s="277"/>
+      <c r="DA14" s="277"/>
+      <c r="DB14" s="277"/>
+      <c r="DC14" s="278"/>
     </row>
     <row r="15" spans="1:107" thickBot="1">
       <c r="G15" s="117"/>
@@ -7513,7 +7526,7 @@
       <c r="V15" s="29"/>
       <c r="W15" s="29"/>
       <c r="AX15" s="42"/>
-      <c r="AY15" s="247"/>
+      <c r="AY15" s="280"/>
       <c r="BD15" s="117"/>
       <c r="BE15" s="116"/>
       <c r="BF15" s="114"/>
@@ -7574,7 +7587,7 @@
       <c r="V16" s="29"/>
       <c r="W16" s="29"/>
       <c r="AX16" s="42"/>
-      <c r="AY16" s="247"/>
+      <c r="AY16" s="280"/>
       <c r="BD16" s="40"/>
       <c r="BE16" s="29"/>
       <c r="BF16" s="29"/>
@@ -7626,16 +7639,16 @@
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="40"/>
-      <c r="P17" s="258"/>
-      <c r="Q17" s="234"/>
-      <c r="R17" s="234"/>
+      <c r="P17" s="282"/>
+      <c r="Q17" s="235"/>
+      <c r="R17" s="235"/>
       <c r="S17" s="29"/>
-      <c r="T17" s="258"/>
-      <c r="U17" s="234"/>
-      <c r="V17" s="234"/>
-      <c r="W17" s="234"/>
+      <c r="T17" s="282"/>
+      <c r="U17" s="235"/>
+      <c r="V17" s="235"/>
+      <c r="W17" s="235"/>
       <c r="AX17" s="42"/>
-      <c r="AY17" s="247"/>
+      <c r="AY17" s="280"/>
       <c r="BD17" s="40"/>
       <c r="BE17" s="29"/>
       <c r="BF17" s="29"/>
@@ -7653,14 +7666,14 @@
       <c r="BV17" s="29"/>
       <c r="BW17" s="46"/>
       <c r="CA17" s="40"/>
-      <c r="CB17" s="259" t="s">
+      <c r="CB17" s="244" t="s">
         <v>349</v>
       </c>
-      <c r="CC17" s="244"/>
-      <c r="CD17" s="244"/>
-      <c r="CE17" s="244"/>
-      <c r="CF17" s="244"/>
-      <c r="CG17" s="245"/>
+      <c r="CC17" s="247"/>
+      <c r="CD17" s="247"/>
+      <c r="CE17" s="247"/>
+      <c r="CF17" s="247"/>
+      <c r="CG17" s="248"/>
       <c r="CH17" s="46"/>
       <c r="CL17" s="40"/>
       <c r="CM17" s="29"/>
@@ -7683,96 +7696,96 @@
       <c r="G18" s="41"/>
       <c r="O18" s="41"/>
       <c r="AX18" s="42"/>
-      <c r="AY18" s="247"/>
+      <c r="AY18" s="280"/>
       <c r="BD18" s="41"/>
-      <c r="BE18" s="243" t="s">
+      <c r="BE18" s="258" t="s">
         <v>335</v>
       </c>
-      <c r="BF18" s="244"/>
-      <c r="BG18" s="244"/>
-      <c r="BH18" s="244"/>
-      <c r="BI18" s="244"/>
-      <c r="BJ18" s="245"/>
+      <c r="BF18" s="247"/>
+      <c r="BG18" s="247"/>
+      <c r="BH18" s="247"/>
+      <c r="BI18" s="247"/>
+      <c r="BJ18" s="248"/>
       <c r="BK18" s="42"/>
       <c r="BP18" s="41"/>
-      <c r="BQ18" s="243" t="s">
+      <c r="BQ18" s="258" t="s">
         <v>331</v>
       </c>
-      <c r="BR18" s="244"/>
-      <c r="BS18" s="244"/>
-      <c r="BT18" s="244"/>
-      <c r="BU18" s="244"/>
-      <c r="BV18" s="245"/>
+      <c r="BR18" s="247"/>
+      <c r="BS18" s="247"/>
+      <c r="BT18" s="247"/>
+      <c r="BU18" s="247"/>
+      <c r="BV18" s="248"/>
       <c r="BW18" s="42"/>
       <c r="CA18" s="41"/>
-      <c r="CB18" s="260" t="s">
+      <c r="CB18" s="259" t="s">
         <v>342</v>
       </c>
-      <c r="CC18" s="261"/>
-      <c r="CD18" s="243"/>
-      <c r="CE18" s="245"/>
-      <c r="CF18" s="260" t="s">
+      <c r="CC18" s="260"/>
+      <c r="CD18" s="258"/>
+      <c r="CE18" s="248"/>
+      <c r="CF18" s="259" t="s">
         <v>341</v>
       </c>
-      <c r="CG18" s="261"/>
+      <c r="CG18" s="260"/>
       <c r="CH18" s="42"/>
       <c r="CL18" s="41"/>
-      <c r="CM18" s="259" t="s">
+      <c r="CM18" s="244" t="s">
         <v>354</v>
       </c>
-      <c r="CN18" s="244"/>
-      <c r="CO18" s="244"/>
-      <c r="CP18" s="244"/>
-      <c r="CQ18" s="244"/>
-      <c r="CR18" s="245"/>
+      <c r="CN18" s="247"/>
+      <c r="CO18" s="247"/>
+      <c r="CP18" s="247"/>
+      <c r="CQ18" s="247"/>
+      <c r="CR18" s="248"/>
       <c r="CS18" s="42"/>
       <c r="CV18" s="41"/>
-      <c r="CW18" s="259" t="s">
+      <c r="CW18" s="244" t="s">
         <v>359</v>
       </c>
-      <c r="CX18" s="244"/>
-      <c r="CY18" s="244"/>
-      <c r="CZ18" s="244"/>
-      <c r="DA18" s="244"/>
-      <c r="DB18" s="245"/>
+      <c r="CX18" s="247"/>
+      <c r="CY18" s="247"/>
+      <c r="CZ18" s="247"/>
+      <c r="DA18" s="247"/>
+      <c r="DB18" s="248"/>
       <c r="DC18" s="42"/>
     </row>
     <row r="19" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G19" s="41"/>
       <c r="O19" s="41"/>
       <c r="AX19" s="42"/>
-      <c r="AY19" s="247"/>
+      <c r="AY19" s="280"/>
       <c r="BD19" s="41"/>
-      <c r="BE19" s="243" t="s">
+      <c r="BE19" s="258" t="s">
         <v>336</v>
       </c>
-      <c r="BF19" s="244"/>
-      <c r="BG19" s="244"/>
-      <c r="BH19" s="244"/>
-      <c r="BI19" s="244"/>
-      <c r="BJ19" s="245"/>
+      <c r="BF19" s="247"/>
+      <c r="BG19" s="247"/>
+      <c r="BH19" s="247"/>
+      <c r="BI19" s="247"/>
+      <c r="BJ19" s="248"/>
       <c r="BK19" s="42"/>
       <c r="BP19" s="41"/>
-      <c r="BQ19" s="243" t="s">
+      <c r="BQ19" s="258" t="s">
         <v>330</v>
       </c>
-      <c r="BR19" s="244"/>
-      <c r="BS19" s="244"/>
-      <c r="BT19" s="244"/>
-      <c r="BU19" s="244"/>
-      <c r="BV19" s="245"/>
+      <c r="BR19" s="247"/>
+      <c r="BS19" s="247"/>
+      <c r="BT19" s="247"/>
+      <c r="BU19" s="247"/>
+      <c r="BV19" s="248"/>
       <c r="BW19" s="42"/>
       <c r="CA19" s="41"/>
       <c r="CH19" s="42"/>
       <c r="CL19" s="41"/>
-      <c r="CM19" s="259" t="s">
+      <c r="CM19" s="244" t="s">
         <v>355</v>
       </c>
-      <c r="CN19" s="244"/>
-      <c r="CO19" s="244"/>
-      <c r="CP19" s="244"/>
-      <c r="CQ19" s="244"/>
-      <c r="CR19" s="245"/>
+      <c r="CN19" s="247"/>
+      <c r="CO19" s="247"/>
+      <c r="CP19" s="247"/>
+      <c r="CQ19" s="247"/>
+      <c r="CR19" s="248"/>
       <c r="CS19" s="42"/>
       <c r="CV19" s="41"/>
       <c r="DC19" s="42"/>
@@ -7781,114 +7794,114 @@
       <c r="G20" s="41"/>
       <c r="O20" s="41"/>
       <c r="AX20" s="42"/>
-      <c r="AY20" s="247"/>
+      <c r="AY20" s="280"/>
       <c r="BD20" s="41"/>
       <c r="BK20" s="42"/>
       <c r="BP20" s="41"/>
       <c r="BW20" s="42"/>
       <c r="CA20" s="41"/>
-      <c r="CB20" s="259" t="s">
+      <c r="CB20" s="244" t="s">
         <v>350</v>
       </c>
-      <c r="CC20" s="244"/>
-      <c r="CD20" s="244"/>
-      <c r="CE20" s="244"/>
-      <c r="CF20" s="244"/>
-      <c r="CG20" s="245"/>
+      <c r="CC20" s="247"/>
+      <c r="CD20" s="247"/>
+      <c r="CE20" s="247"/>
+      <c r="CF20" s="247"/>
+      <c r="CG20" s="248"/>
       <c r="CH20" s="42"/>
       <c r="CL20" s="41"/>
       <c r="CS20" s="42"/>
       <c r="CV20" s="41"/>
-      <c r="CW20" s="259" t="s">
+      <c r="CW20" s="244" t="s">
         <v>360</v>
       </c>
-      <c r="CX20" s="244"/>
-      <c r="CY20" s="244"/>
-      <c r="CZ20" s="244"/>
-      <c r="DA20" s="244"/>
-      <c r="DB20" s="245"/>
+      <c r="CX20" s="247"/>
+      <c r="CY20" s="247"/>
+      <c r="CZ20" s="247"/>
+      <c r="DA20" s="247"/>
+      <c r="DB20" s="248"/>
       <c r="DC20" s="42"/>
     </row>
     <row r="21" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G21" s="41"/>
       <c r="O21" s="41"/>
       <c r="AX21" s="42"/>
-      <c r="AY21" s="247"/>
+      <c r="AY21" s="280"/>
       <c r="BD21" s="41"/>
-      <c r="BE21" s="243" t="s">
+      <c r="BE21" s="258" t="s">
         <v>337</v>
       </c>
-      <c r="BF21" s="244"/>
-      <c r="BG21" s="244"/>
-      <c r="BH21" s="244"/>
-      <c r="BI21" s="244"/>
-      <c r="BJ21" s="245"/>
+      <c r="BF21" s="247"/>
+      <c r="BG21" s="247"/>
+      <c r="BH21" s="247"/>
+      <c r="BI21" s="247"/>
+      <c r="BJ21" s="248"/>
       <c r="BK21" s="42"/>
       <c r="BP21" s="41"/>
-      <c r="BQ21" s="243" t="s">
+      <c r="BQ21" s="258" t="s">
         <v>332</v>
       </c>
-      <c r="BR21" s="244"/>
-      <c r="BS21" s="244"/>
-      <c r="BT21" s="244"/>
-      <c r="BU21" s="244"/>
-      <c r="BV21" s="245"/>
+      <c r="BR21" s="247"/>
+      <c r="BS21" s="247"/>
+      <c r="BT21" s="247"/>
+      <c r="BU21" s="247"/>
+      <c r="BV21" s="248"/>
       <c r="BW21" s="42"/>
       <c r="CA21" s="41"/>
-      <c r="CB21" s="259" t="s">
+      <c r="CB21" s="244" t="s">
         <v>336</v>
       </c>
-      <c r="CC21" s="244"/>
-      <c r="CD21" s="244"/>
-      <c r="CE21" s="244"/>
-      <c r="CF21" s="244"/>
-      <c r="CG21" s="245"/>
+      <c r="CC21" s="247"/>
+      <c r="CD21" s="247"/>
+      <c r="CE21" s="247"/>
+      <c r="CF21" s="247"/>
+      <c r="CG21" s="248"/>
       <c r="CH21" s="42"/>
       <c r="CL21" s="41"/>
-      <c r="CM21" s="259" t="s">
+      <c r="CM21" s="244" t="s">
         <v>356</v>
       </c>
-      <c r="CN21" s="244"/>
-      <c r="CO21" s="244"/>
-      <c r="CP21" s="244"/>
-      <c r="CQ21" s="244"/>
-      <c r="CR21" s="245"/>
+      <c r="CN21" s="247"/>
+      <c r="CO21" s="247"/>
+      <c r="CP21" s="247"/>
+      <c r="CQ21" s="247"/>
+      <c r="CR21" s="248"/>
       <c r="CS21" s="42"/>
       <c r="CV21" s="41"/>
-      <c r="CW21" s="259" t="s">
+      <c r="CW21" s="244" t="s">
         <v>355</v>
       </c>
-      <c r="CX21" s="244"/>
-      <c r="CY21" s="244"/>
-      <c r="CZ21" s="244"/>
-      <c r="DA21" s="244"/>
-      <c r="DB21" s="245"/>
+      <c r="CX21" s="247"/>
+      <c r="CY21" s="247"/>
+      <c r="CZ21" s="247"/>
+      <c r="DA21" s="247"/>
+      <c r="DB21" s="248"/>
       <c r="DC21" s="42"/>
     </row>
     <row r="22" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G22" s="41"/>
       <c r="O22" s="41"/>
       <c r="AX22" s="42"/>
-      <c r="AY22" s="247"/>
+      <c r="AY22" s="280"/>
       <c r="BD22" s="41"/>
-      <c r="BE22" s="243" t="s">
+      <c r="BE22" s="258" t="s">
         <v>336</v>
       </c>
-      <c r="BF22" s="244"/>
-      <c r="BG22" s="244"/>
-      <c r="BH22" s="244"/>
-      <c r="BI22" s="244"/>
-      <c r="BJ22" s="245"/>
+      <c r="BF22" s="247"/>
+      <c r="BG22" s="247"/>
+      <c r="BH22" s="247"/>
+      <c r="BI22" s="247"/>
+      <c r="BJ22" s="248"/>
       <c r="BK22" s="42"/>
       <c r="BP22" s="41"/>
-      <c r="BQ22" s="243" t="s">
+      <c r="BQ22" s="258" t="s">
         <v>330</v>
       </c>
-      <c r="BR22" s="244"/>
-      <c r="BS22" s="244"/>
-      <c r="BT22" s="244"/>
-      <c r="BU22" s="244"/>
-      <c r="BV22" s="245"/>
+      <c r="BR22" s="247"/>
+      <c r="BS22" s="247"/>
+      <c r="BT22" s="247"/>
+      <c r="BU22" s="247"/>
+      <c r="BV22" s="248"/>
       <c r="BW22" s="42"/>
       <c r="CA22" s="41"/>
       <c r="CH22" s="42"/>
@@ -7901,7 +7914,7 @@
       <c r="G23" s="41"/>
       <c r="O23" s="41"/>
       <c r="AX23" s="42"/>
-      <c r="AY23" s="247"/>
+      <c r="AY23" s="280"/>
       <c r="BD23" s="41"/>
       <c r="BK23" s="42"/>
       <c r="BP23" s="41"/>
@@ -7910,57 +7923,57 @@
       <c r="CB23" s="29"/>
       <c r="CC23" s="29"/>
       <c r="CD23" s="29"/>
-      <c r="CE23" s="270" t="s">
+      <c r="CE23" s="267" t="s">
         <v>348</v>
       </c>
-      <c r="CF23" s="271"/>
-      <c r="CG23" s="271"/>
-      <c r="CH23" s="272"/>
+      <c r="CF23" s="268"/>
+      <c r="CG23" s="268"/>
+      <c r="CH23" s="269"/>
       <c r="CL23" s="41"/>
-      <c r="CM23" s="259" t="s">
+      <c r="CM23" s="244" t="s">
         <v>357</v>
       </c>
-      <c r="CN23" s="244"/>
-      <c r="CO23" s="244"/>
-      <c r="CP23" s="244"/>
-      <c r="CQ23" s="244"/>
-      <c r="CR23" s="245"/>
+      <c r="CN23" s="247"/>
+      <c r="CO23" s="247"/>
+      <c r="CP23" s="247"/>
+      <c r="CQ23" s="247"/>
+      <c r="CR23" s="248"/>
       <c r="CS23" s="42"/>
       <c r="CV23" s="41"/>
-      <c r="CW23" s="259" t="s">
+      <c r="CW23" s="244" t="s">
         <v>361</v>
       </c>
-      <c r="CX23" s="244"/>
-      <c r="CY23" s="244"/>
-      <c r="CZ23" s="244"/>
-      <c r="DA23" s="244"/>
-      <c r="DB23" s="245"/>
+      <c r="CX23" s="247"/>
+      <c r="CY23" s="247"/>
+      <c r="CZ23" s="247"/>
+      <c r="DA23" s="247"/>
+      <c r="DB23" s="248"/>
       <c r="DC23" s="42"/>
     </row>
     <row r="24" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G24" s="41"/>
       <c r="O24" s="41"/>
       <c r="AX24" s="42"/>
-      <c r="AY24" s="247"/>
+      <c r="AY24" s="280"/>
       <c r="BD24" s="41"/>
-      <c r="BE24" s="243" t="s">
+      <c r="BE24" s="258" t="s">
         <v>339</v>
       </c>
-      <c r="BF24" s="244"/>
-      <c r="BG24" s="244"/>
-      <c r="BH24" s="244"/>
-      <c r="BI24" s="244"/>
-      <c r="BJ24" s="245"/>
+      <c r="BF24" s="247"/>
+      <c r="BG24" s="247"/>
+      <c r="BH24" s="247"/>
+      <c r="BI24" s="247"/>
+      <c r="BJ24" s="248"/>
       <c r="BK24" s="42"/>
       <c r="BP24" s="41"/>
-      <c r="BQ24" s="243" t="s">
+      <c r="BQ24" s="258" t="s">
         <v>333</v>
       </c>
-      <c r="BR24" s="244"/>
-      <c r="BS24" s="244"/>
-      <c r="BT24" s="244"/>
-      <c r="BU24" s="244"/>
-      <c r="BV24" s="245"/>
+      <c r="BR24" s="247"/>
+      <c r="BS24" s="247"/>
+      <c r="BT24" s="247"/>
+      <c r="BU24" s="247"/>
+      <c r="BV24" s="248"/>
       <c r="BW24" s="42"/>
       <c r="CA24" s="40"/>
       <c r="CB24" s="29"/>
@@ -7971,60 +7984,60 @@
       <c r="CG24" s="29"/>
       <c r="CH24" s="46"/>
       <c r="CL24" s="41"/>
-      <c r="CM24" s="259" t="s">
+      <c r="CM24" s="244" t="s">
         <v>355</v>
       </c>
-      <c r="CN24" s="244"/>
-      <c r="CO24" s="244"/>
-      <c r="CP24" s="244"/>
-      <c r="CQ24" s="244"/>
-      <c r="CR24" s="245"/>
+      <c r="CN24" s="247"/>
+      <c r="CO24" s="247"/>
+      <c r="CP24" s="247"/>
+      <c r="CQ24" s="247"/>
+      <c r="CR24" s="248"/>
       <c r="CS24" s="42"/>
       <c r="CV24" s="41"/>
-      <c r="CW24" s="259" t="s">
+      <c r="CW24" s="244" t="s">
         <v>355</v>
       </c>
-      <c r="CX24" s="244"/>
-      <c r="CY24" s="244"/>
-      <c r="CZ24" s="244"/>
-      <c r="DA24" s="244"/>
-      <c r="DB24" s="245"/>
+      <c r="CX24" s="247"/>
+      <c r="CY24" s="247"/>
+      <c r="CZ24" s="247"/>
+      <c r="DA24" s="247"/>
+      <c r="DB24" s="248"/>
       <c r="DC24" s="42"/>
     </row>
     <row r="25" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G25" s="41"/>
       <c r="O25" s="41"/>
       <c r="AX25" s="42"/>
-      <c r="AY25" s="247"/>
+      <c r="AY25" s="280"/>
       <c r="BD25" s="41"/>
-      <c r="BE25" s="243" t="s">
+      <c r="BE25" s="258" t="s">
         <v>336</v>
       </c>
-      <c r="BF25" s="244"/>
-      <c r="BG25" s="244"/>
-      <c r="BH25" s="244"/>
-      <c r="BI25" s="244"/>
-      <c r="BJ25" s="245"/>
+      <c r="BF25" s="247"/>
+      <c r="BG25" s="247"/>
+      <c r="BH25" s="247"/>
+      <c r="BI25" s="247"/>
+      <c r="BJ25" s="248"/>
       <c r="BK25" s="42"/>
       <c r="BP25" s="41"/>
-      <c r="BQ25" s="243" t="s">
+      <c r="BQ25" s="258" t="s">
         <v>330</v>
       </c>
-      <c r="BR25" s="244"/>
-      <c r="BS25" s="244"/>
-      <c r="BT25" s="244"/>
-      <c r="BU25" s="244"/>
-      <c r="BV25" s="245"/>
+      <c r="BR25" s="247"/>
+      <c r="BS25" s="247"/>
+      <c r="BT25" s="247"/>
+      <c r="BU25" s="247"/>
+      <c r="BV25" s="248"/>
       <c r="BW25" s="42"/>
       <c r="CA25" s="41"/>
-      <c r="CB25" s="259" t="s">
+      <c r="CB25" s="244" t="s">
         <v>343</v>
       </c>
-      <c r="CC25" s="268"/>
-      <c r="CD25" s="268"/>
-      <c r="CE25" s="268"/>
-      <c r="CF25" s="268"/>
-      <c r="CG25" s="269"/>
+      <c r="CC25" s="245"/>
+      <c r="CD25" s="245"/>
+      <c r="CE25" s="245"/>
+      <c r="CF25" s="245"/>
+      <c r="CG25" s="246"/>
       <c r="CH25" s="42"/>
       <c r="CL25" s="41"/>
       <c r="CS25" s="42"/>
@@ -8035,128 +8048,128 @@
       <c r="G26" s="41"/>
       <c r="O26" s="41"/>
       <c r="AX26" s="42"/>
-      <c r="AY26" s="247"/>
+      <c r="AY26" s="280"/>
       <c r="BD26" s="41"/>
       <c r="BK26" s="42"/>
       <c r="BP26" s="41"/>
       <c r="BW26" s="42"/>
       <c r="CA26" s="41"/>
-      <c r="CB26" s="260" t="s">
+      <c r="CB26" s="259" t="s">
         <v>342</v>
       </c>
-      <c r="CC26" s="261"/>
-      <c r="CD26" s="243"/>
-      <c r="CE26" s="245"/>
-      <c r="CF26" s="260" t="s">
+      <c r="CC26" s="260"/>
+      <c r="CD26" s="258"/>
+      <c r="CE26" s="248"/>
+      <c r="CF26" s="259" t="s">
         <v>341</v>
       </c>
-      <c r="CG26" s="261"/>
+      <c r="CG26" s="260"/>
       <c r="CH26" s="42"/>
       <c r="CL26" s="41"/>
-      <c r="CM26" s="243" t="s">
+      <c r="CM26" s="258" t="s">
         <v>331</v>
       </c>
-      <c r="CN26" s="244"/>
-      <c r="CO26" s="244"/>
-      <c r="CP26" s="244"/>
-      <c r="CQ26" s="244"/>
-      <c r="CR26" s="245"/>
+      <c r="CN26" s="247"/>
+      <c r="CO26" s="247"/>
+      <c r="CP26" s="247"/>
+      <c r="CQ26" s="247"/>
+      <c r="CR26" s="248"/>
       <c r="CS26" s="42"/>
       <c r="CV26" s="41"/>
-      <c r="CW26" s="259" t="s">
+      <c r="CW26" s="244" t="s">
         <v>362</v>
       </c>
-      <c r="CX26" s="244"/>
-      <c r="CY26" s="244"/>
-      <c r="CZ26" s="244"/>
-      <c r="DA26" s="244"/>
-      <c r="DB26" s="245"/>
+      <c r="CX26" s="247"/>
+      <c r="CY26" s="247"/>
+      <c r="CZ26" s="247"/>
+      <c r="DA26" s="247"/>
+      <c r="DB26" s="248"/>
       <c r="DC26" s="42"/>
     </row>
     <row r="27" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G27" s="41"/>
       <c r="O27" s="41"/>
       <c r="AX27" s="42"/>
-      <c r="AY27" s="247"/>
+      <c r="AY27" s="280"/>
       <c r="BD27" s="41"/>
-      <c r="BE27" s="243" t="s">
+      <c r="BE27" s="258" t="s">
         <v>340</v>
       </c>
-      <c r="BF27" s="244"/>
-      <c r="BG27" s="244"/>
-      <c r="BH27" s="244"/>
-      <c r="BI27" s="244"/>
-      <c r="BJ27" s="245"/>
+      <c r="BF27" s="247"/>
+      <c r="BG27" s="247"/>
+      <c r="BH27" s="247"/>
+      <c r="BI27" s="247"/>
+      <c r="BJ27" s="248"/>
       <c r="BK27" s="42"/>
       <c r="BP27" s="41"/>
-      <c r="BQ27" s="243" t="s">
+      <c r="BQ27" s="258" t="s">
         <v>334</v>
       </c>
-      <c r="BR27" s="244"/>
-      <c r="BS27" s="244"/>
-      <c r="BT27" s="244"/>
-      <c r="BU27" s="244"/>
-      <c r="BV27" s="245"/>
+      <c r="BR27" s="247"/>
+      <c r="BS27" s="247"/>
+      <c r="BT27" s="247"/>
+      <c r="BU27" s="247"/>
+      <c r="BV27" s="248"/>
       <c r="BW27" s="42"/>
       <c r="CA27" s="41"/>
       <c r="CH27" s="42"/>
       <c r="CL27" s="41"/>
-      <c r="CM27" s="259" t="s">
+      <c r="CM27" s="244" t="s">
         <v>355</v>
       </c>
-      <c r="CN27" s="244"/>
-      <c r="CO27" s="244"/>
-      <c r="CP27" s="244"/>
-      <c r="CQ27" s="244"/>
-      <c r="CR27" s="245"/>
+      <c r="CN27" s="247"/>
+      <c r="CO27" s="247"/>
+      <c r="CP27" s="247"/>
+      <c r="CQ27" s="247"/>
+      <c r="CR27" s="248"/>
       <c r="CS27" s="42"/>
       <c r="CV27" s="41"/>
-      <c r="CW27" s="259" t="s">
+      <c r="CW27" s="244" t="s">
         <v>355</v>
       </c>
-      <c r="CX27" s="244"/>
-      <c r="CY27" s="244"/>
-      <c r="CZ27" s="244"/>
-      <c r="DA27" s="244"/>
-      <c r="DB27" s="245"/>
+      <c r="CX27" s="247"/>
+      <c r="CY27" s="247"/>
+      <c r="CZ27" s="247"/>
+      <c r="DA27" s="247"/>
+      <c r="DB27" s="248"/>
       <c r="DC27" s="42"/>
     </row>
     <row r="28" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G28" s="41"/>
       <c r="O28" s="41"/>
       <c r="AX28" s="42"/>
-      <c r="AY28" s="247"/>
+      <c r="AY28" s="280"/>
       <c r="BD28" s="119"/>
-      <c r="BE28" s="260" t="s">
+      <c r="BE28" s="259" t="s">
         <v>342</v>
       </c>
-      <c r="BF28" s="261"/>
-      <c r="BG28" s="243"/>
-      <c r="BH28" s="245"/>
-      <c r="BI28" s="260" t="s">
+      <c r="BF28" s="260"/>
+      <c r="BG28" s="258"/>
+      <c r="BH28" s="248"/>
+      <c r="BI28" s="259" t="s">
         <v>341</v>
       </c>
-      <c r="BJ28" s="261"/>
+      <c r="BJ28" s="260"/>
       <c r="BK28" s="42"/>
       <c r="BP28" s="41"/>
-      <c r="BQ28" s="243" t="s">
+      <c r="BQ28" s="258" t="s">
         <v>330</v>
       </c>
-      <c r="BR28" s="244"/>
-      <c r="BS28" s="244"/>
-      <c r="BT28" s="244"/>
-      <c r="BU28" s="244"/>
-      <c r="BV28" s="245"/>
+      <c r="BR28" s="247"/>
+      <c r="BS28" s="247"/>
+      <c r="BT28" s="247"/>
+      <c r="BU28" s="247"/>
+      <c r="BV28" s="248"/>
       <c r="BW28" s="42"/>
       <c r="CA28" s="41"/>
-      <c r="CB28" s="259" t="s">
+      <c r="CB28" s="244" t="s">
         <v>344</v>
       </c>
-      <c r="CC28" s="268"/>
-      <c r="CD28" s="268"/>
-      <c r="CE28" s="268"/>
-      <c r="CF28" s="268"/>
-      <c r="CG28" s="269"/>
+      <c r="CC28" s="245"/>
+      <c r="CD28" s="245"/>
+      <c r="CE28" s="245"/>
+      <c r="CF28" s="245"/>
+      <c r="CG28" s="246"/>
       <c r="CH28" s="42"/>
       <c r="CL28" s="41"/>
       <c r="CS28" s="42"/>
@@ -8167,49 +8180,49 @@
       <c r="G29" s="41"/>
       <c r="O29" s="41"/>
       <c r="AX29" s="42"/>
-      <c r="AY29" s="247"/>
+      <c r="AY29" s="280"/>
       <c r="BD29" s="41"/>
       <c r="BK29" s="42"/>
       <c r="BP29" s="41"/>
       <c r="BW29" s="42"/>
       <c r="CA29" s="41"/>
-      <c r="CB29" s="260" t="s">
+      <c r="CB29" s="259" t="s">
         <v>342</v>
       </c>
-      <c r="CC29" s="261"/>
-      <c r="CD29" s="243"/>
-      <c r="CE29" s="245"/>
-      <c r="CF29" s="260" t="s">
+      <c r="CC29" s="260"/>
+      <c r="CD29" s="258"/>
+      <c r="CE29" s="248"/>
+      <c r="CF29" s="259" t="s">
         <v>341</v>
       </c>
-      <c r="CG29" s="261"/>
+      <c r="CG29" s="260"/>
       <c r="CH29" s="42"/>
       <c r="CL29" s="41"/>
-      <c r="CM29" s="243" t="s">
+      <c r="CM29" s="258" t="s">
         <v>332</v>
       </c>
-      <c r="CN29" s="244"/>
-      <c r="CO29" s="244"/>
-      <c r="CP29" s="244"/>
-      <c r="CQ29" s="244"/>
-      <c r="CR29" s="245"/>
+      <c r="CN29" s="247"/>
+      <c r="CO29" s="247"/>
+      <c r="CP29" s="247"/>
+      <c r="CQ29" s="247"/>
+      <c r="CR29" s="248"/>
       <c r="CS29" s="42"/>
       <c r="CV29" s="41"/>
-      <c r="CW29" s="259" t="s">
+      <c r="CW29" s="244" t="s">
         <v>363</v>
       </c>
-      <c r="CX29" s="244"/>
-      <c r="CY29" s="244"/>
-      <c r="CZ29" s="244"/>
-      <c r="DA29" s="244"/>
-      <c r="DB29" s="245"/>
+      <c r="CX29" s="247"/>
+      <c r="CY29" s="247"/>
+      <c r="CZ29" s="247"/>
+      <c r="DA29" s="247"/>
+      <c r="DB29" s="248"/>
       <c r="DC29" s="42"/>
     </row>
     <row r="30" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G30" s="41"/>
       <c r="O30" s="41"/>
       <c r="AX30" s="42"/>
-      <c r="AY30" s="247"/>
+      <c r="AY30" s="280"/>
       <c r="BD30" s="41"/>
       <c r="BK30" s="42"/>
       <c r="BP30" s="41"/>
@@ -8217,44 +8230,44 @@
       <c r="CA30" s="41"/>
       <c r="CH30" s="42"/>
       <c r="CL30" s="41"/>
-      <c r="CM30" s="259" t="s">
+      <c r="CM30" s="244" t="s">
         <v>355</v>
       </c>
-      <c r="CN30" s="244"/>
-      <c r="CO30" s="244"/>
-      <c r="CP30" s="244"/>
-      <c r="CQ30" s="244"/>
-      <c r="CR30" s="245"/>
+      <c r="CN30" s="247"/>
+      <c r="CO30" s="247"/>
+      <c r="CP30" s="247"/>
+      <c r="CQ30" s="247"/>
+      <c r="CR30" s="248"/>
       <c r="CS30" s="42"/>
       <c r="CV30" s="41"/>
-      <c r="CW30" s="259" t="s">
+      <c r="CW30" s="244" t="s">
         <v>355</v>
       </c>
-      <c r="CX30" s="268"/>
-      <c r="CY30" s="268"/>
-      <c r="CZ30" s="268"/>
-      <c r="DA30" s="268"/>
-      <c r="DB30" s="269"/>
+      <c r="CX30" s="245"/>
+      <c r="CY30" s="245"/>
+      <c r="CZ30" s="245"/>
+      <c r="DA30" s="245"/>
+      <c r="DB30" s="246"/>
       <c r="DC30" s="42"/>
     </row>
     <row r="31" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G31" s="41"/>
       <c r="O31" s="41"/>
       <c r="AX31" s="42"/>
-      <c r="AY31" s="247"/>
+      <c r="AY31" s="280"/>
       <c r="BD31" s="41"/>
       <c r="BK31" s="42"/>
       <c r="BP31" s="41"/>
       <c r="BW31" s="42"/>
       <c r="CA31" s="41"/>
-      <c r="CB31" s="259" t="s">
+      <c r="CB31" s="244" t="s">
         <v>345</v>
       </c>
-      <c r="CC31" s="268"/>
-      <c r="CD31" s="268"/>
-      <c r="CE31" s="268"/>
-      <c r="CF31" s="268"/>
-      <c r="CG31" s="269"/>
+      <c r="CC31" s="245"/>
+      <c r="CD31" s="245"/>
+      <c r="CE31" s="245"/>
+      <c r="CF31" s="245"/>
+      <c r="CG31" s="246"/>
       <c r="CH31" s="42"/>
       <c r="CL31" s="41"/>
       <c r="CS31" s="42"/>
@@ -8265,122 +8278,122 @@
       <c r="G32" s="41"/>
       <c r="O32" s="41"/>
       <c r="AX32" s="42"/>
-      <c r="AY32" s="247"/>
+      <c r="AY32" s="280"/>
       <c r="BD32" s="41"/>
-      <c r="BE32" s="262" t="s">
+      <c r="BE32" s="261" t="s">
         <v>277</v>
       </c>
-      <c r="BF32" s="263"/>
-      <c r="BG32" s="263"/>
-      <c r="BH32" s="263"/>
-      <c r="BI32" s="263"/>
-      <c r="BJ32" s="264"/>
+      <c r="BF32" s="262"/>
+      <c r="BG32" s="262"/>
+      <c r="BH32" s="262"/>
+      <c r="BI32" s="262"/>
+      <c r="BJ32" s="263"/>
       <c r="BK32" s="42"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="262" t="s">
+      <c r="BQ32" s="261" t="s">
         <v>352</v>
       </c>
-      <c r="BR32" s="263"/>
-      <c r="BS32" s="263"/>
-      <c r="BT32" s="263"/>
-      <c r="BU32" s="263"/>
-      <c r="BV32" s="264"/>
+      <c r="BR32" s="262"/>
+      <c r="BS32" s="262"/>
+      <c r="BT32" s="262"/>
+      <c r="BU32" s="262"/>
+      <c r="BV32" s="263"/>
       <c r="BW32" s="42"/>
       <c r="CA32" s="41"/>
-      <c r="CB32" s="260" t="s">
+      <c r="CB32" s="259" t="s">
         <v>342</v>
       </c>
-      <c r="CC32" s="261"/>
-      <c r="CD32" s="243"/>
-      <c r="CE32" s="245"/>
-      <c r="CF32" s="260" t="s">
+      <c r="CC32" s="260"/>
+      <c r="CD32" s="258"/>
+      <c r="CE32" s="248"/>
+      <c r="CF32" s="259" t="s">
         <v>341</v>
       </c>
-      <c r="CG32" s="261"/>
+      <c r="CG32" s="260"/>
       <c r="CH32" s="42"/>
       <c r="CL32" s="41"/>
-      <c r="CM32" s="243" t="s">
+      <c r="CM32" s="258" t="s">
         <v>333</v>
       </c>
-      <c r="CN32" s="244"/>
-      <c r="CO32" s="244"/>
-      <c r="CP32" s="244"/>
-      <c r="CQ32" s="244"/>
-      <c r="CR32" s="245"/>
+      <c r="CN32" s="247"/>
+      <c r="CO32" s="247"/>
+      <c r="CP32" s="247"/>
+      <c r="CQ32" s="247"/>
+      <c r="CR32" s="248"/>
       <c r="CS32" s="42"/>
       <c r="CV32" s="41"/>
-      <c r="CW32" s="259" t="s">
+      <c r="CW32" s="244" t="s">
         <v>364</v>
       </c>
-      <c r="CX32" s="244"/>
-      <c r="CY32" s="244"/>
-      <c r="CZ32" s="244"/>
-      <c r="DA32" s="244"/>
-      <c r="DB32" s="245"/>
+      <c r="CX32" s="247"/>
+      <c r="CY32" s="247"/>
+      <c r="CZ32" s="247"/>
+      <c r="DA32" s="247"/>
+      <c r="DB32" s="248"/>
       <c r="DC32" s="42"/>
     </row>
     <row r="33" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G33" s="41"/>
       <c r="O33" s="41"/>
       <c r="AX33" s="42"/>
-      <c r="AY33" s="247"/>
+      <c r="AY33" s="280"/>
       <c r="BD33" s="41"/>
-      <c r="BE33" s="265"/>
-      <c r="BF33" s="266"/>
-      <c r="BG33" s="266"/>
-      <c r="BH33" s="266"/>
-      <c r="BI33" s="266"/>
-      <c r="BJ33" s="267"/>
+      <c r="BE33" s="264"/>
+      <c r="BF33" s="265"/>
+      <c r="BG33" s="265"/>
+      <c r="BH33" s="265"/>
+      <c r="BI33" s="265"/>
+      <c r="BJ33" s="266"/>
       <c r="BK33" s="42"/>
       <c r="BP33" s="41"/>
-      <c r="BQ33" s="265"/>
-      <c r="BR33" s="266"/>
-      <c r="BS33" s="266"/>
-      <c r="BT33" s="266"/>
-      <c r="BU33" s="266"/>
-      <c r="BV33" s="267"/>
+      <c r="BQ33" s="264"/>
+      <c r="BR33" s="265"/>
+      <c r="BS33" s="265"/>
+      <c r="BT33" s="265"/>
+      <c r="BU33" s="265"/>
+      <c r="BV33" s="266"/>
       <c r="BW33" s="42"/>
       <c r="CA33" s="41"/>
       <c r="CH33" s="42"/>
       <c r="CL33" s="41"/>
-      <c r="CM33" s="259" t="s">
+      <c r="CM33" s="244" t="s">
         <v>355</v>
       </c>
-      <c r="CN33" s="268"/>
-      <c r="CO33" s="268"/>
-      <c r="CP33" s="268"/>
-      <c r="CQ33" s="268"/>
-      <c r="CR33" s="269"/>
+      <c r="CN33" s="245"/>
+      <c r="CO33" s="245"/>
+      <c r="CP33" s="245"/>
+      <c r="CQ33" s="245"/>
+      <c r="CR33" s="246"/>
       <c r="CS33" s="42"/>
       <c r="CV33" s="41"/>
-      <c r="CW33" s="259" t="s">
+      <c r="CW33" s="244" t="s">
         <v>355</v>
       </c>
-      <c r="CX33" s="268"/>
-      <c r="CY33" s="268"/>
-      <c r="CZ33" s="268"/>
-      <c r="DA33" s="268"/>
-      <c r="DB33" s="269"/>
+      <c r="CX33" s="245"/>
+      <c r="CY33" s="245"/>
+      <c r="CZ33" s="245"/>
+      <c r="DA33" s="245"/>
+      <c r="DB33" s="246"/>
       <c r="DC33" s="42"/>
     </row>
     <row r="34" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G34" s="41"/>
       <c r="O34" s="41"/>
       <c r="AX34" s="42"/>
-      <c r="AY34" s="247"/>
+      <c r="AY34" s="280"/>
       <c r="BD34" s="41"/>
       <c r="BK34" s="42"/>
       <c r="BP34" s="41"/>
       <c r="BW34" s="42"/>
       <c r="CA34" s="41"/>
-      <c r="CB34" s="259" t="s">
+      <c r="CB34" s="244" t="s">
         <v>346</v>
       </c>
-      <c r="CC34" s="268"/>
-      <c r="CD34" s="268"/>
-      <c r="CE34" s="268"/>
-      <c r="CF34" s="268"/>
-      <c r="CG34" s="269"/>
+      <c r="CC34" s="245"/>
+      <c r="CD34" s="245"/>
+      <c r="CE34" s="245"/>
+      <c r="CF34" s="245"/>
+      <c r="CG34" s="246"/>
       <c r="CH34" s="42"/>
       <c r="CL34" s="41"/>
       <c r="CS34" s="42"/>
@@ -8391,95 +8404,95 @@
       <c r="G35" s="41"/>
       <c r="O35" s="41"/>
       <c r="AX35" s="42"/>
-      <c r="AY35" s="247"/>
+      <c r="AY35" s="280"/>
       <c r="BD35" s="41"/>
       <c r="BK35" s="42"/>
       <c r="BP35" s="41"/>
-      <c r="BQ35" s="259" t="s">
+      <c r="BQ35" s="244" t="s">
         <v>351</v>
       </c>
-      <c r="BR35" s="244"/>
-      <c r="BS35" s="244"/>
-      <c r="BT35" s="244"/>
-      <c r="BU35" s="244"/>
-      <c r="BV35" s="245"/>
+      <c r="BR35" s="247"/>
+      <c r="BS35" s="247"/>
+      <c r="BT35" s="247"/>
+      <c r="BU35" s="247"/>
+      <c r="BV35" s="248"/>
       <c r="BW35" s="42"/>
       <c r="CA35" s="41"/>
-      <c r="CB35" s="260" t="s">
+      <c r="CB35" s="259" t="s">
         <v>342</v>
       </c>
-      <c r="CC35" s="261"/>
-      <c r="CD35" s="243"/>
-      <c r="CE35" s="245"/>
-      <c r="CF35" s="260" t="s">
+      <c r="CC35" s="260"/>
+      <c r="CD35" s="258"/>
+      <c r="CE35" s="248"/>
+      <c r="CF35" s="259" t="s">
         <v>341</v>
       </c>
-      <c r="CG35" s="261"/>
+      <c r="CG35" s="260"/>
       <c r="CH35" s="42"/>
       <c r="CL35" s="41"/>
-      <c r="CM35" s="259" t="s">
+      <c r="CM35" s="244" t="s">
         <v>358</v>
       </c>
-      <c r="CN35" s="244"/>
-      <c r="CO35" s="244"/>
-      <c r="CP35" s="244"/>
-      <c r="CQ35" s="244"/>
-      <c r="CR35" s="245"/>
+      <c r="CN35" s="247"/>
+      <c r="CO35" s="247"/>
+      <c r="CP35" s="247"/>
+      <c r="CQ35" s="247"/>
+      <c r="CR35" s="248"/>
       <c r="CS35" s="42"/>
       <c r="CV35" s="41"/>
-      <c r="CW35" s="259" t="s">
+      <c r="CW35" s="244" t="s">
         <v>365</v>
       </c>
-      <c r="CX35" s="244"/>
-      <c r="CY35" s="244"/>
-      <c r="CZ35" s="244"/>
-      <c r="DA35" s="244"/>
-      <c r="DB35" s="245"/>
+      <c r="CX35" s="247"/>
+      <c r="CY35" s="247"/>
+      <c r="CZ35" s="247"/>
+      <c r="DA35" s="247"/>
+      <c r="DB35" s="248"/>
       <c r="DC35" s="42"/>
     </row>
     <row r="36" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G36" s="41"/>
       <c r="O36" s="41"/>
       <c r="AX36" s="42"/>
-      <c r="AY36" s="247"/>
+      <c r="AY36" s="280"/>
       <c r="BD36" s="41"/>
       <c r="BK36" s="42"/>
       <c r="BP36" s="41"/>
-      <c r="BQ36" s="259" t="s">
+      <c r="BQ36" s="244" t="s">
         <v>353</v>
       </c>
-      <c r="BR36" s="244"/>
-      <c r="BS36" s="244"/>
-      <c r="BT36" s="244"/>
-      <c r="BU36" s="244"/>
-      <c r="BV36" s="245"/>
+      <c r="BR36" s="247"/>
+      <c r="BS36" s="247"/>
+      <c r="BT36" s="247"/>
+      <c r="BU36" s="247"/>
+      <c r="BV36" s="248"/>
       <c r="BW36" s="42"/>
       <c r="CA36" s="41"/>
       <c r="CH36" s="42"/>
       <c r="CL36" s="41"/>
-      <c r="CM36" s="259" t="s">
+      <c r="CM36" s="244" t="s">
         <v>355</v>
       </c>
-      <c r="CN36" s="268"/>
-      <c r="CO36" s="268"/>
-      <c r="CP36" s="268"/>
-      <c r="CQ36" s="268"/>
-      <c r="CR36" s="269"/>
+      <c r="CN36" s="245"/>
+      <c r="CO36" s="245"/>
+      <c r="CP36" s="245"/>
+      <c r="CQ36" s="245"/>
+      <c r="CR36" s="246"/>
       <c r="CS36" s="42"/>
       <c r="CV36" s="41"/>
-      <c r="CW36" s="273"/>
-      <c r="CX36" s="274"/>
-      <c r="CY36" s="274"/>
-      <c r="CZ36" s="274"/>
-      <c r="DA36" s="274"/>
-      <c r="DB36" s="275"/>
+      <c r="CW36" s="249"/>
+      <c r="CX36" s="250"/>
+      <c r="CY36" s="250"/>
+      <c r="CZ36" s="250"/>
+      <c r="DA36" s="250"/>
+      <c r="DB36" s="251"/>
       <c r="DC36" s="42"/>
     </row>
     <row r="37" spans="7:107" ht="15.75" customHeight="1">
       <c r="G37" s="41"/>
       <c r="O37" s="41"/>
       <c r="AX37" s="42"/>
-      <c r="AY37" s="247"/>
+      <c r="AY37" s="280"/>
       <c r="BD37" s="41"/>
       <c r="BK37" s="42"/>
       <c r="BP37" s="41"/>
@@ -8489,19 +8502,19 @@
       <c r="CL37" s="41"/>
       <c r="CS37" s="42"/>
       <c r="CV37" s="41"/>
-      <c r="CW37" s="276"/>
-      <c r="CX37" s="277"/>
-      <c r="CY37" s="277"/>
-      <c r="CZ37" s="277"/>
-      <c r="DA37" s="277"/>
-      <c r="DB37" s="278"/>
+      <c r="CW37" s="252"/>
+      <c r="CX37" s="253"/>
+      <c r="CY37" s="253"/>
+      <c r="CZ37" s="253"/>
+      <c r="DA37" s="253"/>
+      <c r="DB37" s="254"/>
       <c r="DC37" s="42"/>
     </row>
     <row r="38" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G38" s="41"/>
       <c r="O38" s="41"/>
       <c r="AX38" s="42"/>
-      <c r="AY38" s="247"/>
+      <c r="AY38" s="280"/>
       <c r="BD38" s="41"/>
       <c r="BK38" s="42"/>
       <c r="BP38" s="41"/>
@@ -8511,70 +8524,70 @@
       <c r="CL38" s="41"/>
       <c r="CS38" s="42"/>
       <c r="CV38" s="41"/>
-      <c r="CW38" s="276"/>
-      <c r="CX38" s="277"/>
-      <c r="CY38" s="277"/>
-      <c r="CZ38" s="277"/>
-      <c r="DA38" s="277"/>
-      <c r="DB38" s="278"/>
+      <c r="CW38" s="252"/>
+      <c r="CX38" s="253"/>
+      <c r="CY38" s="253"/>
+      <c r="CZ38" s="253"/>
+      <c r="DA38" s="253"/>
+      <c r="DB38" s="254"/>
       <c r="DC38" s="42"/>
     </row>
     <row r="39" spans="7:107" ht="15.75" customHeight="1">
       <c r="G39" s="41"/>
       <c r="O39" s="41"/>
       <c r="AX39" s="42"/>
-      <c r="AY39" s="247"/>
+      <c r="AY39" s="280"/>
       <c r="BD39" s="41"/>
       <c r="BK39" s="42"/>
       <c r="BP39" s="41"/>
       <c r="BW39" s="42"/>
       <c r="CA39" s="41"/>
-      <c r="CB39" s="262" t="s">
+      <c r="CB39" s="261" t="s">
         <v>347</v>
       </c>
-      <c r="CC39" s="263"/>
-      <c r="CD39" s="263"/>
-      <c r="CE39" s="263"/>
-      <c r="CF39" s="263"/>
-      <c r="CG39" s="264"/>
+      <c r="CC39" s="262"/>
+      <c r="CD39" s="262"/>
+      <c r="CE39" s="262"/>
+      <c r="CF39" s="262"/>
+      <c r="CG39" s="263"/>
       <c r="CH39" s="42"/>
       <c r="CL39" s="41"/>
       <c r="CS39" s="42"/>
       <c r="CV39" s="41"/>
-      <c r="CW39" s="276"/>
-      <c r="CX39" s="277"/>
-      <c r="CY39" s="277"/>
-      <c r="CZ39" s="277"/>
-      <c r="DA39" s="277"/>
-      <c r="DB39" s="278"/>
+      <c r="CW39" s="252"/>
+      <c r="CX39" s="253"/>
+      <c r="CY39" s="253"/>
+      <c r="CZ39" s="253"/>
+      <c r="DA39" s="253"/>
+      <c r="DB39" s="254"/>
       <c r="DC39" s="42"/>
     </row>
     <row r="40" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G40" s="41"/>
       <c r="O40" s="41"/>
       <c r="AX40" s="42"/>
-      <c r="AY40" s="248"/>
+      <c r="AY40" s="281"/>
       <c r="BD40" s="41"/>
       <c r="BK40" s="42"/>
       <c r="BP40" s="41"/>
       <c r="BW40" s="42"/>
       <c r="CA40" s="41"/>
-      <c r="CB40" s="265"/>
-      <c r="CC40" s="266"/>
-      <c r="CD40" s="266"/>
-      <c r="CE40" s="266"/>
-      <c r="CF40" s="266"/>
-      <c r="CG40" s="267"/>
+      <c r="CB40" s="264"/>
+      <c r="CC40" s="265"/>
+      <c r="CD40" s="265"/>
+      <c r="CE40" s="265"/>
+      <c r="CF40" s="265"/>
+      <c r="CG40" s="266"/>
       <c r="CH40" s="42"/>
       <c r="CL40" s="41"/>
       <c r="CS40" s="42"/>
       <c r="CV40" s="41"/>
-      <c r="CW40" s="279"/>
-      <c r="CX40" s="280"/>
-      <c r="CY40" s="280"/>
-      <c r="CZ40" s="280"/>
-      <c r="DA40" s="280"/>
-      <c r="DB40" s="281"/>
+      <c r="CW40" s="255"/>
+      <c r="CX40" s="256"/>
+      <c r="CY40" s="256"/>
+      <c r="CZ40" s="256"/>
+      <c r="DA40" s="256"/>
+      <c r="DB40" s="257"/>
       <c r="DC40" s="42"/>
     </row>
     <row r="41" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
@@ -8637,43 +8650,43 @@
       <c r="M42" s="44"/>
       <c r="N42" s="44"/>
       <c r="O42" s="115"/>
-      <c r="P42" s="243" t="s">
+      <c r="P42" s="258" t="s">
         <v>323</v>
       </c>
-      <c r="Q42" s="244"/>
-      <c r="R42" s="244"/>
-      <c r="S42" s="244"/>
-      <c r="T42" s="244"/>
-      <c r="U42" s="244"/>
-      <c r="V42" s="244"/>
-      <c r="W42" s="244"/>
-      <c r="X42" s="244"/>
-      <c r="Y42" s="244"/>
-      <c r="Z42" s="244"/>
-      <c r="AA42" s="244"/>
-      <c r="AB42" s="244"/>
-      <c r="AC42" s="244"/>
-      <c r="AD42" s="244"/>
-      <c r="AE42" s="244"/>
-      <c r="AF42" s="244"/>
-      <c r="AG42" s="244"/>
-      <c r="AH42" s="244"/>
-      <c r="AI42" s="244"/>
-      <c r="AJ42" s="244"/>
-      <c r="AK42" s="244"/>
-      <c r="AL42" s="244"/>
-      <c r="AM42" s="244"/>
-      <c r="AN42" s="244"/>
-      <c r="AO42" s="244"/>
-      <c r="AP42" s="244"/>
-      <c r="AQ42" s="244"/>
-      <c r="AR42" s="244"/>
-      <c r="AS42" s="244"/>
-      <c r="AT42" s="244"/>
-      <c r="AU42" s="244"/>
-      <c r="AV42" s="244"/>
-      <c r="AW42" s="244"/>
-      <c r="AX42" s="245"/>
+      <c r="Q42" s="247"/>
+      <c r="R42" s="247"/>
+      <c r="S42" s="247"/>
+      <c r="T42" s="247"/>
+      <c r="U42" s="247"/>
+      <c r="V42" s="247"/>
+      <c r="W42" s="247"/>
+      <c r="X42" s="247"/>
+      <c r="Y42" s="247"/>
+      <c r="Z42" s="247"/>
+      <c r="AA42" s="247"/>
+      <c r="AB42" s="247"/>
+      <c r="AC42" s="247"/>
+      <c r="AD42" s="247"/>
+      <c r="AE42" s="247"/>
+      <c r="AF42" s="247"/>
+      <c r="AG42" s="247"/>
+      <c r="AH42" s="247"/>
+      <c r="AI42" s="247"/>
+      <c r="AJ42" s="247"/>
+      <c r="AK42" s="247"/>
+      <c r="AL42" s="247"/>
+      <c r="AM42" s="247"/>
+      <c r="AN42" s="247"/>
+      <c r="AO42" s="247"/>
+      <c r="AP42" s="247"/>
+      <c r="AQ42" s="247"/>
+      <c r="AR42" s="247"/>
+      <c r="AS42" s="247"/>
+      <c r="AT42" s="247"/>
+      <c r="AU42" s="247"/>
+      <c r="AV42" s="247"/>
+      <c r="AW42" s="247"/>
+      <c r="AX42" s="248"/>
       <c r="AY42" s="115"/>
       <c r="BD42" s="43"/>
       <c r="BE42" s="44"/>
@@ -8718,6 +8731,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="P42:AX42"/>
+    <mergeCell ref="AY12:AY40"/>
+    <mergeCell ref="G11:N12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="BD11:BK12"/>
+    <mergeCell ref="BD14:BK14"/>
+    <mergeCell ref="BP11:BW12"/>
+    <mergeCell ref="BP14:BW14"/>
+    <mergeCell ref="CA11:CH12"/>
+    <mergeCell ref="CA14:CH14"/>
+    <mergeCell ref="CL11:CS12"/>
+    <mergeCell ref="CL14:CS14"/>
+    <mergeCell ref="CV11:DC12"/>
+    <mergeCell ref="CV14:DC14"/>
+    <mergeCell ref="BQ24:BV24"/>
+    <mergeCell ref="CM18:CR18"/>
+    <mergeCell ref="CM19:CR19"/>
+    <mergeCell ref="CM21:CR21"/>
+    <mergeCell ref="CM24:CR24"/>
+    <mergeCell ref="CM23:CR23"/>
+    <mergeCell ref="BE19:BJ19"/>
+    <mergeCell ref="BE18:BJ18"/>
+    <mergeCell ref="BE21:BJ21"/>
+    <mergeCell ref="BE22:BJ22"/>
+    <mergeCell ref="BQ19:BV19"/>
+    <mergeCell ref="BQ18:BV18"/>
+    <mergeCell ref="BQ21:BV21"/>
+    <mergeCell ref="BQ22:BV22"/>
+    <mergeCell ref="BE24:BJ24"/>
+    <mergeCell ref="BE25:BJ25"/>
+    <mergeCell ref="BE27:BJ27"/>
+    <mergeCell ref="BE28:BF28"/>
+    <mergeCell ref="BI28:BJ28"/>
+    <mergeCell ref="BG28:BH28"/>
+    <mergeCell ref="BE32:BJ33"/>
+    <mergeCell ref="CF29:CG29"/>
+    <mergeCell ref="CD29:CE29"/>
+    <mergeCell ref="CB29:CC29"/>
+    <mergeCell ref="CB28:CG28"/>
+    <mergeCell ref="BQ28:BV28"/>
+    <mergeCell ref="CB39:CG40"/>
+    <mergeCell ref="CB17:CG17"/>
+    <mergeCell ref="CB18:CC18"/>
+    <mergeCell ref="CD18:CE18"/>
+    <mergeCell ref="CF18:CG18"/>
+    <mergeCell ref="CB20:CG20"/>
+    <mergeCell ref="CF26:CG26"/>
+    <mergeCell ref="CD26:CE26"/>
+    <mergeCell ref="CB26:CC26"/>
+    <mergeCell ref="CB25:CG25"/>
+    <mergeCell ref="CE23:CH23"/>
+    <mergeCell ref="CB21:CG21"/>
+    <mergeCell ref="BQ36:BV36"/>
+    <mergeCell ref="CB31:CG31"/>
+    <mergeCell ref="CB32:CC32"/>
+    <mergeCell ref="CD32:CE32"/>
+    <mergeCell ref="CF32:CG32"/>
+    <mergeCell ref="CB34:CG34"/>
+    <mergeCell ref="CB35:CC35"/>
+    <mergeCell ref="CD35:CE35"/>
+    <mergeCell ref="CF35:CG35"/>
+    <mergeCell ref="BQ32:BV33"/>
+    <mergeCell ref="BQ25:BV25"/>
+    <mergeCell ref="BQ27:BV27"/>
+    <mergeCell ref="CM32:CR32"/>
+    <mergeCell ref="CM33:CR33"/>
+    <mergeCell ref="CM35:CR35"/>
+    <mergeCell ref="CM27:CR27"/>
+    <mergeCell ref="CM26:CR26"/>
+    <mergeCell ref="BQ35:BV35"/>
     <mergeCell ref="CM36:CR36"/>
     <mergeCell ref="CW18:DB18"/>
     <mergeCell ref="CW20:DB20"/>
@@ -8734,78 +8819,6 @@
     <mergeCell ref="CW36:DB40"/>
     <mergeCell ref="CM29:CR29"/>
     <mergeCell ref="CM30:CR30"/>
-    <mergeCell ref="BQ25:BV25"/>
-    <mergeCell ref="BQ27:BV27"/>
-    <mergeCell ref="CM32:CR32"/>
-    <mergeCell ref="CM33:CR33"/>
-    <mergeCell ref="CM35:CR35"/>
-    <mergeCell ref="CM27:CR27"/>
-    <mergeCell ref="CM26:CR26"/>
-    <mergeCell ref="BQ35:BV35"/>
-    <mergeCell ref="BQ36:BV36"/>
-    <mergeCell ref="CB31:CG31"/>
-    <mergeCell ref="CB32:CC32"/>
-    <mergeCell ref="CD32:CE32"/>
-    <mergeCell ref="CF32:CG32"/>
-    <mergeCell ref="CB34:CG34"/>
-    <mergeCell ref="CB35:CC35"/>
-    <mergeCell ref="CD35:CE35"/>
-    <mergeCell ref="CF35:CG35"/>
-    <mergeCell ref="BQ32:BV33"/>
-    <mergeCell ref="CB39:CG40"/>
-    <mergeCell ref="CB17:CG17"/>
-    <mergeCell ref="CB18:CC18"/>
-    <mergeCell ref="CD18:CE18"/>
-    <mergeCell ref="CF18:CG18"/>
-    <mergeCell ref="CB20:CG20"/>
-    <mergeCell ref="CF26:CG26"/>
-    <mergeCell ref="CD26:CE26"/>
-    <mergeCell ref="CB26:CC26"/>
-    <mergeCell ref="CB25:CG25"/>
-    <mergeCell ref="CE23:CH23"/>
-    <mergeCell ref="CB21:CG21"/>
-    <mergeCell ref="BE32:BJ33"/>
-    <mergeCell ref="CF29:CG29"/>
-    <mergeCell ref="CD29:CE29"/>
-    <mergeCell ref="CB29:CC29"/>
-    <mergeCell ref="CB28:CG28"/>
-    <mergeCell ref="BQ28:BV28"/>
-    <mergeCell ref="BE24:BJ24"/>
-    <mergeCell ref="BE25:BJ25"/>
-    <mergeCell ref="BE27:BJ27"/>
-    <mergeCell ref="BE28:BF28"/>
-    <mergeCell ref="BI28:BJ28"/>
-    <mergeCell ref="BG28:BH28"/>
-    <mergeCell ref="BE19:BJ19"/>
-    <mergeCell ref="BE18:BJ18"/>
-    <mergeCell ref="BE21:BJ21"/>
-    <mergeCell ref="BE22:BJ22"/>
-    <mergeCell ref="BQ19:BV19"/>
-    <mergeCell ref="BQ18:BV18"/>
-    <mergeCell ref="BQ21:BV21"/>
-    <mergeCell ref="BQ22:BV22"/>
-    <mergeCell ref="CL11:CS12"/>
-    <mergeCell ref="CL14:CS14"/>
-    <mergeCell ref="CV11:DC12"/>
-    <mergeCell ref="CV14:DC14"/>
-    <mergeCell ref="BQ24:BV24"/>
-    <mergeCell ref="CM18:CR18"/>
-    <mergeCell ref="CM19:CR19"/>
-    <mergeCell ref="CM21:CR21"/>
-    <mergeCell ref="CM24:CR24"/>
-    <mergeCell ref="CM23:CR23"/>
-    <mergeCell ref="BD11:BK12"/>
-    <mergeCell ref="BD14:BK14"/>
-    <mergeCell ref="BP11:BW12"/>
-    <mergeCell ref="BP14:BW14"/>
-    <mergeCell ref="CA11:CH12"/>
-    <mergeCell ref="CA14:CH14"/>
-    <mergeCell ref="P42:AX42"/>
-    <mergeCell ref="AY12:AY40"/>
-    <mergeCell ref="G11:N12"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="P17:R17"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8864,14 +8877,14 @@
         <v>476</v>
       </c>
       <c r="C3" s="28"/>
-      <c r="D3" s="287" t="s">
+      <c r="D3" s="285" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="288"/>
-      <c r="F3" s="288"/>
-      <c r="G3" s="288"/>
-      <c r="H3" s="288"/>
-      <c r="I3" s="289"/>
+      <c r="E3" s="286"/>
+      <c r="F3" s="286"/>
+      <c r="G3" s="286"/>
+      <c r="H3" s="286"/>
+      <c r="I3" s="287"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1">
       <c r="A4" s="156" t="s">
@@ -9010,18 +9023,18 @@
         <v>375</v>
       </c>
       <c r="F12" s="132"/>
-      <c r="H12" s="282" t="s">
+      <c r="H12" s="288" t="s">
         <v>400</v>
       </c>
-      <c r="I12" s="290"/>
+      <c r="I12" s="289"/>
       <c r="J12" s="140" t="s">
         <v>404</v>
       </c>
       <c r="K12" s="132"/>
-      <c r="M12" s="282" t="s">
+      <c r="M12" s="288" t="s">
         <v>415</v>
       </c>
-      <c r="N12" s="283"/>
+      <c r="N12" s="284"/>
       <c r="O12" s="140" t="s">
         <v>422</v>
       </c>
@@ -9035,18 +9048,18 @@
         <v>368</v>
       </c>
       <c r="F13" s="132"/>
-      <c r="H13" s="282" t="s">
+      <c r="H13" s="288" t="s">
         <v>401</v>
       </c>
-      <c r="I13" s="290"/>
+      <c r="I13" s="289"/>
       <c r="J13" s="140" t="s">
         <v>403</v>
       </c>
       <c r="K13" s="132"/>
-      <c r="M13" s="282" t="s">
+      <c r="M13" s="288" t="s">
         <v>216</v>
       </c>
-      <c r="N13" s="283"/>
+      <c r="N13" s="284"/>
       <c r="O13" s="131" t="s">
         <v>417</v>
       </c>
@@ -9058,18 +9071,18 @@
       </c>
       <c r="E14" s="131"/>
       <c r="F14" s="132"/>
-      <c r="H14" s="282" t="s">
+      <c r="H14" s="288" t="s">
         <v>402</v>
       </c>
-      <c r="I14" s="290"/>
+      <c r="I14" s="289"/>
       <c r="J14" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K14" s="132"/>
-      <c r="M14" s="282" t="s">
+      <c r="M14" s="288" t="s">
         <v>215</v>
       </c>
-      <c r="N14" s="283"/>
+      <c r="N14" s="284"/>
       <c r="O14" s="131" t="s">
         <v>418</v>
       </c>
@@ -9081,14 +9094,14 @@
       </c>
       <c r="E15" s="140"/>
       <c r="F15" s="132"/>
-      <c r="H15" s="285"/>
-      <c r="I15" s="286"/>
+      <c r="H15" s="290"/>
+      <c r="I15" s="291"/>
       <c r="J15" s="140"/>
       <c r="K15" s="132"/>
-      <c r="M15" s="282" t="s">
+      <c r="M15" s="288" t="s">
         <v>211</v>
       </c>
-      <c r="N15" s="283"/>
+      <c r="N15" s="284"/>
       <c r="O15" s="131" t="s">
         <v>419</v>
       </c>
@@ -9100,14 +9113,14 @@
       </c>
       <c r="E16" s="131"/>
       <c r="F16" s="134"/>
-      <c r="H16" s="285"/>
-      <c r="I16" s="286"/>
+      <c r="H16" s="290"/>
+      <c r="I16" s="291"/>
       <c r="J16" s="140"/>
       <c r="K16" s="132"/>
-      <c r="M16" s="282" t="s">
+      <c r="M16" s="288" t="s">
         <v>212</v>
       </c>
-      <c r="N16" s="283"/>
+      <c r="N16" s="284"/>
       <c r="O16" s="131" t="s">
         <v>169</v>
       </c>
@@ -9123,10 +9136,10 @@
       <c r="I17" s="135"/>
       <c r="J17" s="136"/>
       <c r="K17" s="137"/>
-      <c r="M17" s="282" t="s">
+      <c r="M17" s="288" t="s">
         <v>416</v>
       </c>
-      <c r="N17" s="283"/>
+      <c r="N17" s="284"/>
       <c r="O17" s="131" t="s">
         <v>420</v>
       </c>
@@ -9136,10 +9149,10 @@
       <c r="C18" s="133"/>
       <c r="E18" s="131"/>
       <c r="F18" s="134"/>
-      <c r="M18" s="282" t="s">
+      <c r="M18" s="288" t="s">
         <v>213</v>
       </c>
-      <c r="N18" s="283"/>
+      <c r="N18" s="284"/>
       <c r="O18" s="131" t="s">
         <v>421</v>
       </c>
@@ -9159,10 +9172,10 @@
       <c r="K19" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="282" t="s">
+      <c r="M19" s="288" t="s">
         <v>290</v>
       </c>
-      <c r="N19" s="283"/>
+      <c r="N19" s="284"/>
       <c r="O19" s="131" t="s">
         <v>427</v>
       </c>
@@ -9180,10 +9193,10 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
       <c r="K20" s="127"/>
-      <c r="M20" s="284" t="s">
+      <c r="M20" s="283" t="s">
         <v>423</v>
       </c>
-      <c r="N20" s="283"/>
+      <c r="N20" s="284"/>
       <c r="O20" s="140" t="s">
         <v>480</v>
       </c>
@@ -9197,10 +9210,10 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="127"/>
-      <c r="M21" s="284" t="s">
+      <c r="M21" s="283" t="s">
         <v>424</v>
       </c>
-      <c r="N21" s="283"/>
+      <c r="N21" s="284"/>
       <c r="O21" s="131"/>
       <c r="P21" s="132"/>
     </row>
@@ -9217,22 +9230,22 @@
         <v>84</v>
       </c>
       <c r="K22" s="130"/>
-      <c r="M22" s="284"/>
-      <c r="N22" s="283"/>
+      <c r="M22" s="283"/>
+      <c r="N22" s="284"/>
       <c r="O22" s="131"/>
       <c r="P22" s="132"/>
     </row>
     <row r="23" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H23" s="282" t="s">
+      <c r="H23" s="288" t="s">
         <v>405</v>
       </c>
-      <c r="I23" s="290"/>
+      <c r="I23" s="289"/>
       <c r="J23" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K23" s="132"/>
-      <c r="M23" s="284"/>
-      <c r="N23" s="283"/>
+      <c r="M23" s="283"/>
+      <c r="N23" s="284"/>
       <c r="O23" s="131"/>
       <c r="P23" s="132"/>
     </row>
@@ -9245,12 +9258,12 @@
       <c r="F24" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="282"/>
-      <c r="I24" s="290"/>
+      <c r="H24" s="288"/>
+      <c r="I24" s="289"/>
       <c r="J24" s="140"/>
       <c r="K24" s="132"/>
-      <c r="M24" s="284"/>
-      <c r="N24" s="283"/>
+      <c r="M24" s="283"/>
+      <c r="N24" s="284"/>
       <c r="O24" s="131"/>
       <c r="P24" s="132"/>
     </row>
@@ -9263,12 +9276,12 @@
       <c r="F25" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="H25" s="282"/>
-      <c r="I25" s="290"/>
+      <c r="H25" s="288"/>
+      <c r="I25" s="289"/>
       <c r="J25" s="140"/>
       <c r="K25" s="132"/>
-      <c r="M25" s="284"/>
-      <c r="N25" s="283"/>
+      <c r="M25" s="283"/>
+      <c r="N25" s="284"/>
       <c r="O25" s="131"/>
       <c r="P25" s="132"/>
     </row>
@@ -9277,12 +9290,12 @@
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="127"/>
-      <c r="H26" s="285"/>
-      <c r="I26" s="286"/>
+      <c r="H26" s="290"/>
+      <c r="I26" s="291"/>
       <c r="J26" s="140"/>
       <c r="K26" s="132"/>
-      <c r="M26" s="284"/>
-      <c r="N26" s="283"/>
+      <c r="M26" s="283"/>
+      <c r="N26" s="284"/>
       <c r="O26" s="131"/>
       <c r="P26" s="132"/>
     </row>
@@ -9295,12 +9308,12 @@
         <v>84</v>
       </c>
       <c r="F27" s="130"/>
-      <c r="H27" s="285"/>
-      <c r="I27" s="286"/>
+      <c r="H27" s="290"/>
+      <c r="I27" s="291"/>
       <c r="J27" s="140"/>
       <c r="K27" s="132"/>
-      <c r="M27" s="284"/>
-      <c r="N27" s="283"/>
+      <c r="M27" s="283"/>
+      <c r="N27" s="284"/>
       <c r="O27" s="131"/>
       <c r="P27" s="132"/>
     </row>
@@ -9316,8 +9329,8 @@
       <c r="I28" s="135"/>
       <c r="J28" s="136"/>
       <c r="K28" s="137"/>
-      <c r="M28" s="284"/>
-      <c r="N28" s="283"/>
+      <c r="M28" s="283"/>
+      <c r="N28" s="284"/>
       <c r="O28" s="131"/>
       <c r="P28" s="132"/>
     </row>
@@ -9329,8 +9342,8 @@
         <v>388</v>
       </c>
       <c r="F29" s="132"/>
-      <c r="M29" s="284"/>
-      <c r="N29" s="283"/>
+      <c r="M29" s="283"/>
+      <c r="N29" s="284"/>
       <c r="O29" s="131"/>
       <c r="P29" s="132"/>
     </row>
@@ -9340,8 +9353,8 @@
       </c>
       <c r="E30" s="140"/>
       <c r="F30" s="132"/>
-      <c r="M30" s="284"/>
-      <c r="N30" s="283"/>
+      <c r="M30" s="283"/>
+      <c r="N30" s="284"/>
       <c r="O30" s="131"/>
       <c r="P30" s="132"/>
     </row>
@@ -9421,10 +9434,10 @@
       <c r="C37" s="133"/>
       <c r="E37" s="131"/>
       <c r="F37" s="134"/>
-      <c r="M37" s="282" t="s">
+      <c r="M37" s="288" t="s">
         <v>428</v>
       </c>
-      <c r="N37" s="283"/>
+      <c r="N37" s="284"/>
       <c r="O37" s="131" t="s">
         <v>430</v>
       </c>
@@ -9434,10 +9447,10 @@
       <c r="C38" s="133"/>
       <c r="E38" s="131"/>
       <c r="F38" s="134"/>
-      <c r="M38" s="284" t="s">
+      <c r="M38" s="283" t="s">
         <v>429</v>
       </c>
-      <c r="N38" s="283"/>
+      <c r="N38" s="284"/>
       <c r="O38" s="131" t="s">
         <v>431</v>
       </c>
@@ -9448,16 +9461,16 @@
       <c r="D39" s="135"/>
       <c r="E39" s="136"/>
       <c r="F39" s="139"/>
-      <c r="M39" s="284"/>
-      <c r="N39" s="283"/>
+      <c r="M39" s="283"/>
+      <c r="N39" s="284"/>
       <c r="O39" s="131" t="s">
         <v>432</v>
       </c>
       <c r="P39" s="132"/>
     </row>
     <row r="40" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="M40" s="284"/>
-      <c r="N40" s="283"/>
+      <c r="M40" s="283"/>
+      <c r="N40" s="284"/>
       <c r="O40" s="131" t="s">
         <v>433</v>
       </c>
@@ -9472,8 +9485,8 @@
       <c r="F41" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M41" s="284"/>
-      <c r="N41" s="283"/>
+      <c r="M41" s="283"/>
+      <c r="N41" s="284"/>
       <c r="O41" s="131" t="s">
         <v>435</v>
       </c>
@@ -9488,8 +9501,8 @@
       <c r="F42" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="M42" s="284"/>
-      <c r="N42" s="283"/>
+      <c r="M42" s="283"/>
+      <c r="N42" s="284"/>
       <c r="O42" s="131" t="s">
         <v>434</v>
       </c>
@@ -9583,10 +9596,10 @@
         <v>397</v>
       </c>
       <c r="F49" s="134"/>
-      <c r="M49" s="282" t="s">
+      <c r="M49" s="288" t="s">
         <v>436</v>
       </c>
-      <c r="N49" s="283"/>
+      <c r="N49" s="284"/>
       <c r="O49" s="131" t="s">
         <v>439</v>
       </c>
@@ -9600,10 +9613,10 @@
         <v>334</v>
       </c>
       <c r="F50" s="134"/>
-      <c r="M50" s="284" t="s">
+      <c r="M50" s="283" t="s">
         <v>437</v>
       </c>
-      <c r="N50" s="283"/>
+      <c r="N50" s="284"/>
       <c r="O50" s="131" t="s">
         <v>440</v>
       </c>
@@ -9617,10 +9630,10 @@
         <v>369</v>
       </c>
       <c r="F51" s="134"/>
-      <c r="M51" s="284" t="s">
+      <c r="M51" s="283" t="s">
         <v>438</v>
       </c>
-      <c r="N51" s="283"/>
+      <c r="N51" s="284"/>
       <c r="O51" s="131"/>
       <c r="P51" s="132"/>
     </row>
@@ -9630,10 +9643,10 @@
         <v>456</v>
       </c>
       <c r="F52" s="134"/>
-      <c r="M52" s="284" t="s">
+      <c r="M52" s="283" t="s">
         <v>441</v>
       </c>
-      <c r="N52" s="283"/>
+      <c r="N52" s="284"/>
       <c r="O52" s="131"/>
       <c r="P52" s="132"/>
     </row>
@@ -9644,8 +9657,8 @@
         <v>457</v>
       </c>
       <c r="F53" s="137"/>
-      <c r="M53" s="284"/>
-      <c r="N53" s="283"/>
+      <c r="M53" s="283"/>
+      <c r="N53" s="284"/>
       <c r="O53" s="131"/>
       <c r="P53" s="132"/>
     </row>
@@ -9697,10 +9710,10 @@
       </c>
     </row>
     <row r="60" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M60" s="282" t="s">
+      <c r="M60" s="288" t="s">
         <v>442</v>
       </c>
-      <c r="N60" s="283"/>
+      <c r="N60" s="284"/>
       <c r="O60" s="140" t="s">
         <v>446</v>
       </c>
@@ -9709,10 +9722,10 @@
       </c>
     </row>
     <row r="61" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M61" s="284" t="s">
+      <c r="M61" s="283" t="s">
         <v>443</v>
       </c>
-      <c r="N61" s="283"/>
+      <c r="N61" s="284"/>
       <c r="O61" s="140" t="s">
         <v>447</v>
       </c>
@@ -9721,10 +9734,10 @@
       </c>
     </row>
     <row r="62" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M62" s="282" t="s">
+      <c r="M62" s="288" t="s">
         <v>448</v>
       </c>
-      <c r="N62" s="283"/>
+      <c r="N62" s="284"/>
       <c r="O62" s="140" t="s">
         <v>85</v>
       </c>
@@ -9733,14 +9746,14 @@
       </c>
     </row>
     <row r="63" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M63" s="284"/>
-      <c r="N63" s="283"/>
+      <c r="M63" s="283"/>
+      <c r="N63" s="284"/>
       <c r="O63" s="131"/>
       <c r="P63" s="132"/>
     </row>
     <row r="64" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M64" s="284"/>
-      <c r="N64" s="283"/>
+      <c r="M64" s="283"/>
+      <c r="N64" s="284"/>
       <c r="O64" s="131"/>
       <c r="P64" s="132"/>
     </row>
@@ -9788,40 +9801,40 @@
       <c r="P70" s="130"/>
     </row>
     <row r="71" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M71" s="282" t="s">
+      <c r="M71" s="288" t="s">
         <v>449</v>
       </c>
-      <c r="N71" s="283"/>
+      <c r="N71" s="284"/>
       <c r="O71" s="140" t="s">
         <v>369</v>
       </c>
       <c r="P71" s="132"/>
     </row>
     <row r="72" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M72" s="282" t="s">
+      <c r="M72" s="288" t="s">
         <v>450</v>
       </c>
-      <c r="N72" s="283"/>
+      <c r="N72" s="284"/>
       <c r="O72" s="140" t="s">
         <v>451</v>
       </c>
       <c r="P72" s="132"/>
     </row>
     <row r="73" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M73" s="284"/>
-      <c r="N73" s="283"/>
+      <c r="M73" s="283"/>
+      <c r="N73" s="284"/>
       <c r="O73" s="131"/>
       <c r="P73" s="132"/>
     </row>
     <row r="74" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M74" s="284"/>
-      <c r="N74" s="283"/>
+      <c r="M74" s="283"/>
+      <c r="N74" s="284"/>
       <c r="O74" s="131"/>
       <c r="P74" s="132"/>
     </row>
     <row r="75" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M75" s="284"/>
-      <c r="N75" s="283"/>
+      <c r="M75" s="283"/>
+      <c r="N75" s="284"/>
       <c r="O75" s="131"/>
       <c r="P75" s="132"/>
     </row>
@@ -9869,40 +9882,40 @@
       <c r="P81" s="130"/>
     </row>
     <row r="82" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M82" s="282" t="s">
+      <c r="M82" s="288" t="s">
         <v>449</v>
       </c>
-      <c r="N82" s="283"/>
+      <c r="N82" s="284"/>
       <c r="O82" s="140" t="s">
         <v>369</v>
       </c>
       <c r="P82" s="132"/>
     </row>
     <row r="83" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M83" s="282" t="s">
+      <c r="M83" s="288" t="s">
         <v>452</v>
       </c>
-      <c r="N83" s="283"/>
+      <c r="N83" s="284"/>
       <c r="O83" s="140" t="s">
         <v>451</v>
       </c>
       <c r="P83" s="132"/>
     </row>
     <row r="84" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M84" s="284"/>
-      <c r="N84" s="283"/>
+      <c r="M84" s="283"/>
+      <c r="N84" s="284"/>
       <c r="O84" s="131"/>
       <c r="P84" s="132"/>
     </row>
     <row r="85" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M85" s="284"/>
-      <c r="N85" s="283"/>
+      <c r="M85" s="283"/>
+      <c r="N85" s="284"/>
       <c r="O85" s="131"/>
       <c r="P85" s="132"/>
     </row>
     <row r="86" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M86" s="284"/>
-      <c r="N86" s="283"/>
+      <c r="M86" s="283"/>
+      <c r="N86" s="284"/>
       <c r="O86" s="131"/>
       <c r="P86" s="132"/>
     </row>
@@ -9948,40 +9961,40 @@
       <c r="P92" s="130"/>
     </row>
     <row r="93" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M93" s="282" t="s">
+      <c r="M93" s="288" t="s">
         <v>216</v>
       </c>
-      <c r="N93" s="283"/>
+      <c r="N93" s="284"/>
       <c r="O93" s="140" t="s">
         <v>453</v>
       </c>
       <c r="P93" s="132"/>
     </row>
     <row r="94" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M94" s="284"/>
-      <c r="N94" s="283"/>
+      <c r="M94" s="283"/>
+      <c r="N94" s="284"/>
       <c r="O94" s="140" t="s">
         <v>454</v>
       </c>
       <c r="P94" s="132"/>
     </row>
     <row r="95" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M95" s="284"/>
-      <c r="N95" s="283"/>
+      <c r="M95" s="283"/>
+      <c r="N95" s="284"/>
       <c r="O95" s="140" t="s">
         <v>455</v>
       </c>
       <c r="P95" s="132"/>
     </row>
     <row r="96" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M96" s="284"/>
-      <c r="N96" s="283"/>
+      <c r="M96" s="283"/>
+      <c r="N96" s="284"/>
       <c r="O96" s="131"/>
       <c r="P96" s="132"/>
     </row>
     <row r="97" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M97" s="284"/>
-      <c r="N97" s="283"/>
+      <c r="M97" s="283"/>
+      <c r="N97" s="284"/>
       <c r="O97" s="131"/>
       <c r="P97" s="132"/>
     </row>
@@ -10027,46 +10040,46 @@
       <c r="P103" s="130"/>
     </row>
     <row r="104" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M104" s="282" t="s">
+      <c r="M104" s="288" t="s">
         <v>465</v>
       </c>
-      <c r="N104" s="283"/>
+      <c r="N104" s="284"/>
       <c r="O104" s="140" t="s">
         <v>462</v>
       </c>
       <c r="P104" s="132"/>
     </row>
     <row r="105" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M105" s="282" t="s">
+      <c r="M105" s="288" t="s">
         <v>466</v>
       </c>
-      <c r="N105" s="283"/>
+      <c r="N105" s="284"/>
       <c r="O105" s="140" t="s">
         <v>461</v>
       </c>
       <c r="P105" s="132"/>
     </row>
     <row r="106" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M106" s="282" t="s">
+      <c r="M106" s="288" t="s">
         <v>467</v>
       </c>
-      <c r="N106" s="283"/>
+      <c r="N106" s="284"/>
       <c r="O106" s="140" t="s">
         <v>463</v>
       </c>
       <c r="P106" s="132"/>
     </row>
     <row r="107" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M107" s="284"/>
-      <c r="N107" s="283"/>
+      <c r="M107" s="283"/>
+      <c r="N107" s="284"/>
       <c r="O107" s="140" t="s">
         <v>464</v>
       </c>
       <c r="P107" s="132"/>
     </row>
     <row r="108" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M108" s="284"/>
-      <c r="N108" s="283"/>
+      <c r="M108" s="283"/>
+      <c r="N108" s="284"/>
       <c r="O108" s="131"/>
       <c r="P108" s="132"/>
     </row>
@@ -10114,42 +10127,42 @@
       <c r="P114" s="130"/>
     </row>
     <row r="115" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M115" s="282" t="s">
+      <c r="M115" s="288" t="s">
         <v>482</v>
       </c>
-      <c r="N115" s="283"/>
+      <c r="N115" s="284"/>
       <c r="O115" s="140" t="s">
         <v>483</v>
       </c>
       <c r="P115" s="132"/>
     </row>
     <row r="116" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M116" s="284"/>
-      <c r="N116" s="283"/>
+      <c r="M116" s="283"/>
+      <c r="N116" s="284"/>
       <c r="O116" s="131"/>
       <c r="P116" s="132"/>
     </row>
     <row r="117" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M117" s="284"/>
-      <c r="N117" s="283"/>
+      <c r="M117" s="283"/>
+      <c r="N117" s="284"/>
       <c r="O117" s="131"/>
       <c r="P117" s="132"/>
     </row>
     <row r="118" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M118" s="284"/>
-      <c r="N118" s="283"/>
+      <c r="M118" s="283"/>
+      <c r="N118" s="284"/>
       <c r="O118" s="131"/>
       <c r="P118" s="132"/>
     </row>
     <row r="119" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M119" s="284"/>
-      <c r="N119" s="283"/>
+      <c r="M119" s="283"/>
+      <c r="N119" s="284"/>
       <c r="O119" s="131"/>
       <c r="P119" s="132"/>
     </row>
     <row r="120" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M120" s="284"/>
-      <c r="N120" s="283"/>
+      <c r="M120" s="283"/>
+      <c r="N120" s="284"/>
       <c r="O120" s="131"/>
       <c r="P120" s="132"/>
     </row>
@@ -10161,6 +10174,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
     <mergeCell ref="M119:N119"/>
     <mergeCell ref="M120:N120"/>
     <mergeCell ref="D3:I3"/>
@@ -10177,62 +10246,6 @@
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M104:N104"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
@@ -11755,8 +11768,8 @@
   </sheetPr>
   <dimension ref="B2:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -11767,7 +11780,7 @@
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="47.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.42578125" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" customWidth="1"/>
     <col min="11" max="12" width="9.42578125" customWidth="1"/>
@@ -11802,15 +11815,15 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="291"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="234"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="234"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
     </row>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -11863,12 +11876,12 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="R6" s="292" t="s">
+      <c r="R6" s="293" t="s">
         <v>590</v>
       </c>
-      <c r="S6" s="293"/>
-      <c r="T6" s="293"/>
-      <c r="U6" s="294"/>
+      <c r="S6" s="294"/>
+      <c r="T6" s="294"/>
+      <c r="U6" s="295"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B7" s="183" t="s">
@@ -11886,10 +11899,10 @@
       <c r="L7" s="184"/>
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
-      <c r="R7" s="295"/>
-      <c r="S7" s="296"/>
-      <c r="T7" s="296"/>
-      <c r="U7" s="297"/>
+      <c r="R7" s="296"/>
+      <c r="S7" s="297"/>
+      <c r="T7" s="297"/>
+      <c r="U7" s="298"/>
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="B8" s="187" t="s">
@@ -11911,10 +11924,10 @@
       <c r="L8" s="184"/>
       <c r="M8" s="184"/>
       <c r="N8" s="190"/>
-      <c r="R8" s="295"/>
-      <c r="S8" s="296"/>
-      <c r="T8" s="296"/>
-      <c r="U8" s="297"/>
+      <c r="R8" s="296"/>
+      <c r="S8" s="297"/>
+      <c r="T8" s="297"/>
+      <c r="U8" s="298"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="191" t="s">
@@ -11936,10 +11949,10 @@
       <c r="L9" s="194"/>
       <c r="M9" s="194"/>
       <c r="N9" s="194"/>
-      <c r="R9" s="295"/>
-      <c r="S9" s="296"/>
-      <c r="T9" s="296"/>
-      <c r="U9" s="297"/>
+      <c r="R9" s="296"/>
+      <c r="S9" s="297"/>
+      <c r="T9" s="297"/>
+      <c r="U9" s="298"/>
     </row>
     <row r="10" spans="2:21" thickBot="1">
       <c r="B10" s="191" t="s">
@@ -11971,10 +11984,10 @@
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="R10" s="295"/>
-      <c r="S10" s="296"/>
-      <c r="T10" s="296"/>
-      <c r="U10" s="297"/>
+      <c r="R10" s="296"/>
+      <c r="S10" s="297"/>
+      <c r="T10" s="297"/>
+      <c r="U10" s="298"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="202"/>
@@ -12016,10 +12029,10 @@
       <c r="P11" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="295"/>
-      <c r="S11" s="296"/>
-      <c r="T11" s="296"/>
-      <c r="U11" s="297"/>
+      <c r="R11" s="296"/>
+      <c r="S11" s="297"/>
+      <c r="T11" s="297"/>
+      <c r="U11" s="298"/>
     </row>
     <row r="12" spans="2:21" ht="20.25" customHeight="1">
       <c r="B12" s="171" t="s">
@@ -12041,10 +12054,10 @@
       <c r="N12" s="231"/>
       <c r="O12" s="216"/>
       <c r="P12" s="217"/>
-      <c r="R12" s="295"/>
-      <c r="S12" s="296"/>
-      <c r="T12" s="296"/>
-      <c r="U12" s="297"/>
+      <c r="R12" s="296"/>
+      <c r="S12" s="297"/>
+      <c r="T12" s="297"/>
+      <c r="U12" s="298"/>
     </row>
     <row r="13" spans="2:21" ht="20.25" customHeight="1">
       <c r="B13" s="172"/>
@@ -12068,10 +12081,10 @@
       <c r="N13" s="231"/>
       <c r="O13" s="216"/>
       <c r="P13" s="217"/>
-      <c r="R13" s="295"/>
-      <c r="S13" s="296"/>
-      <c r="T13" s="296"/>
-      <c r="U13" s="297"/>
+      <c r="R13" s="296"/>
+      <c r="S13" s="297"/>
+      <c r="T13" s="297"/>
+      <c r="U13" s="298"/>
     </row>
     <row r="14" spans="2:21" ht="20.25" customHeight="1">
       <c r="B14" s="174"/>
@@ -12089,10 +12102,10 @@
       <c r="N14" s="231"/>
       <c r="O14" s="216"/>
       <c r="P14" s="217"/>
-      <c r="R14" s="295"/>
-      <c r="S14" s="296"/>
-      <c r="T14" s="296"/>
-      <c r="U14" s="297"/>
+      <c r="R14" s="296"/>
+      <c r="S14" s="297"/>
+      <c r="T14" s="297"/>
+      <c r="U14" s="298"/>
     </row>
     <row r="15" spans="2:21" ht="20.25" customHeight="1">
       <c r="B15" s="174" t="s">
@@ -12114,10 +12127,10 @@
       <c r="N15" s="231"/>
       <c r="O15" s="216"/>
       <c r="P15" s="217"/>
-      <c r="R15" s="295"/>
-      <c r="S15" s="296"/>
-      <c r="T15" s="296"/>
-      <c r="U15" s="297"/>
+      <c r="R15" s="296"/>
+      <c r="S15" s="297"/>
+      <c r="T15" s="297"/>
+      <c r="U15" s="298"/>
     </row>
     <row r="16" spans="2:21" ht="20.25" customHeight="1">
       <c r="B16" s="172"/>
@@ -12130,7 +12143,7 @@
       <c r="E16" s="231">
         <v>45978</v>
       </c>
-      <c r="F16" s="301"/>
+      <c r="F16" s="233"/>
       <c r="G16" s="217"/>
       <c r="H16" s="231"/>
       <c r="I16" s="216"/>
@@ -12141,10 +12154,10 @@
       <c r="N16" s="231"/>
       <c r="O16" s="216"/>
       <c r="P16" s="217"/>
-      <c r="R16" s="295"/>
-      <c r="S16" s="296"/>
-      <c r="T16" s="296"/>
-      <c r="U16" s="297"/>
+      <c r="R16" s="296"/>
+      <c r="S16" s="297"/>
+      <c r="T16" s="297"/>
+      <c r="U16" s="298"/>
     </row>
     <row r="17" spans="2:21" ht="20.25" customHeight="1">
       <c r="B17" s="172"/>
@@ -12157,7 +12170,7 @@
       <c r="E17" s="231">
         <v>45978</v>
       </c>
-      <c r="F17" s="301"/>
+      <c r="F17" s="233"/>
       <c r="G17" s="217"/>
       <c r="H17" s="231"/>
       <c r="I17" s="216"/>
@@ -12168,10 +12181,10 @@
       <c r="N17" s="231"/>
       <c r="O17" s="216"/>
       <c r="P17" s="217"/>
-      <c r="R17" s="295"/>
-      <c r="S17" s="296"/>
-      <c r="T17" s="296"/>
-      <c r="U17" s="297"/>
+      <c r="R17" s="296"/>
+      <c r="S17" s="297"/>
+      <c r="T17" s="297"/>
+      <c r="U17" s="298"/>
     </row>
     <row r="18" spans="2:21" ht="20.25" customHeight="1">
       <c r="B18" s="172"/>
@@ -12180,7 +12193,7 @@
       </c>
       <c r="D18" s="218"/>
       <c r="E18" s="231"/>
-      <c r="F18" s="301"/>
+      <c r="F18" s="233"/>
       <c r="G18" s="217"/>
       <c r="H18" s="231"/>
       <c r="I18" s="216"/>
@@ -12191,10 +12204,10 @@
       <c r="N18" s="231"/>
       <c r="O18" s="216"/>
       <c r="P18" s="217"/>
-      <c r="R18" s="295"/>
-      <c r="S18" s="296"/>
-      <c r="T18" s="296"/>
-      <c r="U18" s="297"/>
+      <c r="R18" s="296"/>
+      <c r="S18" s="297"/>
+      <c r="T18" s="297"/>
+      <c r="U18" s="298"/>
     </row>
     <row r="19" spans="2:21" ht="20.25" customHeight="1">
       <c r="B19" s="172"/>
@@ -12218,10 +12231,10 @@
       <c r="N19" s="231"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
-      <c r="R19" s="295"/>
-      <c r="S19" s="296"/>
-      <c r="T19" s="296"/>
-      <c r="U19" s="297"/>
+      <c r="R19" s="296"/>
+      <c r="S19" s="297"/>
+      <c r="T19" s="297"/>
+      <c r="U19" s="298"/>
     </row>
     <row r="20" spans="2:21" ht="20.25" customHeight="1">
       <c r="B20" s="172"/>
@@ -12239,10 +12252,10 @@
       <c r="N20" s="231"/>
       <c r="O20" s="216"/>
       <c r="P20" s="217"/>
-      <c r="R20" s="295"/>
-      <c r="S20" s="296"/>
-      <c r="T20" s="296"/>
-      <c r="U20" s="297"/>
+      <c r="R20" s="296"/>
+      <c r="S20" s="297"/>
+      <c r="T20" s="297"/>
+      <c r="U20" s="298"/>
     </row>
     <row r="21" spans="2:21" ht="20.25" customHeight="1">
       <c r="B21" s="174" t="s">
@@ -12264,10 +12277,10 @@
       <c r="N21" s="231"/>
       <c r="O21" s="216"/>
       <c r="P21" s="217"/>
-      <c r="R21" s="295"/>
-      <c r="S21" s="296"/>
-      <c r="T21" s="296"/>
-      <c r="U21" s="297"/>
+      <c r="R21" s="296"/>
+      <c r="S21" s="297"/>
+      <c r="T21" s="297"/>
+      <c r="U21" s="298"/>
     </row>
     <row r="22" spans="2:21" ht="20.25" customHeight="1">
       <c r="B22" s="172"/>
@@ -12291,10 +12304,10 @@
       <c r="N22" s="231"/>
       <c r="O22" s="216"/>
       <c r="P22" s="217"/>
-      <c r="R22" s="295"/>
-      <c r="S22" s="296"/>
-      <c r="T22" s="296"/>
-      <c r="U22" s="297"/>
+      <c r="R22" s="296"/>
+      <c r="S22" s="297"/>
+      <c r="T22" s="297"/>
+      <c r="U22" s="298"/>
     </row>
     <row r="23" spans="2:21" ht="20.25" customHeight="1">
       <c r="B23" s="172"/>
@@ -12318,10 +12331,10 @@
       <c r="N23" s="231"/>
       <c r="O23" s="216"/>
       <c r="P23" s="217"/>
-      <c r="R23" s="295"/>
-      <c r="S23" s="296"/>
-      <c r="T23" s="296"/>
-      <c r="U23" s="297"/>
+      <c r="R23" s="296"/>
+      <c r="S23" s="297"/>
+      <c r="T23" s="297"/>
+      <c r="U23" s="298"/>
     </row>
     <row r="24" spans="2:21" ht="20.25" customHeight="1">
       <c r="B24" s="172"/>
@@ -12345,10 +12358,10 @@
       <c r="N24" s="231"/>
       <c r="O24" s="216"/>
       <c r="P24" s="217"/>
-      <c r="R24" s="295"/>
-      <c r="S24" s="296"/>
-      <c r="T24" s="296"/>
-      <c r="U24" s="297"/>
+      <c r="R24" s="296"/>
+      <c r="S24" s="297"/>
+      <c r="T24" s="297"/>
+      <c r="U24" s="298"/>
     </row>
     <row r="25" spans="2:21" ht="20.25" customHeight="1">
       <c r="B25" s="172"/>
@@ -12372,10 +12385,10 @@
       <c r="N25" s="231"/>
       <c r="O25" s="216"/>
       <c r="P25" s="217"/>
-      <c r="R25" s="295"/>
-      <c r="S25" s="296"/>
-      <c r="T25" s="296"/>
-      <c r="U25" s="297"/>
+      <c r="R25" s="296"/>
+      <c r="S25" s="297"/>
+      <c r="T25" s="297"/>
+      <c r="U25" s="298"/>
     </row>
     <row r="26" spans="2:21" ht="20.25" customHeight="1">
       <c r="B26" s="169"/>
@@ -12399,10 +12412,10 @@
       <c r="N26" s="231"/>
       <c r="O26" s="216"/>
       <c r="P26" s="217"/>
-      <c r="R26" s="295"/>
-      <c r="S26" s="296"/>
-      <c r="T26" s="296"/>
-      <c r="U26" s="297"/>
+      <c r="R26" s="296"/>
+      <c r="S26" s="297"/>
+      <c r="T26" s="297"/>
+      <c r="U26" s="298"/>
     </row>
     <row r="27" spans="2:21" ht="20.25" customHeight="1">
       <c r="B27" s="169"/>
@@ -12426,10 +12439,10 @@
       <c r="N27" s="231"/>
       <c r="O27" s="216"/>
       <c r="P27" s="217"/>
-      <c r="R27" s="295"/>
-      <c r="S27" s="296"/>
-      <c r="T27" s="296"/>
-      <c r="U27" s="297"/>
+      <c r="R27" s="296"/>
+      <c r="S27" s="297"/>
+      <c r="T27" s="297"/>
+      <c r="U27" s="298"/>
     </row>
     <row r="28" spans="2:21" ht="20.25" customHeight="1">
       <c r="B28" s="169"/>
@@ -12447,10 +12460,10 @@
       <c r="N28" s="231"/>
       <c r="O28" s="216"/>
       <c r="P28" s="217"/>
-      <c r="R28" s="295"/>
-      <c r="S28" s="296"/>
-      <c r="T28" s="296"/>
-      <c r="U28" s="297"/>
+      <c r="R28" s="296"/>
+      <c r="S28" s="297"/>
+      <c r="T28" s="297"/>
+      <c r="U28" s="298"/>
     </row>
     <row r="29" spans="2:21" ht="20.25" customHeight="1">
       <c r="B29" s="174" t="s">
@@ -12460,7 +12473,9 @@
       <c r="D29" s="218"/>
       <c r="E29" s="231"/>
       <c r="F29" s="232"/>
-      <c r="G29" s="217"/>
+      <c r="G29" s="302" t="s">
+        <v>599</v>
+      </c>
       <c r="H29" s="231"/>
       <c r="I29" s="216"/>
       <c r="J29" s="217"/>
@@ -12470,24 +12485,20 @@
       <c r="N29" s="231"/>
       <c r="O29" s="216"/>
       <c r="P29" s="217"/>
-      <c r="R29" s="295"/>
-      <c r="S29" s="296"/>
-      <c r="T29" s="296"/>
-      <c r="U29" s="297"/>
+      <c r="R29" s="296"/>
+      <c r="S29" s="297"/>
+      <c r="T29" s="297"/>
+      <c r="U29" s="298"/>
     </row>
     <row r="30" spans="2:21" ht="20.25" customHeight="1">
       <c r="B30" s="172"/>
       <c r="C30" s="172" t="s">
         <v>495</v>
       </c>
-      <c r="D30" s="218" t="s">
-        <v>596</v>
-      </c>
-      <c r="E30" s="231">
-        <v>45978</v>
-      </c>
+      <c r="D30" s="218"/>
+      <c r="E30" s="231"/>
       <c r="F30" s="232"/>
-      <c r="G30" s="217"/>
+      <c r="G30" s="302"/>
       <c r="H30" s="231"/>
       <c r="I30" s="216"/>
       <c r="J30" s="217"/>
@@ -12497,24 +12508,20 @@
       <c r="N30" s="231"/>
       <c r="O30" s="216"/>
       <c r="P30" s="217"/>
-      <c r="R30" s="295"/>
-      <c r="S30" s="296"/>
-      <c r="T30" s="296"/>
-      <c r="U30" s="297"/>
+      <c r="R30" s="296"/>
+      <c r="S30" s="297"/>
+      <c r="T30" s="297"/>
+      <c r="U30" s="298"/>
     </row>
     <row r="31" spans="2:21" ht="20.25" customHeight="1">
       <c r="B31" s="172"/>
       <c r="C31" s="172" t="s">
         <v>496</v>
       </c>
-      <c r="D31" s="218" t="s">
-        <v>596</v>
-      </c>
-      <c r="E31" s="231">
-        <v>45978</v>
-      </c>
+      <c r="D31" s="218"/>
+      <c r="E31" s="231"/>
       <c r="F31" s="232"/>
-      <c r="G31" s="217"/>
+      <c r="G31" s="302"/>
       <c r="H31" s="231"/>
       <c r="I31" s="216"/>
       <c r="J31" s="217"/>
@@ -12524,24 +12531,20 @@
       <c r="N31" s="231"/>
       <c r="O31" s="216"/>
       <c r="P31" s="217"/>
-      <c r="R31" s="295"/>
-      <c r="S31" s="296"/>
-      <c r="T31" s="296"/>
-      <c r="U31" s="297"/>
+      <c r="R31" s="296"/>
+      <c r="S31" s="297"/>
+      <c r="T31" s="297"/>
+      <c r="U31" s="298"/>
     </row>
     <row r="32" spans="2:21" ht="20.25" customHeight="1">
       <c r="B32" s="169"/>
       <c r="C32" s="169" t="s">
-        <v>486</v>
-      </c>
-      <c r="D32" s="218" t="s">
-        <v>596</v>
-      </c>
-      <c r="E32" s="231">
-        <v>45978</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="D32" s="218"/>
+      <c r="E32" s="231"/>
       <c r="F32" s="232"/>
-      <c r="G32" s="217"/>
+      <c r="G32" s="302"/>
       <c r="H32" s="231"/>
       <c r="I32" s="216"/>
       <c r="J32" s="217"/>
@@ -12551,10 +12554,10 @@
       <c r="N32" s="231"/>
       <c r="O32" s="216"/>
       <c r="P32" s="217"/>
-      <c r="R32" s="295"/>
-      <c r="S32" s="296"/>
-      <c r="T32" s="296"/>
-      <c r="U32" s="297"/>
+      <c r="R32" s="296"/>
+      <c r="S32" s="297"/>
+      <c r="T32" s="297"/>
+      <c r="U32" s="298"/>
     </row>
     <row r="33" spans="2:21" ht="20.25" customHeight="1">
       <c r="B33" s="169"/>
@@ -12572,10 +12575,10 @@
       <c r="N33" s="231"/>
       <c r="O33" s="216"/>
       <c r="P33" s="217"/>
-      <c r="R33" s="295"/>
-      <c r="S33" s="296"/>
-      <c r="T33" s="296"/>
-      <c r="U33" s="297"/>
+      <c r="R33" s="296"/>
+      <c r="S33" s="297"/>
+      <c r="T33" s="297"/>
+      <c r="U33" s="298"/>
     </row>
     <row r="34" spans="2:21" ht="20.25" customHeight="1">
       <c r="B34" s="174" t="s">
@@ -12595,10 +12598,10 @@
       <c r="N34" s="231"/>
       <c r="O34" s="216"/>
       <c r="P34" s="217"/>
-      <c r="R34" s="295"/>
-      <c r="S34" s="296"/>
-      <c r="T34" s="296"/>
-      <c r="U34" s="297"/>
+      <c r="R34" s="296"/>
+      <c r="S34" s="297"/>
+      <c r="T34" s="297"/>
+      <c r="U34" s="298"/>
     </row>
     <row r="35" spans="2:21" ht="20.25" customHeight="1">
       <c r="B35" s="172"/>
@@ -12622,10 +12625,10 @@
       <c r="N35" s="231"/>
       <c r="O35" s="216"/>
       <c r="P35" s="217"/>
-      <c r="R35" s="295"/>
-      <c r="S35" s="296"/>
-      <c r="T35" s="296"/>
-      <c r="U35" s="297"/>
+      <c r="R35" s="296"/>
+      <c r="S35" s="297"/>
+      <c r="T35" s="297"/>
+      <c r="U35" s="298"/>
     </row>
     <row r="36" spans="2:21" ht="20.25" customHeight="1">
       <c r="B36" s="172"/>
@@ -12649,10 +12652,10 @@
       <c r="N36" s="231"/>
       <c r="O36" s="216"/>
       <c r="P36" s="217"/>
-      <c r="R36" s="295"/>
-      <c r="S36" s="296"/>
-      <c r="T36" s="296"/>
-      <c r="U36" s="297"/>
+      <c r="R36" s="296"/>
+      <c r="S36" s="297"/>
+      <c r="T36" s="297"/>
+      <c r="U36" s="298"/>
     </row>
     <row r="37" spans="2:21" ht="20.25" customHeight="1">
       <c r="B37" s="169"/>
@@ -12670,10 +12673,10 @@
       <c r="N37" s="231"/>
       <c r="O37" s="216"/>
       <c r="P37" s="217"/>
-      <c r="R37" s="295"/>
-      <c r="S37" s="296"/>
-      <c r="T37" s="296"/>
-      <c r="U37" s="297"/>
+      <c r="R37" s="296"/>
+      <c r="S37" s="297"/>
+      <c r="T37" s="297"/>
+      <c r="U37" s="298"/>
     </row>
     <row r="38" spans="2:21" ht="20.25" customHeight="1">
       <c r="B38" s="174" t="s">
@@ -12693,10 +12696,10 @@
       <c r="N38" s="231"/>
       <c r="O38" s="216"/>
       <c r="P38" s="217"/>
-      <c r="R38" s="295"/>
-      <c r="S38" s="296"/>
-      <c r="T38" s="296"/>
-      <c r="U38" s="297"/>
+      <c r="R38" s="296"/>
+      <c r="S38" s="297"/>
+      <c r="T38" s="297"/>
+      <c r="U38" s="298"/>
     </row>
     <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="172"/>
@@ -12718,10 +12721,10 @@
       <c r="N39" s="231"/>
       <c r="O39" s="216"/>
       <c r="P39" s="217"/>
-      <c r="R39" s="295"/>
-      <c r="S39" s="296"/>
-      <c r="T39" s="296"/>
-      <c r="U39" s="297"/>
+      <c r="R39" s="296"/>
+      <c r="S39" s="297"/>
+      <c r="T39" s="297"/>
+      <c r="U39" s="298"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
       <c r="B40" s="172"/>
@@ -12743,10 +12746,10 @@
       <c r="N40" s="231"/>
       <c r="O40" s="216"/>
       <c r="P40" s="217"/>
-      <c r="R40" s="295"/>
-      <c r="S40" s="296"/>
-      <c r="T40" s="296"/>
-      <c r="U40" s="297"/>
+      <c r="R40" s="296"/>
+      <c r="S40" s="297"/>
+      <c r="T40" s="297"/>
+      <c r="U40" s="298"/>
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="172"/>
@@ -12768,10 +12771,10 @@
       <c r="N41" s="231"/>
       <c r="O41" s="216"/>
       <c r="P41" s="217"/>
-      <c r="R41" s="295"/>
-      <c r="S41" s="296"/>
-      <c r="T41" s="296"/>
-      <c r="U41" s="297"/>
+      <c r="R41" s="296"/>
+      <c r="S41" s="297"/>
+      <c r="T41" s="297"/>
+      <c r="U41" s="298"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="172"/>
@@ -12793,10 +12796,10 @@
       <c r="N42" s="231"/>
       <c r="O42" s="216"/>
       <c r="P42" s="217"/>
-      <c r="R42" s="295"/>
-      <c r="S42" s="296"/>
-      <c r="T42" s="296"/>
-      <c r="U42" s="297"/>
+      <c r="R42" s="296"/>
+      <c r="S42" s="297"/>
+      <c r="T42" s="297"/>
+      <c r="U42" s="298"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
       <c r="B43" s="172"/>
@@ -12818,10 +12821,10 @@
       <c r="N43" s="231"/>
       <c r="O43" s="216"/>
       <c r="P43" s="217"/>
-      <c r="R43" s="295"/>
-      <c r="S43" s="296"/>
-      <c r="T43" s="296"/>
-      <c r="U43" s="297"/>
+      <c r="R43" s="296"/>
+      <c r="S43" s="297"/>
+      <c r="T43" s="297"/>
+      <c r="U43" s="298"/>
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="172"/>
@@ -12843,10 +12846,10 @@
       <c r="N44" s="231"/>
       <c r="O44" s="216"/>
       <c r="P44" s="217"/>
-      <c r="R44" s="295"/>
-      <c r="S44" s="296"/>
-      <c r="T44" s="296"/>
-      <c r="U44" s="297"/>
+      <c r="R44" s="296"/>
+      <c r="S44" s="297"/>
+      <c r="T44" s="297"/>
+      <c r="U44" s="298"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="172"/>
@@ -12868,10 +12871,10 @@
       <c r="N45" s="231"/>
       <c r="O45" s="216"/>
       <c r="P45" s="217"/>
-      <c r="R45" s="295"/>
-      <c r="S45" s="296"/>
-      <c r="T45" s="296"/>
-      <c r="U45" s="297"/>
+      <c r="R45" s="296"/>
+      <c r="S45" s="297"/>
+      <c r="T45" s="297"/>
+      <c r="U45" s="298"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
       <c r="B46" s="172"/>
@@ -12893,10 +12896,10 @@
       <c r="N46" s="231"/>
       <c r="O46" s="216"/>
       <c r="P46" s="217"/>
-      <c r="R46" s="295"/>
-      <c r="S46" s="296"/>
-      <c r="T46" s="296"/>
-      <c r="U46" s="297"/>
+      <c r="R46" s="296"/>
+      <c r="S46" s="297"/>
+      <c r="T46" s="297"/>
+      <c r="U46" s="298"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
       <c r="B47" s="172"/>
@@ -12918,10 +12921,10 @@
       <c r="N47" s="231"/>
       <c r="O47" s="216"/>
       <c r="P47" s="217"/>
-      <c r="R47" s="295"/>
-      <c r="S47" s="296"/>
-      <c r="T47" s="296"/>
-      <c r="U47" s="297"/>
+      <c r="R47" s="296"/>
+      <c r="S47" s="297"/>
+      <c r="T47" s="297"/>
+      <c r="U47" s="298"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
       <c r="B48" s="169"/>
@@ -12939,10 +12942,10 @@
       <c r="N48" s="231"/>
       <c r="O48" s="216"/>
       <c r="P48" s="217"/>
-      <c r="R48" s="295"/>
-      <c r="S48" s="296"/>
-      <c r="T48" s="296"/>
-      <c r="U48" s="297"/>
+      <c r="R48" s="296"/>
+      <c r="S48" s="297"/>
+      <c r="T48" s="297"/>
+      <c r="U48" s="298"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1">
       <c r="B49" s="174" t="s">
@@ -12962,10 +12965,10 @@
       <c r="N49" s="231"/>
       <c r="O49" s="216"/>
       <c r="P49" s="217"/>
-      <c r="R49" s="295"/>
-      <c r="S49" s="296"/>
-      <c r="T49" s="296"/>
-      <c r="U49" s="297"/>
+      <c r="R49" s="296"/>
+      <c r="S49" s="297"/>
+      <c r="T49" s="297"/>
+      <c r="U49" s="298"/>
     </row>
     <row r="50" spans="2:21" ht="20.25" customHeight="1">
       <c r="B50" s="172"/>
@@ -12987,10 +12990,10 @@
       <c r="N50" s="231"/>
       <c r="O50" s="216"/>
       <c r="P50" s="217"/>
-      <c r="R50" s="295"/>
-      <c r="S50" s="296"/>
-      <c r="T50" s="296"/>
-      <c r="U50" s="297"/>
+      <c r="R50" s="296"/>
+      <c r="S50" s="297"/>
+      <c r="T50" s="297"/>
+      <c r="U50" s="298"/>
     </row>
     <row r="51" spans="2:21" ht="20.25" customHeight="1">
       <c r="B51" s="172"/>
@@ -13012,10 +13015,10 @@
       <c r="N51" s="231"/>
       <c r="O51" s="216"/>
       <c r="P51" s="217"/>
-      <c r="R51" s="295"/>
-      <c r="S51" s="296"/>
-      <c r="T51" s="296"/>
-      <c r="U51" s="297"/>
+      <c r="R51" s="296"/>
+      <c r="S51" s="297"/>
+      <c r="T51" s="297"/>
+      <c r="U51" s="298"/>
     </row>
     <row r="52" spans="2:21" ht="20.25" customHeight="1">
       <c r="B52" s="172"/>
@@ -13037,10 +13040,10 @@
       <c r="N52" s="231"/>
       <c r="O52" s="216"/>
       <c r="P52" s="217"/>
-      <c r="R52" s="295"/>
-      <c r="S52" s="296"/>
-      <c r="T52" s="296"/>
-      <c r="U52" s="297"/>
+      <c r="R52" s="296"/>
+      <c r="S52" s="297"/>
+      <c r="T52" s="297"/>
+      <c r="U52" s="298"/>
     </row>
     <row r="53" spans="2:21" ht="20.25" customHeight="1">
       <c r="B53" s="172"/>
@@ -13062,10 +13065,10 @@
       <c r="N53" s="231"/>
       <c r="O53" s="216"/>
       <c r="P53" s="217"/>
-      <c r="R53" s="295"/>
-      <c r="S53" s="296"/>
-      <c r="T53" s="296"/>
-      <c r="U53" s="297"/>
+      <c r="R53" s="296"/>
+      <c r="S53" s="297"/>
+      <c r="T53" s="297"/>
+      <c r="U53" s="298"/>
     </row>
     <row r="54" spans="2:21" ht="20.25" customHeight="1">
       <c r="B54" s="172"/>
@@ -13083,10 +13086,10 @@
       <c r="N54" s="231"/>
       <c r="O54" s="216"/>
       <c r="P54" s="217"/>
-      <c r="R54" s="295"/>
-      <c r="S54" s="296"/>
-      <c r="T54" s="296"/>
-      <c r="U54" s="297"/>
+      <c r="R54" s="296"/>
+      <c r="S54" s="297"/>
+      <c r="T54" s="297"/>
+      <c r="U54" s="298"/>
     </row>
     <row r="55" spans="2:21" ht="20.25" customHeight="1">
       <c r="B55" s="174" t="s">
@@ -13106,10 +13109,10 @@
       <c r="N55" s="231"/>
       <c r="O55" s="216"/>
       <c r="P55" s="217"/>
-      <c r="R55" s="295"/>
-      <c r="S55" s="296"/>
-      <c r="T55" s="296"/>
-      <c r="U55" s="297"/>
+      <c r="R55" s="296"/>
+      <c r="S55" s="297"/>
+      <c r="T55" s="297"/>
+      <c r="U55" s="298"/>
     </row>
     <row r="56" spans="2:21" ht="20.25" customHeight="1">
       <c r="B56" s="172"/>
@@ -13131,10 +13134,10 @@
       <c r="N56" s="231"/>
       <c r="O56" s="216"/>
       <c r="P56" s="217"/>
-      <c r="R56" s="295"/>
-      <c r="S56" s="296"/>
-      <c r="T56" s="296"/>
-      <c r="U56" s="297"/>
+      <c r="R56" s="296"/>
+      <c r="S56" s="297"/>
+      <c r="T56" s="297"/>
+      <c r="U56" s="298"/>
     </row>
     <row r="57" spans="2:21" ht="20.25" customHeight="1">
       <c r="B57" s="172"/>
@@ -13156,10 +13159,10 @@
       <c r="N57" s="231"/>
       <c r="O57" s="216"/>
       <c r="P57" s="217"/>
-      <c r="R57" s="295"/>
-      <c r="S57" s="296"/>
-      <c r="T57" s="296"/>
-      <c r="U57" s="297"/>
+      <c r="R57" s="296"/>
+      <c r="S57" s="297"/>
+      <c r="T57" s="297"/>
+      <c r="U57" s="298"/>
     </row>
     <row r="58" spans="2:21" ht="20.25" customHeight="1">
       <c r="B58" s="172"/>
@@ -13181,10 +13184,10 @@
       <c r="N58" s="231"/>
       <c r="O58" s="216"/>
       <c r="P58" s="217"/>
-      <c r="R58" s="295"/>
-      <c r="S58" s="296"/>
-      <c r="T58" s="296"/>
-      <c r="U58" s="297"/>
+      <c r="R58" s="296"/>
+      <c r="S58" s="297"/>
+      <c r="T58" s="297"/>
+      <c r="U58" s="298"/>
     </row>
     <row r="59" spans="2:21" ht="20.25" customHeight="1">
       <c r="B59" s="172"/>
@@ -13206,10 +13209,10 @@
       <c r="N59" s="231"/>
       <c r="O59" s="216"/>
       <c r="P59" s="217"/>
-      <c r="R59" s="295"/>
-      <c r="S59" s="296"/>
-      <c r="T59" s="296"/>
-      <c r="U59" s="297"/>
+      <c r="R59" s="296"/>
+      <c r="S59" s="297"/>
+      <c r="T59" s="297"/>
+      <c r="U59" s="298"/>
     </row>
     <row r="60" spans="2:21" ht="20.25" customHeight="1">
       <c r="B60" s="172"/>
@@ -13231,10 +13234,10 @@
       <c r="N60" s="231"/>
       <c r="O60" s="216"/>
       <c r="P60" s="217"/>
-      <c r="R60" s="295"/>
-      <c r="S60" s="296"/>
-      <c r="T60" s="296"/>
-      <c r="U60" s="297"/>
+      <c r="R60" s="296"/>
+      <c r="S60" s="297"/>
+      <c r="T60" s="297"/>
+      <c r="U60" s="298"/>
     </row>
     <row r="61" spans="2:21" ht="20.25" customHeight="1">
       <c r="B61" s="218"/>
@@ -13252,10 +13255,10 @@
       <c r="N61" s="231"/>
       <c r="O61" s="216"/>
       <c r="P61" s="217"/>
-      <c r="R61" s="295"/>
-      <c r="S61" s="296"/>
-      <c r="T61" s="296"/>
-      <c r="U61" s="297"/>
+      <c r="R61" s="296"/>
+      <c r="S61" s="297"/>
+      <c r="T61" s="297"/>
+      <c r="U61" s="298"/>
     </row>
     <row r="62" spans="2:21" ht="20.25" customHeight="1">
       <c r="B62" s="174" t="s">
@@ -13275,10 +13278,10 @@
       <c r="N62" s="231"/>
       <c r="O62" s="216"/>
       <c r="P62" s="217"/>
-      <c r="R62" s="295"/>
-      <c r="S62" s="296"/>
-      <c r="T62" s="296"/>
-      <c r="U62" s="297"/>
+      <c r="R62" s="296"/>
+      <c r="S62" s="297"/>
+      <c r="T62" s="297"/>
+      <c r="U62" s="298"/>
     </row>
     <row r="63" spans="2:21" ht="20.25" customHeight="1">
       <c r="B63" s="172"/>
@@ -13300,10 +13303,10 @@
       <c r="N63" s="231"/>
       <c r="O63" s="216"/>
       <c r="P63" s="217"/>
-      <c r="R63" s="295"/>
-      <c r="S63" s="296"/>
-      <c r="T63" s="296"/>
-      <c r="U63" s="297"/>
+      <c r="R63" s="296"/>
+      <c r="S63" s="297"/>
+      <c r="T63" s="297"/>
+      <c r="U63" s="298"/>
     </row>
     <row r="64" spans="2:21" ht="20.25" customHeight="1">
       <c r="B64" s="172"/>
@@ -13325,10 +13328,10 @@
       <c r="N64" s="231"/>
       <c r="O64" s="216"/>
       <c r="P64" s="217"/>
-      <c r="R64" s="295"/>
-      <c r="S64" s="296"/>
-      <c r="T64" s="296"/>
-      <c r="U64" s="297"/>
+      <c r="R64" s="296"/>
+      <c r="S64" s="297"/>
+      <c r="T64" s="297"/>
+      <c r="U64" s="298"/>
     </row>
     <row r="65" spans="2:21" ht="20.25" customHeight="1">
       <c r="B65" s="169"/>
@@ -13346,10 +13349,10 @@
       <c r="N65" s="231"/>
       <c r="O65" s="216"/>
       <c r="P65" s="217"/>
-      <c r="R65" s="295"/>
-      <c r="S65" s="296"/>
-      <c r="T65" s="296"/>
-      <c r="U65" s="297"/>
+      <c r="R65" s="296"/>
+      <c r="S65" s="297"/>
+      <c r="T65" s="297"/>
+      <c r="U65" s="298"/>
     </row>
     <row r="66" spans="2:21" ht="20.25" customHeight="1">
       <c r="B66" s="174" t="s">
@@ -13371,10 +13374,10 @@
       </c>
       <c r="O66" s="216"/>
       <c r="P66" s="217"/>
-      <c r="R66" s="295"/>
-      <c r="S66" s="296"/>
-      <c r="T66" s="296"/>
-      <c r="U66" s="297"/>
+      <c r="R66" s="296"/>
+      <c r="S66" s="297"/>
+      <c r="T66" s="297"/>
+      <c r="U66" s="298"/>
     </row>
     <row r="67" spans="2:21" ht="20.25" customHeight="1">
       <c r="B67" s="172"/>
@@ -13396,10 +13399,10 @@
       </c>
       <c r="O67" s="216"/>
       <c r="P67" s="217"/>
-      <c r="R67" s="295"/>
-      <c r="S67" s="296"/>
-      <c r="T67" s="296"/>
-      <c r="U67" s="297"/>
+      <c r="R67" s="296"/>
+      <c r="S67" s="297"/>
+      <c r="T67" s="297"/>
+      <c r="U67" s="298"/>
     </row>
     <row r="68" spans="2:21" ht="20.25" customHeight="1">
       <c r="B68" s="169"/>
@@ -13421,10 +13424,10 @@
       </c>
       <c r="O68" s="216"/>
       <c r="P68" s="217"/>
-      <c r="R68" s="295"/>
-      <c r="S68" s="296"/>
-      <c r="T68" s="296"/>
-      <c r="U68" s="297"/>
+      <c r="R68" s="296"/>
+      <c r="S68" s="297"/>
+      <c r="T68" s="297"/>
+      <c r="U68" s="298"/>
     </row>
     <row r="69" spans="2:21" ht="20.25" customHeight="1">
       <c r="B69" s="169"/>
@@ -13446,10 +13449,10 @@
       </c>
       <c r="O69" s="216"/>
       <c r="P69" s="217"/>
-      <c r="R69" s="295"/>
-      <c r="S69" s="296"/>
-      <c r="T69" s="296"/>
-      <c r="U69" s="297"/>
+      <c r="R69" s="296"/>
+      <c r="S69" s="297"/>
+      <c r="T69" s="297"/>
+      <c r="U69" s="298"/>
     </row>
     <row r="70" spans="2:21" ht="20.25" customHeight="1">
       <c r="B70" s="169"/>
@@ -13471,10 +13474,10 @@
       </c>
       <c r="O70" s="216"/>
       <c r="P70" s="217"/>
-      <c r="R70" s="295"/>
-      <c r="S70" s="296"/>
-      <c r="T70" s="296"/>
-      <c r="U70" s="297"/>
+      <c r="R70" s="296"/>
+      <c r="S70" s="297"/>
+      <c r="T70" s="297"/>
+      <c r="U70" s="298"/>
     </row>
     <row r="71" spans="2:21" ht="20.25" customHeight="1">
       <c r="B71" s="169"/>
@@ -13496,10 +13499,10 @@
       </c>
       <c r="O71" s="216"/>
       <c r="P71" s="217"/>
-      <c r="R71" s="295"/>
-      <c r="S71" s="296"/>
-      <c r="T71" s="296"/>
-      <c r="U71" s="297"/>
+      <c r="R71" s="296"/>
+      <c r="S71" s="297"/>
+      <c r="T71" s="297"/>
+      <c r="U71" s="298"/>
     </row>
     <row r="72" spans="2:21" ht="20.25" customHeight="1">
       <c r="B72" s="169"/>
@@ -13521,10 +13524,10 @@
       </c>
       <c r="O72" s="216"/>
       <c r="P72" s="217"/>
-      <c r="R72" s="295"/>
-      <c r="S72" s="296"/>
-      <c r="T72" s="296"/>
-      <c r="U72" s="297"/>
+      <c r="R72" s="296"/>
+      <c r="S72" s="297"/>
+      <c r="T72" s="297"/>
+      <c r="U72" s="298"/>
     </row>
     <row r="73" spans="2:21" ht="20.25" customHeight="1">
       <c r="B73" s="169"/>
@@ -13546,10 +13549,10 @@
       </c>
       <c r="O73" s="216"/>
       <c r="P73" s="217"/>
-      <c r="R73" s="295"/>
-      <c r="S73" s="296"/>
-      <c r="T73" s="296"/>
-      <c r="U73" s="297"/>
+      <c r="R73" s="296"/>
+      <c r="S73" s="297"/>
+      <c r="T73" s="297"/>
+      <c r="U73" s="298"/>
     </row>
     <row r="74" spans="2:21" ht="20.25" customHeight="1">
       <c r="B74" s="169"/>
@@ -13571,10 +13574,10 @@
       </c>
       <c r="O74" s="216"/>
       <c r="P74" s="217"/>
-      <c r="R74" s="295"/>
-      <c r="S74" s="296"/>
-      <c r="T74" s="296"/>
-      <c r="U74" s="297"/>
+      <c r="R74" s="296"/>
+      <c r="S74" s="297"/>
+      <c r="T74" s="297"/>
+      <c r="U74" s="298"/>
     </row>
     <row r="75" spans="2:21" ht="20.25" customHeight="1">
       <c r="B75" s="169"/>
@@ -13596,10 +13599,10 @@
       </c>
       <c r="O75" s="216"/>
       <c r="P75" s="217"/>
-      <c r="R75" s="295"/>
-      <c r="S75" s="296"/>
-      <c r="T75" s="296"/>
-      <c r="U75" s="297"/>
+      <c r="R75" s="296"/>
+      <c r="S75" s="297"/>
+      <c r="T75" s="297"/>
+      <c r="U75" s="298"/>
     </row>
     <row r="76" spans="2:21" ht="20.25" customHeight="1">
       <c r="B76" s="169"/>
@@ -13617,10 +13620,10 @@
       <c r="N76" s="231"/>
       <c r="O76" s="216"/>
       <c r="P76" s="217"/>
-      <c r="R76" s="295"/>
-      <c r="S76" s="296"/>
-      <c r="T76" s="296"/>
-      <c r="U76" s="297"/>
+      <c r="R76" s="296"/>
+      <c r="S76" s="297"/>
+      <c r="T76" s="297"/>
+      <c r="U76" s="298"/>
     </row>
     <row r="77" spans="2:21" ht="20.25" customHeight="1">
       <c r="B77" s="174" t="s">
@@ -13642,10 +13645,10 @@
       </c>
       <c r="O77" s="216"/>
       <c r="P77" s="217"/>
-      <c r="R77" s="295"/>
-      <c r="S77" s="296"/>
-      <c r="T77" s="296"/>
-      <c r="U77" s="297"/>
+      <c r="R77" s="296"/>
+      <c r="S77" s="297"/>
+      <c r="T77" s="297"/>
+      <c r="U77" s="298"/>
     </row>
     <row r="78" spans="2:21" ht="20.25" customHeight="1">
       <c r="B78" s="172"/>
@@ -13667,10 +13670,10 @@
       </c>
       <c r="O78" s="216"/>
       <c r="P78" s="217"/>
-      <c r="R78" s="295"/>
-      <c r="S78" s="296"/>
-      <c r="T78" s="296"/>
-      <c r="U78" s="297"/>
+      <c r="R78" s="296"/>
+      <c r="S78" s="297"/>
+      <c r="T78" s="297"/>
+      <c r="U78" s="298"/>
     </row>
     <row r="79" spans="2:21" ht="20.25" customHeight="1">
       <c r="B79" s="172"/>
@@ -13692,10 +13695,10 @@
       </c>
       <c r="O79" s="216"/>
       <c r="P79" s="217"/>
-      <c r="R79" s="295"/>
-      <c r="S79" s="296"/>
-      <c r="T79" s="296"/>
-      <c r="U79" s="297"/>
+      <c r="R79" s="296"/>
+      <c r="S79" s="297"/>
+      <c r="T79" s="297"/>
+      <c r="U79" s="298"/>
     </row>
     <row r="80" spans="2:21" ht="20.25" customHeight="1">
       <c r="B80" s="169"/>
@@ -13713,10 +13716,10 @@
       <c r="N80" s="231"/>
       <c r="O80" s="216"/>
       <c r="P80" s="217"/>
-      <c r="R80" s="295"/>
-      <c r="S80" s="296"/>
-      <c r="T80" s="296"/>
-      <c r="U80" s="297"/>
+      <c r="R80" s="296"/>
+      <c r="S80" s="297"/>
+      <c r="T80" s="297"/>
+      <c r="U80" s="298"/>
     </row>
     <row r="81" spans="2:21" ht="20.25" customHeight="1">
       <c r="B81" s="174" t="s">
@@ -13738,10 +13741,10 @@
       </c>
       <c r="O81" s="216"/>
       <c r="P81" s="217"/>
-      <c r="R81" s="295"/>
-      <c r="S81" s="296"/>
-      <c r="T81" s="296"/>
-      <c r="U81" s="297"/>
+      <c r="R81" s="296"/>
+      <c r="S81" s="297"/>
+      <c r="T81" s="297"/>
+      <c r="U81" s="298"/>
     </row>
     <row r="82" spans="2:21" ht="20.25" customHeight="1">
       <c r="B82" s="172"/>
@@ -13763,10 +13766,10 @@
       </c>
       <c r="O82" s="216"/>
       <c r="P82" s="217"/>
-      <c r="R82" s="295"/>
-      <c r="S82" s="296"/>
-      <c r="T82" s="296"/>
-      <c r="U82" s="297"/>
+      <c r="R82" s="296"/>
+      <c r="S82" s="297"/>
+      <c r="T82" s="297"/>
+      <c r="U82" s="298"/>
     </row>
     <row r="83" spans="2:21" ht="20.25" customHeight="1">
       <c r="B83" s="172"/>
@@ -13788,10 +13791,10 @@
       </c>
       <c r="O83" s="216"/>
       <c r="P83" s="217"/>
-      <c r="R83" s="295"/>
-      <c r="S83" s="296"/>
-      <c r="T83" s="296"/>
-      <c r="U83" s="297"/>
+      <c r="R83" s="296"/>
+      <c r="S83" s="297"/>
+      <c r="T83" s="297"/>
+      <c r="U83" s="298"/>
     </row>
     <row r="84" spans="2:21" ht="20.25" customHeight="1">
       <c r="B84" s="172"/>
@@ -13813,10 +13816,10 @@
       </c>
       <c r="O84" s="216"/>
       <c r="P84" s="217"/>
-      <c r="R84" s="295"/>
-      <c r="S84" s="296"/>
-      <c r="T84" s="296"/>
-      <c r="U84" s="297"/>
+      <c r="R84" s="296"/>
+      <c r="S84" s="297"/>
+      <c r="T84" s="297"/>
+      <c r="U84" s="298"/>
     </row>
     <row r="85" spans="2:21" ht="20.25" customHeight="1">
       <c r="B85" s="172"/>
@@ -13838,10 +13841,10 @@
       </c>
       <c r="O85" s="216"/>
       <c r="P85" s="217"/>
-      <c r="R85" s="295"/>
-      <c r="S85" s="296"/>
-      <c r="T85" s="296"/>
-      <c r="U85" s="297"/>
+      <c r="R85" s="296"/>
+      <c r="S85" s="297"/>
+      <c r="T85" s="297"/>
+      <c r="U85" s="298"/>
     </row>
     <row r="86" spans="2:21" ht="20.25" customHeight="1">
       <c r="B86" s="172"/>
@@ -13863,10 +13866,10 @@
       </c>
       <c r="O86" s="216"/>
       <c r="P86" s="217"/>
-      <c r="R86" s="295"/>
-      <c r="S86" s="296"/>
-      <c r="T86" s="296"/>
-      <c r="U86" s="297"/>
+      <c r="R86" s="296"/>
+      <c r="S86" s="297"/>
+      <c r="T86" s="297"/>
+      <c r="U86" s="298"/>
     </row>
     <row r="87" spans="2:21" ht="20.25" customHeight="1">
       <c r="B87" s="169"/>
@@ -13884,10 +13887,10 @@
       <c r="N87" s="231"/>
       <c r="O87" s="216"/>
       <c r="P87" s="217"/>
-      <c r="R87" s="295"/>
-      <c r="S87" s="296"/>
-      <c r="T87" s="296"/>
-      <c r="U87" s="297"/>
+      <c r="R87" s="296"/>
+      <c r="S87" s="297"/>
+      <c r="T87" s="297"/>
+      <c r="U87" s="298"/>
     </row>
     <row r="88" spans="2:21" ht="20.25" customHeight="1">
       <c r="B88" s="174" t="s">
@@ -13909,10 +13912,10 @@
       </c>
       <c r="O88" s="216"/>
       <c r="P88" s="217"/>
-      <c r="R88" s="295"/>
-      <c r="S88" s="296"/>
-      <c r="T88" s="296"/>
-      <c r="U88" s="297"/>
+      <c r="R88" s="296"/>
+      <c r="S88" s="297"/>
+      <c r="T88" s="297"/>
+      <c r="U88" s="298"/>
     </row>
     <row r="89" spans="2:21" ht="20.25" customHeight="1">
       <c r="B89" s="172"/>
@@ -13934,10 +13937,10 @@
       </c>
       <c r="O89" s="216"/>
       <c r="P89" s="217"/>
-      <c r="R89" s="295"/>
-      <c r="S89" s="296"/>
-      <c r="T89" s="296"/>
-      <c r="U89" s="297"/>
+      <c r="R89" s="296"/>
+      <c r="S89" s="297"/>
+      <c r="T89" s="297"/>
+      <c r="U89" s="298"/>
     </row>
     <row r="90" spans="2:21" ht="20.25" customHeight="1">
       <c r="B90" s="172"/>
@@ -13959,10 +13962,10 @@
       </c>
       <c r="O90" s="216"/>
       <c r="P90" s="217"/>
-      <c r="R90" s="295"/>
-      <c r="S90" s="296"/>
-      <c r="T90" s="296"/>
-      <c r="U90" s="297"/>
+      <c r="R90" s="296"/>
+      <c r="S90" s="297"/>
+      <c r="T90" s="297"/>
+      <c r="U90" s="298"/>
     </row>
     <row r="91" spans="2:21" ht="20.25" customHeight="1">
       <c r="B91" s="172"/>
@@ -13984,10 +13987,10 @@
       </c>
       <c r="O91" s="216"/>
       <c r="P91" s="217"/>
-      <c r="R91" s="295"/>
-      <c r="S91" s="296"/>
-      <c r="T91" s="296"/>
-      <c r="U91" s="297"/>
+      <c r="R91" s="296"/>
+      <c r="S91" s="297"/>
+      <c r="T91" s="297"/>
+      <c r="U91" s="298"/>
     </row>
     <row r="92" spans="2:21" ht="20.25" customHeight="1">
       <c r="B92" s="169"/>
@@ -14009,10 +14012,10 @@
       </c>
       <c r="O92" s="216"/>
       <c r="P92" s="217"/>
-      <c r="R92" s="295"/>
-      <c r="S92" s="296"/>
-      <c r="T92" s="296"/>
-      <c r="U92" s="297"/>
+      <c r="R92" s="296"/>
+      <c r="S92" s="297"/>
+      <c r="T92" s="297"/>
+      <c r="U92" s="298"/>
     </row>
     <row r="93" spans="2:21" ht="20.25" customHeight="1">
       <c r="B93" s="218"/>
@@ -14030,10 +14033,10 @@
       <c r="N93" s="231"/>
       <c r="O93" s="216"/>
       <c r="P93" s="217"/>
-      <c r="R93" s="295"/>
-      <c r="S93" s="296"/>
-      <c r="T93" s="296"/>
-      <c r="U93" s="297"/>
+      <c r="R93" s="296"/>
+      <c r="S93" s="297"/>
+      <c r="T93" s="297"/>
+      <c r="U93" s="298"/>
     </row>
     <row r="94" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
       <c r="B94" s="225"/>
@@ -14051,10 +14054,10 @@
       <c r="N94" s="230"/>
       <c r="O94" s="226"/>
       <c r="P94" s="228"/>
-      <c r="R94" s="298"/>
-      <c r="S94" s="299"/>
-      <c r="T94" s="299"/>
-      <c r="U94" s="300"/>
+      <c r="R94" s="299"/>
+      <c r="S94" s="300"/>
+      <c r="T94" s="300"/>
+      <c r="U94" s="301"/>
     </row>
     <row r="95" spans="2:21" ht="15.75" customHeight="1">
       <c r="B95" s="186"/>
@@ -14136,15 +14139,15 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="291"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="234"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="234"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
     </row>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -14197,12 +14200,12 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="R6" s="292" t="s">
+      <c r="R6" s="293" t="s">
         <v>590</v>
       </c>
-      <c r="S6" s="293"/>
-      <c r="T6" s="293"/>
-      <c r="U6" s="294"/>
+      <c r="S6" s="294"/>
+      <c r="T6" s="294"/>
+      <c r="U6" s="295"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B7" s="183" t="s">
@@ -14220,10 +14223,10 @@
       <c r="L7" s="184"/>
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
-      <c r="R7" s="295"/>
-      <c r="S7" s="296"/>
-      <c r="T7" s="296"/>
-      <c r="U7" s="297"/>
+      <c r="R7" s="296"/>
+      <c r="S7" s="297"/>
+      <c r="T7" s="297"/>
+      <c r="U7" s="298"/>
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="B8" s="187" t="s">
@@ -14245,10 +14248,10 @@
       <c r="L8" s="184"/>
       <c r="M8" s="184"/>
       <c r="N8" s="190"/>
-      <c r="R8" s="295"/>
-      <c r="S8" s="296"/>
-      <c r="T8" s="296"/>
-      <c r="U8" s="297"/>
+      <c r="R8" s="296"/>
+      <c r="S8" s="297"/>
+      <c r="T8" s="297"/>
+      <c r="U8" s="298"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="191" t="s">
@@ -14270,10 +14273,10 @@
       <c r="L9" s="194"/>
       <c r="M9" s="194"/>
       <c r="N9" s="194"/>
-      <c r="R9" s="295"/>
-      <c r="S9" s="296"/>
-      <c r="T9" s="296"/>
-      <c r="U9" s="297"/>
+      <c r="R9" s="296"/>
+      <c r="S9" s="297"/>
+      <c r="T9" s="297"/>
+      <c r="U9" s="298"/>
     </row>
     <row r="10" spans="2:21" thickBot="1">
       <c r="B10" s="191" t="s">
@@ -14305,10 +14308,10 @@
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="R10" s="295"/>
-      <c r="S10" s="296"/>
-      <c r="T10" s="296"/>
-      <c r="U10" s="297"/>
+      <c r="R10" s="296"/>
+      <c r="S10" s="297"/>
+      <c r="T10" s="297"/>
+      <c r="U10" s="298"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="202"/>
@@ -14350,10 +14353,10 @@
       <c r="P11" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="295"/>
-      <c r="S11" s="296"/>
-      <c r="T11" s="296"/>
-      <c r="U11" s="297"/>
+      <c r="R11" s="296"/>
+      <c r="S11" s="297"/>
+      <c r="T11" s="297"/>
+      <c r="U11" s="298"/>
     </row>
     <row r="12" spans="2:21" ht="20.25" customHeight="1">
       <c r="B12" s="218"/>
@@ -14371,10 +14374,10 @@
       <c r="N12" s="213"/>
       <c r="O12" s="212"/>
       <c r="P12" s="215"/>
-      <c r="R12" s="295"/>
-      <c r="S12" s="296"/>
-      <c r="T12" s="296"/>
-      <c r="U12" s="297"/>
+      <c r="R12" s="296"/>
+      <c r="S12" s="297"/>
+      <c r="T12" s="297"/>
+      <c r="U12" s="298"/>
     </row>
     <row r="13" spans="2:21" ht="20.25" customHeight="1">
       <c r="B13" s="218"/>
@@ -14392,10 +14395,10 @@
       <c r="N13" s="231"/>
       <c r="O13" s="216"/>
       <c r="P13" s="217"/>
-      <c r="R13" s="295"/>
-      <c r="S13" s="296"/>
-      <c r="T13" s="296"/>
-      <c r="U13" s="297"/>
+      <c r="R13" s="296"/>
+      <c r="S13" s="297"/>
+      <c r="T13" s="297"/>
+      <c r="U13" s="298"/>
     </row>
     <row r="14" spans="2:21" ht="20.25" customHeight="1">
       <c r="B14" s="218"/>
@@ -14413,10 +14416,10 @@
       <c r="N14" s="231"/>
       <c r="O14" s="216"/>
       <c r="P14" s="217"/>
-      <c r="R14" s="295"/>
-      <c r="S14" s="296"/>
-      <c r="T14" s="296"/>
-      <c r="U14" s="297"/>
+      <c r="R14" s="296"/>
+      <c r="S14" s="297"/>
+      <c r="T14" s="297"/>
+      <c r="U14" s="298"/>
     </row>
     <row r="15" spans="2:21" ht="20.25" customHeight="1">
       <c r="B15" s="218"/>
@@ -14434,10 +14437,10 @@
       <c r="N15" s="231"/>
       <c r="O15" s="216"/>
       <c r="P15" s="217"/>
-      <c r="R15" s="295"/>
-      <c r="S15" s="296"/>
-      <c r="T15" s="296"/>
-      <c r="U15" s="297"/>
+      <c r="R15" s="296"/>
+      <c r="S15" s="297"/>
+      <c r="T15" s="297"/>
+      <c r="U15" s="298"/>
     </row>
     <row r="16" spans="2:21" ht="20.25" customHeight="1">
       <c r="B16" s="218"/>
@@ -14455,10 +14458,10 @@
       <c r="N16" s="231"/>
       <c r="O16" s="216"/>
       <c r="P16" s="217"/>
-      <c r="R16" s="295"/>
-      <c r="S16" s="296"/>
-      <c r="T16" s="296"/>
-      <c r="U16" s="297"/>
+      <c r="R16" s="296"/>
+      <c r="S16" s="297"/>
+      <c r="T16" s="297"/>
+      <c r="U16" s="298"/>
     </row>
     <row r="17" spans="2:21" ht="20.25" customHeight="1">
       <c r="B17" s="218"/>
@@ -14476,10 +14479,10 @@
       <c r="N17" s="231"/>
       <c r="O17" s="216"/>
       <c r="P17" s="217"/>
-      <c r="R17" s="295"/>
-      <c r="S17" s="296"/>
-      <c r="T17" s="296"/>
-      <c r="U17" s="297"/>
+      <c r="R17" s="296"/>
+      <c r="S17" s="297"/>
+      <c r="T17" s="297"/>
+      <c r="U17" s="298"/>
     </row>
     <row r="18" spans="2:21" ht="20.25" customHeight="1">
       <c r="B18" s="218"/>
@@ -14497,10 +14500,10 @@
       <c r="N18" s="231"/>
       <c r="O18" s="216"/>
       <c r="P18" s="217"/>
-      <c r="R18" s="295"/>
-      <c r="S18" s="296"/>
-      <c r="T18" s="296"/>
-      <c r="U18" s="297"/>
+      <c r="R18" s="296"/>
+      <c r="S18" s="297"/>
+      <c r="T18" s="297"/>
+      <c r="U18" s="298"/>
     </row>
     <row r="19" spans="2:21" ht="20.25" customHeight="1">
       <c r="B19" s="218"/>
@@ -14518,10 +14521,10 @@
       <c r="N19" s="231"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
-      <c r="R19" s="295"/>
-      <c r="S19" s="296"/>
-      <c r="T19" s="296"/>
-      <c r="U19" s="297"/>
+      <c r="R19" s="296"/>
+      <c r="S19" s="297"/>
+      <c r="T19" s="297"/>
+      <c r="U19" s="298"/>
     </row>
     <row r="20" spans="2:21" ht="20.25" customHeight="1">
       <c r="B20" s="218"/>
@@ -14539,10 +14542,10 @@
       <c r="N20" s="231"/>
       <c r="O20" s="216"/>
       <c r="P20" s="217"/>
-      <c r="R20" s="295"/>
-      <c r="S20" s="296"/>
-      <c r="T20" s="296"/>
-      <c r="U20" s="297"/>
+      <c r="R20" s="296"/>
+      <c r="S20" s="297"/>
+      <c r="T20" s="297"/>
+      <c r="U20" s="298"/>
     </row>
     <row r="21" spans="2:21" ht="20.25" customHeight="1">
       <c r="B21" s="218"/>
@@ -14560,10 +14563,10 @@
       <c r="N21" s="231"/>
       <c r="O21" s="216"/>
       <c r="P21" s="217"/>
-      <c r="R21" s="295"/>
-      <c r="S21" s="296"/>
-      <c r="T21" s="296"/>
-      <c r="U21" s="297"/>
+      <c r="R21" s="296"/>
+      <c r="S21" s="297"/>
+      <c r="T21" s="297"/>
+      <c r="U21" s="298"/>
     </row>
     <row r="22" spans="2:21" ht="20.25" customHeight="1">
       <c r="B22" s="218"/>
@@ -14581,10 +14584,10 @@
       <c r="N22" s="231"/>
       <c r="O22" s="216"/>
       <c r="P22" s="217"/>
-      <c r="R22" s="295"/>
-      <c r="S22" s="296"/>
-      <c r="T22" s="296"/>
-      <c r="U22" s="297"/>
+      <c r="R22" s="296"/>
+      <c r="S22" s="297"/>
+      <c r="T22" s="297"/>
+      <c r="U22" s="298"/>
     </row>
     <row r="23" spans="2:21" ht="20.25" customHeight="1">
       <c r="B23" s="218"/>
@@ -14602,10 +14605,10 @@
       <c r="N23" s="231"/>
       <c r="O23" s="216"/>
       <c r="P23" s="217"/>
-      <c r="R23" s="295"/>
-      <c r="S23" s="296"/>
-      <c r="T23" s="296"/>
-      <c r="U23" s="297"/>
+      <c r="R23" s="296"/>
+      <c r="S23" s="297"/>
+      <c r="T23" s="297"/>
+      <c r="U23" s="298"/>
     </row>
     <row r="24" spans="2:21" ht="20.25" customHeight="1">
       <c r="B24" s="218"/>
@@ -14623,10 +14626,10 @@
       <c r="N24" s="231"/>
       <c r="O24" s="216"/>
       <c r="P24" s="217"/>
-      <c r="R24" s="295"/>
-      <c r="S24" s="296"/>
-      <c r="T24" s="296"/>
-      <c r="U24" s="297"/>
+      <c r="R24" s="296"/>
+      <c r="S24" s="297"/>
+      <c r="T24" s="297"/>
+      <c r="U24" s="298"/>
     </row>
     <row r="25" spans="2:21" ht="20.25" customHeight="1">
       <c r="B25" s="218"/>
@@ -14644,10 +14647,10 @@
       <c r="N25" s="231"/>
       <c r="O25" s="216"/>
       <c r="P25" s="217"/>
-      <c r="R25" s="295"/>
-      <c r="S25" s="296"/>
-      <c r="T25" s="296"/>
-      <c r="U25" s="297"/>
+      <c r="R25" s="296"/>
+      <c r="S25" s="297"/>
+      <c r="T25" s="297"/>
+      <c r="U25" s="298"/>
     </row>
     <row r="26" spans="2:21" ht="20.25" customHeight="1">
       <c r="B26" s="218"/>
@@ -14665,10 +14668,10 @@
       <c r="N26" s="231"/>
       <c r="O26" s="216"/>
       <c r="P26" s="217"/>
-      <c r="R26" s="295"/>
-      <c r="S26" s="296"/>
-      <c r="T26" s="296"/>
-      <c r="U26" s="297"/>
+      <c r="R26" s="296"/>
+      <c r="S26" s="297"/>
+      <c r="T26" s="297"/>
+      <c r="U26" s="298"/>
     </row>
     <row r="27" spans="2:21" ht="20.25" customHeight="1">
       <c r="B27" s="218"/>
@@ -14686,10 +14689,10 @@
       <c r="N27" s="231"/>
       <c r="O27" s="216"/>
       <c r="P27" s="217"/>
-      <c r="R27" s="295"/>
-      <c r="S27" s="296"/>
-      <c r="T27" s="296"/>
-      <c r="U27" s="297"/>
+      <c r="R27" s="296"/>
+      <c r="S27" s="297"/>
+      <c r="T27" s="297"/>
+      <c r="U27" s="298"/>
     </row>
     <row r="28" spans="2:21" ht="20.25" customHeight="1">
       <c r="B28" s="218"/>
@@ -14707,10 +14710,10 @@
       <c r="N28" s="231"/>
       <c r="O28" s="216"/>
       <c r="P28" s="217"/>
-      <c r="R28" s="295"/>
-      <c r="S28" s="296"/>
-      <c r="T28" s="296"/>
-      <c r="U28" s="297"/>
+      <c r="R28" s="296"/>
+      <c r="S28" s="297"/>
+      <c r="T28" s="297"/>
+      <c r="U28" s="298"/>
     </row>
     <row r="29" spans="2:21" ht="20.25" customHeight="1">
       <c r="B29" s="218"/>
@@ -14728,10 +14731,10 @@
       <c r="N29" s="231"/>
       <c r="O29" s="216"/>
       <c r="P29" s="217"/>
-      <c r="R29" s="295"/>
-      <c r="S29" s="296"/>
-      <c r="T29" s="296"/>
-      <c r="U29" s="297"/>
+      <c r="R29" s="296"/>
+      <c r="S29" s="297"/>
+      <c r="T29" s="297"/>
+      <c r="U29" s="298"/>
     </row>
     <row r="30" spans="2:21" ht="20.25" customHeight="1">
       <c r="B30" s="218"/>
@@ -14749,10 +14752,10 @@
       <c r="N30" s="231"/>
       <c r="O30" s="216"/>
       <c r="P30" s="217"/>
-      <c r="R30" s="295"/>
-      <c r="S30" s="296"/>
-      <c r="T30" s="296"/>
-      <c r="U30" s="297"/>
+      <c r="R30" s="296"/>
+      <c r="S30" s="297"/>
+      <c r="T30" s="297"/>
+      <c r="U30" s="298"/>
     </row>
     <row r="31" spans="2:21" ht="20.25" customHeight="1">
       <c r="B31" s="218"/>
@@ -14770,10 +14773,10 @@
       <c r="N31" s="231"/>
       <c r="O31" s="216"/>
       <c r="P31" s="217"/>
-      <c r="R31" s="295"/>
-      <c r="S31" s="296"/>
-      <c r="T31" s="296"/>
-      <c r="U31" s="297"/>
+      <c r="R31" s="296"/>
+      <c r="S31" s="297"/>
+      <c r="T31" s="297"/>
+      <c r="U31" s="298"/>
     </row>
     <row r="32" spans="2:21" ht="20.25" customHeight="1">
       <c r="B32" s="218"/>
@@ -14791,10 +14794,10 @@
       <c r="N32" s="231"/>
       <c r="O32" s="216"/>
       <c r="P32" s="217"/>
-      <c r="R32" s="295"/>
-      <c r="S32" s="296"/>
-      <c r="T32" s="296"/>
-      <c r="U32" s="297"/>
+      <c r="R32" s="296"/>
+      <c r="S32" s="297"/>
+      <c r="T32" s="297"/>
+      <c r="U32" s="298"/>
     </row>
     <row r="33" spans="2:21" ht="20.25" customHeight="1">
       <c r="B33" s="218"/>
@@ -14812,10 +14815,10 @@
       <c r="N33" s="231"/>
       <c r="O33" s="216"/>
       <c r="P33" s="217"/>
-      <c r="R33" s="295"/>
-      <c r="S33" s="296"/>
-      <c r="T33" s="296"/>
-      <c r="U33" s="297"/>
+      <c r="R33" s="296"/>
+      <c r="S33" s="297"/>
+      <c r="T33" s="297"/>
+      <c r="U33" s="298"/>
     </row>
     <row r="34" spans="2:21" ht="20.25" customHeight="1">
       <c r="B34" s="218"/>
@@ -14833,10 +14836,10 @@
       <c r="N34" s="231"/>
       <c r="O34" s="216"/>
       <c r="P34" s="217"/>
-      <c r="R34" s="295"/>
-      <c r="S34" s="296"/>
-      <c r="T34" s="296"/>
-      <c r="U34" s="297"/>
+      <c r="R34" s="296"/>
+      <c r="S34" s="297"/>
+      <c r="T34" s="297"/>
+      <c r="U34" s="298"/>
     </row>
     <row r="35" spans="2:21" ht="20.25" customHeight="1">
       <c r="B35" s="218"/>
@@ -14854,10 +14857,10 @@
       <c r="N35" s="231"/>
       <c r="O35" s="216"/>
       <c r="P35" s="217"/>
-      <c r="R35" s="295"/>
-      <c r="S35" s="296"/>
-      <c r="T35" s="296"/>
-      <c r="U35" s="297"/>
+      <c r="R35" s="296"/>
+      <c r="S35" s="297"/>
+      <c r="T35" s="297"/>
+      <c r="U35" s="298"/>
     </row>
     <row r="36" spans="2:21" ht="20.25" customHeight="1">
       <c r="B36" s="218"/>
@@ -14875,10 +14878,10 @@
       <c r="N36" s="231"/>
       <c r="O36" s="216"/>
       <c r="P36" s="217"/>
-      <c r="R36" s="295"/>
-      <c r="S36" s="296"/>
-      <c r="T36" s="296"/>
-      <c r="U36" s="297"/>
+      <c r="R36" s="296"/>
+      <c r="S36" s="297"/>
+      <c r="T36" s="297"/>
+      <c r="U36" s="298"/>
     </row>
     <row r="37" spans="2:21" ht="20.25" customHeight="1">
       <c r="B37" s="218"/>
@@ -14896,10 +14899,10 @@
       <c r="N37" s="231"/>
       <c r="O37" s="216"/>
       <c r="P37" s="217"/>
-      <c r="R37" s="295"/>
-      <c r="S37" s="296"/>
-      <c r="T37" s="296"/>
-      <c r="U37" s="297"/>
+      <c r="R37" s="296"/>
+      <c r="S37" s="297"/>
+      <c r="T37" s="297"/>
+      <c r="U37" s="298"/>
     </row>
     <row r="38" spans="2:21" ht="20.25" customHeight="1">
       <c r="B38" s="218"/>
@@ -14917,10 +14920,10 @@
       <c r="N38" s="231"/>
       <c r="O38" s="216"/>
       <c r="P38" s="217"/>
-      <c r="R38" s="295"/>
-      <c r="S38" s="296"/>
-      <c r="T38" s="296"/>
-      <c r="U38" s="297"/>
+      <c r="R38" s="296"/>
+      <c r="S38" s="297"/>
+      <c r="T38" s="297"/>
+      <c r="U38" s="298"/>
     </row>
     <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="218"/>
@@ -14938,10 +14941,10 @@
       <c r="N39" s="231"/>
       <c r="O39" s="216"/>
       <c r="P39" s="217"/>
-      <c r="R39" s="295"/>
-      <c r="S39" s="296"/>
-      <c r="T39" s="296"/>
-      <c r="U39" s="297"/>
+      <c r="R39" s="296"/>
+      <c r="S39" s="297"/>
+      <c r="T39" s="297"/>
+      <c r="U39" s="298"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
       <c r="B40" s="218"/>
@@ -14959,10 +14962,10 @@
       <c r="N40" s="231"/>
       <c r="O40" s="216"/>
       <c r="P40" s="217"/>
-      <c r="R40" s="295"/>
-      <c r="S40" s="296"/>
-      <c r="T40" s="296"/>
-      <c r="U40" s="297"/>
+      <c r="R40" s="296"/>
+      <c r="S40" s="297"/>
+      <c r="T40" s="297"/>
+      <c r="U40" s="298"/>
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="218"/>
@@ -14980,10 +14983,10 @@
       <c r="N41" s="231"/>
       <c r="O41" s="216"/>
       <c r="P41" s="217"/>
-      <c r="R41" s="295"/>
-      <c r="S41" s="296"/>
-      <c r="T41" s="296"/>
-      <c r="U41" s="297"/>
+      <c r="R41" s="296"/>
+      <c r="S41" s="297"/>
+      <c r="T41" s="297"/>
+      <c r="U41" s="298"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="218"/>
@@ -15001,10 +15004,10 @@
       <c r="N42" s="231"/>
       <c r="O42" s="216"/>
       <c r="P42" s="217"/>
-      <c r="R42" s="295"/>
-      <c r="S42" s="296"/>
-      <c r="T42" s="296"/>
-      <c r="U42" s="297"/>
+      <c r="R42" s="296"/>
+      <c r="S42" s="297"/>
+      <c r="T42" s="297"/>
+      <c r="U42" s="298"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
       <c r="B43" s="218"/>
@@ -15022,10 +15025,10 @@
       <c r="N43" s="231"/>
       <c r="O43" s="216"/>
       <c r="P43" s="217"/>
-      <c r="R43" s="295"/>
-      <c r="S43" s="296"/>
-      <c r="T43" s="296"/>
-      <c r="U43" s="297"/>
+      <c r="R43" s="296"/>
+      <c r="S43" s="297"/>
+      <c r="T43" s="297"/>
+      <c r="U43" s="298"/>
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="218"/>
@@ -15043,10 +15046,10 @@
       <c r="N44" s="231"/>
       <c r="O44" s="216"/>
       <c r="P44" s="217"/>
-      <c r="R44" s="295"/>
-      <c r="S44" s="296"/>
-      <c r="T44" s="296"/>
-      <c r="U44" s="297"/>
+      <c r="R44" s="296"/>
+      <c r="S44" s="297"/>
+      <c r="T44" s="297"/>
+      <c r="U44" s="298"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="218"/>
@@ -15064,10 +15067,10 @@
       <c r="N45" s="231"/>
       <c r="O45" s="216"/>
       <c r="P45" s="217"/>
-      <c r="R45" s="295"/>
-      <c r="S45" s="296"/>
-      <c r="T45" s="296"/>
-      <c r="U45" s="297"/>
+      <c r="R45" s="296"/>
+      <c r="S45" s="297"/>
+      <c r="T45" s="297"/>
+      <c r="U45" s="298"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
       <c r="B46" s="218"/>
@@ -15085,10 +15088,10 @@
       <c r="N46" s="231"/>
       <c r="O46" s="216"/>
       <c r="P46" s="217"/>
-      <c r="R46" s="295"/>
-      <c r="S46" s="296"/>
-      <c r="T46" s="296"/>
-      <c r="U46" s="297"/>
+      <c r="R46" s="296"/>
+      <c r="S46" s="297"/>
+      <c r="T46" s="297"/>
+      <c r="U46" s="298"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
       <c r="B47" s="218"/>
@@ -15106,10 +15109,10 @@
       <c r="N47" s="231"/>
       <c r="O47" s="216"/>
       <c r="P47" s="217"/>
-      <c r="R47" s="295"/>
-      <c r="S47" s="296"/>
-      <c r="T47" s="296"/>
-      <c r="U47" s="297"/>
+      <c r="R47" s="296"/>
+      <c r="S47" s="297"/>
+      <c r="T47" s="297"/>
+      <c r="U47" s="298"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
       <c r="B48" s="218"/>
@@ -15127,10 +15130,10 @@
       <c r="N48" s="231"/>
       <c r="O48" s="216"/>
       <c r="P48" s="217"/>
-      <c r="R48" s="295"/>
-      <c r="S48" s="296"/>
-      <c r="T48" s="296"/>
-      <c r="U48" s="297"/>
+      <c r="R48" s="296"/>
+      <c r="S48" s="297"/>
+      <c r="T48" s="297"/>
+      <c r="U48" s="298"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1">
       <c r="B49" s="218"/>
@@ -15148,10 +15151,10 @@
       <c r="N49" s="231"/>
       <c r="O49" s="216"/>
       <c r="P49" s="217"/>
-      <c r="R49" s="295"/>
-      <c r="S49" s="296"/>
-      <c r="T49" s="296"/>
-      <c r="U49" s="297"/>
+      <c r="R49" s="296"/>
+      <c r="S49" s="297"/>
+      <c r="T49" s="297"/>
+      <c r="U49" s="298"/>
     </row>
     <row r="50" spans="2:21" ht="20.25" customHeight="1">
       <c r="B50" s="218"/>
@@ -15169,10 +15172,10 @@
       <c r="N50" s="231"/>
       <c r="O50" s="216"/>
       <c r="P50" s="217"/>
-      <c r="R50" s="295"/>
-      <c r="S50" s="296"/>
-      <c r="T50" s="296"/>
-      <c r="U50" s="297"/>
+      <c r="R50" s="296"/>
+      <c r="S50" s="297"/>
+      <c r="T50" s="297"/>
+      <c r="U50" s="298"/>
     </row>
     <row r="51" spans="2:21" ht="20.25" customHeight="1">
       <c r="B51" s="218"/>
@@ -15190,10 +15193,10 @@
       <c r="N51" s="231"/>
       <c r="O51" s="216"/>
       <c r="P51" s="217"/>
-      <c r="R51" s="295"/>
-      <c r="S51" s="296"/>
-      <c r="T51" s="296"/>
-      <c r="U51" s="297"/>
+      <c r="R51" s="296"/>
+      <c r="S51" s="297"/>
+      <c r="T51" s="297"/>
+      <c r="U51" s="298"/>
     </row>
     <row r="52" spans="2:21" ht="20.25" customHeight="1">
       <c r="B52" s="218"/>
@@ -15211,10 +15214,10 @@
       <c r="N52" s="231"/>
       <c r="O52" s="216"/>
       <c r="P52" s="217"/>
-      <c r="R52" s="295"/>
-      <c r="S52" s="296"/>
-      <c r="T52" s="296"/>
-      <c r="U52" s="297"/>
+      <c r="R52" s="296"/>
+      <c r="S52" s="297"/>
+      <c r="T52" s="297"/>
+      <c r="U52" s="298"/>
     </row>
     <row r="53" spans="2:21" ht="20.25" customHeight="1">
       <c r="B53" s="218"/>
@@ -15232,10 +15235,10 @@
       <c r="N53" s="231"/>
       <c r="O53" s="216"/>
       <c r="P53" s="217"/>
-      <c r="R53" s="295"/>
-      <c r="S53" s="296"/>
-      <c r="T53" s="296"/>
-      <c r="U53" s="297"/>
+      <c r="R53" s="296"/>
+      <c r="S53" s="297"/>
+      <c r="T53" s="297"/>
+      <c r="U53" s="298"/>
     </row>
     <row r="54" spans="2:21" ht="20.25" customHeight="1">
       <c r="B54" s="218"/>
@@ -15253,10 +15256,10 @@
       <c r="N54" s="231"/>
       <c r="O54" s="216"/>
       <c r="P54" s="217"/>
-      <c r="R54" s="295"/>
-      <c r="S54" s="296"/>
-      <c r="T54" s="296"/>
-      <c r="U54" s="297"/>
+      <c r="R54" s="296"/>
+      <c r="S54" s="297"/>
+      <c r="T54" s="297"/>
+      <c r="U54" s="298"/>
     </row>
     <row r="55" spans="2:21" ht="20.25" customHeight="1">
       <c r="B55" s="218"/>
@@ -15274,10 +15277,10 @@
       <c r="N55" s="231"/>
       <c r="O55" s="216"/>
       <c r="P55" s="217"/>
-      <c r="R55" s="295"/>
-      <c r="S55" s="296"/>
-      <c r="T55" s="296"/>
-      <c r="U55" s="297"/>
+      <c r="R55" s="296"/>
+      <c r="S55" s="297"/>
+      <c r="T55" s="297"/>
+      <c r="U55" s="298"/>
     </row>
     <row r="56" spans="2:21" ht="20.25" customHeight="1">
       <c r="B56" s="218"/>
@@ -15295,10 +15298,10 @@
       <c r="N56" s="231"/>
       <c r="O56" s="216"/>
       <c r="P56" s="217"/>
-      <c r="R56" s="295"/>
-      <c r="S56" s="296"/>
-      <c r="T56" s="296"/>
-      <c r="U56" s="297"/>
+      <c r="R56" s="296"/>
+      <c r="S56" s="297"/>
+      <c r="T56" s="297"/>
+      <c r="U56" s="298"/>
     </row>
     <row r="57" spans="2:21" ht="20.25" customHeight="1">
       <c r="B57" s="218"/>
@@ -15316,10 +15319,10 @@
       <c r="N57" s="231"/>
       <c r="O57" s="216"/>
       <c r="P57" s="217"/>
-      <c r="R57" s="295"/>
-      <c r="S57" s="296"/>
-      <c r="T57" s="296"/>
-      <c r="U57" s="297"/>
+      <c r="R57" s="296"/>
+      <c r="S57" s="297"/>
+      <c r="T57" s="297"/>
+      <c r="U57" s="298"/>
     </row>
     <row r="58" spans="2:21" ht="20.25" customHeight="1">
       <c r="B58" s="218"/>
@@ -15337,10 +15340,10 @@
       <c r="N58" s="231"/>
       <c r="O58" s="216"/>
       <c r="P58" s="217"/>
-      <c r="R58" s="295"/>
-      <c r="S58" s="296"/>
-      <c r="T58" s="296"/>
-      <c r="U58" s="297"/>
+      <c r="R58" s="296"/>
+      <c r="S58" s="297"/>
+      <c r="T58" s="297"/>
+      <c r="U58" s="298"/>
     </row>
     <row r="59" spans="2:21" ht="20.25" customHeight="1">
       <c r="B59" s="218"/>
@@ -15358,10 +15361,10 @@
       <c r="N59" s="231"/>
       <c r="O59" s="216"/>
       <c r="P59" s="217"/>
-      <c r="R59" s="295"/>
-      <c r="S59" s="296"/>
-      <c r="T59" s="296"/>
-      <c r="U59" s="297"/>
+      <c r="R59" s="296"/>
+      <c r="S59" s="297"/>
+      <c r="T59" s="297"/>
+      <c r="U59" s="298"/>
     </row>
     <row r="60" spans="2:21" ht="20.25" customHeight="1">
       <c r="B60" s="218"/>
@@ -15379,10 +15382,10 @@
       <c r="N60" s="231"/>
       <c r="O60" s="216"/>
       <c r="P60" s="217"/>
-      <c r="R60" s="295"/>
-      <c r="S60" s="296"/>
-      <c r="T60" s="296"/>
-      <c r="U60" s="297"/>
+      <c r="R60" s="296"/>
+      <c r="S60" s="297"/>
+      <c r="T60" s="297"/>
+      <c r="U60" s="298"/>
     </row>
     <row r="61" spans="2:21" ht="20.25" customHeight="1">
       <c r="B61" s="218"/>
@@ -15400,10 +15403,10 @@
       <c r="N61" s="231"/>
       <c r="O61" s="216"/>
       <c r="P61" s="217"/>
-      <c r="R61" s="295"/>
-      <c r="S61" s="296"/>
-      <c r="T61" s="296"/>
-      <c r="U61" s="297"/>
+      <c r="R61" s="296"/>
+      <c r="S61" s="297"/>
+      <c r="T61" s="297"/>
+      <c r="U61" s="298"/>
     </row>
     <row r="62" spans="2:21" ht="20.25" customHeight="1">
       <c r="B62" s="218"/>
@@ -15421,10 +15424,10 @@
       <c r="N62" s="231"/>
       <c r="O62" s="216"/>
       <c r="P62" s="217"/>
-      <c r="R62" s="295"/>
-      <c r="S62" s="296"/>
-      <c r="T62" s="296"/>
-      <c r="U62" s="297"/>
+      <c r="R62" s="296"/>
+      <c r="S62" s="297"/>
+      <c r="T62" s="297"/>
+      <c r="U62" s="298"/>
     </row>
     <row r="63" spans="2:21" ht="20.25" customHeight="1">
       <c r="B63" s="218"/>
@@ -15442,10 +15445,10 @@
       <c r="N63" s="231"/>
       <c r="O63" s="216"/>
       <c r="P63" s="217"/>
-      <c r="R63" s="295"/>
-      <c r="S63" s="296"/>
-      <c r="T63" s="296"/>
-      <c r="U63" s="297"/>
+      <c r="R63" s="296"/>
+      <c r="S63" s="297"/>
+      <c r="T63" s="297"/>
+      <c r="U63" s="298"/>
     </row>
     <row r="64" spans="2:21" ht="20.25" customHeight="1">
       <c r="B64" s="218"/>
@@ -15463,10 +15466,10 @@
       <c r="N64" s="231"/>
       <c r="O64" s="216"/>
       <c r="P64" s="217"/>
-      <c r="R64" s="295"/>
-      <c r="S64" s="296"/>
-      <c r="T64" s="296"/>
-      <c r="U64" s="297"/>
+      <c r="R64" s="296"/>
+      <c r="S64" s="297"/>
+      <c r="T64" s="297"/>
+      <c r="U64" s="298"/>
     </row>
     <row r="65" spans="2:21" ht="20.25" customHeight="1">
       <c r="B65" s="218"/>
@@ -15484,10 +15487,10 @@
       <c r="N65" s="231"/>
       <c r="O65" s="216"/>
       <c r="P65" s="217"/>
-      <c r="R65" s="295"/>
-      <c r="S65" s="296"/>
-      <c r="T65" s="296"/>
-      <c r="U65" s="297"/>
+      <c r="R65" s="296"/>
+      <c r="S65" s="297"/>
+      <c r="T65" s="297"/>
+      <c r="U65" s="298"/>
     </row>
     <row r="66" spans="2:21" ht="20.25" customHeight="1">
       <c r="B66" s="218"/>
@@ -15505,10 +15508,10 @@
       <c r="N66" s="231"/>
       <c r="O66" s="216"/>
       <c r="P66" s="217"/>
-      <c r="R66" s="295"/>
-      <c r="S66" s="296"/>
-      <c r="T66" s="296"/>
-      <c r="U66" s="297"/>
+      <c r="R66" s="296"/>
+      <c r="S66" s="297"/>
+      <c r="T66" s="297"/>
+      <c r="U66" s="298"/>
     </row>
     <row r="67" spans="2:21" ht="20.25" customHeight="1">
       <c r="B67" s="218"/>
@@ -15526,10 +15529,10 @@
       <c r="N67" s="231"/>
       <c r="O67" s="216"/>
       <c r="P67" s="217"/>
-      <c r="R67" s="295"/>
-      <c r="S67" s="296"/>
-      <c r="T67" s="296"/>
-      <c r="U67" s="297"/>
+      <c r="R67" s="296"/>
+      <c r="S67" s="297"/>
+      <c r="T67" s="297"/>
+      <c r="U67" s="298"/>
     </row>
     <row r="68" spans="2:21" ht="20.25" customHeight="1">
       <c r="B68" s="218"/>
@@ -15547,10 +15550,10 @@
       <c r="N68" s="231"/>
       <c r="O68" s="216"/>
       <c r="P68" s="217"/>
-      <c r="R68" s="295"/>
-      <c r="S68" s="296"/>
-      <c r="T68" s="296"/>
-      <c r="U68" s="297"/>
+      <c r="R68" s="296"/>
+      <c r="S68" s="297"/>
+      <c r="T68" s="297"/>
+      <c r="U68" s="298"/>
     </row>
     <row r="69" spans="2:21" ht="20.25" customHeight="1">
       <c r="B69" s="218"/>
@@ -15568,10 +15571,10 @@
       <c r="N69" s="231"/>
       <c r="O69" s="216"/>
       <c r="P69" s="217"/>
-      <c r="R69" s="295"/>
-      <c r="S69" s="296"/>
-      <c r="T69" s="296"/>
-      <c r="U69" s="297"/>
+      <c r="R69" s="296"/>
+      <c r="S69" s="297"/>
+      <c r="T69" s="297"/>
+      <c r="U69" s="298"/>
     </row>
     <row r="70" spans="2:21" ht="20.25" customHeight="1">
       <c r="B70" s="218"/>
@@ -15589,10 +15592,10 @@
       <c r="N70" s="231"/>
       <c r="O70" s="216"/>
       <c r="P70" s="217"/>
-      <c r="R70" s="295"/>
-      <c r="S70" s="296"/>
-      <c r="T70" s="296"/>
-      <c r="U70" s="297"/>
+      <c r="R70" s="296"/>
+      <c r="S70" s="297"/>
+      <c r="T70" s="297"/>
+      <c r="U70" s="298"/>
     </row>
     <row r="71" spans="2:21" ht="20.25" customHeight="1">
       <c r="B71" s="218"/>
@@ -15610,10 +15613,10 @@
       <c r="N71" s="231"/>
       <c r="O71" s="216"/>
       <c r="P71" s="217"/>
-      <c r="R71" s="295"/>
-      <c r="S71" s="296"/>
-      <c r="T71" s="296"/>
-      <c r="U71" s="297"/>
+      <c r="R71" s="296"/>
+      <c r="S71" s="297"/>
+      <c r="T71" s="297"/>
+      <c r="U71" s="298"/>
     </row>
     <row r="72" spans="2:21" ht="20.25" customHeight="1">
       <c r="B72" s="218"/>
@@ -15631,10 +15634,10 @@
       <c r="N72" s="231"/>
       <c r="O72" s="216"/>
       <c r="P72" s="217"/>
-      <c r="R72" s="295"/>
-      <c r="S72" s="296"/>
-      <c r="T72" s="296"/>
-      <c r="U72" s="297"/>
+      <c r="R72" s="296"/>
+      <c r="S72" s="297"/>
+      <c r="T72" s="297"/>
+      <c r="U72" s="298"/>
     </row>
     <row r="73" spans="2:21" ht="20.25" customHeight="1">
       <c r="B73" s="218"/>
@@ -15652,10 +15655,10 @@
       <c r="N73" s="231"/>
       <c r="O73" s="216"/>
       <c r="P73" s="217"/>
-      <c r="R73" s="295"/>
-      <c r="S73" s="296"/>
-      <c r="T73" s="296"/>
-      <c r="U73" s="297"/>
+      <c r="R73" s="296"/>
+      <c r="S73" s="297"/>
+      <c r="T73" s="297"/>
+      <c r="U73" s="298"/>
     </row>
     <row r="74" spans="2:21" ht="20.25" customHeight="1">
       <c r="B74" s="218"/>
@@ -15673,10 +15676,10 @@
       <c r="N74" s="231"/>
       <c r="O74" s="216"/>
       <c r="P74" s="217"/>
-      <c r="R74" s="295"/>
-      <c r="S74" s="296"/>
-      <c r="T74" s="296"/>
-      <c r="U74" s="297"/>
+      <c r="R74" s="296"/>
+      <c r="S74" s="297"/>
+      <c r="T74" s="297"/>
+      <c r="U74" s="298"/>
     </row>
     <row r="75" spans="2:21" ht="20.25" customHeight="1">
       <c r="B75" s="218"/>
@@ -15694,10 +15697,10 @@
       <c r="N75" s="231"/>
       <c r="O75" s="216"/>
       <c r="P75" s="217"/>
-      <c r="R75" s="295"/>
-      <c r="S75" s="296"/>
-      <c r="T75" s="296"/>
-      <c r="U75" s="297"/>
+      <c r="R75" s="296"/>
+      <c r="S75" s="297"/>
+      <c r="T75" s="297"/>
+      <c r="U75" s="298"/>
     </row>
     <row r="76" spans="2:21" ht="20.25" customHeight="1">
       <c r="B76" s="218"/>
@@ -15715,10 +15718,10 @@
       <c r="N76" s="231"/>
       <c r="O76" s="216"/>
       <c r="P76" s="217"/>
-      <c r="R76" s="295"/>
-      <c r="S76" s="296"/>
-      <c r="T76" s="296"/>
-      <c r="U76" s="297"/>
+      <c r="R76" s="296"/>
+      <c r="S76" s="297"/>
+      <c r="T76" s="297"/>
+      <c r="U76" s="298"/>
     </row>
     <row r="77" spans="2:21" ht="20.25" customHeight="1">
       <c r="B77" s="218"/>
@@ -15736,10 +15739,10 @@
       <c r="N77" s="231"/>
       <c r="O77" s="216"/>
       <c r="P77" s="217"/>
-      <c r="R77" s="295"/>
-      <c r="S77" s="296"/>
-      <c r="T77" s="296"/>
-      <c r="U77" s="297"/>
+      <c r="R77" s="296"/>
+      <c r="S77" s="297"/>
+      <c r="T77" s="297"/>
+      <c r="U77" s="298"/>
     </row>
     <row r="78" spans="2:21" ht="20.25" customHeight="1">
       <c r="B78" s="218"/>
@@ -15757,10 +15760,10 @@
       <c r="N78" s="231"/>
       <c r="O78" s="216"/>
       <c r="P78" s="217"/>
-      <c r="R78" s="295"/>
-      <c r="S78" s="296"/>
-      <c r="T78" s="296"/>
-      <c r="U78" s="297"/>
+      <c r="R78" s="296"/>
+      <c r="S78" s="297"/>
+      <c r="T78" s="297"/>
+      <c r="U78" s="298"/>
     </row>
     <row r="79" spans="2:21" ht="20.25" customHeight="1">
       <c r="B79" s="218"/>
@@ -15778,10 +15781,10 @@
       <c r="N79" s="231"/>
       <c r="O79" s="216"/>
       <c r="P79" s="217"/>
-      <c r="R79" s="295"/>
-      <c r="S79" s="296"/>
-      <c r="T79" s="296"/>
-      <c r="U79" s="297"/>
+      <c r="R79" s="296"/>
+      <c r="S79" s="297"/>
+      <c r="T79" s="297"/>
+      <c r="U79" s="298"/>
     </row>
     <row r="80" spans="2:21" ht="20.25" customHeight="1">
       <c r="B80" s="218"/>
@@ -15799,10 +15802,10 @@
       <c r="N80" s="231"/>
       <c r="O80" s="216"/>
       <c r="P80" s="217"/>
-      <c r="R80" s="295"/>
-      <c r="S80" s="296"/>
-      <c r="T80" s="296"/>
-      <c r="U80" s="297"/>
+      <c r="R80" s="296"/>
+      <c r="S80" s="297"/>
+      <c r="T80" s="297"/>
+      <c r="U80" s="298"/>
     </row>
     <row r="81" spans="2:21" ht="20.25" customHeight="1">
       <c r="B81" s="218"/>
@@ -15820,10 +15823,10 @@
       <c r="N81" s="231"/>
       <c r="O81" s="216"/>
       <c r="P81" s="217"/>
-      <c r="R81" s="295"/>
-      <c r="S81" s="296"/>
-      <c r="T81" s="296"/>
-      <c r="U81" s="297"/>
+      <c r="R81" s="296"/>
+      <c r="S81" s="297"/>
+      <c r="T81" s="297"/>
+      <c r="U81" s="298"/>
     </row>
     <row r="82" spans="2:21" ht="20.25" customHeight="1">
       <c r="B82" s="218"/>
@@ -15841,10 +15844,10 @@
       <c r="N82" s="231"/>
       <c r="O82" s="216"/>
       <c r="P82" s="217"/>
-      <c r="R82" s="295"/>
-      <c r="S82" s="296"/>
-      <c r="T82" s="296"/>
-      <c r="U82" s="297"/>
+      <c r="R82" s="296"/>
+      <c r="S82" s="297"/>
+      <c r="T82" s="297"/>
+      <c r="U82" s="298"/>
     </row>
     <row r="83" spans="2:21" ht="20.25" customHeight="1">
       <c r="B83" s="218"/>
@@ -15862,10 +15865,10 @@
       <c r="N83" s="231"/>
       <c r="O83" s="216"/>
       <c r="P83" s="217"/>
-      <c r="R83" s="295"/>
-      <c r="S83" s="296"/>
-      <c r="T83" s="296"/>
-      <c r="U83" s="297"/>
+      <c r="R83" s="296"/>
+      <c r="S83" s="297"/>
+      <c r="T83" s="297"/>
+      <c r="U83" s="298"/>
     </row>
     <row r="84" spans="2:21" ht="20.25" customHeight="1">
       <c r="B84" s="218"/>
@@ -15883,10 +15886,10 @@
       <c r="N84" s="231"/>
       <c r="O84" s="216"/>
       <c r="P84" s="217"/>
-      <c r="R84" s="295"/>
-      <c r="S84" s="296"/>
-      <c r="T84" s="296"/>
-      <c r="U84" s="297"/>
+      <c r="R84" s="296"/>
+      <c r="S84" s="297"/>
+      <c r="T84" s="297"/>
+      <c r="U84" s="298"/>
     </row>
     <row r="85" spans="2:21" ht="20.25" customHeight="1">
       <c r="B85" s="218"/>
@@ -15904,10 +15907,10 @@
       <c r="N85" s="231"/>
       <c r="O85" s="216"/>
       <c r="P85" s="217"/>
-      <c r="R85" s="295"/>
-      <c r="S85" s="296"/>
-      <c r="T85" s="296"/>
-      <c r="U85" s="297"/>
+      <c r="R85" s="296"/>
+      <c r="S85" s="297"/>
+      <c r="T85" s="297"/>
+      <c r="U85" s="298"/>
     </row>
     <row r="86" spans="2:21" ht="20.25" customHeight="1">
       <c r="B86" s="218"/>
@@ -15925,10 +15928,10 @@
       <c r="N86" s="231"/>
       <c r="O86" s="216"/>
       <c r="P86" s="217"/>
-      <c r="R86" s="295"/>
-      <c r="S86" s="296"/>
-      <c r="T86" s="296"/>
-      <c r="U86" s="297"/>
+      <c r="R86" s="296"/>
+      <c r="S86" s="297"/>
+      <c r="T86" s="297"/>
+      <c r="U86" s="298"/>
     </row>
     <row r="87" spans="2:21" ht="20.25" customHeight="1">
       <c r="B87" s="218"/>
@@ -15946,10 +15949,10 @@
       <c r="N87" s="231"/>
       <c r="O87" s="216"/>
       <c r="P87" s="217"/>
-      <c r="R87" s="295"/>
-      <c r="S87" s="296"/>
-      <c r="T87" s="296"/>
-      <c r="U87" s="297"/>
+      <c r="R87" s="296"/>
+      <c r="S87" s="297"/>
+      <c r="T87" s="297"/>
+      <c r="U87" s="298"/>
     </row>
     <row r="88" spans="2:21" ht="20.25" customHeight="1">
       <c r="B88" s="218"/>
@@ -15967,10 +15970,10 @@
       <c r="N88" s="231"/>
       <c r="O88" s="216"/>
       <c r="P88" s="217"/>
-      <c r="R88" s="295"/>
-      <c r="S88" s="296"/>
-      <c r="T88" s="296"/>
-      <c r="U88" s="297"/>
+      <c r="R88" s="296"/>
+      <c r="S88" s="297"/>
+      <c r="T88" s="297"/>
+      <c r="U88" s="298"/>
     </row>
     <row r="89" spans="2:21" ht="20.25" customHeight="1">
       <c r="B89" s="218"/>
@@ -15988,10 +15991,10 @@
       <c r="N89" s="231"/>
       <c r="O89" s="216"/>
       <c r="P89" s="217"/>
-      <c r="R89" s="295"/>
-      <c r="S89" s="296"/>
-      <c r="T89" s="296"/>
-      <c r="U89" s="297"/>
+      <c r="R89" s="296"/>
+      <c r="S89" s="297"/>
+      <c r="T89" s="297"/>
+      <c r="U89" s="298"/>
     </row>
     <row r="90" spans="2:21" ht="20.25" customHeight="1">
       <c r="B90" s="218"/>
@@ -16009,10 +16012,10 @@
       <c r="N90" s="231"/>
       <c r="O90" s="216"/>
       <c r="P90" s="217"/>
-      <c r="R90" s="295"/>
-      <c r="S90" s="296"/>
-      <c r="T90" s="296"/>
-      <c r="U90" s="297"/>
+      <c r="R90" s="296"/>
+      <c r="S90" s="297"/>
+      <c r="T90" s="297"/>
+      <c r="U90" s="298"/>
     </row>
     <row r="91" spans="2:21" ht="20.25" customHeight="1">
       <c r="B91" s="218"/>
@@ -16030,10 +16033,10 @@
       <c r="N91" s="231"/>
       <c r="O91" s="216"/>
       <c r="P91" s="217"/>
-      <c r="R91" s="295"/>
-      <c r="S91" s="296"/>
-      <c r="T91" s="296"/>
-      <c r="U91" s="297"/>
+      <c r="R91" s="296"/>
+      <c r="S91" s="297"/>
+      <c r="T91" s="297"/>
+      <c r="U91" s="298"/>
     </row>
     <row r="92" spans="2:21" ht="20.25" customHeight="1">
       <c r="B92" s="218"/>
@@ -16051,10 +16054,10 @@
       <c r="N92" s="231"/>
       <c r="O92" s="216"/>
       <c r="P92" s="217"/>
-      <c r="R92" s="295"/>
-      <c r="S92" s="296"/>
-      <c r="T92" s="296"/>
-      <c r="U92" s="297"/>
+      <c r="R92" s="296"/>
+      <c r="S92" s="297"/>
+      <c r="T92" s="297"/>
+      <c r="U92" s="298"/>
     </row>
     <row r="93" spans="2:21" ht="20.25" customHeight="1">
       <c r="B93" s="218"/>
@@ -16072,10 +16075,10 @@
       <c r="N93" s="231"/>
       <c r="O93" s="216"/>
       <c r="P93" s="217"/>
-      <c r="R93" s="295"/>
-      <c r="S93" s="296"/>
-      <c r="T93" s="296"/>
-      <c r="U93" s="297"/>
+      <c r="R93" s="296"/>
+      <c r="S93" s="297"/>
+      <c r="T93" s="297"/>
+      <c r="U93" s="298"/>
     </row>
     <row r="94" spans="2:21" ht="20.25" customHeight="1">
       <c r="B94" s="218"/>
@@ -16093,10 +16096,10 @@
       <c r="N94" s="231"/>
       <c r="O94" s="216"/>
       <c r="P94" s="217"/>
-      <c r="R94" s="295"/>
-      <c r="S94" s="296"/>
-      <c r="T94" s="296"/>
-      <c r="U94" s="297"/>
+      <c r="R94" s="296"/>
+      <c r="S94" s="297"/>
+      <c r="T94" s="297"/>
+      <c r="U94" s="298"/>
     </row>
     <row r="95" spans="2:21" ht="20.25" customHeight="1">
       <c r="B95" s="218"/>
@@ -16114,10 +16117,10 @@
       <c r="N95" s="231"/>
       <c r="O95" s="216"/>
       <c r="P95" s="217"/>
-      <c r="R95" s="295"/>
-      <c r="S95" s="296"/>
-      <c r="T95" s="296"/>
-      <c r="U95" s="297"/>
+      <c r="R95" s="296"/>
+      <c r="S95" s="297"/>
+      <c r="T95" s="297"/>
+      <c r="U95" s="298"/>
     </row>
     <row r="96" spans="2:21" ht="20.25" customHeight="1">
       <c r="B96" s="218"/>
@@ -16135,10 +16138,10 @@
       <c r="N96" s="231"/>
       <c r="O96" s="216"/>
       <c r="P96" s="217"/>
-      <c r="R96" s="295"/>
-      <c r="S96" s="296"/>
-      <c r="T96" s="296"/>
-      <c r="U96" s="297"/>
+      <c r="R96" s="296"/>
+      <c r="S96" s="297"/>
+      <c r="T96" s="297"/>
+      <c r="U96" s="298"/>
     </row>
     <row r="97" spans="2:21" ht="20.25" customHeight="1">
       <c r="B97" s="218"/>
@@ -16156,10 +16159,10 @@
       <c r="N97" s="231"/>
       <c r="O97" s="216"/>
       <c r="P97" s="217"/>
-      <c r="R97" s="295"/>
-      <c r="S97" s="296"/>
-      <c r="T97" s="296"/>
-      <c r="U97" s="297"/>
+      <c r="R97" s="296"/>
+      <c r="S97" s="297"/>
+      <c r="T97" s="297"/>
+      <c r="U97" s="298"/>
     </row>
     <row r="98" spans="2:21" ht="20.25" customHeight="1">
       <c r="B98" s="218"/>
@@ -16177,10 +16180,10 @@
       <c r="N98" s="231"/>
       <c r="O98" s="216"/>
       <c r="P98" s="217"/>
-      <c r="R98" s="295"/>
-      <c r="S98" s="296"/>
-      <c r="T98" s="296"/>
-      <c r="U98" s="297"/>
+      <c r="R98" s="296"/>
+      <c r="S98" s="297"/>
+      <c r="T98" s="297"/>
+      <c r="U98" s="298"/>
     </row>
     <row r="99" spans="2:21" ht="20.25" customHeight="1">
       <c r="B99" s="218"/>
@@ -16198,10 +16201,10 @@
       <c r="N99" s="231"/>
       <c r="O99" s="216"/>
       <c r="P99" s="217"/>
-      <c r="R99" s="295"/>
-      <c r="S99" s="296"/>
-      <c r="T99" s="296"/>
-      <c r="U99" s="297"/>
+      <c r="R99" s="296"/>
+      <c r="S99" s="297"/>
+      <c r="T99" s="297"/>
+      <c r="U99" s="298"/>
     </row>
     <row r="100" spans="2:21" ht="20.25" customHeight="1">
       <c r="B100" s="218"/>
@@ -16219,10 +16222,10 @@
       <c r="N100" s="231"/>
       <c r="O100" s="216"/>
       <c r="P100" s="217"/>
-      <c r="R100" s="295"/>
-      <c r="S100" s="296"/>
-      <c r="T100" s="296"/>
-      <c r="U100" s="297"/>
+      <c r="R100" s="296"/>
+      <c r="S100" s="297"/>
+      <c r="T100" s="297"/>
+      <c r="U100" s="298"/>
     </row>
     <row r="101" spans="2:21" ht="20.25" customHeight="1">
       <c r="B101" s="218"/>
@@ -16240,10 +16243,10 @@
       <c r="N101" s="231"/>
       <c r="O101" s="216"/>
       <c r="P101" s="217"/>
-      <c r="R101" s="295"/>
-      <c r="S101" s="296"/>
-      <c r="T101" s="296"/>
-      <c r="U101" s="297"/>
+      <c r="R101" s="296"/>
+      <c r="S101" s="297"/>
+      <c r="T101" s="297"/>
+      <c r="U101" s="298"/>
     </row>
     <row r="102" spans="2:21" ht="20.25" customHeight="1">
       <c r="B102" s="218"/>
@@ -16261,10 +16264,10 @@
       <c r="N102" s="231"/>
       <c r="O102" s="216"/>
       <c r="P102" s="217"/>
-      <c r="R102" s="295"/>
-      <c r="S102" s="296"/>
-      <c r="T102" s="296"/>
-      <c r="U102" s="297"/>
+      <c r="R102" s="296"/>
+      <c r="S102" s="297"/>
+      <c r="T102" s="297"/>
+      <c r="U102" s="298"/>
     </row>
     <row r="103" spans="2:21" ht="20.25" customHeight="1">
       <c r="B103" s="218"/>
@@ -16282,10 +16285,10 @@
       <c r="N103" s="231"/>
       <c r="O103" s="216"/>
       <c r="P103" s="217"/>
-      <c r="R103" s="295"/>
-      <c r="S103" s="296"/>
-      <c r="T103" s="296"/>
-      <c r="U103" s="297"/>
+      <c r="R103" s="296"/>
+      <c r="S103" s="297"/>
+      <c r="T103" s="297"/>
+      <c r="U103" s="298"/>
     </row>
     <row r="104" spans="2:21" ht="20.25" customHeight="1">
       <c r="B104" s="218"/>
@@ -16303,10 +16306,10 @@
       <c r="N104" s="231"/>
       <c r="O104" s="216"/>
       <c r="P104" s="217"/>
-      <c r="R104" s="295"/>
-      <c r="S104" s="296"/>
-      <c r="T104" s="296"/>
-      <c r="U104" s="297"/>
+      <c r="R104" s="296"/>
+      <c r="S104" s="297"/>
+      <c r="T104" s="297"/>
+      <c r="U104" s="298"/>
     </row>
     <row r="105" spans="2:21" ht="20.25" customHeight="1">
       <c r="B105" s="218"/>
@@ -16324,10 +16327,10 @@
       <c r="N105" s="231"/>
       <c r="O105" s="216"/>
       <c r="P105" s="217"/>
-      <c r="R105" s="295"/>
-      <c r="S105" s="296"/>
-      <c r="T105" s="296"/>
-      <c r="U105" s="297"/>
+      <c r="R105" s="296"/>
+      <c r="S105" s="297"/>
+      <c r="T105" s="297"/>
+      <c r="U105" s="298"/>
     </row>
     <row r="106" spans="2:21" ht="20.25" customHeight="1">
       <c r="B106" s="218"/>
@@ -16345,10 +16348,10 @@
       <c r="N106" s="231"/>
       <c r="O106" s="216"/>
       <c r="P106" s="217"/>
-      <c r="R106" s="295"/>
-      <c r="S106" s="296"/>
-      <c r="T106" s="296"/>
-      <c r="U106" s="297"/>
+      <c r="R106" s="296"/>
+      <c r="S106" s="297"/>
+      <c r="T106" s="297"/>
+      <c r="U106" s="298"/>
     </row>
     <row r="107" spans="2:21" ht="20.25" customHeight="1">
       <c r="B107" s="218"/>
@@ -16366,10 +16369,10 @@
       <c r="N107" s="231"/>
       <c r="O107" s="216"/>
       <c r="P107" s="217"/>
-      <c r="R107" s="295"/>
-      <c r="S107" s="296"/>
-      <c r="T107" s="296"/>
-      <c r="U107" s="297"/>
+      <c r="R107" s="296"/>
+      <c r="S107" s="297"/>
+      <c r="T107" s="297"/>
+      <c r="U107" s="298"/>
     </row>
     <row r="108" spans="2:21" ht="20.25" customHeight="1">
       <c r="B108" s="218"/>
@@ -16387,10 +16390,10 @@
       <c r="N108" s="231"/>
       <c r="O108" s="216"/>
       <c r="P108" s="217"/>
-      <c r="R108" s="295"/>
-      <c r="S108" s="296"/>
-      <c r="T108" s="296"/>
-      <c r="U108" s="297"/>
+      <c r="R108" s="296"/>
+      <c r="S108" s="297"/>
+      <c r="T108" s="297"/>
+      <c r="U108" s="298"/>
     </row>
     <row r="109" spans="2:21" ht="20.25" customHeight="1">
       <c r="B109" s="218"/>
@@ -16408,10 +16411,10 @@
       <c r="N109" s="231"/>
       <c r="O109" s="216"/>
       <c r="P109" s="217"/>
-      <c r="R109" s="295"/>
-      <c r="S109" s="296"/>
-      <c r="T109" s="296"/>
-      <c r="U109" s="297"/>
+      <c r="R109" s="296"/>
+      <c r="S109" s="297"/>
+      <c r="T109" s="297"/>
+      <c r="U109" s="298"/>
     </row>
     <row r="110" spans="2:21" ht="20.25" customHeight="1">
       <c r="B110" s="218"/>
@@ -16429,10 +16432,10 @@
       <c r="N110" s="231"/>
       <c r="O110" s="216"/>
       <c r="P110" s="217"/>
-      <c r="R110" s="295"/>
-      <c r="S110" s="296"/>
-      <c r="T110" s="296"/>
-      <c r="U110" s="297"/>
+      <c r="R110" s="296"/>
+      <c r="S110" s="297"/>
+      <c r="T110" s="297"/>
+      <c r="U110" s="298"/>
     </row>
     <row r="111" spans="2:21" ht="20.25" customHeight="1">
       <c r="B111" s="218"/>
@@ -16450,10 +16453,10 @@
       <c r="N111" s="231"/>
       <c r="O111" s="216"/>
       <c r="P111" s="217"/>
-      <c r="R111" s="295"/>
-      <c r="S111" s="296"/>
-      <c r="T111" s="296"/>
-      <c r="U111" s="297"/>
+      <c r="R111" s="296"/>
+      <c r="S111" s="297"/>
+      <c r="T111" s="297"/>
+      <c r="U111" s="298"/>
     </row>
     <row r="112" spans="2:21" ht="20.25" customHeight="1">
       <c r="B112" s="218"/>
@@ -16471,10 +16474,10 @@
       <c r="N112" s="231"/>
       <c r="O112" s="216"/>
       <c r="P112" s="217"/>
-      <c r="R112" s="295"/>
-      <c r="S112" s="296"/>
-      <c r="T112" s="296"/>
-      <c r="U112" s="297"/>
+      <c r="R112" s="296"/>
+      <c r="S112" s="297"/>
+      <c r="T112" s="297"/>
+      <c r="U112" s="298"/>
     </row>
     <row r="113" spans="2:21" ht="20.25" customHeight="1">
       <c r="B113" s="218"/>
@@ -16492,10 +16495,10 @@
       <c r="N113" s="231"/>
       <c r="O113" s="216"/>
       <c r="P113" s="217"/>
-      <c r="R113" s="295"/>
-      <c r="S113" s="296"/>
-      <c r="T113" s="296"/>
-      <c r="U113" s="297"/>
+      <c r="R113" s="296"/>
+      <c r="S113" s="297"/>
+      <c r="T113" s="297"/>
+      <c r="U113" s="298"/>
     </row>
     <row r="114" spans="2:21" ht="20.25" customHeight="1">
       <c r="B114" s="218"/>
@@ -16513,10 +16516,10 @@
       <c r="N114" s="231"/>
       <c r="O114" s="216"/>
       <c r="P114" s="217"/>
-      <c r="R114" s="295"/>
-      <c r="S114" s="296"/>
-      <c r="T114" s="296"/>
-      <c r="U114" s="297"/>
+      <c r="R114" s="296"/>
+      <c r="S114" s="297"/>
+      <c r="T114" s="297"/>
+      <c r="U114" s="298"/>
     </row>
     <row r="115" spans="2:21" ht="20.25" customHeight="1">
       <c r="B115" s="218"/>
@@ -16534,10 +16537,10 @@
       <c r="N115" s="231"/>
       <c r="O115" s="216"/>
       <c r="P115" s="217"/>
-      <c r="R115" s="295"/>
-      <c r="S115" s="296"/>
-      <c r="T115" s="296"/>
-      <c r="U115" s="297"/>
+      <c r="R115" s="296"/>
+      <c r="S115" s="297"/>
+      <c r="T115" s="297"/>
+      <c r="U115" s="298"/>
     </row>
     <row r="116" spans="2:21" ht="20.25" customHeight="1">
       <c r="B116" s="218"/>
@@ -16555,10 +16558,10 @@
       <c r="N116" s="231"/>
       <c r="O116" s="216"/>
       <c r="P116" s="217"/>
-      <c r="R116" s="295"/>
-      <c r="S116" s="296"/>
-      <c r="T116" s="296"/>
-      <c r="U116" s="297"/>
+      <c r="R116" s="296"/>
+      <c r="S116" s="297"/>
+      <c r="T116" s="297"/>
+      <c r="U116" s="298"/>
     </row>
     <row r="117" spans="2:21" ht="20.25" customHeight="1">
       <c r="B117" s="218"/>
@@ -16576,10 +16579,10 @@
       <c r="N117" s="231"/>
       <c r="O117" s="216"/>
       <c r="P117" s="217"/>
-      <c r="R117" s="295"/>
-      <c r="S117" s="296"/>
-      <c r="T117" s="296"/>
-      <c r="U117" s="297"/>
+      <c r="R117" s="296"/>
+      <c r="S117" s="297"/>
+      <c r="T117" s="297"/>
+      <c r="U117" s="298"/>
     </row>
     <row r="118" spans="2:21" ht="20.25" customHeight="1">
       <c r="B118" s="218"/>
@@ -16597,10 +16600,10 @@
       <c r="N118" s="231"/>
       <c r="O118" s="216"/>
       <c r="P118" s="217"/>
-      <c r="R118" s="295"/>
-      <c r="S118" s="296"/>
-      <c r="T118" s="296"/>
-      <c r="U118" s="297"/>
+      <c r="R118" s="296"/>
+      <c r="S118" s="297"/>
+      <c r="T118" s="297"/>
+      <c r="U118" s="298"/>
     </row>
     <row r="119" spans="2:21" ht="20.25" customHeight="1">
       <c r="B119" s="218"/>
@@ -16618,10 +16621,10 @@
       <c r="N119" s="231"/>
       <c r="O119" s="216"/>
       <c r="P119" s="217"/>
-      <c r="R119" s="295"/>
-      <c r="S119" s="296"/>
-      <c r="T119" s="296"/>
-      <c r="U119" s="297"/>
+      <c r="R119" s="296"/>
+      <c r="S119" s="297"/>
+      <c r="T119" s="297"/>
+      <c r="U119" s="298"/>
     </row>
     <row r="120" spans="2:21" ht="20.25" customHeight="1">
       <c r="B120" s="218"/>
@@ -16639,10 +16642,10 @@
       <c r="N120" s="231"/>
       <c r="O120" s="216"/>
       <c r="P120" s="217"/>
-      <c r="R120" s="295"/>
-      <c r="S120" s="296"/>
-      <c r="T120" s="296"/>
-      <c r="U120" s="297"/>
+      <c r="R120" s="296"/>
+      <c r="S120" s="297"/>
+      <c r="T120" s="297"/>
+      <c r="U120" s="298"/>
     </row>
     <row r="121" spans="2:21" ht="20.25" customHeight="1">
       <c r="B121" s="218"/>
@@ -16660,10 +16663,10 @@
       <c r="N121" s="231"/>
       <c r="O121" s="216"/>
       <c r="P121" s="217"/>
-      <c r="R121" s="295"/>
-      <c r="S121" s="296"/>
-      <c r="T121" s="296"/>
-      <c r="U121" s="297"/>
+      <c r="R121" s="296"/>
+      <c r="S121" s="297"/>
+      <c r="T121" s="297"/>
+      <c r="U121" s="298"/>
     </row>
     <row r="122" spans="2:21" ht="20.25" customHeight="1">
       <c r="B122" s="218"/>
@@ -16681,10 +16684,10 @@
       <c r="N122" s="231"/>
       <c r="O122" s="216"/>
       <c r="P122" s="217"/>
-      <c r="R122" s="295"/>
-      <c r="S122" s="296"/>
-      <c r="T122" s="296"/>
-      <c r="U122" s="297"/>
+      <c r="R122" s="296"/>
+      <c r="S122" s="297"/>
+      <c r="T122" s="297"/>
+      <c r="U122" s="298"/>
     </row>
     <row r="123" spans="2:21" ht="20.25" customHeight="1">
       <c r="B123" s="218"/>
@@ -16702,10 +16705,10 @@
       <c r="N123" s="231"/>
       <c r="O123" s="216"/>
       <c r="P123" s="217"/>
-      <c r="R123" s="295"/>
-      <c r="S123" s="296"/>
-      <c r="T123" s="296"/>
-      <c r="U123" s="297"/>
+      <c r="R123" s="296"/>
+      <c r="S123" s="297"/>
+      <c r="T123" s="297"/>
+      <c r="U123" s="298"/>
     </row>
     <row r="124" spans="2:21" ht="20.25" customHeight="1">
       <c r="B124" s="218"/>
@@ -16723,10 +16726,10 @@
       <c r="N124" s="231"/>
       <c r="O124" s="216"/>
       <c r="P124" s="217"/>
-      <c r="R124" s="295"/>
-      <c r="S124" s="296"/>
-      <c r="T124" s="296"/>
-      <c r="U124" s="297"/>
+      <c r="R124" s="296"/>
+      <c r="S124" s="297"/>
+      <c r="T124" s="297"/>
+      <c r="U124" s="298"/>
     </row>
     <row r="125" spans="2:21" ht="20.25" customHeight="1">
       <c r="B125" s="218"/>
@@ -16744,10 +16747,10 @@
       <c r="N125" s="231"/>
       <c r="O125" s="216"/>
       <c r="P125" s="217"/>
-      <c r="R125" s="295"/>
-      <c r="S125" s="296"/>
-      <c r="T125" s="296"/>
-      <c r="U125" s="297"/>
+      <c r="R125" s="296"/>
+      <c r="S125" s="297"/>
+      <c r="T125" s="297"/>
+      <c r="U125" s="298"/>
     </row>
     <row r="126" spans="2:21" ht="20.25" customHeight="1">
       <c r="B126" s="218"/>
@@ -16765,10 +16768,10 @@
       <c r="N126" s="231"/>
       <c r="O126" s="216"/>
       <c r="P126" s="217"/>
-      <c r="R126" s="295"/>
-      <c r="S126" s="296"/>
-      <c r="T126" s="296"/>
-      <c r="U126" s="297"/>
+      <c r="R126" s="296"/>
+      <c r="S126" s="297"/>
+      <c r="T126" s="297"/>
+      <c r="U126" s="298"/>
     </row>
     <row r="127" spans="2:21" ht="20.25" customHeight="1">
       <c r="B127" s="218"/>
@@ -16786,10 +16789,10 @@
       <c r="N127" s="231"/>
       <c r="O127" s="216"/>
       <c r="P127" s="217"/>
-      <c r="R127" s="295"/>
-      <c r="S127" s="296"/>
-      <c r="T127" s="296"/>
-      <c r="U127" s="297"/>
+      <c r="R127" s="296"/>
+      <c r="S127" s="297"/>
+      <c r="T127" s="297"/>
+      <c r="U127" s="298"/>
     </row>
     <row r="128" spans="2:21" ht="20.25" customHeight="1">
       <c r="B128" s="218"/>
@@ -16807,10 +16810,10 @@
       <c r="N128" s="231"/>
       <c r="O128" s="216"/>
       <c r="P128" s="217"/>
-      <c r="R128" s="295"/>
-      <c r="S128" s="296"/>
-      <c r="T128" s="296"/>
-      <c r="U128" s="297"/>
+      <c r="R128" s="296"/>
+      <c r="S128" s="297"/>
+      <c r="T128" s="297"/>
+      <c r="U128" s="298"/>
     </row>
     <row r="129" spans="2:21" ht="20.25" customHeight="1">
       <c r="B129" s="218"/>
@@ -16828,10 +16831,10 @@
       <c r="N129" s="231"/>
       <c r="O129" s="216"/>
       <c r="P129" s="217"/>
-      <c r="R129" s="295"/>
-      <c r="S129" s="296"/>
-      <c r="T129" s="296"/>
-      <c r="U129" s="297"/>
+      <c r="R129" s="296"/>
+      <c r="S129" s="297"/>
+      <c r="T129" s="297"/>
+      <c r="U129" s="298"/>
     </row>
     <row r="130" spans="2:21" ht="20.25" customHeight="1">
       <c r="B130" s="218"/>
@@ -16849,10 +16852,10 @@
       <c r="N130" s="231"/>
       <c r="O130" s="216"/>
       <c r="P130" s="217"/>
-      <c r="R130" s="295"/>
-      <c r="S130" s="296"/>
-      <c r="T130" s="296"/>
-      <c r="U130" s="297"/>
+      <c r="R130" s="296"/>
+      <c r="S130" s="297"/>
+      <c r="T130" s="297"/>
+      <c r="U130" s="298"/>
     </row>
     <row r="131" spans="2:21" ht="20.25" customHeight="1">
       <c r="B131" s="218"/>
@@ -16870,10 +16873,10 @@
       <c r="N131" s="231"/>
       <c r="O131" s="216"/>
       <c r="P131" s="217"/>
-      <c r="R131" s="295"/>
-      <c r="S131" s="296"/>
-      <c r="T131" s="296"/>
-      <c r="U131" s="297"/>
+      <c r="R131" s="296"/>
+      <c r="S131" s="297"/>
+      <c r="T131" s="297"/>
+      <c r="U131" s="298"/>
     </row>
     <row r="132" spans="2:21" ht="20.25" customHeight="1">
       <c r="B132" s="218"/>
@@ -16891,10 +16894,10 @@
       <c r="N132" s="231"/>
       <c r="O132" s="216"/>
       <c r="P132" s="217"/>
-      <c r="R132" s="295"/>
-      <c r="S132" s="296"/>
-      <c r="T132" s="296"/>
-      <c r="U132" s="297"/>
+      <c r="R132" s="296"/>
+      <c r="S132" s="297"/>
+      <c r="T132" s="297"/>
+      <c r="U132" s="298"/>
     </row>
     <row r="133" spans="2:21" ht="20.25" customHeight="1">
       <c r="B133" s="218"/>
@@ -16912,10 +16915,10 @@
       <c r="N133" s="231"/>
       <c r="O133" s="216"/>
       <c r="P133" s="217"/>
-      <c r="R133" s="295"/>
-      <c r="S133" s="296"/>
-      <c r="T133" s="296"/>
-      <c r="U133" s="297"/>
+      <c r="R133" s="296"/>
+      <c r="S133" s="297"/>
+      <c r="T133" s="297"/>
+      <c r="U133" s="298"/>
     </row>
     <row r="134" spans="2:21" ht="20.25" customHeight="1">
       <c r="B134" s="218"/>
@@ -16933,10 +16936,10 @@
       <c r="N134" s="231"/>
       <c r="O134" s="216"/>
       <c r="P134" s="217"/>
-      <c r="R134" s="295"/>
-      <c r="S134" s="296"/>
-      <c r="T134" s="296"/>
-      <c r="U134" s="297"/>
+      <c r="R134" s="296"/>
+      <c r="S134" s="297"/>
+      <c r="T134" s="297"/>
+      <c r="U134" s="298"/>
     </row>
     <row r="135" spans="2:21" ht="20.25" customHeight="1">
       <c r="B135" s="218"/>
@@ -16954,10 +16957,10 @@
       <c r="N135" s="231"/>
       <c r="O135" s="216"/>
       <c r="P135" s="217"/>
-      <c r="R135" s="295"/>
-      <c r="S135" s="296"/>
-      <c r="T135" s="296"/>
-      <c r="U135" s="297"/>
+      <c r="R135" s="296"/>
+      <c r="S135" s="297"/>
+      <c r="T135" s="297"/>
+      <c r="U135" s="298"/>
     </row>
     <row r="136" spans="2:21" ht="20.25" customHeight="1">
       <c r="B136" s="218"/>
@@ -16975,10 +16978,10 @@
       <c r="N136" s="231"/>
       <c r="O136" s="216"/>
       <c r="P136" s="217"/>
-      <c r="R136" s="295"/>
-      <c r="S136" s="296"/>
-      <c r="T136" s="296"/>
-      <c r="U136" s="297"/>
+      <c r="R136" s="296"/>
+      <c r="S136" s="297"/>
+      <c r="T136" s="297"/>
+      <c r="U136" s="298"/>
     </row>
     <row r="137" spans="2:21" ht="20.25" customHeight="1">
       <c r="B137" s="218"/>
@@ -16996,10 +16999,10 @@
       <c r="N137" s="231"/>
       <c r="O137" s="216"/>
       <c r="P137" s="217"/>
-      <c r="R137" s="295"/>
-      <c r="S137" s="296"/>
-      <c r="T137" s="296"/>
-      <c r="U137" s="297"/>
+      <c r="R137" s="296"/>
+      <c r="S137" s="297"/>
+      <c r="T137" s="297"/>
+      <c r="U137" s="298"/>
     </row>
     <row r="138" spans="2:21" ht="20.25" customHeight="1">
       <c r="B138" s="218"/>
@@ -17017,10 +17020,10 @@
       <c r="N138" s="231"/>
       <c r="O138" s="216"/>
       <c r="P138" s="217"/>
-      <c r="R138" s="295"/>
-      <c r="S138" s="296"/>
-      <c r="T138" s="296"/>
-      <c r="U138" s="297"/>
+      <c r="R138" s="296"/>
+      <c r="S138" s="297"/>
+      <c r="T138" s="297"/>
+      <c r="U138" s="298"/>
     </row>
     <row r="139" spans="2:21" ht="20.25" customHeight="1">
       <c r="B139" s="218"/>
@@ -17038,10 +17041,10 @@
       <c r="N139" s="231"/>
       <c r="O139" s="216"/>
       <c r="P139" s="217"/>
-      <c r="R139" s="295"/>
-      <c r="S139" s="296"/>
-      <c r="T139" s="296"/>
-      <c r="U139" s="297"/>
+      <c r="R139" s="296"/>
+      <c r="S139" s="297"/>
+      <c r="T139" s="297"/>
+      <c r="U139" s="298"/>
     </row>
     <row r="140" spans="2:21" ht="20.25" customHeight="1">
       <c r="B140" s="218"/>
@@ -17059,10 +17062,10 @@
       <c r="N140" s="231"/>
       <c r="O140" s="216"/>
       <c r="P140" s="217"/>
-      <c r="R140" s="295"/>
-      <c r="S140" s="296"/>
-      <c r="T140" s="296"/>
-      <c r="U140" s="297"/>
+      <c r="R140" s="296"/>
+      <c r="S140" s="297"/>
+      <c r="T140" s="297"/>
+      <c r="U140" s="298"/>
     </row>
     <row r="141" spans="2:21" ht="20.25" customHeight="1">
       <c r="B141" s="218"/>
@@ -17080,10 +17083,10 @@
       <c r="N141" s="231"/>
       <c r="O141" s="216"/>
       <c r="P141" s="217"/>
-      <c r="R141" s="295"/>
-      <c r="S141" s="296"/>
-      <c r="T141" s="296"/>
-      <c r="U141" s="297"/>
+      <c r="R141" s="296"/>
+      <c r="S141" s="297"/>
+      <c r="T141" s="297"/>
+      <c r="U141" s="298"/>
     </row>
     <row r="142" spans="2:21" ht="20.25" customHeight="1">
       <c r="B142" s="218"/>
@@ -17101,10 +17104,10 @@
       <c r="N142" s="231"/>
       <c r="O142" s="216"/>
       <c r="P142" s="217"/>
-      <c r="R142" s="295"/>
-      <c r="S142" s="296"/>
-      <c r="T142" s="296"/>
-      <c r="U142" s="297"/>
+      <c r="R142" s="296"/>
+      <c r="S142" s="297"/>
+      <c r="T142" s="297"/>
+      <c r="U142" s="298"/>
     </row>
     <row r="143" spans="2:21" ht="20.25" customHeight="1">
       <c r="B143" s="218"/>
@@ -17122,10 +17125,10 @@
       <c r="N143" s="231"/>
       <c r="O143" s="216"/>
       <c r="P143" s="217"/>
-      <c r="R143" s="295"/>
-      <c r="S143" s="296"/>
-      <c r="T143" s="296"/>
-      <c r="U143" s="297"/>
+      <c r="R143" s="296"/>
+      <c r="S143" s="297"/>
+      <c r="T143" s="297"/>
+      <c r="U143" s="298"/>
     </row>
     <row r="144" spans="2:21" ht="20.25" customHeight="1">
       <c r="B144" s="218"/>
@@ -17143,10 +17146,10 @@
       <c r="N144" s="231"/>
       <c r="O144" s="216"/>
       <c r="P144" s="217"/>
-      <c r="R144" s="295"/>
-      <c r="S144" s="296"/>
-      <c r="T144" s="296"/>
-      <c r="U144" s="297"/>
+      <c r="R144" s="296"/>
+      <c r="S144" s="297"/>
+      <c r="T144" s="297"/>
+      <c r="U144" s="298"/>
     </row>
     <row r="145" spans="2:21" ht="20.25" customHeight="1">
       <c r="B145" s="218"/>
@@ -17164,10 +17167,10 @@
       <c r="N145" s="231"/>
       <c r="O145" s="216"/>
       <c r="P145" s="217"/>
-      <c r="R145" s="295"/>
-      <c r="S145" s="296"/>
-      <c r="T145" s="296"/>
-      <c r="U145" s="297"/>
+      <c r="R145" s="296"/>
+      <c r="S145" s="297"/>
+      <c r="T145" s="297"/>
+      <c r="U145" s="298"/>
     </row>
     <row r="146" spans="2:21" ht="20.25" customHeight="1">
       <c r="B146" s="218"/>
@@ -17185,10 +17188,10 @@
       <c r="N146" s="231"/>
       <c r="O146" s="216"/>
       <c r="P146" s="217"/>
-      <c r="R146" s="295"/>
-      <c r="S146" s="296"/>
-      <c r="T146" s="296"/>
-      <c r="U146" s="297"/>
+      <c r="R146" s="296"/>
+      <c r="S146" s="297"/>
+      <c r="T146" s="297"/>
+      <c r="U146" s="298"/>
     </row>
     <row r="147" spans="2:21" ht="20.25" customHeight="1">
       <c r="B147" s="218"/>
@@ -17206,10 +17209,10 @@
       <c r="N147" s="231"/>
       <c r="O147" s="216"/>
       <c r="P147" s="217"/>
-      <c r="R147" s="295"/>
-      <c r="S147" s="296"/>
-      <c r="T147" s="296"/>
-      <c r="U147" s="297"/>
+      <c r="R147" s="296"/>
+      <c r="S147" s="297"/>
+      <c r="T147" s="297"/>
+      <c r="U147" s="298"/>
     </row>
     <row r="148" spans="2:21" ht="20.25" customHeight="1">
       <c r="B148" s="218"/>
@@ -17227,10 +17230,10 @@
       <c r="N148" s="231"/>
       <c r="O148" s="216"/>
       <c r="P148" s="217"/>
-      <c r="R148" s="295"/>
-      <c r="S148" s="296"/>
-      <c r="T148" s="296"/>
-      <c r="U148" s="297"/>
+      <c r="R148" s="296"/>
+      <c r="S148" s="297"/>
+      <c r="T148" s="297"/>
+      <c r="U148" s="298"/>
     </row>
     <row r="149" spans="2:21" ht="20.25" customHeight="1">
       <c r="B149" s="218"/>
@@ -17248,10 +17251,10 @@
       <c r="N149" s="231"/>
       <c r="O149" s="216"/>
       <c r="P149" s="217"/>
-      <c r="R149" s="295"/>
-      <c r="S149" s="296"/>
-      <c r="T149" s="296"/>
-      <c r="U149" s="297"/>
+      <c r="R149" s="296"/>
+      <c r="S149" s="297"/>
+      <c r="T149" s="297"/>
+      <c r="U149" s="298"/>
     </row>
     <row r="150" spans="2:21" ht="20.25" customHeight="1">
       <c r="B150" s="218"/>
@@ -17269,10 +17272,10 @@
       <c r="N150" s="231"/>
       <c r="O150" s="216"/>
       <c r="P150" s="217"/>
-      <c r="R150" s="295"/>
-      <c r="S150" s="296"/>
-      <c r="T150" s="296"/>
-      <c r="U150" s="297"/>
+      <c r="R150" s="296"/>
+      <c r="S150" s="297"/>
+      <c r="T150" s="297"/>
+      <c r="U150" s="298"/>
     </row>
     <row r="151" spans="2:21" ht="20.25" customHeight="1">
       <c r="B151" s="218"/>
@@ -17290,10 +17293,10 @@
       <c r="N151" s="231"/>
       <c r="O151" s="216"/>
       <c r="P151" s="217"/>
-      <c r="R151" s="295"/>
-      <c r="S151" s="296"/>
-      <c r="T151" s="296"/>
-      <c r="U151" s="297"/>
+      <c r="R151" s="296"/>
+      <c r="S151" s="297"/>
+      <c r="T151" s="297"/>
+      <c r="U151" s="298"/>
     </row>
     <row r="152" spans="2:21" ht="20.25" customHeight="1">
       <c r="B152" s="218"/>
@@ -17311,10 +17314,10 @@
       <c r="N152" s="231"/>
       <c r="O152" s="216"/>
       <c r="P152" s="217"/>
-      <c r="R152" s="295"/>
-      <c r="S152" s="296"/>
-      <c r="T152" s="296"/>
-      <c r="U152" s="297"/>
+      <c r="R152" s="296"/>
+      <c r="S152" s="297"/>
+      <c r="T152" s="297"/>
+      <c r="U152" s="298"/>
     </row>
     <row r="153" spans="2:21" ht="20.25" customHeight="1">
       <c r="B153" s="218"/>
@@ -17332,10 +17335,10 @@
       <c r="N153" s="231"/>
       <c r="O153" s="216"/>
       <c r="P153" s="217"/>
-      <c r="R153" s="295"/>
-      <c r="S153" s="296"/>
-      <c r="T153" s="296"/>
-      <c r="U153" s="297"/>
+      <c r="R153" s="296"/>
+      <c r="S153" s="297"/>
+      <c r="T153" s="297"/>
+      <c r="U153" s="298"/>
     </row>
     <row r="154" spans="2:21" ht="20.25" customHeight="1">
       <c r="B154" s="218"/>
@@ -17353,10 +17356,10 @@
       <c r="N154" s="231"/>
       <c r="O154" s="216"/>
       <c r="P154" s="217"/>
-      <c r="R154" s="295"/>
-      <c r="S154" s="296"/>
-      <c r="T154" s="296"/>
-      <c r="U154" s="297"/>
+      <c r="R154" s="296"/>
+      <c r="S154" s="297"/>
+      <c r="T154" s="297"/>
+      <c r="U154" s="298"/>
     </row>
     <row r="155" spans="2:21" ht="20.25" customHeight="1">
       <c r="B155" s="218"/>
@@ -17374,10 +17377,10 @@
       <c r="N155" s="231"/>
       <c r="O155" s="216"/>
       <c r="P155" s="217"/>
-      <c r="R155" s="295"/>
-      <c r="S155" s="296"/>
-      <c r="T155" s="296"/>
-      <c r="U155" s="297"/>
+      <c r="R155" s="296"/>
+      <c r="S155" s="297"/>
+      <c r="T155" s="297"/>
+      <c r="U155" s="298"/>
     </row>
     <row r="156" spans="2:21" ht="20.25" customHeight="1">
       <c r="B156" s="218"/>
@@ -17395,10 +17398,10 @@
       <c r="N156" s="231"/>
       <c r="O156" s="216"/>
       <c r="P156" s="217"/>
-      <c r="R156" s="295"/>
-      <c r="S156" s="296"/>
-      <c r="T156" s="296"/>
-      <c r="U156" s="297"/>
+      <c r="R156" s="296"/>
+      <c r="S156" s="297"/>
+      <c r="T156" s="297"/>
+      <c r="U156" s="298"/>
     </row>
     <row r="157" spans="2:21" ht="20.25" customHeight="1">
       <c r="B157" s="218"/>
@@ -17416,10 +17419,10 @@
       <c r="N157" s="231"/>
       <c r="O157" s="216"/>
       <c r="P157" s="217"/>
-      <c r="R157" s="295"/>
-      <c r="S157" s="296"/>
-      <c r="T157" s="296"/>
-      <c r="U157" s="297"/>
+      <c r="R157" s="296"/>
+      <c r="S157" s="297"/>
+      <c r="T157" s="297"/>
+      <c r="U157" s="298"/>
     </row>
     <row r="158" spans="2:21" ht="20.25" customHeight="1">
       <c r="B158" s="218"/>
@@ -17437,10 +17440,10 @@
       <c r="N158" s="231"/>
       <c r="O158" s="216"/>
       <c r="P158" s="217"/>
-      <c r="R158" s="295"/>
-      <c r="S158" s="296"/>
-      <c r="T158" s="296"/>
-      <c r="U158" s="297"/>
+      <c r="R158" s="296"/>
+      <c r="S158" s="297"/>
+      <c r="T158" s="297"/>
+      <c r="U158" s="298"/>
     </row>
     <row r="159" spans="2:21" ht="20.25" customHeight="1">
       <c r="B159" s="218"/>
@@ -17458,10 +17461,10 @@
       <c r="N159" s="231"/>
       <c r="O159" s="216"/>
       <c r="P159" s="217"/>
-      <c r="R159" s="295"/>
-      <c r="S159" s="296"/>
-      <c r="T159" s="296"/>
-      <c r="U159" s="297"/>
+      <c r="R159" s="296"/>
+      <c r="S159" s="297"/>
+      <c r="T159" s="297"/>
+      <c r="U159" s="298"/>
     </row>
     <row r="160" spans="2:21" ht="20.25" customHeight="1">
       <c r="B160" s="218"/>
@@ -17479,10 +17482,10 @@
       <c r="N160" s="231"/>
       <c r="O160" s="216"/>
       <c r="P160" s="217"/>
-      <c r="R160" s="295"/>
-      <c r="S160" s="296"/>
-      <c r="T160" s="296"/>
-      <c r="U160" s="297"/>
+      <c r="R160" s="296"/>
+      <c r="S160" s="297"/>
+      <c r="T160" s="297"/>
+      <c r="U160" s="298"/>
     </row>
     <row r="161" spans="2:21" ht="20.25" customHeight="1">
       <c r="B161" s="218"/>
@@ -17500,10 +17503,10 @@
       <c r="N161" s="231"/>
       <c r="O161" s="216"/>
       <c r="P161" s="217"/>
-      <c r="R161" s="295"/>
-      <c r="S161" s="296"/>
-      <c r="T161" s="296"/>
-      <c r="U161" s="297"/>
+      <c r="R161" s="296"/>
+      <c r="S161" s="297"/>
+      <c r="T161" s="297"/>
+      <c r="U161" s="298"/>
     </row>
     <row r="162" spans="2:21" ht="20.25" customHeight="1">
       <c r="B162" s="218"/>
@@ -17521,10 +17524,10 @@
       <c r="N162" s="231"/>
       <c r="O162" s="216"/>
       <c r="P162" s="217"/>
-      <c r="R162" s="295"/>
-      <c r="S162" s="296"/>
-      <c r="T162" s="296"/>
-      <c r="U162" s="297"/>
+      <c r="R162" s="296"/>
+      <c r="S162" s="297"/>
+      <c r="T162" s="297"/>
+      <c r="U162" s="298"/>
     </row>
     <row r="163" spans="2:21" ht="20.25" customHeight="1">
       <c r="B163" s="218"/>
@@ -17542,10 +17545,10 @@
       <c r="N163" s="231"/>
       <c r="O163" s="216"/>
       <c r="P163" s="217"/>
-      <c r="R163" s="295"/>
-      <c r="S163" s="296"/>
-      <c r="T163" s="296"/>
-      <c r="U163" s="297"/>
+      <c r="R163" s="296"/>
+      <c r="S163" s="297"/>
+      <c r="T163" s="297"/>
+      <c r="U163" s="298"/>
     </row>
     <row r="164" spans="2:21" ht="20.25" customHeight="1">
       <c r="B164" s="218"/>
@@ -17563,10 +17566,10 @@
       <c r="N164" s="231"/>
       <c r="O164" s="216"/>
       <c r="P164" s="217"/>
-      <c r="R164" s="295"/>
-      <c r="S164" s="296"/>
-      <c r="T164" s="296"/>
-      <c r="U164" s="297"/>
+      <c r="R164" s="296"/>
+      <c r="S164" s="297"/>
+      <c r="T164" s="297"/>
+      <c r="U164" s="298"/>
     </row>
     <row r="165" spans="2:21" ht="20.25" customHeight="1">
       <c r="B165" s="218"/>
@@ -17584,10 +17587,10 @@
       <c r="N165" s="231"/>
       <c r="O165" s="216"/>
       <c r="P165" s="217"/>
-      <c r="R165" s="295"/>
-      <c r="S165" s="296"/>
-      <c r="T165" s="296"/>
-      <c r="U165" s="297"/>
+      <c r="R165" s="296"/>
+      <c r="S165" s="297"/>
+      <c r="T165" s="297"/>
+      <c r="U165" s="298"/>
     </row>
     <row r="166" spans="2:21" ht="20.25" customHeight="1">
       <c r="B166" s="218"/>
@@ -17605,10 +17608,10 @@
       <c r="N166" s="231"/>
       <c r="O166" s="216"/>
       <c r="P166" s="217"/>
-      <c r="R166" s="295"/>
-      <c r="S166" s="296"/>
-      <c r="T166" s="296"/>
-      <c r="U166" s="297"/>
+      <c r="R166" s="296"/>
+      <c r="S166" s="297"/>
+      <c r="T166" s="297"/>
+      <c r="U166" s="298"/>
     </row>
     <row r="167" spans="2:21" ht="20.25" customHeight="1">
       <c r="B167" s="218"/>
@@ -17626,10 +17629,10 @@
       <c r="N167" s="231"/>
       <c r="O167" s="216"/>
       <c r="P167" s="217"/>
-      <c r="R167" s="295"/>
-      <c r="S167" s="296"/>
-      <c r="T167" s="296"/>
-      <c r="U167" s="297"/>
+      <c r="R167" s="296"/>
+      <c r="S167" s="297"/>
+      <c r="T167" s="297"/>
+      <c r="U167" s="298"/>
     </row>
     <row r="168" spans="2:21" ht="20.25" customHeight="1">
       <c r="B168" s="218"/>
@@ -17647,10 +17650,10 @@
       <c r="N168" s="231"/>
       <c r="O168" s="216"/>
       <c r="P168" s="217"/>
-      <c r="R168" s="295"/>
-      <c r="S168" s="296"/>
-      <c r="T168" s="296"/>
-      <c r="U168" s="297"/>
+      <c r="R168" s="296"/>
+      <c r="S168" s="297"/>
+      <c r="T168" s="297"/>
+      <c r="U168" s="298"/>
     </row>
     <row r="169" spans="2:21" ht="20.25" customHeight="1">
       <c r="B169" s="218"/>
@@ -17668,10 +17671,10 @@
       <c r="N169" s="231"/>
       <c r="O169" s="216"/>
       <c r="P169" s="217"/>
-      <c r="R169" s="295"/>
-      <c r="S169" s="296"/>
-      <c r="T169" s="296"/>
-      <c r="U169" s="297"/>
+      <c r="R169" s="296"/>
+      <c r="S169" s="297"/>
+      <c r="T169" s="297"/>
+      <c r="U169" s="298"/>
     </row>
     <row r="170" spans="2:21" ht="20.25" customHeight="1">
       <c r="B170" s="218"/>
@@ -17689,10 +17692,10 @@
       <c r="N170" s="231"/>
       <c r="O170" s="216"/>
       <c r="P170" s="217"/>
-      <c r="R170" s="295"/>
-      <c r="S170" s="296"/>
-      <c r="T170" s="296"/>
-      <c r="U170" s="297"/>
+      <c r="R170" s="296"/>
+      <c r="S170" s="297"/>
+      <c r="T170" s="297"/>
+      <c r="U170" s="298"/>
     </row>
     <row r="171" spans="2:21" ht="20.25" customHeight="1">
       <c r="B171" s="218"/>
@@ -17710,10 +17713,10 @@
       <c r="N171" s="231"/>
       <c r="O171" s="216"/>
       <c r="P171" s="217"/>
-      <c r="R171" s="295"/>
-      <c r="S171" s="296"/>
-      <c r="T171" s="296"/>
-      <c r="U171" s="297"/>
+      <c r="R171" s="296"/>
+      <c r="S171" s="297"/>
+      <c r="T171" s="297"/>
+      <c r="U171" s="298"/>
     </row>
     <row r="172" spans="2:21" ht="20.25" customHeight="1">
       <c r="B172" s="218"/>
@@ -17731,10 +17734,10 @@
       <c r="N172" s="231"/>
       <c r="O172" s="216"/>
       <c r="P172" s="217"/>
-      <c r="R172" s="295"/>
-      <c r="S172" s="296"/>
-      <c r="T172" s="296"/>
-      <c r="U172" s="297"/>
+      <c r="R172" s="296"/>
+      <c r="S172" s="297"/>
+      <c r="T172" s="297"/>
+      <c r="U172" s="298"/>
     </row>
     <row r="173" spans="2:21" ht="20.25" customHeight="1">
       <c r="B173" s="218"/>
@@ -17752,10 +17755,10 @@
       <c r="N173" s="219"/>
       <c r="O173" s="218"/>
       <c r="P173" s="221"/>
-      <c r="R173" s="295"/>
-      <c r="S173" s="296"/>
-      <c r="T173" s="296"/>
-      <c r="U173" s="297"/>
+      <c r="R173" s="296"/>
+      <c r="S173" s="297"/>
+      <c r="T173" s="297"/>
+      <c r="U173" s="298"/>
     </row>
     <row r="174" spans="2:21" ht="20.25" customHeight="1">
       <c r="B174" s="218"/>
@@ -17773,10 +17776,10 @@
       <c r="N174" s="222"/>
       <c r="O174" s="218"/>
       <c r="P174" s="221"/>
-      <c r="R174" s="295"/>
-      <c r="S174" s="296"/>
-      <c r="T174" s="296"/>
-      <c r="U174" s="297"/>
+      <c r="R174" s="296"/>
+      <c r="S174" s="297"/>
+      <c r="T174" s="297"/>
+      <c r="U174" s="298"/>
     </row>
     <row r="175" spans="2:21" ht="20.25" customHeight="1">
       <c r="B175" s="218"/>
@@ -17794,10 +17797,10 @@
       <c r="N175" s="222"/>
       <c r="O175" s="218"/>
       <c r="P175" s="221"/>
-      <c r="R175" s="295"/>
-      <c r="S175" s="296"/>
-      <c r="T175" s="296"/>
-      <c r="U175" s="297"/>
+      <c r="R175" s="296"/>
+      <c r="S175" s="297"/>
+      <c r="T175" s="297"/>
+      <c r="U175" s="298"/>
     </row>
     <row r="176" spans="2:21" ht="20.25" customHeight="1">
       <c r="B176" s="218"/>
@@ -17815,10 +17818,10 @@
       <c r="N176" s="219"/>
       <c r="O176" s="223"/>
       <c r="P176" s="224"/>
-      <c r="R176" s="295"/>
-      <c r="S176" s="296"/>
-      <c r="T176" s="296"/>
-      <c r="U176" s="297"/>
+      <c r="R176" s="296"/>
+      <c r="S176" s="297"/>
+      <c r="T176" s="297"/>
+      <c r="U176" s="298"/>
     </row>
     <row r="177" spans="2:21" ht="20.25" customHeight="1">
       <c r="B177" s="218"/>
@@ -17836,10 +17839,10 @@
       <c r="N177" s="222"/>
       <c r="O177" s="223"/>
       <c r="P177" s="224"/>
-      <c r="R177" s="295"/>
-      <c r="S177" s="296"/>
-      <c r="T177" s="296"/>
-      <c r="U177" s="297"/>
+      <c r="R177" s="296"/>
+      <c r="S177" s="297"/>
+      <c r="T177" s="297"/>
+      <c r="U177" s="298"/>
     </row>
     <row r="178" spans="2:21" ht="20.25" customHeight="1">
       <c r="B178" s="229"/>
@@ -17857,10 +17860,10 @@
       <c r="N178" s="222"/>
       <c r="O178" s="223"/>
       <c r="P178" s="224"/>
-      <c r="R178" s="295"/>
-      <c r="S178" s="296"/>
-      <c r="T178" s="296"/>
-      <c r="U178" s="297"/>
+      <c r="R178" s="296"/>
+      <c r="S178" s="297"/>
+      <c r="T178" s="297"/>
+      <c r="U178" s="298"/>
     </row>
     <row r="179" spans="2:21" ht="20.25" customHeight="1">
       <c r="B179" s="218"/>
@@ -17878,10 +17881,10 @@
       <c r="N179" s="219"/>
       <c r="O179" s="223"/>
       <c r="P179" s="224"/>
-      <c r="R179" s="295"/>
-      <c r="S179" s="296"/>
-      <c r="T179" s="296"/>
-      <c r="U179" s="297"/>
+      <c r="R179" s="296"/>
+      <c r="S179" s="297"/>
+      <c r="T179" s="297"/>
+      <c r="U179" s="298"/>
     </row>
     <row r="180" spans="2:21" ht="20.25" customHeight="1">
       <c r="B180" s="218"/>
@@ -17899,10 +17902,10 @@
       <c r="N180" s="222"/>
       <c r="O180" s="223"/>
       <c r="P180" s="224"/>
-      <c r="R180" s="295"/>
-      <c r="S180" s="296"/>
-      <c r="T180" s="296"/>
-      <c r="U180" s="297"/>
+      <c r="R180" s="296"/>
+      <c r="S180" s="297"/>
+      <c r="T180" s="297"/>
+      <c r="U180" s="298"/>
     </row>
     <row r="181" spans="2:21" ht="20.25" customHeight="1">
       <c r="B181" s="218"/>
@@ -17920,10 +17923,10 @@
       <c r="N181" s="222"/>
       <c r="O181" s="223"/>
       <c r="P181" s="224"/>
-      <c r="R181" s="295"/>
-      <c r="S181" s="296"/>
-      <c r="T181" s="296"/>
-      <c r="U181" s="297"/>
+      <c r="R181" s="296"/>
+      <c r="S181" s="297"/>
+      <c r="T181" s="297"/>
+      <c r="U181" s="298"/>
     </row>
     <row r="182" spans="2:21" ht="20.25" customHeight="1">
       <c r="B182" s="218"/>
@@ -17941,10 +17944,10 @@
       <c r="N182" s="219"/>
       <c r="O182" s="223"/>
       <c r="P182" s="224"/>
-      <c r="R182" s="295"/>
-      <c r="S182" s="296"/>
-      <c r="T182" s="296"/>
-      <c r="U182" s="297"/>
+      <c r="R182" s="296"/>
+      <c r="S182" s="297"/>
+      <c r="T182" s="297"/>
+      <c r="U182" s="298"/>
     </row>
     <row r="183" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
       <c r="B183" s="225"/>
@@ -17962,10 +17965,10 @@
       <c r="N183" s="230"/>
       <c r="O183" s="226"/>
       <c r="P183" s="228"/>
-      <c r="R183" s="298"/>
-      <c r="S183" s="299"/>
-      <c r="T183" s="299"/>
-      <c r="U183" s="300"/>
+      <c r="R183" s="299"/>
+      <c r="S183" s="300"/>
+      <c r="T183" s="300"/>
+      <c r="U183" s="301"/>
     </row>
     <row r="184" spans="2:21" ht="15.75" customHeight="1">
       <c r="B184" s="186"/>
